--- a/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
+++ b/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Documents\Comprehensive\Approach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shweta.COMPRO\Your team Dropbox\Shweta Singh\Accounting Courseware\Documents\Comprehensive\Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0272965-2201-47A7-A085-F44688DAEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compro Comp Problem 1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -325,9 +327,6 @@
     <t>STS' truck expenses are $145 and it pays all of these in cash.</t>
   </si>
   <si>
-    <t>STS receives a check from Carolina Corp. for $450 for the 6/9 invoice.</t>
-  </si>
-  <si>
     <t>TRANSACTIONS TO JOURNALIZE - JUNE</t>
   </si>
   <si>
@@ -399,11 +398,34 @@
   <si>
     <t>INSTRUCTIONS - JULY</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STS receives a check from Carolina Corp. for $450 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for the 6/9 invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
@@ -1515,6 +1537,26 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1523,176 +1565,156 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2003,11 +2025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2119,7 @@
     </row>
     <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="8"/>
@@ -2181,7 +2203,7 @@
     </row>
     <row r="4" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="8"/>
@@ -2306,13 +2328,13 @@
       <c r="B7" s="173"/>
       <c r="C7" s="173"/>
       <c r="D7" s="176" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="173"/>
       <c r="J7" s="173"/>
@@ -2366,7 +2388,7 @@
       <c r="F8" s="173"/>
       <c r="G8" s="173"/>
       <c r="H8" s="175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="173"/>
       <c r="J8" s="173"/>
@@ -2420,7 +2442,7 @@
       <c r="F9" s="173"/>
       <c r="G9" s="173"/>
       <c r="H9" s="175" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="173"/>
       <c r="J9" s="173"/>
@@ -2468,13 +2490,13 @@
       <c r="B10" s="173"/>
       <c r="C10" s="173"/>
       <c r="D10" s="175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="173"/>
       <c r="F10" s="173"/>
       <c r="G10" s="173"/>
       <c r="H10" s="175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="173"/>
       <c r="J10" s="173"/>
@@ -2522,13 +2544,13 @@
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
       <c r="D11" s="175" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="173"/>
       <c r="F11" s="173"/>
       <c r="G11" s="173"/>
       <c r="H11" s="175" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" s="173"/>
       <c r="J11" s="173"/>
@@ -2576,13 +2598,13 @@
       <c r="B12" s="173"/>
       <c r="C12" s="173"/>
       <c r="D12" s="175" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="173"/>
       <c r="F12" s="173"/>
       <c r="G12" s="173"/>
       <c r="H12" s="175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="173"/>
       <c r="J12" s="173"/>
@@ -2630,13 +2652,13 @@
       <c r="B13" s="173"/>
       <c r="C13" s="173"/>
       <c r="D13" s="175" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="173"/>
       <c r="F13" s="173"/>
       <c r="G13" s="173"/>
       <c r="H13" s="175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="173"/>
       <c r="J13" s="173"/>
@@ -2745,84 +2767,84 @@
     <row r="16" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="130"/>
       <c r="D16" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="193" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="177" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="193" t="s">
+      <c r="S16" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="193" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="193"/>
-      <c r="AF16" s="193"/>
-      <c r="AG16" s="193"/>
-      <c r="AH16" s="193"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="193" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL16" s="193"/>
-      <c r="AM16" s="193"/>
-      <c r="AN16" s="193"/>
-      <c r="AO16" s="193"/>
-      <c r="AP16" s="193"/>
-      <c r="AQ16" s="193"/>
+      <c r="AK16" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="177"/>
+      <c r="AQ16" s="177"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="193" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU16" s="193"/>
-      <c r="AV16" s="193"/>
-      <c r="AW16" s="193"/>
-      <c r="AX16" s="193"/>
-      <c r="AY16" s="193"/>
-      <c r="AZ16" s="193"/>
+      <c r="AT16" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU16" s="177"/>
+      <c r="AV16" s="177"/>
+      <c r="AW16" s="177"/>
+      <c r="AX16" s="177"/>
+      <c r="AY16" s="177"/>
+      <c r="AZ16" s="177"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="193" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD16" s="193"/>
-      <c r="BE16" s="193"/>
-      <c r="BF16" s="193"/>
-      <c r="BG16" s="193"/>
-      <c r="BH16" s="193"/>
-      <c r="BI16" s="193"/>
+      <c r="BC16" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD16" s="177"/>
+      <c r="BE16" s="177"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="177"/>
+      <c r="BI16" s="177"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL16" s="193"/>
-      <c r="BM16" s="193"/>
-      <c r="BN16" s="193"/>
-      <c r="BO16" s="193"/>
-      <c r="BP16" s="193"/>
-      <c r="BQ16" s="193"/>
+      <c r="BK16" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL16" s="177"/>
+      <c r="BM16" s="177"/>
+      <c r="BN16" s="177"/>
+      <c r="BO16" s="177"/>
+      <c r="BP16" s="177"/>
+      <c r="BQ16" s="177"/>
     </row>
     <row r="17" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="170">
@@ -2859,69 +2881,69 @@
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="203" t="s">
+      <c r="S17" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="204"/>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
       <c r="AA17" s="168"/>
-      <c r="AB17" s="203" t="s">
+      <c r="AB17" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="204"/>
-      <c r="AD17" s="204"/>
-      <c r="AE17" s="204"/>
-      <c r="AF17" s="204"/>
-      <c r="AG17" s="204"/>
-      <c r="AH17" s="204"/>
-      <c r="AI17" s="204"/>
+      <c r="AC17" s="179"/>
+      <c r="AD17" s="179"/>
+      <c r="AE17" s="179"/>
+      <c r="AF17" s="179"/>
+      <c r="AG17" s="179"/>
+      <c r="AH17" s="179"/>
+      <c r="AI17" s="179"/>
       <c r="AJ17" s="168"/>
-      <c r="AK17" s="190" t="s">
+      <c r="AK17" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="AL17" s="190"/>
-      <c r="AM17" s="190"/>
-      <c r="AN17" s="190"/>
-      <c r="AO17" s="190"/>
-      <c r="AP17" s="190"/>
-      <c r="AQ17" s="190"/>
-      <c r="AR17" s="190"/>
+      <c r="AL17" s="194"/>
+      <c r="AM17" s="194"/>
+      <c r="AN17" s="194"/>
+      <c r="AO17" s="194"/>
+      <c r="AP17" s="194"/>
+      <c r="AQ17" s="194"/>
+      <c r="AR17" s="194"/>
       <c r="AS17" s="168"/>
-      <c r="AT17" s="190" t="s">
+      <c r="AT17" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="AU17" s="190"/>
-      <c r="AV17" s="190"/>
-      <c r="AW17" s="190"/>
-      <c r="AX17" s="190"/>
-      <c r="AY17" s="190"/>
-      <c r="AZ17" s="190"/>
-      <c r="BA17" s="194"/>
+      <c r="AU17" s="194"/>
+      <c r="AV17" s="194"/>
+      <c r="AW17" s="194"/>
+      <c r="AX17" s="194"/>
+      <c r="AY17" s="194"/>
+      <c r="AZ17" s="194"/>
+      <c r="BA17" s="206"/>
       <c r="BB17" s="168"/>
-      <c r="BC17" s="195" t="s">
+      <c r="BC17" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" s="196"/>
-      <c r="BE17" s="196"/>
-      <c r="BF17" s="196"/>
-      <c r="BG17" s="196"/>
-      <c r="BH17" s="196"/>
-      <c r="BI17" s="197"/>
+      <c r="BD17" s="191"/>
+      <c r="BE17" s="191"/>
+      <c r="BF17" s="191"/>
+      <c r="BG17" s="191"/>
+      <c r="BH17" s="191"/>
+      <c r="BI17" s="192"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="205" t="s">
+      <c r="BK17" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="BL17" s="206"/>
-      <c r="BM17" s="206"/>
-      <c r="BN17" s="206"/>
-      <c r="BO17" s="206"/>
-      <c r="BP17" s="206"/>
-      <c r="BQ17" s="207"/>
+      <c r="BL17" s="214"/>
+      <c r="BM17" s="214"/>
+      <c r="BN17" s="214"/>
+      <c r="BO17" s="214"/>
+      <c r="BP17" s="214"/>
+      <c r="BQ17" s="215"/>
     </row>
     <row r="18" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="170">
@@ -2990,47 +3012,47 @@
         <v>27</v>
       </c>
       <c r="AJ18" s="168"/>
-      <c r="AK18" s="191" t="s">
+      <c r="AK18" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="190"/>
-      <c r="AM18" s="190"/>
-      <c r="AN18" s="190"/>
-      <c r="AO18" s="190"/>
-      <c r="AP18" s="190"/>
-      <c r="AQ18" s="190"/>
-      <c r="AR18" s="190"/>
+      <c r="AL18" s="194"/>
+      <c r="AM18" s="194"/>
+      <c r="AN18" s="194"/>
+      <c r="AO18" s="194"/>
+      <c r="AP18" s="194"/>
+      <c r="AQ18" s="194"/>
+      <c r="AR18" s="194"/>
       <c r="AS18" s="168"/>
-      <c r="AT18" s="191" t="s">
+      <c r="AT18" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="AU18" s="191"/>
-      <c r="AV18" s="191"/>
-      <c r="AW18" s="191"/>
-      <c r="AX18" s="191"/>
-      <c r="AY18" s="191"/>
-      <c r="AZ18" s="191"/>
-      <c r="BA18" s="192"/>
+      <c r="AU18" s="193"/>
+      <c r="AV18" s="193"/>
+      <c r="AW18" s="193"/>
+      <c r="AX18" s="193"/>
+      <c r="AY18" s="193"/>
+      <c r="AZ18" s="193"/>
+      <c r="BA18" s="195"/>
       <c r="BB18" s="168"/>
-      <c r="BC18" s="212" t="s">
+      <c r="BC18" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="BD18" s="213"/>
-      <c r="BE18" s="213"/>
-      <c r="BF18" s="213"/>
-      <c r="BG18" s="213"/>
-      <c r="BH18" s="213"/>
-      <c r="BI18" s="214"/>
+      <c r="BD18" s="185"/>
+      <c r="BE18" s="185"/>
+      <c r="BF18" s="185"/>
+      <c r="BG18" s="185"/>
+      <c r="BH18" s="185"/>
+      <c r="BI18" s="186"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="198" t="s">
+      <c r="BK18" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="BL18" s="199"/>
-      <c r="BM18" s="199"/>
-      <c r="BN18" s="199"/>
-      <c r="BO18" s="199"/>
-      <c r="BP18" s="199"/>
-      <c r="BQ18" s="200"/>
+      <c r="BL18" s="208"/>
+      <c r="BM18" s="208"/>
+      <c r="BN18" s="208"/>
+      <c r="BO18" s="208"/>
+      <c r="BP18" s="208"/>
+      <c r="BQ18" s="209"/>
     </row>
     <row r="19" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="170">
@@ -3087,14 +3109,14 @@
         <v>54</v>
       </c>
       <c r="AJ19" s="168"/>
-      <c r="AK19" s="189" t="s">
+      <c r="AK19" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AL19" s="189"/>
-      <c r="AM19" s="189"/>
-      <c r="AN19" s="189"/>
-      <c r="AO19" s="189"/>
-      <c r="AP19" s="189"/>
+      <c r="AL19" s="196"/>
+      <c r="AM19" s="196"/>
+      <c r="AN19" s="196"/>
+      <c r="AO19" s="196"/>
+      <c r="AP19" s="196"/>
       <c r="AQ19" s="141" t="s">
         <v>26</v>
       </c>
@@ -3103,13 +3125,13 @@
       </c>
       <c r="AS19" s="168"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="186" t="s">
+      <c r="AU19" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AV19" s="187"/>
-      <c r="AW19" s="187"/>
-      <c r="AX19" s="187"/>
-      <c r="AY19" s="188"/>
+      <c r="AV19" s="198"/>
+      <c r="AW19" s="198"/>
+      <c r="AX19" s="198"/>
+      <c r="AY19" s="199"/>
       <c r="AZ19" s="156" t="s">
         <v>26</v>
       </c>
@@ -3117,26 +3139,26 @@
         <v>27</v>
       </c>
       <c r="BB19" s="168"/>
-      <c r="BC19" s="201" t="str">
+      <c r="BC19" s="200" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="BD19" s="202"/>
-      <c r="BE19" s="202"/>
-      <c r="BF19" s="202"/>
-      <c r="BG19" s="202"/>
-      <c r="BH19" s="202"/>
+      <c r="BD19" s="201"/>
+      <c r="BE19" s="201"/>
+      <c r="BF19" s="201"/>
+      <c r="BG19" s="201"/>
+      <c r="BH19" s="201"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="211" t="s">
+      <c r="BK19" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="BL19" s="209"/>
-      <c r="BM19" s="209"/>
-      <c r="BN19" s="209"/>
-      <c r="BO19" s="209"/>
-      <c r="BP19" s="209"/>
-      <c r="BQ19" s="210"/>
+      <c r="BL19" s="211"/>
+      <c r="BM19" s="211"/>
+      <c r="BN19" s="211"/>
+      <c r="BO19" s="211"/>
+      <c r="BP19" s="211"/>
+      <c r="BQ19" s="212"/>
     </row>
     <row r="20" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170"/>
@@ -3293,13 +3315,13 @@
       </c>
       <c r="AJ21" s="168"/>
       <c r="AK21" s="46"/>
-      <c r="AL21" s="183" t="s">
+      <c r="AL21" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AM21" s="184"/>
-      <c r="AN21" s="184"/>
-      <c r="AO21" s="184"/>
-      <c r="AP21" s="184"/>
+      <c r="AM21" s="181"/>
+      <c r="AN21" s="181"/>
+      <c r="AO21" s="181"/>
+      <c r="AP21" s="181"/>
       <c r="AQ21" s="47" t="s">
         <v>54</v>
       </c>
@@ -3308,13 +3330,13 @@
       </c>
       <c r="AS21" s="168"/>
       <c r="AT21" s="48"/>
-      <c r="AU21" s="183" t="s">
+      <c r="AU21" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="184"/>
-      <c r="AW21" s="184"/>
-      <c r="AX21" s="184"/>
-      <c r="AY21" s="185"/>
+      <c r="AV21" s="181"/>
+      <c r="AW21" s="181"/>
+      <c r="AX21" s="181"/>
+      <c r="AY21" s="219"/>
       <c r="AZ21" s="49">
         <v>2800</v>
       </c>
@@ -3394,13 +3416,13 @@
       </c>
       <c r="AJ22" s="168"/>
       <c r="AK22" s="46"/>
-      <c r="AL22" s="177" t="s">
+      <c r="AL22" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AM22" s="178"/>
-      <c r="AN22" s="178"/>
-      <c r="AO22" s="178"/>
-      <c r="AP22" s="178"/>
+      <c r="AM22" s="183"/>
+      <c r="AN22" s="183"/>
+      <c r="AO22" s="183"/>
+      <c r="AP22" s="183"/>
       <c r="AQ22" s="47" t="s">
         <v>54</v>
       </c>
@@ -3409,13 +3431,13 @@
       </c>
       <c r="AS22" s="168"/>
       <c r="AT22" s="48"/>
-      <c r="AU22" s="177" t="s">
+      <c r="AU22" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="178"/>
-      <c r="AW22" s="178"/>
-      <c r="AX22" s="178"/>
-      <c r="AY22" s="179"/>
+      <c r="AV22" s="183"/>
+      <c r="AW22" s="183"/>
+      <c r="AX22" s="183"/>
+      <c r="AY22" s="205"/>
       <c r="AZ22" s="49"/>
       <c r="BA22" s="49">
         <v>30</v>
@@ -3493,13 +3515,13 @@
       </c>
       <c r="AJ23" s="168"/>
       <c r="AK23" s="46"/>
-      <c r="AL23" s="177" t="s">
+      <c r="AL23" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="178"/>
-      <c r="AN23" s="178"/>
-      <c r="AO23" s="178"/>
-      <c r="AP23" s="178"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="183"/>
+      <c r="AO23" s="183"/>
+      <c r="AP23" s="183"/>
       <c r="AQ23" s="47" t="s">
         <v>54</v>
       </c>
@@ -3508,13 +3530,13 @@
       </c>
       <c r="AS23" s="168"/>
       <c r="AT23" s="48"/>
-      <c r="AU23" s="177" t="s">
+      <c r="AU23" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="178"/>
-      <c r="AW23" s="178"/>
-      <c r="AX23" s="178"/>
-      <c r="AY23" s="179"/>
+      <c r="AV23" s="183"/>
+      <c r="AW23" s="183"/>
+      <c r="AX23" s="183"/>
+      <c r="AY23" s="205"/>
       <c r="AZ23" s="49"/>
       <c r="BA23" s="49">
         <v>10000</v>
@@ -3594,13 +3616,13 @@
       </c>
       <c r="AJ24" s="168"/>
       <c r="AK24" s="46"/>
-      <c r="AL24" s="177" t="s">
+      <c r="AL24" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AM24" s="178"/>
-      <c r="AN24" s="178"/>
-      <c r="AO24" s="178"/>
-      <c r="AP24" s="178"/>
+      <c r="AM24" s="183"/>
+      <c r="AN24" s="183"/>
+      <c r="AO24" s="183"/>
+      <c r="AP24" s="183"/>
       <c r="AQ24" s="47" t="s">
         <v>54</v>
       </c>
@@ -3609,13 +3631,13 @@
       </c>
       <c r="AS24" s="168"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="177" t="s">
+      <c r="AU24" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AV24" s="178"/>
-      <c r="AW24" s="178"/>
-      <c r="AX24" s="178"/>
-      <c r="AY24" s="179"/>
+      <c r="AV24" s="183"/>
+      <c r="AW24" s="183"/>
+      <c r="AX24" s="183"/>
+      <c r="AY24" s="205"/>
       <c r="AZ24" s="49"/>
       <c r="BA24" s="49"/>
       <c r="BB24" s="168"/>
@@ -3693,13 +3715,13 @@
       </c>
       <c r="AJ25" s="168"/>
       <c r="AK25" s="46"/>
-      <c r="AL25" s="177" t="s">
+      <c r="AL25" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AM25" s="178"/>
-      <c r="AN25" s="178"/>
-      <c r="AO25" s="178"/>
-      <c r="AP25" s="178"/>
+      <c r="AM25" s="183"/>
+      <c r="AN25" s="183"/>
+      <c r="AO25" s="183"/>
+      <c r="AP25" s="183"/>
       <c r="AQ25" s="47" t="s">
         <v>54</v>
       </c>
@@ -3708,13 +3730,13 @@
       </c>
       <c r="AS25" s="168"/>
       <c r="AT25" s="48"/>
-      <c r="AU25" s="177" t="s">
+      <c r="AU25" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AV25" s="178"/>
-      <c r="AW25" s="178"/>
-      <c r="AX25" s="178"/>
-      <c r="AY25" s="179"/>
+      <c r="AV25" s="183"/>
+      <c r="AW25" s="183"/>
+      <c r="AX25" s="183"/>
+      <c r="AY25" s="205"/>
       <c r="AZ25" s="49">
         <v>700</v>
       </c>
@@ -3796,13 +3818,13 @@
       </c>
       <c r="AJ26" s="168"/>
       <c r="AK26" s="46"/>
-      <c r="AL26" s="177" t="s">
+      <c r="AL26" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AM26" s="178"/>
-      <c r="AN26" s="178"/>
-      <c r="AO26" s="178"/>
-      <c r="AP26" s="178"/>
+      <c r="AM26" s="183"/>
+      <c r="AN26" s="183"/>
+      <c r="AO26" s="183"/>
+      <c r="AP26" s="183"/>
       <c r="AQ26" s="47" t="s">
         <v>54</v>
       </c>
@@ -3811,13 +3833,13 @@
       </c>
       <c r="AS26" s="168"/>
       <c r="AT26" s="48"/>
-      <c r="AU26" s="177" t="s">
+      <c r="AU26" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="178"/>
-      <c r="AW26" s="178"/>
-      <c r="AX26" s="178"/>
-      <c r="AY26" s="179"/>
+      <c r="AV26" s="183"/>
+      <c r="AW26" s="183"/>
+      <c r="AX26" s="183"/>
+      <c r="AY26" s="205"/>
       <c r="AZ26" s="49"/>
       <c r="BA26" s="49">
         <v>3750</v>
@@ -3897,13 +3919,13 @@
       </c>
       <c r="AJ27" s="168"/>
       <c r="AK27" s="46"/>
-      <c r="AL27" s="177" t="s">
+      <c r="AL27" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AM27" s="178"/>
-      <c r="AN27" s="178"/>
-      <c r="AO27" s="178"/>
-      <c r="AP27" s="178"/>
+      <c r="AM27" s="183"/>
+      <c r="AN27" s="183"/>
+      <c r="AO27" s="183"/>
+      <c r="AP27" s="183"/>
       <c r="AQ27" s="47" t="s">
         <v>54</v>
       </c>
@@ -3912,13 +3934,13 @@
       </c>
       <c r="AS27" s="168"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="180" t="s">
+      <c r="AU27" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AV27" s="181"/>
-      <c r="AW27" s="181"/>
-      <c r="AX27" s="181"/>
-      <c r="AY27" s="182"/>
+      <c r="AV27" s="203"/>
+      <c r="AW27" s="203"/>
+      <c r="AX27" s="203"/>
+      <c r="AY27" s="204"/>
       <c r="AZ27" s="49">
         <v>1200</v>
       </c>
@@ -4000,13 +4022,13 @@
       </c>
       <c r="AJ28" s="168"/>
       <c r="AK28" s="46"/>
-      <c r="AL28" s="177" t="s">
+      <c r="AL28" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="178"/>
-      <c r="AN28" s="178"/>
-      <c r="AO28" s="178"/>
-      <c r="AP28" s="178"/>
+      <c r="AM28" s="183"/>
+      <c r="AN28" s="183"/>
+      <c r="AO28" s="183"/>
+      <c r="AP28" s="183"/>
       <c r="AQ28" s="47" t="s">
         <v>54</v>
       </c>
@@ -4015,13 +4037,13 @@
       </c>
       <c r="AS28" s="168"/>
       <c r="AT28" s="48"/>
-      <c r="AU28" s="180" t="s">
+      <c r="AU28" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="AV28" s="181"/>
-      <c r="AW28" s="181"/>
-      <c r="AX28" s="181"/>
-      <c r="AY28" s="182"/>
+      <c r="AV28" s="203"/>
+      <c r="AW28" s="203"/>
+      <c r="AX28" s="203"/>
+      <c r="AY28" s="204"/>
       <c r="AZ28" s="49">
         <v>220</v>
       </c>
@@ -4101,13 +4123,13 @@
       </c>
       <c r="AJ29" s="168"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="177" t="s">
+      <c r="AL29" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="178"/>
-      <c r="AN29" s="178"/>
-      <c r="AO29" s="178"/>
-      <c r="AP29" s="178"/>
+      <c r="AM29" s="183"/>
+      <c r="AN29" s="183"/>
+      <c r="AO29" s="183"/>
+      <c r="AP29" s="183"/>
       <c r="AQ29" s="47" t="s">
         <v>54</v>
       </c>
@@ -4116,13 +4138,13 @@
       </c>
       <c r="AS29" s="168"/>
       <c r="AT29" s="48"/>
-      <c r="AU29" s="180" t="s">
+      <c r="AU29" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="AV29" s="181"/>
-      <c r="AW29" s="181"/>
-      <c r="AX29" s="181"/>
-      <c r="AY29" s="182"/>
+      <c r="AV29" s="203"/>
+      <c r="AW29" s="203"/>
+      <c r="AX29" s="203"/>
+      <c r="AY29" s="204"/>
       <c r="AZ29" s="49">
         <v>175</v>
       </c>
@@ -4202,13 +4224,13 @@
       </c>
       <c r="AJ30" s="168"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="177" t="s">
+      <c r="AL30" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="AM30" s="178"/>
-      <c r="AN30" s="178"/>
-      <c r="AO30" s="178"/>
-      <c r="AP30" s="178"/>
+      <c r="AM30" s="183"/>
+      <c r="AN30" s="183"/>
+      <c r="AO30" s="183"/>
+      <c r="AP30" s="183"/>
       <c r="AQ30" s="47" t="s">
         <v>54</v>
       </c>
@@ -4217,13 +4239,13 @@
       </c>
       <c r="AS30" s="168"/>
       <c r="AT30" s="48"/>
-      <c r="AU30" s="180" t="s">
+      <c r="AU30" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="AV30" s="181"/>
-      <c r="AW30" s="181"/>
-      <c r="AX30" s="181"/>
-      <c r="AY30" s="182"/>
+      <c r="AV30" s="203"/>
+      <c r="AW30" s="203"/>
+      <c r="AX30" s="203"/>
+      <c r="AY30" s="204"/>
       <c r="AZ30" s="49">
         <v>50</v>
       </c>
@@ -4530,47 +4552,47 @@
         <v>54</v>
       </c>
       <c r="AJ34" s="168"/>
-      <c r="AK34" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL34" s="190"/>
-      <c r="AM34" s="190"/>
-      <c r="AN34" s="190"/>
-      <c r="AO34" s="190"/>
-      <c r="AP34" s="190"/>
-      <c r="AQ34" s="190"/>
-      <c r="AR34" s="190"/>
+      <c r="AK34" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL34" s="194"/>
+      <c r="AM34" s="194"/>
+      <c r="AN34" s="194"/>
+      <c r="AO34" s="194"/>
+      <c r="AP34" s="194"/>
+      <c r="AQ34" s="194"/>
+      <c r="AR34" s="194"/>
       <c r="AS34" s="168"/>
-      <c r="AT34" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU34" s="190"/>
-      <c r="AV34" s="190"/>
-      <c r="AW34" s="190"/>
-      <c r="AX34" s="190"/>
-      <c r="AY34" s="190"/>
-      <c r="AZ34" s="190"/>
-      <c r="BA34" s="194"/>
+      <c r="AT34" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU34" s="194"/>
+      <c r="AV34" s="194"/>
+      <c r="AW34" s="194"/>
+      <c r="AX34" s="194"/>
+      <c r="AY34" s="194"/>
+      <c r="AZ34" s="194"/>
+      <c r="BA34" s="206"/>
       <c r="BB34" s="168"/>
-      <c r="BC34" s="205" t="s">
+      <c r="BC34" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="BD34" s="206"/>
-      <c r="BE34" s="206"/>
-      <c r="BF34" s="206"/>
-      <c r="BG34" s="206"/>
-      <c r="BH34" s="206"/>
-      <c r="BI34" s="207"/>
+      <c r="BD34" s="214"/>
+      <c r="BE34" s="214"/>
+      <c r="BF34" s="214"/>
+      <c r="BG34" s="214"/>
+      <c r="BH34" s="214"/>
+      <c r="BI34" s="215"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="205" t="s">
+      <c r="BK34" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="BL34" s="206"/>
-      <c r="BM34" s="206"/>
-      <c r="BN34" s="206"/>
-      <c r="BO34" s="206"/>
-      <c r="BP34" s="206"/>
-      <c r="BQ34" s="207"/>
+      <c r="BL34" s="214"/>
+      <c r="BM34" s="214"/>
+      <c r="BN34" s="214"/>
+      <c r="BO34" s="214"/>
+      <c r="BP34" s="214"/>
+      <c r="BQ34" s="215"/>
     </row>
     <row r="35" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="170">
@@ -4625,47 +4647,47 @@
         <v>54</v>
       </c>
       <c r="AJ35" s="168"/>
-      <c r="AK35" s="191" t="s">
+      <c r="AK35" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="AL35" s="190"/>
-      <c r="AM35" s="190"/>
-      <c r="AN35" s="190"/>
-      <c r="AO35" s="190"/>
-      <c r="AP35" s="190"/>
-      <c r="AQ35" s="190"/>
-      <c r="AR35" s="190"/>
+      <c r="AL35" s="194"/>
+      <c r="AM35" s="194"/>
+      <c r="AN35" s="194"/>
+      <c r="AO35" s="194"/>
+      <c r="AP35" s="194"/>
+      <c r="AQ35" s="194"/>
+      <c r="AR35" s="194"/>
       <c r="AS35" s="168"/>
-      <c r="AT35" s="191" t="s">
+      <c r="AT35" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="AU35" s="191"/>
-      <c r="AV35" s="191"/>
-      <c r="AW35" s="191"/>
-      <c r="AX35" s="191"/>
-      <c r="AY35" s="191"/>
-      <c r="AZ35" s="191"/>
-      <c r="BA35" s="192"/>
+      <c r="AU35" s="193"/>
+      <c r="AV35" s="193"/>
+      <c r="AW35" s="193"/>
+      <c r="AX35" s="193"/>
+      <c r="AY35" s="193"/>
+      <c r="AZ35" s="193"/>
+      <c r="BA35" s="195"/>
       <c r="BB35" s="168"/>
-      <c r="BC35" s="198" t="s">
+      <c r="BC35" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="BD35" s="199"/>
-      <c r="BE35" s="199"/>
-      <c r="BF35" s="199"/>
-      <c r="BG35" s="199"/>
-      <c r="BH35" s="199"/>
-      <c r="BI35" s="200"/>
+      <c r="BD35" s="208"/>
+      <c r="BE35" s="208"/>
+      <c r="BF35" s="208"/>
+      <c r="BG35" s="208"/>
+      <c r="BH35" s="208"/>
+      <c r="BI35" s="209"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="198" t="s">
+      <c r="BK35" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="BL35" s="199"/>
-      <c r="BM35" s="199"/>
-      <c r="BN35" s="199"/>
-      <c r="BO35" s="199"/>
-      <c r="BP35" s="199"/>
-      <c r="BQ35" s="200"/>
+      <c r="BL35" s="208"/>
+      <c r="BM35" s="208"/>
+      <c r="BN35" s="208"/>
+      <c r="BO35" s="208"/>
+      <c r="BP35" s="208"/>
+      <c r="BQ35" s="209"/>
     </row>
     <row r="36" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="170">
@@ -4722,14 +4744,14 @@
         <v>54</v>
       </c>
       <c r="AJ36" s="168"/>
-      <c r="AK36" s="189" t="s">
+      <c r="AK36" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AL36" s="189"/>
-      <c r="AM36" s="189"/>
-      <c r="AN36" s="189"/>
-      <c r="AO36" s="189"/>
-      <c r="AP36" s="189"/>
+      <c r="AL36" s="196"/>
+      <c r="AM36" s="196"/>
+      <c r="AN36" s="196"/>
+      <c r="AO36" s="196"/>
+      <c r="AP36" s="196"/>
       <c r="AQ36" s="141" t="s">
         <v>26</v>
       </c>
@@ -4738,13 +4760,13 @@
       </c>
       <c r="AS36" s="168"/>
       <c r="AT36" s="43"/>
-      <c r="AU36" s="186" t="s">
+      <c r="AU36" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AV36" s="187"/>
-      <c r="AW36" s="187"/>
-      <c r="AX36" s="187"/>
-      <c r="AY36" s="188"/>
+      <c r="AV36" s="198"/>
+      <c r="AW36" s="198"/>
+      <c r="AX36" s="198"/>
+      <c r="AY36" s="199"/>
       <c r="AZ36" s="156" t="s">
         <v>26</v>
       </c>
@@ -4752,25 +4774,25 @@
         <v>27</v>
       </c>
       <c r="BB36" s="168"/>
-      <c r="BC36" s="208" t="s">
+      <c r="BC36" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="BD36" s="209"/>
-      <c r="BE36" s="209"/>
-      <c r="BF36" s="209"/>
-      <c r="BG36" s="209"/>
-      <c r="BH36" s="209"/>
-      <c r="BI36" s="210"/>
+      <c r="BD36" s="211"/>
+      <c r="BE36" s="211"/>
+      <c r="BF36" s="211"/>
+      <c r="BG36" s="211"/>
+      <c r="BH36" s="211"/>
+      <c r="BI36" s="212"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="208" t="s">
+      <c r="BK36" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" s="209"/>
-      <c r="BM36" s="209"/>
-      <c r="BN36" s="209"/>
-      <c r="BO36" s="209"/>
-      <c r="BP36" s="209"/>
-      <c r="BQ36" s="210"/>
+      <c r="BL36" s="211"/>
+      <c r="BM36" s="211"/>
+      <c r="BN36" s="211"/>
+      <c r="BO36" s="211"/>
+      <c r="BP36" s="211"/>
+      <c r="BQ36" s="212"/>
     </row>
     <row r="37" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="170">
@@ -4922,13 +4944,13 @@
       </c>
       <c r="AJ38" s="168"/>
       <c r="AK38" s="46"/>
-      <c r="AL38" s="183" t="s">
+      <c r="AL38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AM38" s="184"/>
-      <c r="AN38" s="184"/>
-      <c r="AO38" s="184"/>
-      <c r="AP38" s="184"/>
+      <c r="AM38" s="181"/>
+      <c r="AN38" s="181"/>
+      <c r="AO38" s="181"/>
+      <c r="AP38" s="181"/>
       <c r="AQ38" s="47" t="s">
         <v>54</v>
       </c>
@@ -4937,13 +4959,13 @@
       </c>
       <c r="AS38" s="168"/>
       <c r="AT38" s="48"/>
-      <c r="AU38" s="183" t="s">
+      <c r="AU38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AV38" s="184"/>
-      <c r="AW38" s="184"/>
-      <c r="AX38" s="184"/>
-      <c r="AY38" s="185"/>
+      <c r="AV38" s="181"/>
+      <c r="AW38" s="181"/>
+      <c r="AX38" s="181"/>
+      <c r="AY38" s="219"/>
       <c r="AZ38" s="49">
         <v>2800</v>
       </c>
@@ -4973,7 +4995,7 @@
       <c r="B39" s="170"/>
       <c r="C39" s="4"/>
       <c r="D39" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="132"/>
@@ -5023,13 +5045,13 @@
       </c>
       <c r="AJ39" s="168"/>
       <c r="AK39" s="46"/>
-      <c r="AL39" s="177" t="s">
+      <c r="AL39" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="178"/>
-      <c r="AN39" s="178"/>
-      <c r="AO39" s="178"/>
-      <c r="AP39" s="178"/>
+      <c r="AM39" s="183"/>
+      <c r="AN39" s="183"/>
+      <c r="AO39" s="183"/>
+      <c r="AP39" s="183"/>
       <c r="AQ39" s="47" t="s">
         <v>54</v>
       </c>
@@ -5038,13 +5060,13 @@
       </c>
       <c r="AS39" s="168"/>
       <c r="AT39" s="48"/>
-      <c r="AU39" s="177" t="s">
+      <c r="AU39" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="178"/>
-      <c r="AW39" s="178"/>
-      <c r="AX39" s="178"/>
-      <c r="AY39" s="179"/>
+      <c r="AV39" s="183"/>
+      <c r="AW39" s="183"/>
+      <c r="AX39" s="183"/>
+      <c r="AY39" s="205"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49">
         <v>30</v>
@@ -5128,13 +5150,13 @@
       </c>
       <c r="AJ40" s="168"/>
       <c r="AK40" s="46"/>
-      <c r="AL40" s="177" t="s">
+      <c r="AL40" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AM40" s="178"/>
-      <c r="AN40" s="178"/>
-      <c r="AO40" s="178"/>
-      <c r="AP40" s="178"/>
+      <c r="AM40" s="183"/>
+      <c r="AN40" s="183"/>
+      <c r="AO40" s="183"/>
+      <c r="AP40" s="183"/>
       <c r="AQ40" s="47" t="s">
         <v>54</v>
       </c>
@@ -5143,13 +5165,13 @@
       </c>
       <c r="AS40" s="168"/>
       <c r="AT40" s="48"/>
-      <c r="AU40" s="177" t="s">
+      <c r="AU40" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AV40" s="178"/>
-      <c r="AW40" s="178"/>
-      <c r="AX40" s="178"/>
-      <c r="AY40" s="179"/>
+      <c r="AV40" s="183"/>
+      <c r="AW40" s="183"/>
+      <c r="AX40" s="183"/>
+      <c r="AY40" s="205"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49">
         <v>10000</v>
@@ -5215,13 +5237,13 @@
       <c r="AI41" s="155"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="46"/>
-      <c r="AL41" s="177" t="s">
+      <c r="AL41" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="178"/>
-      <c r="AN41" s="178"/>
-      <c r="AO41" s="178"/>
-      <c r="AP41" s="178"/>
+      <c r="AM41" s="183"/>
+      <c r="AN41" s="183"/>
+      <c r="AO41" s="183"/>
+      <c r="AP41" s="183"/>
       <c r="AQ41" s="47" t="s">
         <v>54</v>
       </c>
@@ -5230,13 +5252,13 @@
       </c>
       <c r="AS41" s="168"/>
       <c r="AT41" s="48"/>
-      <c r="AU41" s="177" t="s">
+      <c r="AU41" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="178"/>
-      <c r="AX41" s="178"/>
-      <c r="AY41" s="179"/>
+      <c r="AV41" s="183"/>
+      <c r="AW41" s="183"/>
+      <c r="AX41" s="183"/>
+      <c r="AY41" s="205"/>
       <c r="AZ41" s="172" t="s">
         <v>54</v>
       </c>
@@ -5308,13 +5330,13 @@
       <c r="AI42" s="155"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="46"/>
-      <c r="AL42" s="177" t="s">
+      <c r="AL42" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="178"/>
-      <c r="AN42" s="178"/>
-      <c r="AO42" s="178"/>
-      <c r="AP42" s="178"/>
+      <c r="AM42" s="183"/>
+      <c r="AN42" s="183"/>
+      <c r="AO42" s="183"/>
+      <c r="AP42" s="183"/>
       <c r="AQ42" s="47" t="s">
         <v>54</v>
       </c>
@@ -5323,13 +5345,13 @@
       </c>
       <c r="AS42" s="168"/>
       <c r="AT42" s="48"/>
-      <c r="AU42" s="177" t="s">
+      <c r="AU42" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AV42" s="178"/>
-      <c r="AW42" s="178"/>
-      <c r="AX42" s="178"/>
-      <c r="AY42" s="179"/>
+      <c r="AV42" s="183"/>
+      <c r="AW42" s="183"/>
+      <c r="AX42" s="183"/>
+      <c r="AY42" s="205"/>
       <c r="AZ42" s="49">
         <v>0</v>
       </c>
@@ -5363,7 +5385,7 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="147" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="132"/>
@@ -5399,13 +5421,13 @@
       <c r="AI43" s="155"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="46"/>
-      <c r="AL43" s="177" t="s">
+      <c r="AL43" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AM43" s="178"/>
-      <c r="AN43" s="178"/>
-      <c r="AO43" s="178"/>
-      <c r="AP43" s="178"/>
+      <c r="AM43" s="183"/>
+      <c r="AN43" s="183"/>
+      <c r="AO43" s="183"/>
+      <c r="AP43" s="183"/>
       <c r="AQ43" s="47" t="s">
         <v>54</v>
       </c>
@@ -5414,13 +5436,13 @@
       </c>
       <c r="AS43" s="168"/>
       <c r="AT43" s="48"/>
-      <c r="AU43" s="177" t="s">
+      <c r="AU43" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AV43" s="178"/>
-      <c r="AW43" s="178"/>
-      <c r="AX43" s="178"/>
-      <c r="AY43" s="179"/>
+      <c r="AV43" s="183"/>
+      <c r="AW43" s="183"/>
+      <c r="AX43" s="183"/>
+      <c r="AY43" s="205"/>
       <c r="AZ43" s="49" t="s">
         <v>54</v>
       </c>
@@ -5473,36 +5495,36 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="163"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="203" t="s">
+      <c r="S44" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="204"/>
-      <c r="U44" s="204"/>
-      <c r="V44" s="204"/>
-      <c r="W44" s="204"/>
-      <c r="X44" s="204"/>
-      <c r="Y44" s="204"/>
-      <c r="Z44" s="204"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="179"/>
       <c r="AA44" s="168"/>
-      <c r="AB44" s="203" t="s">
+      <c r="AB44" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="204"/>
-      <c r="AD44" s="204"/>
-      <c r="AE44" s="204"/>
-      <c r="AF44" s="204"/>
-      <c r="AG44" s="204"/>
-      <c r="AH44" s="204"/>
-      <c r="AI44" s="204"/>
+      <c r="AC44" s="179"/>
+      <c r="AD44" s="179"/>
+      <c r="AE44" s="179"/>
+      <c r="AF44" s="179"/>
+      <c r="AG44" s="179"/>
+      <c r="AH44" s="179"/>
+      <c r="AI44" s="179"/>
       <c r="AJ44" s="168"/>
       <c r="AK44" s="46"/>
-      <c r="AL44" s="177" t="s">
+      <c r="AL44" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AM44" s="178"/>
-      <c r="AN44" s="178"/>
-      <c r="AO44" s="178"/>
-      <c r="AP44" s="178"/>
+      <c r="AM44" s="183"/>
+      <c r="AN44" s="183"/>
+      <c r="AO44" s="183"/>
+      <c r="AP44" s="183"/>
       <c r="AQ44" s="47" t="s">
         <v>54</v>
       </c>
@@ -5511,13 +5533,13 @@
       </c>
       <c r="AS44" s="168"/>
       <c r="AT44" s="48"/>
-      <c r="AU44" s="180" t="s">
+      <c r="AU44" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AV44" s="181"/>
-      <c r="AW44" s="181"/>
-      <c r="AX44" s="181"/>
-      <c r="AY44" s="182"/>
+      <c r="AV44" s="203"/>
+      <c r="AW44" s="203"/>
+      <c r="AX44" s="203"/>
+      <c r="AY44" s="204"/>
       <c r="AZ44" s="49">
         <v>0</v>
       </c>
@@ -5592,13 +5614,13 @@
       </c>
       <c r="AJ45" s="168"/>
       <c r="AK45" s="46"/>
-      <c r="AL45" s="177" t="s">
+      <c r="AL45" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AM45" s="178"/>
-      <c r="AN45" s="178"/>
-      <c r="AO45" s="178"/>
-      <c r="AP45" s="178"/>
+      <c r="AM45" s="183"/>
+      <c r="AN45" s="183"/>
+      <c r="AO45" s="183"/>
+      <c r="AP45" s="183"/>
       <c r="AQ45" s="47" t="s">
         <v>54</v>
       </c>
@@ -5607,13 +5629,13 @@
       </c>
       <c r="AS45" s="168"/>
       <c r="AT45" s="48"/>
-      <c r="AU45" s="180" t="s">
+      <c r="AU45" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="AV45" s="181"/>
-      <c r="AW45" s="181"/>
-      <c r="AX45" s="181"/>
-      <c r="AY45" s="182"/>
+      <c r="AV45" s="203"/>
+      <c r="AW45" s="203"/>
+      <c r="AX45" s="203"/>
+      <c r="AY45" s="204"/>
       <c r="AZ45" s="49">
         <v>0</v>
       </c>
@@ -5680,13 +5702,13 @@
       </c>
       <c r="AJ46" s="168"/>
       <c r="AK46" s="46"/>
-      <c r="AL46" s="177" t="s">
+      <c r="AL46" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="AM46" s="178"/>
-      <c r="AN46" s="178"/>
-      <c r="AO46" s="178"/>
-      <c r="AP46" s="178"/>
+      <c r="AM46" s="183"/>
+      <c r="AN46" s="183"/>
+      <c r="AO46" s="183"/>
+      <c r="AP46" s="183"/>
       <c r="AQ46" s="47" t="s">
         <v>54</v>
       </c>
@@ -5695,13 +5717,13 @@
       </c>
       <c r="AS46" s="168"/>
       <c r="AT46" s="48"/>
-      <c r="AU46" s="180" t="s">
+      <c r="AU46" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="AV46" s="181"/>
-      <c r="AW46" s="181"/>
-      <c r="AX46" s="181"/>
-      <c r="AY46" s="182"/>
+      <c r="AV46" s="203"/>
+      <c r="AW46" s="203"/>
+      <c r="AX46" s="203"/>
+      <c r="AY46" s="204"/>
       <c r="AZ46" s="49">
         <v>0</v>
       </c>
@@ -5764,13 +5786,13 @@
       </c>
       <c r="AJ47" s="168"/>
       <c r="AK47" s="46"/>
-      <c r="AL47" s="177" t="s">
+      <c r="AL47" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="AM47" s="178"/>
-      <c r="AN47" s="178"/>
-      <c r="AO47" s="178"/>
-      <c r="AP47" s="178"/>
+      <c r="AM47" s="183"/>
+      <c r="AN47" s="183"/>
+      <c r="AO47" s="183"/>
+      <c r="AP47" s="183"/>
       <c r="AQ47" s="47" t="s">
         <v>54</v>
       </c>
@@ -5779,13 +5801,13 @@
       </c>
       <c r="AS47" s="168"/>
       <c r="AT47" s="48"/>
-      <c r="AU47" s="180" t="s">
+      <c r="AU47" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="AV47" s="181"/>
-      <c r="AW47" s="181"/>
-      <c r="AX47" s="181"/>
-      <c r="AY47" s="182"/>
+      <c r="AV47" s="203"/>
+      <c r="AW47" s="203"/>
+      <c r="AX47" s="203"/>
+      <c r="AY47" s="204"/>
       <c r="AZ47" s="49">
         <v>0</v>
       </c>
@@ -5793,25 +5815,25 @@
         <v>54</v>
       </c>
       <c r="BB47" s="168"/>
-      <c r="BC47" s="195" t="s">
+      <c r="BC47" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BD47" s="196"/>
-      <c r="BE47" s="196"/>
-      <c r="BF47" s="196"/>
-      <c r="BG47" s="196"/>
-      <c r="BH47" s="196"/>
-      <c r="BI47" s="197"/>
+      <c r="BD47" s="191"/>
+      <c r="BE47" s="191"/>
+      <c r="BF47" s="191"/>
+      <c r="BG47" s="191"/>
+      <c r="BH47" s="191"/>
+      <c r="BI47" s="192"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="195" t="s">
+      <c r="BK47" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BL47" s="196"/>
-      <c r="BM47" s="196"/>
-      <c r="BN47" s="196"/>
-      <c r="BO47" s="196"/>
-      <c r="BP47" s="196"/>
-      <c r="BQ47" s="197"/>
+      <c r="BL47" s="191"/>
+      <c r="BM47" s="191"/>
+      <c r="BN47" s="191"/>
+      <c r="BO47" s="191"/>
+      <c r="BP47" s="191"/>
+      <c r="BQ47" s="192"/>
     </row>
     <row r="48" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171"/>
@@ -5892,25 +5914,25 @@
         <v>11435</v>
       </c>
       <c r="BB48" s="168"/>
-      <c r="BC48" s="212" t="s">
+      <c r="BC48" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="BD48" s="213"/>
-      <c r="BE48" s="213"/>
-      <c r="BF48" s="213"/>
-      <c r="BG48" s="213"/>
-      <c r="BH48" s="213"/>
-      <c r="BI48" s="214"/>
+      <c r="BD48" s="185"/>
+      <c r="BE48" s="185"/>
+      <c r="BF48" s="185"/>
+      <c r="BG48" s="185"/>
+      <c r="BH48" s="185"/>
+      <c r="BI48" s="186"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="212" t="s">
+      <c r="BK48" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="BL48" s="213"/>
-      <c r="BM48" s="213"/>
-      <c r="BN48" s="213"/>
-      <c r="BO48" s="213"/>
-      <c r="BP48" s="213"/>
-      <c r="BQ48" s="214"/>
+      <c r="BL48" s="185"/>
+      <c r="BM48" s="185"/>
+      <c r="BN48" s="185"/>
+      <c r="BO48" s="185"/>
+      <c r="BP48" s="185"/>
+      <c r="BQ48" s="186"/>
     </row>
     <row r="49" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="170">
@@ -5983,27 +6005,27 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="217" t="str">
+      <c r="BC49" s="187" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BD49" s="218"/>
-      <c r="BE49" s="218"/>
-      <c r="BF49" s="218"/>
-      <c r="BG49" s="218"/>
-      <c r="BH49" s="218"/>
-      <c r="BI49" s="219"/>
+      <c r="BD49" s="188"/>
+      <c r="BE49" s="188"/>
+      <c r="BF49" s="188"/>
+      <c r="BG49" s="188"/>
+      <c r="BH49" s="188"/>
+      <c r="BI49" s="189"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="217" t="str">
+      <c r="BK49" s="187" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BL49" s="218"/>
-      <c r="BM49" s="218"/>
-      <c r="BN49" s="218"/>
-      <c r="BO49" s="218"/>
-      <c r="BP49" s="218"/>
-      <c r="BQ49" s="219"/>
+      <c r="BL49" s="188"/>
+      <c r="BM49" s="188"/>
+      <c r="BN49" s="188"/>
+      <c r="BO49" s="188"/>
+      <c r="BP49" s="188"/>
+      <c r="BQ49" s="189"/>
     </row>
     <row r="50" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="170">
@@ -6149,27 +6171,27 @@
         <v>54</v>
       </c>
       <c r="AJ51" s="168"/>
-      <c r="AK51" s="190" t="s">
+      <c r="AK51" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="AL51" s="190"/>
-      <c r="AM51" s="190"/>
-      <c r="AN51" s="190"/>
-      <c r="AO51" s="190"/>
-      <c r="AP51" s="190"/>
-      <c r="AQ51" s="190"/>
-      <c r="AR51" s="190"/>
+      <c r="AL51" s="194"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="194"/>
+      <c r="AQ51" s="194"/>
+      <c r="AR51" s="194"/>
       <c r="AS51" s="168"/>
-      <c r="AT51" s="190" t="s">
+      <c r="AT51" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="AU51" s="190"/>
-      <c r="AV51" s="190"/>
-      <c r="AW51" s="190"/>
-      <c r="AX51" s="190"/>
-      <c r="AY51" s="190"/>
-      <c r="AZ51" s="190"/>
-      <c r="BA51" s="194"/>
+      <c r="AU51" s="194"/>
+      <c r="AV51" s="194"/>
+      <c r="AW51" s="194"/>
+      <c r="AX51" s="194"/>
+      <c r="AY51" s="194"/>
+      <c r="AZ51" s="194"/>
+      <c r="BA51" s="206"/>
       <c r="BB51" s="168"/>
       <c r="BC51" s="23"/>
       <c r="BD51" s="98" t="s">
@@ -6245,27 +6267,27 @@
         <v>54</v>
       </c>
       <c r="AJ52" s="168"/>
-      <c r="AK52" s="191" t="s">
+      <c r="AK52" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="AL52" s="190"/>
-      <c r="AM52" s="190"/>
-      <c r="AN52" s="190"/>
-      <c r="AO52" s="190"/>
-      <c r="AP52" s="190"/>
-      <c r="AQ52" s="190"/>
-      <c r="AR52" s="190"/>
+      <c r="AL52" s="194"/>
+      <c r="AM52" s="194"/>
+      <c r="AN52" s="194"/>
+      <c r="AO52" s="194"/>
+      <c r="AP52" s="194"/>
+      <c r="AQ52" s="194"/>
+      <c r="AR52" s="194"/>
       <c r="AS52" s="168"/>
-      <c r="AT52" s="191" t="s">
+      <c r="AT52" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="AU52" s="191"/>
-      <c r="AV52" s="191"/>
-      <c r="AW52" s="191"/>
-      <c r="AX52" s="191"/>
-      <c r="AY52" s="191"/>
-      <c r="AZ52" s="191"/>
-      <c r="BA52" s="192"/>
+      <c r="AU52" s="193"/>
+      <c r="AV52" s="193"/>
+      <c r="AW52" s="193"/>
+      <c r="AX52" s="193"/>
+      <c r="AY52" s="193"/>
+      <c r="AZ52" s="193"/>
+      <c r="BA52" s="195"/>
       <c r="BB52" s="168"/>
       <c r="BC52" s="23"/>
       <c r="BD52" s="139"/>
@@ -6339,14 +6361,14 @@
         <v>54</v>
       </c>
       <c r="AJ53" s="168"/>
-      <c r="AK53" s="189" t="s">
+      <c r="AK53" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AL53" s="189"/>
-      <c r="AM53" s="189"/>
-      <c r="AN53" s="189"/>
-      <c r="AO53" s="189"/>
-      <c r="AP53" s="189"/>
+      <c r="AL53" s="196"/>
+      <c r="AM53" s="196"/>
+      <c r="AN53" s="196"/>
+      <c r="AO53" s="196"/>
+      <c r="AP53" s="196"/>
       <c r="AQ53" s="141" t="s">
         <v>26</v>
       </c>
@@ -6355,13 +6377,13 @@
       </c>
       <c r="AS53" s="168"/>
       <c r="AT53" s="43"/>
-      <c r="AU53" s="186" t="s">
+      <c r="AU53" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AV53" s="187"/>
-      <c r="AW53" s="187"/>
-      <c r="AX53" s="187"/>
-      <c r="AY53" s="188"/>
+      <c r="AV53" s="198"/>
+      <c r="AW53" s="198"/>
+      <c r="AX53" s="198"/>
+      <c r="AY53" s="199"/>
       <c r="AZ53" s="156" t="s">
         <v>26</v>
       </c>
@@ -6536,13 +6558,13 @@
       </c>
       <c r="AJ55" s="168"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="183" t="s">
+      <c r="AL55" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AM55" s="184"/>
-      <c r="AN55" s="184"/>
-      <c r="AO55" s="184"/>
-      <c r="AP55" s="184"/>
+      <c r="AM55" s="181"/>
+      <c r="AN55" s="181"/>
+      <c r="AO55" s="181"/>
+      <c r="AP55" s="181"/>
       <c r="AQ55" s="47" t="s">
         <v>54</v>
       </c>
@@ -6551,13 +6573,13 @@
       </c>
       <c r="AS55" s="168"/>
       <c r="AT55" s="48"/>
-      <c r="AU55" s="183" t="s">
+      <c r="AU55" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AV55" s="184"/>
-      <c r="AW55" s="184"/>
-      <c r="AX55" s="184"/>
-      <c r="AY55" s="185"/>
+      <c r="AV55" s="181"/>
+      <c r="AW55" s="181"/>
+      <c r="AX55" s="181"/>
+      <c r="AY55" s="219"/>
       <c r="AZ55" s="49">
         <v>5400</v>
       </c>
@@ -6618,13 +6640,13 @@
       <c r="AI56" s="155"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="177" t="s">
+      <c r="AL56" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AM56" s="178"/>
-      <c r="AN56" s="178"/>
-      <c r="AO56" s="178"/>
-      <c r="AP56" s="178"/>
+      <c r="AM56" s="183"/>
+      <c r="AN56" s="183"/>
+      <c r="AO56" s="183"/>
+      <c r="AP56" s="183"/>
       <c r="AQ56" s="47" t="s">
         <v>54</v>
       </c>
@@ -6633,13 +6655,13 @@
       </c>
       <c r="AS56" s="168"/>
       <c r="AT56" s="48"/>
-      <c r="AU56" s="177" t="s">
+      <c r="AU56" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AV56" s="178"/>
-      <c r="AW56" s="178"/>
-      <c r="AX56" s="178"/>
-      <c r="AY56" s="179"/>
+      <c r="AV56" s="183"/>
+      <c r="AW56" s="183"/>
+      <c r="AX56" s="183"/>
+      <c r="AY56" s="205"/>
       <c r="AZ56" s="49" t="s">
         <v>54</v>
       </c>
@@ -6706,13 +6728,13 @@
       <c r="AI57" s="155"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="177" t="s">
+      <c r="AL57" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="178"/>
-      <c r="AN57" s="178"/>
-      <c r="AO57" s="178"/>
-      <c r="AP57" s="178"/>
+      <c r="AM57" s="183"/>
+      <c r="AN57" s="183"/>
+      <c r="AO57" s="183"/>
+      <c r="AP57" s="183"/>
       <c r="AQ57" s="47" t="s">
         <v>54</v>
       </c>
@@ -6721,13 +6743,13 @@
       </c>
       <c r="AS57" s="168"/>
       <c r="AT57" s="48"/>
-      <c r="AU57" s="177" t="s">
+      <c r="AU57" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AV57" s="178"/>
-      <c r="AW57" s="178"/>
-      <c r="AX57" s="178"/>
-      <c r="AY57" s="179"/>
+      <c r="AV57" s="183"/>
+      <c r="AW57" s="183"/>
+      <c r="AX57" s="183"/>
+      <c r="AY57" s="205"/>
       <c r="AZ57" s="49" t="s">
         <v>54</v>
       </c>
@@ -6792,13 +6814,13 @@
       <c r="AI58" s="155"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="46"/>
-      <c r="AL58" s="177" t="s">
+      <c r="AL58" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AM58" s="178"/>
-      <c r="AN58" s="178"/>
-      <c r="AO58" s="178"/>
-      <c r="AP58" s="178"/>
+      <c r="AM58" s="183"/>
+      <c r="AN58" s="183"/>
+      <c r="AO58" s="183"/>
+      <c r="AP58" s="183"/>
       <c r="AQ58" s="47" t="s">
         <v>54</v>
       </c>
@@ -6807,13 +6829,13 @@
       </c>
       <c r="AS58" s="168"/>
       <c r="AT58" s="48"/>
-      <c r="AU58" s="177" t="s">
+      <c r="AU58" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AV58" s="178"/>
-      <c r="AW58" s="178"/>
-      <c r="AX58" s="178"/>
-      <c r="AY58" s="179"/>
+      <c r="AV58" s="183"/>
+      <c r="AW58" s="183"/>
+      <c r="AX58" s="183"/>
+      <c r="AY58" s="205"/>
       <c r="AZ58" s="49" t="s">
         <v>54</v>
       </c>
@@ -6855,36 +6877,36 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="203" t="s">
+      <c r="S59" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="204"/>
-      <c r="U59" s="204"/>
-      <c r="V59" s="204"/>
-      <c r="W59" s="204"/>
-      <c r="X59" s="204"/>
-      <c r="Y59" s="204"/>
-      <c r="Z59" s="204"/>
+      <c r="T59" s="179"/>
+      <c r="U59" s="179"/>
+      <c r="V59" s="179"/>
+      <c r="W59" s="179"/>
+      <c r="X59" s="179"/>
+      <c r="Y59" s="179"/>
+      <c r="Z59" s="179"/>
       <c r="AA59" s="168"/>
-      <c r="AB59" s="203" t="s">
+      <c r="AB59" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="204"/>
-      <c r="AD59" s="204"/>
-      <c r="AE59" s="204"/>
-      <c r="AF59" s="204"/>
-      <c r="AG59" s="204"/>
-      <c r="AH59" s="204"/>
-      <c r="AI59" s="204"/>
+      <c r="AC59" s="179"/>
+      <c r="AD59" s="179"/>
+      <c r="AE59" s="179"/>
+      <c r="AF59" s="179"/>
+      <c r="AG59" s="179"/>
+      <c r="AH59" s="179"/>
+      <c r="AI59" s="179"/>
       <c r="AJ59" s="168"/>
       <c r="AK59" s="46"/>
-      <c r="AL59" s="177" t="s">
+      <c r="AL59" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AM59" s="178"/>
-      <c r="AN59" s="178"/>
-      <c r="AO59" s="178"/>
-      <c r="AP59" s="178"/>
+      <c r="AM59" s="183"/>
+      <c r="AN59" s="183"/>
+      <c r="AO59" s="183"/>
+      <c r="AP59" s="183"/>
       <c r="AQ59" s="47" t="s">
         <v>54</v>
       </c>
@@ -6893,13 +6915,13 @@
       </c>
       <c r="AS59" s="168"/>
       <c r="AT59" s="48"/>
-      <c r="AU59" s="177" t="s">
+      <c r="AU59" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AV59" s="178"/>
-      <c r="AW59" s="178"/>
-      <c r="AX59" s="178"/>
-      <c r="AY59" s="179"/>
+      <c r="AV59" s="183"/>
+      <c r="AW59" s="183"/>
+      <c r="AX59" s="183"/>
+      <c r="AY59" s="205"/>
       <c r="AZ59" s="49">
         <v>700</v>
       </c>
@@ -6988,13 +7010,13 @@
       </c>
       <c r="AJ60" s="168"/>
       <c r="AK60" s="46"/>
-      <c r="AL60" s="177" t="s">
+      <c r="AL60" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AM60" s="178"/>
-      <c r="AN60" s="178"/>
-      <c r="AO60" s="178"/>
-      <c r="AP60" s="178"/>
+      <c r="AM60" s="183"/>
+      <c r="AN60" s="183"/>
+      <c r="AO60" s="183"/>
+      <c r="AP60" s="183"/>
       <c r="AQ60" s="47" t="s">
         <v>54</v>
       </c>
@@ -7003,13 +7025,13 @@
       </c>
       <c r="AS60" s="168"/>
       <c r="AT60" s="48"/>
-      <c r="AU60" s="177" t="s">
+      <c r="AU60" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AV60" s="178"/>
-      <c r="AW60" s="178"/>
-      <c r="AX60" s="178"/>
-      <c r="AY60" s="179"/>
+      <c r="AV60" s="183"/>
+      <c r="AW60" s="183"/>
+      <c r="AX60" s="183"/>
+      <c r="AY60" s="205"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49">
         <v>4050</v>
@@ -7086,13 +7108,13 @@
       </c>
       <c r="AJ61" s="168"/>
       <c r="AK61" s="46"/>
-      <c r="AL61" s="177" t="s">
+      <c r="AL61" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AM61" s="178"/>
-      <c r="AN61" s="178"/>
-      <c r="AO61" s="178"/>
-      <c r="AP61" s="178"/>
+      <c r="AM61" s="183"/>
+      <c r="AN61" s="183"/>
+      <c r="AO61" s="183"/>
+      <c r="AP61" s="183"/>
       <c r="AQ61" s="47" t="s">
         <v>54</v>
       </c>
@@ -7101,13 +7123,13 @@
       </c>
       <c r="AS61" s="168"/>
       <c r="AT61" s="48"/>
-      <c r="AU61" s="180" t="s">
+      <c r="AU61" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="181"/>
-      <c r="AW61" s="181"/>
-      <c r="AX61" s="181"/>
-      <c r="AY61" s="182"/>
+      <c r="AV61" s="203"/>
+      <c r="AW61" s="203"/>
+      <c r="AX61" s="203"/>
+      <c r="AY61" s="204"/>
       <c r="AZ61" s="49">
         <v>1200</v>
       </c>
@@ -7184,13 +7206,13 @@
       </c>
       <c r="AJ62" s="168"/>
       <c r="AK62" s="46"/>
-      <c r="AL62" s="177" t="s">
+      <c r="AL62" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AM62" s="178"/>
-      <c r="AN62" s="178"/>
-      <c r="AO62" s="178"/>
-      <c r="AP62" s="178"/>
+      <c r="AM62" s="183"/>
+      <c r="AN62" s="183"/>
+      <c r="AO62" s="183"/>
+      <c r="AP62" s="183"/>
       <c r="AQ62" s="47" t="s">
         <v>54</v>
       </c>
@@ -7199,13 +7221,13 @@
       </c>
       <c r="AS62" s="168"/>
       <c r="AT62" s="48"/>
-      <c r="AU62" s="180" t="s">
+      <c r="AU62" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="AV62" s="181"/>
-      <c r="AW62" s="181"/>
-      <c r="AX62" s="181"/>
-      <c r="AY62" s="182"/>
+      <c r="AV62" s="203"/>
+      <c r="AW62" s="203"/>
+      <c r="AX62" s="203"/>
+      <c r="AY62" s="204"/>
       <c r="AZ62" s="49">
         <v>450</v>
       </c>
@@ -7282,13 +7304,13 @@
       </c>
       <c r="AJ63" s="168"/>
       <c r="AK63" s="46"/>
-      <c r="AL63" s="177" t="s">
+      <c r="AL63" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="AM63" s="178"/>
-      <c r="AN63" s="178"/>
-      <c r="AO63" s="178"/>
-      <c r="AP63" s="178"/>
+      <c r="AM63" s="183"/>
+      <c r="AN63" s="183"/>
+      <c r="AO63" s="183"/>
+      <c r="AP63" s="183"/>
       <c r="AQ63" s="47" t="s">
         <v>54</v>
       </c>
@@ -7297,13 +7319,13 @@
       </c>
       <c r="AS63" s="168"/>
       <c r="AT63" s="48"/>
-      <c r="AU63" s="180" t="s">
+      <c r="AU63" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="AV63" s="181"/>
-      <c r="AW63" s="181"/>
-      <c r="AX63" s="181"/>
-      <c r="AY63" s="182"/>
+      <c r="AV63" s="203"/>
+      <c r="AW63" s="203"/>
+      <c r="AX63" s="203"/>
+      <c r="AY63" s="204"/>
       <c r="AZ63" s="49">
         <v>145</v>
       </c>
@@ -7374,13 +7396,13 @@
       </c>
       <c r="AJ64" s="168"/>
       <c r="AK64" s="46"/>
-      <c r="AL64" s="177" t="s">
+      <c r="AL64" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="AM64" s="178"/>
-      <c r="AN64" s="178"/>
-      <c r="AO64" s="178"/>
-      <c r="AP64" s="178"/>
+      <c r="AM64" s="183"/>
+      <c r="AN64" s="183"/>
+      <c r="AO64" s="183"/>
+      <c r="AP64" s="183"/>
       <c r="AQ64" s="47" t="s">
         <v>54</v>
       </c>
@@ -7389,13 +7411,13 @@
       </c>
       <c r="AS64" s="168"/>
       <c r="AT64" s="48"/>
-      <c r="AU64" s="180" t="s">
+      <c r="AU64" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="AV64" s="181"/>
-      <c r="AW64" s="181"/>
-      <c r="AX64" s="181"/>
-      <c r="AY64" s="182"/>
+      <c r="AV64" s="203"/>
+      <c r="AW64" s="203"/>
+      <c r="AX64" s="203"/>
+      <c r="AY64" s="204"/>
       <c r="AZ64" s="49">
         <v>20</v>
       </c>
@@ -7604,25 +7626,25 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="195" t="s">
+      <c r="BC67" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BD67" s="196"/>
-      <c r="BE67" s="196"/>
-      <c r="BF67" s="196"/>
-      <c r="BG67" s="196"/>
-      <c r="BH67" s="196"/>
-      <c r="BI67" s="197"/>
+      <c r="BD67" s="191"/>
+      <c r="BE67" s="191"/>
+      <c r="BF67" s="191"/>
+      <c r="BG67" s="191"/>
+      <c r="BH67" s="191"/>
+      <c r="BI67" s="192"/>
       <c r="BJ67" s="7"/>
-      <c r="BK67" s="195" t="s">
+      <c r="BK67" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BL67" s="196"/>
-      <c r="BM67" s="196"/>
-      <c r="BN67" s="196"/>
-      <c r="BO67" s="196"/>
-      <c r="BP67" s="196"/>
-      <c r="BQ67" s="197"/>
+      <c r="BL67" s="191"/>
+      <c r="BM67" s="191"/>
+      <c r="BN67" s="191"/>
+      <c r="BO67" s="191"/>
+      <c r="BP67" s="191"/>
+      <c r="BQ67" s="192"/>
     </row>
     <row r="68" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="22"/>
@@ -7670,47 +7692,47 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="168"/>
-      <c r="AK68" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL68" s="190"/>
-      <c r="AM68" s="190"/>
-      <c r="AN68" s="190"/>
-      <c r="AO68" s="190"/>
-      <c r="AP68" s="190"/>
-      <c r="AQ68" s="190"/>
-      <c r="AR68" s="190"/>
+      <c r="AK68" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL68" s="194"/>
+      <c r="AM68" s="194"/>
+      <c r="AN68" s="194"/>
+      <c r="AO68" s="194"/>
+      <c r="AP68" s="194"/>
+      <c r="AQ68" s="194"/>
+      <c r="AR68" s="194"/>
       <c r="AS68" s="168"/>
-      <c r="AT68" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU68" s="190"/>
-      <c r="AV68" s="190"/>
-      <c r="AW68" s="190"/>
-      <c r="AX68" s="190"/>
-      <c r="AY68" s="190"/>
-      <c r="AZ68" s="190"/>
-      <c r="BA68" s="194"/>
+      <c r="AT68" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU68" s="194"/>
+      <c r="AV68" s="194"/>
+      <c r="AW68" s="194"/>
+      <c r="AX68" s="194"/>
+      <c r="AY68" s="194"/>
+      <c r="AZ68" s="194"/>
+      <c r="BA68" s="206"/>
       <c r="BB68" s="168"/>
-      <c r="BC68" s="212" t="s">
+      <c r="BC68" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="BD68" s="213"/>
-      <c r="BE68" s="213"/>
-      <c r="BF68" s="213"/>
-      <c r="BG68" s="213"/>
-      <c r="BH68" s="213"/>
-      <c r="BI68" s="214"/>
+      <c r="BD68" s="185"/>
+      <c r="BE68" s="185"/>
+      <c r="BF68" s="185"/>
+      <c r="BG68" s="185"/>
+      <c r="BH68" s="185"/>
+      <c r="BI68" s="186"/>
       <c r="BJ68" s="7"/>
-      <c r="BK68" s="212" t="s">
+      <c r="BK68" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="BL68" s="213"/>
-      <c r="BM68" s="213"/>
-      <c r="BN68" s="213"/>
-      <c r="BO68" s="213"/>
-      <c r="BP68" s="213"/>
-      <c r="BQ68" s="214"/>
+      <c r="BL68" s="185"/>
+      <c r="BM68" s="185"/>
+      <c r="BN68" s="185"/>
+      <c r="BO68" s="185"/>
+      <c r="BP68" s="185"/>
+      <c r="BQ68" s="186"/>
     </row>
     <row r="69" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
@@ -7760,48 +7782,48 @@
         <v>230</v>
       </c>
       <c r="AJ69" s="168"/>
-      <c r="AK69" s="191" t="s">
+      <c r="AK69" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="AL69" s="190"/>
-      <c r="AM69" s="190"/>
-      <c r="AN69" s="190"/>
-      <c r="AO69" s="190"/>
-      <c r="AP69" s="190"/>
-      <c r="AQ69" s="190"/>
-      <c r="AR69" s="190"/>
+      <c r="AL69" s="194"/>
+      <c r="AM69" s="194"/>
+      <c r="AN69" s="194"/>
+      <c r="AO69" s="194"/>
+      <c r="AP69" s="194"/>
+      <c r="AQ69" s="194"/>
+      <c r="AR69" s="194"/>
       <c r="AS69" s="168"/>
-      <c r="AT69" s="191" t="s">
+      <c r="AT69" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="AU69" s="191"/>
-      <c r="AV69" s="191"/>
-      <c r="AW69" s="191"/>
-      <c r="AX69" s="191"/>
-      <c r="AY69" s="191"/>
-      <c r="AZ69" s="191"/>
-      <c r="BA69" s="192"/>
+      <c r="AU69" s="193"/>
+      <c r="AV69" s="193"/>
+      <c r="AW69" s="193"/>
+      <c r="AX69" s="193"/>
+      <c r="AY69" s="193"/>
+      <c r="AZ69" s="193"/>
+      <c r="BA69" s="195"/>
       <c r="BB69" s="168"/>
-      <c r="BC69" s="201" t="str">
+      <c r="BC69" s="200" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD69" s="202"/>
-      <c r="BE69" s="202"/>
-      <c r="BF69" s="202"/>
-      <c r="BG69" s="202"/>
-      <c r="BH69" s="202"/>
+      <c r="BD69" s="201"/>
+      <c r="BE69" s="201"/>
+      <c r="BF69" s="201"/>
+      <c r="BG69" s="201"/>
+      <c r="BH69" s="201"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="7"/>
-      <c r="BK69" s="201" t="str">
+      <c r="BK69" s="200" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL69" s="202"/>
-      <c r="BM69" s="202"/>
-      <c r="BN69" s="202"/>
-      <c r="BO69" s="202"/>
-      <c r="BP69" s="202"/>
+      <c r="BL69" s="201"/>
+      <c r="BM69" s="201"/>
+      <c r="BN69" s="201"/>
+      <c r="BO69" s="201"/>
+      <c r="BP69" s="201"/>
       <c r="BQ69" s="13"/>
     </row>
     <row r="70" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7852,14 +7874,14 @@
         <v>54</v>
       </c>
       <c r="AJ70" s="168"/>
-      <c r="AK70" s="189" t="s">
+      <c r="AK70" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="AL70" s="189"/>
-      <c r="AM70" s="189"/>
-      <c r="AN70" s="189"/>
-      <c r="AO70" s="189"/>
-      <c r="AP70" s="189"/>
+      <c r="AL70" s="196"/>
+      <c r="AM70" s="196"/>
+      <c r="AN70" s="196"/>
+      <c r="AO70" s="196"/>
+      <c r="AP70" s="196"/>
       <c r="AQ70" s="141" t="s">
         <v>26</v>
       </c>
@@ -7868,13 +7890,13 @@
       </c>
       <c r="AS70" s="168"/>
       <c r="AT70" s="43"/>
-      <c r="AU70" s="186" t="s">
+      <c r="AU70" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AV70" s="187"/>
-      <c r="AW70" s="187"/>
-      <c r="AX70" s="187"/>
-      <c r="AY70" s="188"/>
+      <c r="AV70" s="198"/>
+      <c r="AW70" s="198"/>
+      <c r="AX70" s="198"/>
+      <c r="AY70" s="199"/>
       <c r="AZ70" s="156" t="s">
         <v>26</v>
       </c>
@@ -8037,13 +8059,13 @@
       <c r="AI72" s="155"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="46"/>
-      <c r="AL72" s="183" t="s">
+      <c r="AL72" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AM72" s="184"/>
-      <c r="AN72" s="184"/>
-      <c r="AO72" s="184"/>
-      <c r="AP72" s="184"/>
+      <c r="AM72" s="181"/>
+      <c r="AN72" s="181"/>
+      <c r="AO72" s="181"/>
+      <c r="AP72" s="181"/>
       <c r="AQ72" s="47" t="s">
         <v>54</v>
       </c>
@@ -8052,13 +8074,13 @@
       </c>
       <c r="AS72" s="168"/>
       <c r="AT72" s="48"/>
-      <c r="AU72" s="183" t="s">
+      <c r="AU72" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AV72" s="184"/>
-      <c r="AW72" s="184"/>
-      <c r="AX72" s="184"/>
-      <c r="AY72" s="185"/>
+      <c r="AV72" s="181"/>
+      <c r="AW72" s="181"/>
+      <c r="AX72" s="181"/>
+      <c r="AY72" s="219"/>
       <c r="AZ72" s="49">
         <v>5400</v>
       </c>
@@ -8121,13 +8143,13 @@
       <c r="AI73" s="155"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="46"/>
-      <c r="AL73" s="177" t="s">
+      <c r="AL73" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AM73" s="178"/>
-      <c r="AN73" s="178"/>
-      <c r="AO73" s="178"/>
-      <c r="AP73" s="178"/>
+      <c r="AM73" s="183"/>
+      <c r="AN73" s="183"/>
+      <c r="AO73" s="183"/>
+      <c r="AP73" s="183"/>
       <c r="AQ73" s="47" t="s">
         <v>54</v>
       </c>
@@ -8136,13 +8158,13 @@
       </c>
       <c r="AS73" s="168"/>
       <c r="AT73" s="48"/>
-      <c r="AU73" s="177" t="s">
+      <c r="AU73" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="AV73" s="178"/>
-      <c r="AW73" s="178"/>
-      <c r="AX73" s="178"/>
-      <c r="AY73" s="179"/>
+      <c r="AV73" s="183"/>
+      <c r="AW73" s="183"/>
+      <c r="AX73" s="183"/>
+      <c r="AY73" s="205"/>
       <c r="AZ73" s="49" t="s">
         <v>54</v>
       </c>
@@ -8203,13 +8225,13 @@
       <c r="AI74" s="155"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="46"/>
-      <c r="AL74" s="177" t="s">
+      <c r="AL74" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AM74" s="178"/>
-      <c r="AN74" s="178"/>
-      <c r="AO74" s="178"/>
-      <c r="AP74" s="178"/>
+      <c r="AM74" s="183"/>
+      <c r="AN74" s="183"/>
+      <c r="AO74" s="183"/>
+      <c r="AP74" s="183"/>
       <c r="AQ74" s="47" t="s">
         <v>54</v>
       </c>
@@ -8218,13 +8240,13 @@
       </c>
       <c r="AS74" s="168"/>
       <c r="AT74" s="48"/>
-      <c r="AU74" s="177" t="s">
+      <c r="AU74" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AV74" s="178"/>
-      <c r="AW74" s="178"/>
-      <c r="AX74" s="178"/>
-      <c r="AY74" s="179"/>
+      <c r="AV74" s="183"/>
+      <c r="AW74" s="183"/>
+      <c r="AX74" s="183"/>
+      <c r="AY74" s="205"/>
       <c r="AZ74" s="49" t="s">
         <v>54</v>
       </c>
@@ -8270,36 +8292,36 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="203" t="s">
+      <c r="S75" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="T75" s="204"/>
-      <c r="U75" s="204"/>
-      <c r="V75" s="204"/>
-      <c r="W75" s="204"/>
-      <c r="X75" s="204"/>
-      <c r="Y75" s="204"/>
-      <c r="Z75" s="204"/>
+      <c r="T75" s="179"/>
+      <c r="U75" s="179"/>
+      <c r="V75" s="179"/>
+      <c r="W75" s="179"/>
+      <c r="X75" s="179"/>
+      <c r="Y75" s="179"/>
+      <c r="Z75" s="179"/>
       <c r="AA75" s="168"/>
-      <c r="AB75" s="203" t="s">
+      <c r="AB75" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="AC75" s="204"/>
-      <c r="AD75" s="204"/>
-      <c r="AE75" s="204"/>
-      <c r="AF75" s="204"/>
-      <c r="AG75" s="204"/>
-      <c r="AH75" s="204"/>
-      <c r="AI75" s="204"/>
+      <c r="AC75" s="179"/>
+      <c r="AD75" s="179"/>
+      <c r="AE75" s="179"/>
+      <c r="AF75" s="179"/>
+      <c r="AG75" s="179"/>
+      <c r="AH75" s="179"/>
+      <c r="AI75" s="179"/>
       <c r="AJ75" s="168"/>
       <c r="AK75" s="46"/>
-      <c r="AL75" s="177" t="s">
+      <c r="AL75" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AM75" s="178"/>
-      <c r="AN75" s="178"/>
-      <c r="AO75" s="178"/>
-      <c r="AP75" s="178"/>
+      <c r="AM75" s="183"/>
+      <c r="AN75" s="183"/>
+      <c r="AO75" s="183"/>
+      <c r="AP75" s="183"/>
       <c r="AQ75" s="47" t="s">
         <v>54</v>
       </c>
@@ -8308,13 +8330,13 @@
       </c>
       <c r="AS75" s="168"/>
       <c r="AT75" s="48"/>
-      <c r="AU75" s="177" t="s">
+      <c r="AU75" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AV75" s="178"/>
-      <c r="AW75" s="178"/>
-      <c r="AX75" s="178"/>
-      <c r="AY75" s="179"/>
+      <c r="AV75" s="183"/>
+      <c r="AW75" s="183"/>
+      <c r="AX75" s="183"/>
+      <c r="AY75" s="205"/>
       <c r="AZ75" s="49" t="s">
         <v>54</v>
       </c>
@@ -8401,13 +8423,13 @@
       </c>
       <c r="AJ76" s="168"/>
       <c r="AK76" s="46"/>
-      <c r="AL76" s="177" t="s">
+      <c r="AL76" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AM76" s="178"/>
-      <c r="AN76" s="178"/>
-      <c r="AO76" s="178"/>
-      <c r="AP76" s="178"/>
+      <c r="AM76" s="183"/>
+      <c r="AN76" s="183"/>
+      <c r="AO76" s="183"/>
+      <c r="AP76" s="183"/>
       <c r="AQ76" s="47" t="s">
         <v>54</v>
       </c>
@@ -8416,13 +8438,13 @@
       </c>
       <c r="AS76" s="168"/>
       <c r="AT76" s="48"/>
-      <c r="AU76" s="177" t="s">
+      <c r="AU76" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AV76" s="178"/>
-      <c r="AW76" s="178"/>
-      <c r="AX76" s="178"/>
-      <c r="AY76" s="179"/>
+      <c r="AV76" s="183"/>
+      <c r="AW76" s="183"/>
+      <c r="AX76" s="183"/>
+      <c r="AY76" s="205"/>
       <c r="AZ76" s="49">
         <v>0</v>
       </c>
@@ -8501,13 +8523,13 @@
       </c>
       <c r="AJ77" s="168"/>
       <c r="AK77" s="46"/>
-      <c r="AL77" s="177" t="s">
+      <c r="AL77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AM77" s="178"/>
-      <c r="AN77" s="178"/>
-      <c r="AO77" s="178"/>
-      <c r="AP77" s="178"/>
+      <c r="AM77" s="183"/>
+      <c r="AN77" s="183"/>
+      <c r="AO77" s="183"/>
+      <c r="AP77" s="183"/>
       <c r="AQ77" s="47" t="s">
         <v>54</v>
       </c>
@@ -8516,13 +8538,13 @@
       </c>
       <c r="AS77" s="168"/>
       <c r="AT77" s="48"/>
-      <c r="AU77" s="177" t="s">
+      <c r="AU77" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AV77" s="178"/>
-      <c r="AW77" s="178"/>
-      <c r="AX77" s="178"/>
-      <c r="AY77" s="179"/>
+      <c r="AV77" s="183"/>
+      <c r="AW77" s="183"/>
+      <c r="AX77" s="183"/>
+      <c r="AY77" s="205"/>
       <c r="AZ77" s="49" t="s">
         <v>54</v>
       </c>
@@ -8599,13 +8621,13 @@
       </c>
       <c r="AJ78" s="168"/>
       <c r="AK78" s="46"/>
-      <c r="AL78" s="177" t="s">
+      <c r="AL78" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AM78" s="178"/>
-      <c r="AN78" s="178"/>
-      <c r="AO78" s="178"/>
-      <c r="AP78" s="178"/>
+      <c r="AM78" s="183"/>
+      <c r="AN78" s="183"/>
+      <c r="AO78" s="183"/>
+      <c r="AP78" s="183"/>
       <c r="AQ78" s="47" t="s">
         <v>54</v>
       </c>
@@ -8614,13 +8636,13 @@
       </c>
       <c r="AS78" s="168"/>
       <c r="AT78" s="48"/>
-      <c r="AU78" s="180" t="s">
+      <c r="AU78" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AV78" s="181"/>
-      <c r="AW78" s="181"/>
-      <c r="AX78" s="181"/>
-      <c r="AY78" s="182"/>
+      <c r="AV78" s="203"/>
+      <c r="AW78" s="203"/>
+      <c r="AX78" s="203"/>
+      <c r="AY78" s="204"/>
       <c r="AZ78" s="49">
         <v>0</v>
       </c>
@@ -8699,13 +8721,13 @@
       </c>
       <c r="AJ79" s="168"/>
       <c r="AK79" s="46"/>
-      <c r="AL79" s="177" t="s">
+      <c r="AL79" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="178"/>
-      <c r="AN79" s="178"/>
-      <c r="AO79" s="178"/>
-      <c r="AP79" s="178"/>
+      <c r="AM79" s="183"/>
+      <c r="AN79" s="183"/>
+      <c r="AO79" s="183"/>
+      <c r="AP79" s="183"/>
       <c r="AQ79" s="47" t="s">
         <v>54</v>
       </c>
@@ -8714,13 +8736,13 @@
       </c>
       <c r="AS79" s="168"/>
       <c r="AT79" s="48"/>
-      <c r="AU79" s="180" t="s">
+      <c r="AU79" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="AV79" s="181"/>
-      <c r="AW79" s="181"/>
-      <c r="AX79" s="181"/>
-      <c r="AY79" s="182"/>
+      <c r="AV79" s="203"/>
+      <c r="AW79" s="203"/>
+      <c r="AX79" s="203"/>
+      <c r="AY79" s="204"/>
       <c r="AZ79" s="49">
         <v>0</v>
       </c>
@@ -8797,13 +8819,13 @@
       </c>
       <c r="AJ80" s="168"/>
       <c r="AK80" s="46"/>
-      <c r="AL80" s="177" t="s">
+      <c r="AL80" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="AM80" s="178"/>
-      <c r="AN80" s="178"/>
-      <c r="AO80" s="178"/>
-      <c r="AP80" s="178"/>
+      <c r="AM80" s="183"/>
+      <c r="AN80" s="183"/>
+      <c r="AO80" s="183"/>
+      <c r="AP80" s="183"/>
       <c r="AQ80" s="47" t="s">
         <v>54</v>
       </c>
@@ -8812,13 +8834,13 @@
       </c>
       <c r="AS80" s="168"/>
       <c r="AT80" s="48"/>
-      <c r="AU80" s="180" t="s">
+      <c r="AU80" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="AV80" s="181"/>
-      <c r="AW80" s="181"/>
-      <c r="AX80" s="181"/>
-      <c r="AY80" s="182"/>
+      <c r="AV80" s="203"/>
+      <c r="AW80" s="203"/>
+      <c r="AX80" s="203"/>
+      <c r="AY80" s="204"/>
       <c r="AZ80" s="49">
         <v>0</v>
       </c>
@@ -8883,13 +8905,13 @@
       <c r="AI81" s="155"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="46"/>
-      <c r="AL81" s="177" t="s">
+      <c r="AL81" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="AM81" s="178"/>
-      <c r="AN81" s="178"/>
-      <c r="AO81" s="178"/>
-      <c r="AP81" s="178"/>
+      <c r="AM81" s="183"/>
+      <c r="AN81" s="183"/>
+      <c r="AO81" s="183"/>
+      <c r="AP81" s="183"/>
       <c r="AQ81" s="47" t="s">
         <v>54</v>
       </c>
@@ -8898,13 +8920,13 @@
       </c>
       <c r="AS81" s="168"/>
       <c r="AT81" s="48"/>
-      <c r="AU81" s="180" t="s">
+      <c r="AU81" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="AV81" s="181"/>
-      <c r="AW81" s="181"/>
-      <c r="AX81" s="181"/>
-      <c r="AY81" s="182"/>
+      <c r="AV81" s="203"/>
+      <c r="AW81" s="203"/>
+      <c r="AX81" s="203"/>
+      <c r="AY81" s="204"/>
       <c r="AZ81" s="49">
         <v>0</v>
       </c>
@@ -9045,27 +9067,27 @@
       </c>
       <c r="Q84" s="169"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="203" t="s">
+      <c r="S84" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="T84" s="204"/>
-      <c r="U84" s="204"/>
-      <c r="V84" s="204"/>
-      <c r="W84" s="204"/>
-      <c r="X84" s="204"/>
-      <c r="Y84" s="204"/>
-      <c r="Z84" s="204"/>
+      <c r="T84" s="179"/>
+      <c r="U84" s="179"/>
+      <c r="V84" s="179"/>
+      <c r="W84" s="179"/>
+      <c r="X84" s="179"/>
+      <c r="Y84" s="179"/>
+      <c r="Z84" s="179"/>
       <c r="AA84" s="168"/>
-      <c r="AB84" s="203" t="s">
+      <c r="AB84" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="AC84" s="204"/>
-      <c r="AD84" s="204"/>
-      <c r="AE84" s="204"/>
-      <c r="AF84" s="204"/>
-      <c r="AG84" s="204"/>
-      <c r="AH84" s="204"/>
-      <c r="AI84" s="204"/>
+      <c r="AC84" s="179"/>
+      <c r="AD84" s="179"/>
+      <c r="AE84" s="179"/>
+      <c r="AF84" s="179"/>
+      <c r="AG84" s="179"/>
+      <c r="AH84" s="179"/>
+      <c r="AI84" s="179"/>
       <c r="AJ84" s="168"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -9085,25 +9107,25 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="195" t="s">
+      <c r="BC84" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BD84" s="196"/>
-      <c r="BE84" s="196"/>
-      <c r="BF84" s="196"/>
-      <c r="BG84" s="196"/>
-      <c r="BH84" s="196"/>
-      <c r="BI84" s="197"/>
+      <c r="BD84" s="191"/>
+      <c r="BE84" s="191"/>
+      <c r="BF84" s="191"/>
+      <c r="BG84" s="191"/>
+      <c r="BH84" s="191"/>
+      <c r="BI84" s="192"/>
       <c r="BJ84" s="7"/>
-      <c r="BK84" s="195" t="s">
+      <c r="BK84" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BL84" s="196"/>
-      <c r="BM84" s="196"/>
-      <c r="BN84" s="196"/>
-      <c r="BO84" s="196"/>
-      <c r="BP84" s="196"/>
-      <c r="BQ84" s="197"/>
+      <c r="BL84" s="191"/>
+      <c r="BM84" s="191"/>
+      <c r="BN84" s="191"/>
+      <c r="BO84" s="191"/>
+      <c r="BP84" s="191"/>
+      <c r="BQ84" s="192"/>
     </row>
     <row r="85" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="14"/>
@@ -9183,25 +9205,25 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="198" t="s">
+      <c r="BC85" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="BD85" s="199"/>
-      <c r="BE85" s="199"/>
-      <c r="BF85" s="199"/>
-      <c r="BG85" s="199"/>
-      <c r="BH85" s="199"/>
-      <c r="BI85" s="200"/>
+      <c r="BD85" s="208"/>
+      <c r="BE85" s="208"/>
+      <c r="BF85" s="208"/>
+      <c r="BG85" s="208"/>
+      <c r="BH85" s="208"/>
+      <c r="BI85" s="209"/>
       <c r="BJ85" s="7"/>
-      <c r="BK85" s="198" t="s">
+      <c r="BK85" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="BL85" s="199"/>
-      <c r="BM85" s="199"/>
-      <c r="BN85" s="199"/>
-      <c r="BO85" s="199"/>
-      <c r="BP85" s="199"/>
-      <c r="BQ85" s="200"/>
+      <c r="BL85" s="208"/>
+      <c r="BM85" s="208"/>
+      <c r="BN85" s="208"/>
+      <c r="BO85" s="208"/>
+      <c r="BP85" s="208"/>
+      <c r="BQ85" s="209"/>
     </row>
     <row r="86" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="22"/>
@@ -9267,26 +9289,26 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="201" t="str">
+      <c r="BC86" s="200" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD86" s="202"/>
-      <c r="BE86" s="202"/>
-      <c r="BF86" s="202"/>
-      <c r="BG86" s="202"/>
-      <c r="BH86" s="202"/>
+      <c r="BD86" s="201"/>
+      <c r="BE86" s="201"/>
+      <c r="BF86" s="201"/>
+      <c r="BG86" s="201"/>
+      <c r="BH86" s="201"/>
       <c r="BI86" s="13"/>
       <c r="BJ86" s="7"/>
-      <c r="BK86" s="201" t="str">
+      <c r="BK86" s="200" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL86" s="202"/>
-      <c r="BM86" s="202"/>
-      <c r="BN86" s="202"/>
-      <c r="BO86" s="202"/>
-      <c r="BP86" s="202"/>
+      <c r="BL86" s="201"/>
+      <c r="BM86" s="201"/>
+      <c r="BN86" s="201"/>
+      <c r="BO86" s="201"/>
+      <c r="BP86" s="201"/>
       <c r="BQ86" s="13"/>
     </row>
     <row r="87" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10191,25 +10213,25 @@
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
-      <c r="BC97" s="195" t="s">
+      <c r="BC97" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BD97" s="196"/>
-      <c r="BE97" s="196"/>
-      <c r="BF97" s="196"/>
-      <c r="BG97" s="196"/>
-      <c r="BH97" s="196"/>
-      <c r="BI97" s="197"/>
+      <c r="BD97" s="191"/>
+      <c r="BE97" s="191"/>
+      <c r="BF97" s="191"/>
+      <c r="BG97" s="191"/>
+      <c r="BH97" s="191"/>
+      <c r="BI97" s="192"/>
       <c r="BJ97" s="7"/>
-      <c r="BK97" s="195" t="s">
+      <c r="BK97" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="BL97" s="196"/>
-      <c r="BM97" s="196"/>
-      <c r="BN97" s="196"/>
-      <c r="BO97" s="196"/>
-      <c r="BP97" s="196"/>
-      <c r="BQ97" s="197"/>
+      <c r="BL97" s="191"/>
+      <c r="BM97" s="191"/>
+      <c r="BN97" s="191"/>
+      <c r="BO97" s="191"/>
+      <c r="BP97" s="191"/>
+      <c r="BQ97" s="192"/>
     </row>
     <row r="98" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="22"/>
@@ -10279,25 +10301,25 @@
       <c r="AZ98" s="3"/>
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
-      <c r="BC98" s="212" t="s">
+      <c r="BC98" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="BD98" s="213"/>
-      <c r="BE98" s="213"/>
-      <c r="BF98" s="213"/>
-      <c r="BG98" s="213"/>
-      <c r="BH98" s="213"/>
-      <c r="BI98" s="214"/>
+      <c r="BD98" s="185"/>
+      <c r="BE98" s="185"/>
+      <c r="BF98" s="185"/>
+      <c r="BG98" s="185"/>
+      <c r="BH98" s="185"/>
+      <c r="BI98" s="186"/>
       <c r="BJ98" s="7"/>
-      <c r="BK98" s="212" t="s">
+      <c r="BK98" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="BL98" s="213"/>
-      <c r="BM98" s="213"/>
-      <c r="BN98" s="213"/>
-      <c r="BO98" s="213"/>
-      <c r="BP98" s="213"/>
-      <c r="BQ98" s="214"/>
+      <c r="BL98" s="185"/>
+      <c r="BM98" s="185"/>
+      <c r="BN98" s="185"/>
+      <c r="BO98" s="185"/>
+      <c r="BP98" s="185"/>
+      <c r="BQ98" s="186"/>
     </row>
     <row r="99" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="40"/>
@@ -10367,27 +10389,27 @@
       <c r="AZ99" s="3"/>
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
-      <c r="BC99" s="217" t="str">
+      <c r="BC99" s="187" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BD99" s="218"/>
-      <c r="BE99" s="218"/>
-      <c r="BF99" s="218"/>
-      <c r="BG99" s="218"/>
-      <c r="BH99" s="218"/>
-      <c r="BI99" s="219"/>
+      <c r="BD99" s="188"/>
+      <c r="BE99" s="188"/>
+      <c r="BF99" s="188"/>
+      <c r="BG99" s="188"/>
+      <c r="BH99" s="188"/>
+      <c r="BI99" s="189"/>
       <c r="BJ99" s="7"/>
-      <c r="BK99" s="217" t="str">
+      <c r="BK99" s="187" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BL99" s="218"/>
-      <c r="BM99" s="218"/>
-      <c r="BN99" s="218"/>
-      <c r="BO99" s="218"/>
-      <c r="BP99" s="218"/>
-      <c r="BQ99" s="219"/>
+      <c r="BL99" s="188"/>
+      <c r="BM99" s="188"/>
+      <c r="BN99" s="188"/>
+      <c r="BO99" s="188"/>
+      <c r="BP99" s="188"/>
+      <c r="BQ99" s="189"/>
     </row>
     <row r="100" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="22"/>
@@ -10627,27 +10649,27 @@
       </c>
       <c r="Q103" s="165"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="203" t="s">
+      <c r="S103" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="T103" s="204"/>
-      <c r="U103" s="204"/>
-      <c r="V103" s="204"/>
-      <c r="W103" s="204"/>
-      <c r="X103" s="204"/>
-      <c r="Y103" s="204"/>
-      <c r="Z103" s="204"/>
+      <c r="T103" s="179"/>
+      <c r="U103" s="179"/>
+      <c r="V103" s="179"/>
+      <c r="W103" s="179"/>
+      <c r="X103" s="179"/>
+      <c r="Y103" s="179"/>
+      <c r="Z103" s="179"/>
       <c r="AA103" s="168"/>
-      <c r="AB103" s="203" t="s">
+      <c r="AB103" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="204"/>
-      <c r="AD103" s="204"/>
-      <c r="AE103" s="204"/>
-      <c r="AF103" s="204"/>
-      <c r="AG103" s="204"/>
-      <c r="AH103" s="204"/>
-      <c r="AI103" s="204"/>
+      <c r="AC103" s="179"/>
+      <c r="AD103" s="179"/>
+      <c r="AE103" s="179"/>
+      <c r="AF103" s="179"/>
+      <c r="AG103" s="179"/>
+      <c r="AH103" s="179"/>
+      <c r="AI103" s="179"/>
       <c r="AJ103" s="168"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
@@ -11399,27 +11421,27 @@
     </row>
     <row r="114" spans="18:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="58"/>
-      <c r="S114" s="203" t="s">
+      <c r="S114" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="T114" s="204"/>
-      <c r="U114" s="204"/>
-      <c r="V114" s="204"/>
-      <c r="W114" s="204"/>
-      <c r="X114" s="204"/>
-      <c r="Y114" s="204"/>
-      <c r="Z114" s="204"/>
+      <c r="T114" s="179"/>
+      <c r="U114" s="179"/>
+      <c r="V114" s="179"/>
+      <c r="W114" s="179"/>
+      <c r="X114" s="179"/>
+      <c r="Y114" s="179"/>
+      <c r="Z114" s="179"/>
       <c r="AA114" s="168"/>
-      <c r="AB114" s="203" t="s">
+      <c r="AB114" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="AC114" s="204"/>
-      <c r="AD114" s="204"/>
-      <c r="AE114" s="204"/>
-      <c r="AF114" s="204"/>
-      <c r="AG114" s="204"/>
-      <c r="AH114" s="204"/>
-      <c r="AI114" s="204"/>
+      <c r="AC114" s="179"/>
+      <c r="AD114" s="179"/>
+      <c r="AE114" s="179"/>
+      <c r="AF114" s="179"/>
+      <c r="AG114" s="179"/>
+      <c r="AH114" s="179"/>
+      <c r="AI114" s="179"/>
       <c r="AJ114" s="168"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
@@ -12240,27 +12262,27 @@
     </row>
     <row r="131" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R131" s="58"/>
-      <c r="S131" s="203" t="s">
+      <c r="S131" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="204"/>
-      <c r="U131" s="204"/>
-      <c r="V131" s="204"/>
-      <c r="W131" s="204"/>
-      <c r="X131" s="204"/>
-      <c r="Y131" s="204"/>
-      <c r="Z131" s="204"/>
+      <c r="T131" s="179"/>
+      <c r="U131" s="179"/>
+      <c r="V131" s="179"/>
+      <c r="W131" s="179"/>
+      <c r="X131" s="179"/>
+      <c r="Y131" s="179"/>
+      <c r="Z131" s="179"/>
       <c r="AA131" s="168"/>
-      <c r="AB131" s="203" t="s">
+      <c r="AB131" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AC131" s="204"/>
-      <c r="AD131" s="204"/>
-      <c r="AE131" s="204"/>
-      <c r="AF131" s="204"/>
-      <c r="AG131" s="204"/>
-      <c r="AH131" s="204"/>
-      <c r="AI131" s="204"/>
+      <c r="AC131" s="179"/>
+      <c r="AD131" s="179"/>
+      <c r="AE131" s="179"/>
+      <c r="AF131" s="179"/>
+      <c r="AG131" s="179"/>
+      <c r="AH131" s="179"/>
+      <c r="AI131" s="179"/>
       <c r="AJ131" s="168"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
@@ -12873,27 +12895,27 @@
     </row>
     <row r="144" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R144" s="17"/>
-      <c r="S144" s="203" t="s">
+      <c r="S144" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="T144" s="204"/>
-      <c r="U144" s="204"/>
-      <c r="V144" s="204"/>
-      <c r="W144" s="204"/>
-      <c r="X144" s="204"/>
-      <c r="Y144" s="204"/>
-      <c r="Z144" s="204"/>
+      <c r="T144" s="179"/>
+      <c r="U144" s="179"/>
+      <c r="V144" s="179"/>
+      <c r="W144" s="179"/>
+      <c r="X144" s="179"/>
+      <c r="Y144" s="179"/>
+      <c r="Z144" s="179"/>
       <c r="AA144" s="168"/>
-      <c r="AB144" s="203" t="s">
+      <c r="AB144" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="AC144" s="204"/>
-      <c r="AD144" s="204"/>
-      <c r="AE144" s="204"/>
-      <c r="AF144" s="204"/>
-      <c r="AG144" s="204"/>
-      <c r="AH144" s="204"/>
-      <c r="AI144" s="204"/>
+      <c r="AC144" s="179"/>
+      <c r="AD144" s="179"/>
+      <c r="AE144" s="179"/>
+      <c r="AF144" s="179"/>
+      <c r="AG144" s="179"/>
+      <c r="AH144" s="179"/>
+      <c r="AI144" s="179"/>
       <c r="AJ144" s="168"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
@@ -13612,27 +13634,27 @@
     </row>
     <row r="159" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R159" s="4"/>
-      <c r="S159" s="203" t="s">
+      <c r="S159" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="T159" s="204"/>
-      <c r="U159" s="204"/>
-      <c r="V159" s="204"/>
-      <c r="W159" s="204"/>
-      <c r="X159" s="204"/>
-      <c r="Y159" s="204"/>
-      <c r="Z159" s="204"/>
+      <c r="T159" s="179"/>
+      <c r="U159" s="179"/>
+      <c r="V159" s="179"/>
+      <c r="W159" s="179"/>
+      <c r="X159" s="179"/>
+      <c r="Y159" s="179"/>
+      <c r="Z159" s="179"/>
       <c r="AA159" s="168"/>
-      <c r="AB159" s="203" t="s">
+      <c r="AB159" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="AC159" s="204"/>
-      <c r="AD159" s="204"/>
-      <c r="AE159" s="204"/>
-      <c r="AF159" s="204"/>
-      <c r="AG159" s="204"/>
-      <c r="AH159" s="204"/>
-      <c r="AI159" s="204"/>
+      <c r="AC159" s="179"/>
+      <c r="AD159" s="179"/>
+      <c r="AE159" s="179"/>
+      <c r="AF159" s="179"/>
+      <c r="AG159" s="179"/>
+      <c r="AH159" s="179"/>
+      <c r="AI159" s="179"/>
       <c r="AJ159" s="168"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
@@ -14137,27 +14159,27 @@
     </row>
     <row r="170" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R170" s="17"/>
-      <c r="S170" s="203" t="s">
+      <c r="S170" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="T170" s="204"/>
-      <c r="U170" s="204"/>
-      <c r="V170" s="204"/>
-      <c r="W170" s="204"/>
-      <c r="X170" s="204"/>
-      <c r="Y170" s="204"/>
-      <c r="Z170" s="204"/>
+      <c r="T170" s="179"/>
+      <c r="U170" s="179"/>
+      <c r="V170" s="179"/>
+      <c r="W170" s="179"/>
+      <c r="X170" s="179"/>
+      <c r="Y170" s="179"/>
+      <c r="Z170" s="179"/>
       <c r="AA170" s="1"/>
-      <c r="AB170" s="203" t="s">
+      <c r="AB170" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="AC170" s="204"/>
-      <c r="AD170" s="204"/>
-      <c r="AE170" s="204"/>
-      <c r="AF170" s="204"/>
-      <c r="AG170" s="204"/>
-      <c r="AH170" s="204"/>
-      <c r="AI170" s="204"/>
+      <c r="AC170" s="179"/>
+      <c r="AD170" s="179"/>
+      <c r="AE170" s="179"/>
+      <c r="AF170" s="179"/>
+      <c r="AG170" s="179"/>
+      <c r="AH170" s="179"/>
+      <c r="AI170" s="179"/>
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
@@ -14670,14 +14692,14 @@
     </row>
     <row r="183" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R183" s="17"/>
-      <c r="S183" s="215"/>
-      <c r="T183" s="215"/>
-      <c r="U183" s="215"/>
-      <c r="V183" s="215"/>
-      <c r="W183" s="215"/>
-      <c r="X183" s="215"/>
-      <c r="Y183" s="215"/>
-      <c r="Z183" s="215"/>
+      <c r="S183" s="216"/>
+      <c r="T183" s="216"/>
+      <c r="U183" s="216"/>
+      <c r="V183" s="216"/>
+      <c r="W183" s="216"/>
+      <c r="X183" s="216"/>
+      <c r="Y183" s="216"/>
+      <c r="Z183" s="216"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
@@ -14709,14 +14731,14 @@
     </row>
     <row r="184" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R184" s="17"/>
-      <c r="S184" s="215"/>
-      <c r="T184" s="215"/>
-      <c r="U184" s="215"/>
-      <c r="V184" s="215"/>
-      <c r="W184" s="215"/>
-      <c r="X184" s="215"/>
-      <c r="Y184" s="215"/>
-      <c r="Z184" s="215"/>
+      <c r="S184" s="216"/>
+      <c r="T184" s="216"/>
+      <c r="U184" s="216"/>
+      <c r="V184" s="216"/>
+      <c r="W184" s="216"/>
+      <c r="X184" s="216"/>
+      <c r="Y184" s="216"/>
+      <c r="Z184" s="216"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -14748,23 +14770,23 @@
     </row>
     <row r="185" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R185" s="17"/>
-      <c r="S185" s="215"/>
-      <c r="T185" s="215"/>
-      <c r="U185" s="215"/>
-      <c r="V185" s="215"/>
-      <c r="W185" s="215"/>
-      <c r="X185" s="215"/>
-      <c r="Y185" s="215"/>
-      <c r="Z185" s="215"/>
+      <c r="S185" s="216"/>
+      <c r="T185" s="216"/>
+      <c r="U185" s="216"/>
+      <c r="V185" s="216"/>
+      <c r="W185" s="216"/>
+      <c r="X185" s="216"/>
+      <c r="Y185" s="216"/>
+      <c r="Z185" s="216"/>
       <c r="AA185" s="1"/>
-      <c r="AB185" s="216"/>
-      <c r="AC185" s="216"/>
-      <c r="AD185" s="216"/>
-      <c r="AE185" s="216"/>
-      <c r="AF185" s="216"/>
-      <c r="AG185" s="216"/>
-      <c r="AH185" s="216"/>
-      <c r="AI185" s="216"/>
+      <c r="AB185" s="217"/>
+      <c r="AC185" s="217"/>
+      <c r="AD185" s="217"/>
+      <c r="AE185" s="217"/>
+      <c r="AF185" s="217"/>
+      <c r="AG185" s="217"/>
+      <c r="AH185" s="217"/>
+      <c r="AI185" s="217"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
@@ -14787,14 +14809,14 @@
     </row>
     <row r="186" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R186" s="17"/>
-      <c r="S186" s="215"/>
-      <c r="T186" s="215"/>
-      <c r="U186" s="215"/>
-      <c r="V186" s="215"/>
-      <c r="W186" s="215"/>
-      <c r="X186" s="215"/>
-      <c r="Y186" s="215"/>
-      <c r="Z186" s="215"/>
+      <c r="S186" s="216"/>
+      <c r="T186" s="216"/>
+      <c r="U186" s="216"/>
+      <c r="V186" s="216"/>
+      <c r="W186" s="216"/>
+      <c r="X186" s="216"/>
+      <c r="Y186" s="216"/>
+      <c r="Z186" s="216"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="128"/>
       <c r="AC186" s="128"/>
@@ -14826,14 +14848,14 @@
     </row>
     <row r="187" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R187" s="1"/>
-      <c r="S187" s="215"/>
-      <c r="T187" s="215"/>
-      <c r="U187" s="215"/>
-      <c r="V187" s="215"/>
-      <c r="W187" s="215"/>
-      <c r="X187" s="215"/>
-      <c r="Y187" s="215"/>
-      <c r="Z187" s="215"/>
+      <c r="S187" s="216"/>
+      <c r="T187" s="216"/>
+      <c r="U187" s="216"/>
+      <c r="V187" s="216"/>
+      <c r="W187" s="216"/>
+      <c r="X187" s="216"/>
+      <c r="Y187" s="216"/>
+      <c r="Z187" s="216"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
@@ -14865,14 +14887,14 @@
     </row>
     <row r="188" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R188" s="1"/>
-      <c r="S188" s="215"/>
-      <c r="T188" s="215"/>
-      <c r="U188" s="215"/>
-      <c r="V188" s="215"/>
-      <c r="W188" s="215"/>
-      <c r="X188" s="215"/>
-      <c r="Y188" s="215"/>
-      <c r="Z188" s="215"/>
+      <c r="S188" s="216"/>
+      <c r="T188" s="216"/>
+      <c r="U188" s="216"/>
+      <c r="V188" s="216"/>
+      <c r="W188" s="216"/>
+      <c r="X188" s="216"/>
+      <c r="Y188" s="216"/>
+      <c r="Z188" s="216"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -20442,64 +20464,89 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AL21:AP21"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="AL23:AP23"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AB44:AI44"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL59:AP59"/>
-    <mergeCell ref="AL30:AP30"/>
-    <mergeCell ref="AL41:AP41"/>
-    <mergeCell ref="AL42:AP42"/>
-    <mergeCell ref="AL44:AP44"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="BC48:BI48"/>
-    <mergeCell ref="BK48:BQ48"/>
-    <mergeCell ref="BC49:BI49"/>
-    <mergeCell ref="BK49:BQ49"/>
-    <mergeCell ref="BC47:BI47"/>
-    <mergeCell ref="BK47:BQ47"/>
-    <mergeCell ref="AK52:AR52"/>
-    <mergeCell ref="AT52:BA52"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="BK67:BQ67"/>
-    <mergeCell ref="BC68:BI68"/>
-    <mergeCell ref="BK68:BQ68"/>
-    <mergeCell ref="BC69:BH69"/>
-    <mergeCell ref="BK69:BP69"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="AU63:AY63"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="AB59:AI59"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AU61:AY61"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AU62:AY62"/>
-    <mergeCell ref="AT69:BA69"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="AU64:AY64"/>
-    <mergeCell ref="AU59:AY59"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="AB103:AI103"/>
-    <mergeCell ref="BC98:BI98"/>
-    <mergeCell ref="BC99:BI99"/>
-    <mergeCell ref="BK97:BQ97"/>
-    <mergeCell ref="BK98:BQ98"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="AB84:AI84"/>
-    <mergeCell ref="BK99:BQ99"/>
-    <mergeCell ref="BK84:BQ84"/>
-    <mergeCell ref="BK85:BQ85"/>
-    <mergeCell ref="BK86:BP86"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AU81:AY81"/>
+    <mergeCell ref="AU80:AY80"/>
+    <mergeCell ref="AU79:AY79"/>
+    <mergeCell ref="AU76:AY76"/>
+    <mergeCell ref="AU75:AY75"/>
+    <mergeCell ref="AU74:AY74"/>
+    <mergeCell ref="AU73:AY73"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="AU70:AY70"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="AL81:AP81"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="BC19:BH19"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="AU77:AY77"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AU78:AY78"/>
+    <mergeCell ref="S75:Z75"/>
+    <mergeCell ref="AB75:AI75"/>
+    <mergeCell ref="BC67:BI67"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AL57:AP57"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AK51:AR51"/>
+    <mergeCell ref="AT51:BA51"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AL25:AP25"/>
+    <mergeCell ref="AT34:BA34"/>
+    <mergeCell ref="AK35:AR35"/>
+    <mergeCell ref="AT35:BA35"/>
+    <mergeCell ref="AK36:AP36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="AU43:AY43"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="AT17:BA17"/>
+    <mergeCell ref="AT16:AZ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AT18:BA18"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AL26:AP26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AL28:AP28"/>
+    <mergeCell ref="AL24:AP24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AU46:AY46"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AU47:AY47"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AU38:AY38"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AU40:AY40"/>
     <mergeCell ref="BK19:BQ19"/>
     <mergeCell ref="BC16:BI16"/>
     <mergeCell ref="BK16:BQ16"/>
@@ -20524,6 +20571,58 @@
     <mergeCell ref="AB131:AI131"/>
     <mergeCell ref="S114:Z114"/>
     <mergeCell ref="AB114:AI114"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="AB103:AI103"/>
+    <mergeCell ref="BC98:BI98"/>
+    <mergeCell ref="BC99:BI99"/>
+    <mergeCell ref="BK97:BQ97"/>
+    <mergeCell ref="BK98:BQ98"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="AB84:AI84"/>
+    <mergeCell ref="BK99:BQ99"/>
+    <mergeCell ref="BK84:BQ84"/>
+    <mergeCell ref="BK85:BQ85"/>
+    <mergeCell ref="BK86:BP86"/>
+    <mergeCell ref="BC84:BI84"/>
+    <mergeCell ref="BC85:BI85"/>
+    <mergeCell ref="BC86:BH86"/>
+    <mergeCell ref="BC97:BI97"/>
+    <mergeCell ref="BK67:BQ67"/>
+    <mergeCell ref="BC68:BI68"/>
+    <mergeCell ref="BK68:BQ68"/>
+    <mergeCell ref="BC69:BH69"/>
+    <mergeCell ref="BK69:BP69"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="AU63:AY63"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="AB59:AI59"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AU61:AY61"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AU62:AY62"/>
+    <mergeCell ref="AT69:BA69"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="AU64:AY64"/>
+    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="AL59:AP59"/>
+    <mergeCell ref="AL30:AP30"/>
+    <mergeCell ref="AL41:AP41"/>
+    <mergeCell ref="AL42:AP42"/>
+    <mergeCell ref="AL44:AP44"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="BC48:BI48"/>
+    <mergeCell ref="BK48:BQ48"/>
+    <mergeCell ref="BC49:BI49"/>
+    <mergeCell ref="BK49:BQ49"/>
+    <mergeCell ref="BC47:BI47"/>
+    <mergeCell ref="BK47:BQ47"/>
+    <mergeCell ref="AK52:AR52"/>
+    <mergeCell ref="AT52:BA52"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AU53:AY53"/>
     <mergeCell ref="BK34:BQ34"/>
     <mergeCell ref="BK35:BQ35"/>
     <mergeCell ref="BK36:BQ36"/>
@@ -20531,99 +20630,22 @@
     <mergeCell ref="BC35:BI35"/>
     <mergeCell ref="BC36:BI36"/>
     <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="AU47:AY47"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AU38:AY38"/>
-    <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AU39:AY39"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AL21:AP21"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="AL23:AP23"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AB44:AI44"/>
     <mergeCell ref="AK34:AR34"/>
-    <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="AK35:AR35"/>
-    <mergeCell ref="AT35:BA35"/>
-    <mergeCell ref="AK36:AP36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="AU43:AY43"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="AT17:BA17"/>
-    <mergeCell ref="AT16:AZ16"/>
-    <mergeCell ref="AK16:AQ16"/>
-    <mergeCell ref="BC84:BI84"/>
-    <mergeCell ref="BC85:BI85"/>
-    <mergeCell ref="BC86:BH86"/>
-    <mergeCell ref="BC97:BI97"/>
-    <mergeCell ref="BC19:BH19"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="AU77:AY77"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AU78:AY78"/>
-    <mergeCell ref="S75:Z75"/>
-    <mergeCell ref="AB75:AI75"/>
-    <mergeCell ref="BC67:BI67"/>
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AL57:AP57"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AT51:BA51"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AK68:AR68"/>
-    <mergeCell ref="AK69:AR69"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AL29:AP29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AT18:BA18"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AL26:AP26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AL28:AP28"/>
-    <mergeCell ref="AL24:AP24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="AL81:AP81"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AU81:AY81"/>
-    <mergeCell ref="AU80:AY80"/>
-    <mergeCell ref="AU79:AY79"/>
-    <mergeCell ref="AU76:AY76"/>
-    <mergeCell ref="AU75:AY75"/>
-    <mergeCell ref="AU74:AY74"/>
-    <mergeCell ref="AU73:AY73"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="AU70:AY70"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AU45:AY45"/>
-    <mergeCell ref="AU44:AY44"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AU41:AY41"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AU22:AY22"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a credit." sqref="V116 V61 V77"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a debit." sqref="X152 X154 AG165 AG150 X133 AI109 X19 AG46 AG137 AG133 X161 X46 AG172 X146 AG176 AG161 AG146 X172 X105"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a credit." sqref="V116 V61 V77" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a debit." sqref="X152 X154 AG165 AG150 X133 AI109 X19 AG46 AG137 AG133 X161 X46 AG172 X146 AG176 AG161 AG146 X172 X105" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
+++ b/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shweta.COMPRO\Your team Dropbox\Shweta Singh\Accounting Courseware\Documents\Comprehensive\Approach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Documents\Comprehensive\Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0272965-2201-47A7-A085-F44688DAEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9205FC-64B9-43FC-876B-DAC3A29FD615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compro Comp Problem 1" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ranu Aggarwal</author>
+  </authors>
+  <commentList>
+    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{B2BBC582-3BD4-4334-9018-A86C35778496}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ranu Aggarwal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Shall we remove this referencing </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M67" authorId="0" shapeId="0" xr:uid="{83361689-6527-4D4C-AB79-F40A8083D8A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ranu Aggarwal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Missing entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB77" authorId="0" shapeId="0" xr:uid="{67FD9FC1-F952-4887-9072-8514DB8CBEDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ranu Aggarwal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Common stock 6/1 entry should be available for July entries as well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB91" authorId="0" shapeId="0" xr:uid="{FC539D55-4ECA-4782-92C0-A15FD2DAE975}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ranu Aggarwal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RE last (DOUBT) entry should be available for July entries as well</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="123">
   <si>
     <t>Chart of Accounts</t>
   </si>
@@ -431,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +670,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +979,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1537,18 +1662,74 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1565,6 +1746,10 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1605,10 +1790,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1629,6 +1810,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1657,56 +1874,92 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2025,11 +2278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB86" sqref="AB86:AI91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,27 +2295,29 @@
     <col min="9" max="9" width="33.5703125" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" customWidth="1"/>
+    <col min="15" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="22" width="8.5703125" customWidth="1"/>
     <col min="23" max="23" width="2.140625" customWidth="1"/>
     <col min="24" max="26" width="8.5703125" customWidth="1"/>
     <col min="27" max="27" width="9.140625" customWidth="1"/>
-    <col min="28" max="31" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="2.140625" hidden="1" customWidth="1"/>
-    <col min="33" max="35" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="8.5703125" customWidth="1"/>
+    <col min="32" max="32" width="2.140625" customWidth="1"/>
+    <col min="33" max="35" width="8.5703125" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
     <col min="37" max="40" width="8.5703125" customWidth="1"/>
     <col min="41" max="41" width="2.140625" customWidth="1"/>
     <col min="42" max="44" width="8.5703125" customWidth="1"/>
     <col min="45" max="45" width="9.140625" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="47" max="53" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" customWidth="1"/>
+    <col min="47" max="47" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="5.28515625" customWidth="1"/>
+    <col min="52" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" customWidth="1"/>
     <col min="55" max="55" width="1.5703125" customWidth="1"/>
-    <col min="56" max="56" width="32.5703125" customWidth="1"/>
+    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="2.140625" customWidth="1"/>
     <col min="58" max="58" width="8.5703125" customWidth="1"/>
     <col min="59" max="59" width="2.140625" customWidth="1"/>
@@ -2769,82 +3024,82 @@
       <c r="D16" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="177" t="s">
+      <c r="H16" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177" t="s">
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="177" t="s">
+      <c r="S16" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="177" t="s">
+      <c r="AB16" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="177"/>
-      <c r="AF16" s="177"/>
-      <c r="AG16" s="177"/>
-      <c r="AH16" s="177"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="193"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="193"/>
+      <c r="AH16" s="193"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="177" t="s">
+      <c r="AK16" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="AL16" s="177"/>
-      <c r="AM16" s="177"/>
-      <c r="AN16" s="177"/>
-      <c r="AO16" s="177"/>
-      <c r="AP16" s="177"/>
-      <c r="AQ16" s="177"/>
+      <c r="AL16" s="193"/>
+      <c r="AM16" s="193"/>
+      <c r="AN16" s="193"/>
+      <c r="AO16" s="193"/>
+      <c r="AP16" s="193"/>
+      <c r="AQ16" s="193"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="177" t="s">
+      <c r="AT16" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="AU16" s="177"/>
-      <c r="AV16" s="177"/>
-      <c r="AW16" s="177"/>
-      <c r="AX16" s="177"/>
-      <c r="AY16" s="177"/>
-      <c r="AZ16" s="177"/>
+      <c r="AU16" s="193"/>
+      <c r="AV16" s="193"/>
+      <c r="AW16" s="193"/>
+      <c r="AX16" s="193"/>
+      <c r="AY16" s="193"/>
+      <c r="AZ16" s="193"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="177" t="s">
+      <c r="BC16" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="BD16" s="177"/>
-      <c r="BE16" s="177"/>
-      <c r="BF16" s="177"/>
-      <c r="BG16" s="177"/>
-      <c r="BH16" s="177"/>
-      <c r="BI16" s="177"/>
+      <c r="BD16" s="193"/>
+      <c r="BE16" s="193"/>
+      <c r="BF16" s="193"/>
+      <c r="BG16" s="193"/>
+      <c r="BH16" s="193"/>
+      <c r="BI16" s="193"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="177" t="s">
+      <c r="BK16" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="BL16" s="177"/>
-      <c r="BM16" s="177"/>
-      <c r="BN16" s="177"/>
-      <c r="BO16" s="177"/>
-      <c r="BP16" s="177"/>
-      <c r="BQ16" s="177"/>
+      <c r="BL16" s="193"/>
+      <c r="BM16" s="193"/>
+      <c r="BN16" s="193"/>
+      <c r="BO16" s="193"/>
+      <c r="BP16" s="193"/>
+      <c r="BQ16" s="193"/>
     </row>
     <row r="17" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="170">
@@ -2881,69 +3136,69 @@
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="178" t="s">
+      <c r="S17" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="179"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="179"/>
-      <c r="Z17" s="179"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
       <c r="AA17" s="168"/>
-      <c r="AB17" s="178" t="s">
+      <c r="AB17" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="179"/>
-      <c r="AD17" s="179"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="192"/>
+      <c r="AG17" s="192"/>
+      <c r="AH17" s="192"/>
+      <c r="AI17" s="192"/>
       <c r="AJ17" s="168"/>
-      <c r="AK17" s="194" t="s">
+      <c r="AK17" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="AL17" s="194"/>
-      <c r="AM17" s="194"/>
-      <c r="AN17" s="194"/>
-      <c r="AO17" s="194"/>
-      <c r="AP17" s="194"/>
-      <c r="AQ17" s="194"/>
-      <c r="AR17" s="194"/>
+      <c r="AL17" s="198"/>
+      <c r="AM17" s="198"/>
+      <c r="AN17" s="198"/>
+      <c r="AO17" s="198"/>
+      <c r="AP17" s="198"/>
+      <c r="AQ17" s="198"/>
+      <c r="AR17" s="198"/>
       <c r="AS17" s="168"/>
-      <c r="AT17" s="194" t="s">
+      <c r="AT17" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="AU17" s="194"/>
-      <c r="AV17" s="194"/>
-      <c r="AW17" s="194"/>
-      <c r="AX17" s="194"/>
-      <c r="AY17" s="194"/>
-      <c r="AZ17" s="194"/>
-      <c r="BA17" s="206"/>
+      <c r="AU17" s="198"/>
+      <c r="AV17" s="198"/>
+      <c r="AW17" s="198"/>
+      <c r="AX17" s="198"/>
+      <c r="AY17" s="198"/>
+      <c r="AZ17" s="198"/>
+      <c r="BA17" s="229"/>
       <c r="BB17" s="168"/>
-      <c r="BC17" s="190" t="s">
+      <c r="BC17" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" s="191"/>
-      <c r="BE17" s="191"/>
-      <c r="BF17" s="191"/>
-      <c r="BG17" s="191"/>
-      <c r="BH17" s="191"/>
-      <c r="BI17" s="192"/>
+      <c r="BD17" s="206"/>
+      <c r="BE17" s="206"/>
+      <c r="BF17" s="206"/>
+      <c r="BG17" s="206"/>
+      <c r="BH17" s="206"/>
+      <c r="BI17" s="207"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="213" t="s">
+      <c r="BK17" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="BL17" s="214"/>
-      <c r="BM17" s="214"/>
-      <c r="BN17" s="214"/>
-      <c r="BO17" s="214"/>
-      <c r="BP17" s="214"/>
-      <c r="BQ17" s="215"/>
+      <c r="BL17" s="215"/>
+      <c r="BM17" s="215"/>
+      <c r="BN17" s="215"/>
+      <c r="BO17" s="215"/>
+      <c r="BP17" s="215"/>
+      <c r="BQ17" s="216"/>
     </row>
     <row r="18" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="170">
@@ -3012,47 +3267,47 @@
         <v>27</v>
       </c>
       <c r="AJ18" s="168"/>
-      <c r="AK18" s="193" t="s">
+      <c r="AK18" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="194"/>
-      <c r="AM18" s="194"/>
-      <c r="AN18" s="194"/>
-      <c r="AO18" s="194"/>
-      <c r="AP18" s="194"/>
-      <c r="AQ18" s="194"/>
-      <c r="AR18" s="194"/>
+      <c r="AL18" s="198"/>
+      <c r="AM18" s="198"/>
+      <c r="AN18" s="198"/>
+      <c r="AO18" s="198"/>
+      <c r="AP18" s="198"/>
+      <c r="AQ18" s="198"/>
+      <c r="AR18" s="198"/>
       <c r="AS18" s="168"/>
-      <c r="AT18" s="193" t="s">
+      <c r="AT18" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="AU18" s="193"/>
-      <c r="AV18" s="193"/>
-      <c r="AW18" s="193"/>
-      <c r="AX18" s="193"/>
-      <c r="AY18" s="193"/>
-      <c r="AZ18" s="193"/>
-      <c r="BA18" s="195"/>
+      <c r="AU18" s="208"/>
+      <c r="AV18" s="208"/>
+      <c r="AW18" s="208"/>
+      <c r="AX18" s="208"/>
+      <c r="AY18" s="208"/>
+      <c r="AZ18" s="208"/>
+      <c r="BA18" s="209"/>
       <c r="BB18" s="168"/>
-      <c r="BC18" s="184" t="s">
+      <c r="BC18" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="BD18" s="185"/>
-      <c r="BE18" s="185"/>
-      <c r="BF18" s="185"/>
-      <c r="BG18" s="185"/>
-      <c r="BH18" s="185"/>
-      <c r="BI18" s="186"/>
+      <c r="BD18" s="200"/>
+      <c r="BE18" s="200"/>
+      <c r="BF18" s="200"/>
+      <c r="BG18" s="200"/>
+      <c r="BH18" s="200"/>
+      <c r="BI18" s="201"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="207" t="s">
+      <c r="BK18" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="BL18" s="208"/>
-      <c r="BM18" s="208"/>
-      <c r="BN18" s="208"/>
-      <c r="BO18" s="208"/>
-      <c r="BP18" s="208"/>
-      <c r="BQ18" s="209"/>
+      <c r="BL18" s="218"/>
+      <c r="BM18" s="218"/>
+      <c r="BN18" s="218"/>
+      <c r="BO18" s="218"/>
+      <c r="BP18" s="218"/>
+      <c r="BQ18" s="219"/>
     </row>
     <row r="19" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="170">
@@ -3109,14 +3364,14 @@
         <v>54</v>
       </c>
       <c r="AJ19" s="168"/>
-      <c r="AK19" s="196" t="s">
+      <c r="AK19" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AL19" s="196"/>
-      <c r="AM19" s="196"/>
-      <c r="AN19" s="196"/>
-      <c r="AO19" s="196"/>
-      <c r="AP19" s="196"/>
+      <c r="AL19" s="210"/>
+      <c r="AM19" s="210"/>
+      <c r="AN19" s="210"/>
+      <c r="AO19" s="210"/>
+      <c r="AP19" s="210"/>
       <c r="AQ19" s="141" t="s">
         <v>26</v>
       </c>
@@ -3125,13 +3380,13 @@
       </c>
       <c r="AS19" s="168"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="197" t="s">
+      <c r="AU19" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="AV19" s="198"/>
-      <c r="AW19" s="198"/>
-      <c r="AX19" s="198"/>
-      <c r="AY19" s="199"/>
+      <c r="AV19" s="212"/>
+      <c r="AW19" s="212"/>
+      <c r="AX19" s="212"/>
+      <c r="AY19" s="213"/>
       <c r="AZ19" s="156" t="s">
         <v>26</v>
       </c>
@@ -3139,26 +3394,26 @@
         <v>27</v>
       </c>
       <c r="BB19" s="168"/>
-      <c r="BC19" s="200" t="str">
+      <c r="BC19" s="223" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="BD19" s="201"/>
-      <c r="BE19" s="201"/>
-      <c r="BF19" s="201"/>
-      <c r="BG19" s="201"/>
-      <c r="BH19" s="201"/>
+      <c r="BD19" s="224"/>
+      <c r="BE19" s="224"/>
+      <c r="BF19" s="224"/>
+      <c r="BG19" s="224"/>
+      <c r="BH19" s="224"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="210" t="s">
+      <c r="BK19" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="BL19" s="211"/>
-      <c r="BM19" s="211"/>
-      <c r="BN19" s="211"/>
-      <c r="BO19" s="211"/>
-      <c r="BP19" s="211"/>
-      <c r="BQ19" s="212"/>
+      <c r="BL19" s="221"/>
+      <c r="BM19" s="221"/>
+      <c r="BN19" s="221"/>
+      <c r="BO19" s="221"/>
+      <c r="BP19" s="221"/>
+      <c r="BQ19" s="222"/>
     </row>
     <row r="20" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170"/>
@@ -3315,13 +3570,13 @@
       </c>
       <c r="AJ21" s="168"/>
       <c r="AK21" s="46"/>
-      <c r="AL21" s="180" t="s">
+      <c r="AL21" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AM21" s="181"/>
-      <c r="AN21" s="181"/>
-      <c r="AO21" s="181"/>
-      <c r="AP21" s="181"/>
+      <c r="AM21" s="195"/>
+      <c r="AN21" s="195"/>
+      <c r="AO21" s="195"/>
+      <c r="AP21" s="195"/>
       <c r="AQ21" s="47" t="s">
         <v>54</v>
       </c>
@@ -3330,13 +3585,13 @@
       </c>
       <c r="AS21" s="168"/>
       <c r="AT21" s="48"/>
-      <c r="AU21" s="180" t="s">
+      <c r="AU21" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="181"/>
-      <c r="AW21" s="181"/>
-      <c r="AX21" s="181"/>
-      <c r="AY21" s="219"/>
+      <c r="AV21" s="195"/>
+      <c r="AW21" s="195"/>
+      <c r="AX21" s="195"/>
+      <c r="AY21" s="232"/>
       <c r="AZ21" s="49">
         <v>2800</v>
       </c>
@@ -3416,13 +3671,13 @@
       </c>
       <c r="AJ22" s="168"/>
       <c r="AK22" s="46"/>
-      <c r="AL22" s="182" t="s">
+      <c r="AL22" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM22" s="183"/>
-      <c r="AN22" s="183"/>
-      <c r="AO22" s="183"/>
-      <c r="AP22" s="183"/>
+      <c r="AM22" s="197"/>
+      <c r="AN22" s="197"/>
+      <c r="AO22" s="197"/>
+      <c r="AP22" s="197"/>
       <c r="AQ22" s="47" t="s">
         <v>54</v>
       </c>
@@ -3431,13 +3686,13 @@
       </c>
       <c r="AS22" s="168"/>
       <c r="AT22" s="48"/>
-      <c r="AU22" s="182" t="s">
+      <c r="AU22" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="183"/>
-      <c r="AW22" s="183"/>
-      <c r="AX22" s="183"/>
-      <c r="AY22" s="205"/>
+      <c r="AV22" s="197"/>
+      <c r="AW22" s="197"/>
+      <c r="AX22" s="197"/>
+      <c r="AY22" s="228"/>
       <c r="AZ22" s="49"/>
       <c r="BA22" s="49">
         <v>30</v>
@@ -3515,13 +3770,13 @@
       </c>
       <c r="AJ23" s="168"/>
       <c r="AK23" s="46"/>
-      <c r="AL23" s="182" t="s">
+      <c r="AL23" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="183"/>
-      <c r="AN23" s="183"/>
-      <c r="AO23" s="183"/>
-      <c r="AP23" s="183"/>
+      <c r="AM23" s="197"/>
+      <c r="AN23" s="197"/>
+      <c r="AO23" s="197"/>
+      <c r="AP23" s="197"/>
       <c r="AQ23" s="47" t="s">
         <v>54</v>
       </c>
@@ -3530,13 +3785,13 @@
       </c>
       <c r="AS23" s="168"/>
       <c r="AT23" s="48"/>
-      <c r="AU23" s="182" t="s">
+      <c r="AU23" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="183"/>
-      <c r="AW23" s="183"/>
-      <c r="AX23" s="183"/>
-      <c r="AY23" s="205"/>
+      <c r="AV23" s="197"/>
+      <c r="AW23" s="197"/>
+      <c r="AX23" s="197"/>
+      <c r="AY23" s="228"/>
       <c r="AZ23" s="49"/>
       <c r="BA23" s="49">
         <v>10000</v>
@@ -3616,13 +3871,13 @@
       </c>
       <c r="AJ24" s="168"/>
       <c r="AK24" s="46"/>
-      <c r="AL24" s="182" t="s">
+      <c r="AL24" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM24" s="183"/>
-      <c r="AN24" s="183"/>
-      <c r="AO24" s="183"/>
-      <c r="AP24" s="183"/>
+      <c r="AM24" s="197"/>
+      <c r="AN24" s="197"/>
+      <c r="AO24" s="197"/>
+      <c r="AP24" s="197"/>
       <c r="AQ24" s="47" t="s">
         <v>54</v>
       </c>
@@ -3631,13 +3886,13 @@
       </c>
       <c r="AS24" s="168"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="182" t="s">
+      <c r="AU24" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV24" s="183"/>
-      <c r="AW24" s="183"/>
-      <c r="AX24" s="183"/>
-      <c r="AY24" s="205"/>
+      <c r="AV24" s="197"/>
+      <c r="AW24" s="197"/>
+      <c r="AX24" s="197"/>
+      <c r="AY24" s="228"/>
       <c r="AZ24" s="49"/>
       <c r="BA24" s="49"/>
       <c r="BB24" s="168"/>
@@ -3715,13 +3970,13 @@
       </c>
       <c r="AJ25" s="168"/>
       <c r="AK25" s="46"/>
-      <c r="AL25" s="182" t="s">
+      <c r="AL25" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM25" s="183"/>
-      <c r="AN25" s="183"/>
-      <c r="AO25" s="183"/>
-      <c r="AP25" s="183"/>
+      <c r="AM25" s="197"/>
+      <c r="AN25" s="197"/>
+      <c r="AO25" s="197"/>
+      <c r="AP25" s="197"/>
       <c r="AQ25" s="47" t="s">
         <v>54</v>
       </c>
@@ -3730,13 +3985,13 @@
       </c>
       <c r="AS25" s="168"/>
       <c r="AT25" s="48"/>
-      <c r="AU25" s="182" t="s">
+      <c r="AU25" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV25" s="183"/>
-      <c r="AW25" s="183"/>
-      <c r="AX25" s="183"/>
-      <c r="AY25" s="205"/>
+      <c r="AV25" s="197"/>
+      <c r="AW25" s="197"/>
+      <c r="AX25" s="197"/>
+      <c r="AY25" s="228"/>
       <c r="AZ25" s="49">
         <v>700</v>
       </c>
@@ -3818,13 +4073,13 @@
       </c>
       <c r="AJ26" s="168"/>
       <c r="AK26" s="46"/>
-      <c r="AL26" s="182" t="s">
+      <c r="AL26" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM26" s="183"/>
-      <c r="AN26" s="183"/>
-      <c r="AO26" s="183"/>
-      <c r="AP26" s="183"/>
+      <c r="AM26" s="197"/>
+      <c r="AN26" s="197"/>
+      <c r="AO26" s="197"/>
+      <c r="AP26" s="197"/>
       <c r="AQ26" s="47" t="s">
         <v>54</v>
       </c>
@@ -3833,13 +4088,13 @@
       </c>
       <c r="AS26" s="168"/>
       <c r="AT26" s="48"/>
-      <c r="AU26" s="182" t="s">
+      <c r="AU26" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="183"/>
-      <c r="AW26" s="183"/>
-      <c r="AX26" s="183"/>
-      <c r="AY26" s="205"/>
+      <c r="AV26" s="197"/>
+      <c r="AW26" s="197"/>
+      <c r="AX26" s="197"/>
+      <c r="AY26" s="228"/>
       <c r="AZ26" s="49"/>
       <c r="BA26" s="49">
         <v>3750</v>
@@ -3919,13 +4174,13 @@
       </c>
       <c r="AJ27" s="168"/>
       <c r="AK27" s="46"/>
-      <c r="AL27" s="182" t="s">
+      <c r="AL27" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM27" s="183"/>
-      <c r="AN27" s="183"/>
-      <c r="AO27" s="183"/>
-      <c r="AP27" s="183"/>
+      <c r="AM27" s="197"/>
+      <c r="AN27" s="197"/>
+      <c r="AO27" s="197"/>
+      <c r="AP27" s="197"/>
       <c r="AQ27" s="47" t="s">
         <v>54</v>
       </c>
@@ -3934,13 +4189,13 @@
       </c>
       <c r="AS27" s="168"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="202" t="s">
+      <c r="AU27" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="AV27" s="203"/>
-      <c r="AW27" s="203"/>
-      <c r="AX27" s="203"/>
-      <c r="AY27" s="204"/>
+      <c r="AV27" s="226"/>
+      <c r="AW27" s="226"/>
+      <c r="AX27" s="226"/>
+      <c r="AY27" s="227"/>
       <c r="AZ27" s="49">
         <v>1200</v>
       </c>
@@ -4022,13 +4277,13 @@
       </c>
       <c r="AJ28" s="168"/>
       <c r="AK28" s="46"/>
-      <c r="AL28" s="182" t="s">
+      <c r="AL28" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="183"/>
-      <c r="AN28" s="183"/>
-      <c r="AO28" s="183"/>
-      <c r="AP28" s="183"/>
+      <c r="AM28" s="197"/>
+      <c r="AN28" s="197"/>
+      <c r="AO28" s="197"/>
+      <c r="AP28" s="197"/>
       <c r="AQ28" s="47" t="s">
         <v>54</v>
       </c>
@@ -4037,13 +4292,13 @@
       </c>
       <c r="AS28" s="168"/>
       <c r="AT28" s="48"/>
-      <c r="AU28" s="202" t="s">
+      <c r="AU28" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="AV28" s="203"/>
-      <c r="AW28" s="203"/>
-      <c r="AX28" s="203"/>
-      <c r="AY28" s="204"/>
+      <c r="AV28" s="226"/>
+      <c r="AW28" s="226"/>
+      <c r="AX28" s="226"/>
+      <c r="AY28" s="227"/>
       <c r="AZ28" s="49">
         <v>220</v>
       </c>
@@ -4123,13 +4378,13 @@
       </c>
       <c r="AJ29" s="168"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="182" t="s">
+      <c r="AL29" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="183"/>
-      <c r="AN29" s="183"/>
-      <c r="AO29" s="183"/>
-      <c r="AP29" s="183"/>
+      <c r="AM29" s="197"/>
+      <c r="AN29" s="197"/>
+      <c r="AO29" s="197"/>
+      <c r="AP29" s="197"/>
       <c r="AQ29" s="47" t="s">
         <v>54</v>
       </c>
@@ -4138,13 +4393,13 @@
       </c>
       <c r="AS29" s="168"/>
       <c r="AT29" s="48"/>
-      <c r="AU29" s="202" t="s">
+      <c r="AU29" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="AV29" s="203"/>
-      <c r="AW29" s="203"/>
-      <c r="AX29" s="203"/>
-      <c r="AY29" s="204"/>
+      <c r="AV29" s="226"/>
+      <c r="AW29" s="226"/>
+      <c r="AX29" s="226"/>
+      <c r="AY29" s="227"/>
       <c r="AZ29" s="49">
         <v>175</v>
       </c>
@@ -4224,13 +4479,13 @@
       </c>
       <c r="AJ30" s="168"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="182" t="s">
+      <c r="AL30" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM30" s="183"/>
-      <c r="AN30" s="183"/>
-      <c r="AO30" s="183"/>
-      <c r="AP30" s="183"/>
+      <c r="AM30" s="197"/>
+      <c r="AN30" s="197"/>
+      <c r="AO30" s="197"/>
+      <c r="AP30" s="197"/>
       <c r="AQ30" s="47" t="s">
         <v>54</v>
       </c>
@@ -4239,13 +4494,13 @@
       </c>
       <c r="AS30" s="168"/>
       <c r="AT30" s="48"/>
-      <c r="AU30" s="202" t="s">
+      <c r="AU30" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="AV30" s="203"/>
-      <c r="AW30" s="203"/>
-      <c r="AX30" s="203"/>
-      <c r="AY30" s="204"/>
+      <c r="AV30" s="226"/>
+      <c r="AW30" s="226"/>
+      <c r="AX30" s="226"/>
+      <c r="AY30" s="227"/>
       <c r="AZ30" s="49">
         <v>50</v>
       </c>
@@ -4552,47 +4807,47 @@
         <v>54</v>
       </c>
       <c r="AJ34" s="168"/>
-      <c r="AK34" s="194" t="s">
+      <c r="AK34" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="AL34" s="194"/>
-      <c r="AM34" s="194"/>
-      <c r="AN34" s="194"/>
-      <c r="AO34" s="194"/>
-      <c r="AP34" s="194"/>
-      <c r="AQ34" s="194"/>
-      <c r="AR34" s="194"/>
+      <c r="AL34" s="198"/>
+      <c r="AM34" s="198"/>
+      <c r="AN34" s="198"/>
+      <c r="AO34" s="198"/>
+      <c r="AP34" s="198"/>
+      <c r="AQ34" s="198"/>
+      <c r="AR34" s="198"/>
       <c r="AS34" s="168"/>
-      <c r="AT34" s="194" t="s">
+      <c r="AT34" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="AU34" s="194"/>
-      <c r="AV34" s="194"/>
-      <c r="AW34" s="194"/>
-      <c r="AX34" s="194"/>
-      <c r="AY34" s="194"/>
-      <c r="AZ34" s="194"/>
-      <c r="BA34" s="206"/>
+      <c r="AU34" s="198"/>
+      <c r="AV34" s="198"/>
+      <c r="AW34" s="198"/>
+      <c r="AX34" s="198"/>
+      <c r="AY34" s="198"/>
+      <c r="AZ34" s="198"/>
+      <c r="BA34" s="229"/>
       <c r="BB34" s="168"/>
-      <c r="BC34" s="213" t="s">
+      <c r="BC34" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="BD34" s="214"/>
-      <c r="BE34" s="214"/>
-      <c r="BF34" s="214"/>
-      <c r="BG34" s="214"/>
-      <c r="BH34" s="214"/>
-      <c r="BI34" s="215"/>
+      <c r="BD34" s="215"/>
+      <c r="BE34" s="215"/>
+      <c r="BF34" s="215"/>
+      <c r="BG34" s="215"/>
+      <c r="BH34" s="215"/>
+      <c r="BI34" s="216"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="213" t="s">
+      <c r="BK34" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="BL34" s="214"/>
-      <c r="BM34" s="214"/>
-      <c r="BN34" s="214"/>
-      <c r="BO34" s="214"/>
-      <c r="BP34" s="214"/>
-      <c r="BQ34" s="215"/>
+      <c r="BL34" s="215"/>
+      <c r="BM34" s="215"/>
+      <c r="BN34" s="215"/>
+      <c r="BO34" s="215"/>
+      <c r="BP34" s="215"/>
+      <c r="BQ34" s="216"/>
     </row>
     <row r="35" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="170">
@@ -4647,47 +4902,47 @@
         <v>54</v>
       </c>
       <c r="AJ35" s="168"/>
-      <c r="AK35" s="193" t="s">
+      <c r="AK35" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="AL35" s="194"/>
-      <c r="AM35" s="194"/>
-      <c r="AN35" s="194"/>
-      <c r="AO35" s="194"/>
-      <c r="AP35" s="194"/>
-      <c r="AQ35" s="194"/>
-      <c r="AR35" s="194"/>
+      <c r="AL35" s="198"/>
+      <c r="AM35" s="198"/>
+      <c r="AN35" s="198"/>
+      <c r="AO35" s="198"/>
+      <c r="AP35" s="198"/>
+      <c r="AQ35" s="198"/>
+      <c r="AR35" s="198"/>
       <c r="AS35" s="168"/>
-      <c r="AT35" s="193" t="s">
+      <c r="AT35" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="AU35" s="193"/>
-      <c r="AV35" s="193"/>
-      <c r="AW35" s="193"/>
-      <c r="AX35" s="193"/>
-      <c r="AY35" s="193"/>
-      <c r="AZ35" s="193"/>
-      <c r="BA35" s="195"/>
+      <c r="AU35" s="208"/>
+      <c r="AV35" s="208"/>
+      <c r="AW35" s="208"/>
+      <c r="AX35" s="208"/>
+      <c r="AY35" s="208"/>
+      <c r="AZ35" s="208"/>
+      <c r="BA35" s="209"/>
       <c r="BB35" s="168"/>
-      <c r="BC35" s="207" t="s">
+      <c r="BC35" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="BD35" s="208"/>
-      <c r="BE35" s="208"/>
-      <c r="BF35" s="208"/>
-      <c r="BG35" s="208"/>
-      <c r="BH35" s="208"/>
-      <c r="BI35" s="209"/>
+      <c r="BD35" s="218"/>
+      <c r="BE35" s="218"/>
+      <c r="BF35" s="218"/>
+      <c r="BG35" s="218"/>
+      <c r="BH35" s="218"/>
+      <c r="BI35" s="219"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="207" t="s">
+      <c r="BK35" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="BL35" s="208"/>
-      <c r="BM35" s="208"/>
-      <c r="BN35" s="208"/>
-      <c r="BO35" s="208"/>
-      <c r="BP35" s="208"/>
-      <c r="BQ35" s="209"/>
+      <c r="BL35" s="218"/>
+      <c r="BM35" s="218"/>
+      <c r="BN35" s="218"/>
+      <c r="BO35" s="218"/>
+      <c r="BP35" s="218"/>
+      <c r="BQ35" s="219"/>
     </row>
     <row r="36" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="170">
@@ -4744,14 +4999,14 @@
         <v>54</v>
       </c>
       <c r="AJ36" s="168"/>
-      <c r="AK36" s="196" t="s">
+      <c r="AK36" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AL36" s="196"/>
-      <c r="AM36" s="196"/>
-      <c r="AN36" s="196"/>
-      <c r="AO36" s="196"/>
-      <c r="AP36" s="196"/>
+      <c r="AL36" s="210"/>
+      <c r="AM36" s="210"/>
+      <c r="AN36" s="210"/>
+      <c r="AO36" s="210"/>
+      <c r="AP36" s="210"/>
       <c r="AQ36" s="141" t="s">
         <v>26</v>
       </c>
@@ -4760,13 +5015,13 @@
       </c>
       <c r="AS36" s="168"/>
       <c r="AT36" s="43"/>
-      <c r="AU36" s="197" t="s">
+      <c r="AU36" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="AV36" s="198"/>
-      <c r="AW36" s="198"/>
-      <c r="AX36" s="198"/>
-      <c r="AY36" s="199"/>
+      <c r="AV36" s="212"/>
+      <c r="AW36" s="212"/>
+      <c r="AX36" s="212"/>
+      <c r="AY36" s="213"/>
       <c r="AZ36" s="156" t="s">
         <v>26</v>
       </c>
@@ -4774,25 +5029,25 @@
         <v>27</v>
       </c>
       <c r="BB36" s="168"/>
-      <c r="BC36" s="218" t="s">
+      <c r="BC36" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="BD36" s="211"/>
-      <c r="BE36" s="211"/>
-      <c r="BF36" s="211"/>
-      <c r="BG36" s="211"/>
-      <c r="BH36" s="211"/>
-      <c r="BI36" s="212"/>
+      <c r="BD36" s="221"/>
+      <c r="BE36" s="221"/>
+      <c r="BF36" s="221"/>
+      <c r="BG36" s="221"/>
+      <c r="BH36" s="221"/>
+      <c r="BI36" s="222"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="218" t="s">
+      <c r="BK36" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" s="211"/>
-      <c r="BM36" s="211"/>
-      <c r="BN36" s="211"/>
-      <c r="BO36" s="211"/>
-      <c r="BP36" s="211"/>
-      <c r="BQ36" s="212"/>
+      <c r="BL36" s="221"/>
+      <c r="BM36" s="221"/>
+      <c r="BN36" s="221"/>
+      <c r="BO36" s="221"/>
+      <c r="BP36" s="221"/>
+      <c r="BQ36" s="222"/>
     </row>
     <row r="37" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="170">
@@ -4926,17 +5181,17 @@
         <v>54</v>
       </c>
       <c r="AA38" s="168"/>
-      <c r="AB38" s="83">
+      <c r="AB38" s="180">
         <v>42947</v>
       </c>
-      <c r="AC38" s="144"/>
-      <c r="AD38" s="145"/>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="85"/>
-      <c r="AG38" s="86">
+      <c r="AC38" s="187"/>
+      <c r="AD38" s="188"/>
+      <c r="AE38" s="183"/>
+      <c r="AF38" s="184"/>
+      <c r="AG38" s="185">
         <v>700</v>
       </c>
-      <c r="AH38" s="89">
+      <c r="AH38" s="186">
         <v>7770</v>
       </c>
       <c r="AI38" s="89" t="s">
@@ -4944,13 +5199,13 @@
       </c>
       <c r="AJ38" s="168"/>
       <c r="AK38" s="46"/>
-      <c r="AL38" s="180" t="s">
+      <c r="AL38" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AM38" s="181"/>
-      <c r="AN38" s="181"/>
-      <c r="AO38" s="181"/>
-      <c r="AP38" s="181"/>
+      <c r="AM38" s="195"/>
+      <c r="AN38" s="195"/>
+      <c r="AO38" s="195"/>
+      <c r="AP38" s="195"/>
       <c r="AQ38" s="47" t="s">
         <v>54</v>
       </c>
@@ -4959,13 +5214,13 @@
       </c>
       <c r="AS38" s="168"/>
       <c r="AT38" s="48"/>
-      <c r="AU38" s="180" t="s">
+      <c r="AU38" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AV38" s="181"/>
-      <c r="AW38" s="181"/>
-      <c r="AX38" s="181"/>
-      <c r="AY38" s="219"/>
+      <c r="AV38" s="195"/>
+      <c r="AW38" s="195"/>
+      <c r="AX38" s="195"/>
+      <c r="AY38" s="232"/>
       <c r="AZ38" s="49">
         <v>2800</v>
       </c>
@@ -5045,13 +5300,13 @@
       </c>
       <c r="AJ39" s="168"/>
       <c r="AK39" s="46"/>
-      <c r="AL39" s="182" t="s">
+      <c r="AL39" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="183"/>
-      <c r="AN39" s="183"/>
-      <c r="AO39" s="183"/>
-      <c r="AP39" s="183"/>
+      <c r="AM39" s="197"/>
+      <c r="AN39" s="197"/>
+      <c r="AO39" s="197"/>
+      <c r="AP39" s="197"/>
       <c r="AQ39" s="47" t="s">
         <v>54</v>
       </c>
@@ -5060,13 +5315,13 @@
       </c>
       <c r="AS39" s="168"/>
       <c r="AT39" s="48"/>
-      <c r="AU39" s="182" t="s">
+      <c r="AU39" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="183"/>
-      <c r="AW39" s="183"/>
-      <c r="AX39" s="183"/>
-      <c r="AY39" s="205"/>
+      <c r="AV39" s="197"/>
+      <c r="AW39" s="197"/>
+      <c r="AX39" s="197"/>
+      <c r="AY39" s="228"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49">
         <v>30</v>
@@ -5150,13 +5405,13 @@
       </c>
       <c r="AJ40" s="168"/>
       <c r="AK40" s="46"/>
-      <c r="AL40" s="182" t="s">
+      <c r="AL40" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM40" s="183"/>
-      <c r="AN40" s="183"/>
-      <c r="AO40" s="183"/>
-      <c r="AP40" s="183"/>
+      <c r="AM40" s="197"/>
+      <c r="AN40" s="197"/>
+      <c r="AO40" s="197"/>
+      <c r="AP40" s="197"/>
       <c r="AQ40" s="47" t="s">
         <v>54</v>
       </c>
@@ -5165,13 +5420,13 @@
       </c>
       <c r="AS40" s="168"/>
       <c r="AT40" s="48"/>
-      <c r="AU40" s="182" t="s">
+      <c r="AU40" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV40" s="183"/>
-      <c r="AW40" s="183"/>
-      <c r="AX40" s="183"/>
-      <c r="AY40" s="205"/>
+      <c r="AV40" s="197"/>
+      <c r="AW40" s="197"/>
+      <c r="AX40" s="197"/>
+      <c r="AY40" s="228"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49">
         <v>10000</v>
@@ -5237,13 +5492,13 @@
       <c r="AI41" s="155"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="46"/>
-      <c r="AL41" s="182" t="s">
+      <c r="AL41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="183"/>
-      <c r="AN41" s="183"/>
-      <c r="AO41" s="183"/>
-      <c r="AP41" s="183"/>
+      <c r="AM41" s="197"/>
+      <c r="AN41" s="197"/>
+      <c r="AO41" s="197"/>
+      <c r="AP41" s="197"/>
       <c r="AQ41" s="47" t="s">
         <v>54</v>
       </c>
@@ -5252,13 +5507,13 @@
       </c>
       <c r="AS41" s="168"/>
       <c r="AT41" s="48"/>
-      <c r="AU41" s="182" t="s">
+      <c r="AU41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV41" s="183"/>
-      <c r="AW41" s="183"/>
-      <c r="AX41" s="183"/>
-      <c r="AY41" s="205"/>
+      <c r="AV41" s="197"/>
+      <c r="AW41" s="197"/>
+      <c r="AX41" s="197"/>
+      <c r="AY41" s="228"/>
       <c r="AZ41" s="172" t="s">
         <v>54</v>
       </c>
@@ -5330,13 +5585,13 @@
       <c r="AI42" s="155"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="46"/>
-      <c r="AL42" s="182" t="s">
+      <c r="AL42" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="183"/>
-      <c r="AN42" s="183"/>
-      <c r="AO42" s="183"/>
-      <c r="AP42" s="183"/>
+      <c r="AM42" s="197"/>
+      <c r="AN42" s="197"/>
+      <c r="AO42" s="197"/>
+      <c r="AP42" s="197"/>
       <c r="AQ42" s="47" t="s">
         <v>54</v>
       </c>
@@ -5345,13 +5600,13 @@
       </c>
       <c r="AS42" s="168"/>
       <c r="AT42" s="48"/>
-      <c r="AU42" s="182" t="s">
+      <c r="AU42" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV42" s="183"/>
-      <c r="AW42" s="183"/>
-      <c r="AX42" s="183"/>
-      <c r="AY42" s="205"/>
+      <c r="AV42" s="197"/>
+      <c r="AW42" s="197"/>
+      <c r="AX42" s="197"/>
+      <c r="AY42" s="228"/>
       <c r="AZ42" s="49">
         <v>0</v>
       </c>
@@ -5421,13 +5676,13 @@
       <c r="AI43" s="155"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="46"/>
-      <c r="AL43" s="182" t="s">
+      <c r="AL43" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM43" s="183"/>
-      <c r="AN43" s="183"/>
-      <c r="AO43" s="183"/>
-      <c r="AP43" s="183"/>
+      <c r="AM43" s="197"/>
+      <c r="AN43" s="197"/>
+      <c r="AO43" s="197"/>
+      <c r="AP43" s="197"/>
       <c r="AQ43" s="47" t="s">
         <v>54</v>
       </c>
@@ -5436,13 +5691,13 @@
       </c>
       <c r="AS43" s="168"/>
       <c r="AT43" s="48"/>
-      <c r="AU43" s="182" t="s">
+      <c r="AU43" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV43" s="183"/>
-      <c r="AW43" s="183"/>
-      <c r="AX43" s="183"/>
-      <c r="AY43" s="205"/>
+      <c r="AV43" s="197"/>
+      <c r="AW43" s="197"/>
+      <c r="AX43" s="197"/>
+      <c r="AY43" s="228"/>
       <c r="AZ43" s="49" t="s">
         <v>54</v>
       </c>
@@ -5495,36 +5750,36 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="163"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="178" t="s">
+      <c r="S44" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="179"/>
-      <c r="U44" s="179"/>
-      <c r="V44" s="179"/>
-      <c r="W44" s="179"/>
-      <c r="X44" s="179"/>
-      <c r="Y44" s="179"/>
-      <c r="Z44" s="179"/>
+      <c r="T44" s="192"/>
+      <c r="U44" s="192"/>
+      <c r="V44" s="192"/>
+      <c r="W44" s="192"/>
+      <c r="X44" s="192"/>
+      <c r="Y44" s="192"/>
+      <c r="Z44" s="192"/>
       <c r="AA44" s="168"/>
-      <c r="AB44" s="178" t="s">
+      <c r="AB44" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="179"/>
-      <c r="AD44" s="179"/>
-      <c r="AE44" s="179"/>
-      <c r="AF44" s="179"/>
-      <c r="AG44" s="179"/>
-      <c r="AH44" s="179"/>
-      <c r="AI44" s="179"/>
+      <c r="AC44" s="192"/>
+      <c r="AD44" s="192"/>
+      <c r="AE44" s="192"/>
+      <c r="AF44" s="192"/>
+      <c r="AG44" s="192"/>
+      <c r="AH44" s="192"/>
+      <c r="AI44" s="192"/>
       <c r="AJ44" s="168"/>
       <c r="AK44" s="46"/>
-      <c r="AL44" s="182" t="s">
+      <c r="AL44" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM44" s="183"/>
-      <c r="AN44" s="183"/>
-      <c r="AO44" s="183"/>
-      <c r="AP44" s="183"/>
+      <c r="AM44" s="197"/>
+      <c r="AN44" s="197"/>
+      <c r="AO44" s="197"/>
+      <c r="AP44" s="197"/>
       <c r="AQ44" s="47" t="s">
         <v>54</v>
       </c>
@@ -5533,13 +5788,13 @@
       </c>
       <c r="AS44" s="168"/>
       <c r="AT44" s="48"/>
-      <c r="AU44" s="202" t="s">
+      <c r="AU44" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="AV44" s="203"/>
-      <c r="AW44" s="203"/>
-      <c r="AX44" s="203"/>
-      <c r="AY44" s="204"/>
+      <c r="AV44" s="226"/>
+      <c r="AW44" s="226"/>
+      <c r="AX44" s="226"/>
+      <c r="AY44" s="227"/>
       <c r="AZ44" s="49">
         <v>0</v>
       </c>
@@ -5614,13 +5869,13 @@
       </c>
       <c r="AJ45" s="168"/>
       <c r="AK45" s="46"/>
-      <c r="AL45" s="182" t="s">
+      <c r="AL45" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM45" s="183"/>
-      <c r="AN45" s="183"/>
-      <c r="AO45" s="183"/>
-      <c r="AP45" s="183"/>
+      <c r="AM45" s="197"/>
+      <c r="AN45" s="197"/>
+      <c r="AO45" s="197"/>
+      <c r="AP45" s="197"/>
       <c r="AQ45" s="47" t="s">
         <v>54</v>
       </c>
@@ -5629,13 +5884,13 @@
       </c>
       <c r="AS45" s="168"/>
       <c r="AT45" s="48"/>
-      <c r="AU45" s="202" t="s">
+      <c r="AU45" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="AV45" s="203"/>
-      <c r="AW45" s="203"/>
-      <c r="AX45" s="203"/>
-      <c r="AY45" s="204"/>
+      <c r="AV45" s="226"/>
+      <c r="AW45" s="226"/>
+      <c r="AX45" s="226"/>
+      <c r="AY45" s="227"/>
       <c r="AZ45" s="49">
         <v>0</v>
       </c>
@@ -5702,13 +5957,13 @@
       </c>
       <c r="AJ46" s="168"/>
       <c r="AK46" s="46"/>
-      <c r="AL46" s="182" t="s">
+      <c r="AL46" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM46" s="183"/>
-      <c r="AN46" s="183"/>
-      <c r="AO46" s="183"/>
-      <c r="AP46" s="183"/>
+      <c r="AM46" s="197"/>
+      <c r="AN46" s="197"/>
+      <c r="AO46" s="197"/>
+      <c r="AP46" s="197"/>
       <c r="AQ46" s="47" t="s">
         <v>54</v>
       </c>
@@ -5717,13 +5972,13 @@
       </c>
       <c r="AS46" s="168"/>
       <c r="AT46" s="48"/>
-      <c r="AU46" s="202" t="s">
+      <c r="AU46" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="AV46" s="203"/>
-      <c r="AW46" s="203"/>
-      <c r="AX46" s="203"/>
-      <c r="AY46" s="204"/>
+      <c r="AV46" s="226"/>
+      <c r="AW46" s="226"/>
+      <c r="AX46" s="226"/>
+      <c r="AY46" s="227"/>
       <c r="AZ46" s="49">
         <v>0</v>
       </c>
@@ -5786,13 +6041,13 @@
       </c>
       <c r="AJ47" s="168"/>
       <c r="AK47" s="46"/>
-      <c r="AL47" s="182" t="s">
+      <c r="AL47" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM47" s="183"/>
-      <c r="AN47" s="183"/>
-      <c r="AO47" s="183"/>
-      <c r="AP47" s="183"/>
+      <c r="AM47" s="197"/>
+      <c r="AN47" s="197"/>
+      <c r="AO47" s="197"/>
+      <c r="AP47" s="197"/>
       <c r="AQ47" s="47" t="s">
         <v>54</v>
       </c>
@@ -5801,13 +6056,13 @@
       </c>
       <c r="AS47" s="168"/>
       <c r="AT47" s="48"/>
-      <c r="AU47" s="202" t="s">
+      <c r="AU47" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="AV47" s="203"/>
-      <c r="AW47" s="203"/>
-      <c r="AX47" s="203"/>
-      <c r="AY47" s="204"/>
+      <c r="AV47" s="226"/>
+      <c r="AW47" s="226"/>
+      <c r="AX47" s="226"/>
+      <c r="AY47" s="227"/>
       <c r="AZ47" s="49">
         <v>0</v>
       </c>
@@ -5815,25 +6070,25 @@
         <v>54</v>
       </c>
       <c r="BB47" s="168"/>
-      <c r="BC47" s="190" t="s">
+      <c r="BC47" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BD47" s="191"/>
-      <c r="BE47" s="191"/>
-      <c r="BF47" s="191"/>
-      <c r="BG47" s="191"/>
-      <c r="BH47" s="191"/>
-      <c r="BI47" s="192"/>
+      <c r="BD47" s="206"/>
+      <c r="BE47" s="206"/>
+      <c r="BF47" s="206"/>
+      <c r="BG47" s="206"/>
+      <c r="BH47" s="206"/>
+      <c r="BI47" s="207"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="190" t="s">
+      <c r="BK47" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BL47" s="191"/>
-      <c r="BM47" s="191"/>
-      <c r="BN47" s="191"/>
-      <c r="BO47" s="191"/>
-      <c r="BP47" s="191"/>
-      <c r="BQ47" s="192"/>
+      <c r="BL47" s="206"/>
+      <c r="BM47" s="206"/>
+      <c r="BN47" s="206"/>
+      <c r="BO47" s="206"/>
+      <c r="BP47" s="206"/>
+      <c r="BQ47" s="207"/>
     </row>
     <row r="48" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171"/>
@@ -5914,25 +6169,25 @@
         <v>11435</v>
       </c>
       <c r="BB48" s="168"/>
-      <c r="BC48" s="184" t="s">
+      <c r="BC48" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="BD48" s="185"/>
-      <c r="BE48" s="185"/>
-      <c r="BF48" s="185"/>
-      <c r="BG48" s="185"/>
-      <c r="BH48" s="185"/>
-      <c r="BI48" s="186"/>
+      <c r="BD48" s="200"/>
+      <c r="BE48" s="200"/>
+      <c r="BF48" s="200"/>
+      <c r="BG48" s="200"/>
+      <c r="BH48" s="200"/>
+      <c r="BI48" s="201"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="184" t="s">
+      <c r="BK48" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="BL48" s="185"/>
-      <c r="BM48" s="185"/>
-      <c r="BN48" s="185"/>
-      <c r="BO48" s="185"/>
-      <c r="BP48" s="185"/>
-      <c r="BQ48" s="186"/>
+      <c r="BL48" s="200"/>
+      <c r="BM48" s="200"/>
+      <c r="BN48" s="200"/>
+      <c r="BO48" s="200"/>
+      <c r="BP48" s="200"/>
+      <c r="BQ48" s="201"/>
     </row>
     <row r="49" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="170">
@@ -6005,27 +6260,27 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="187" t="str">
+      <c r="BC49" s="202" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BD49" s="188"/>
-      <c r="BE49" s="188"/>
-      <c r="BF49" s="188"/>
-      <c r="BG49" s="188"/>
-      <c r="BH49" s="188"/>
-      <c r="BI49" s="189"/>
+      <c r="BD49" s="203"/>
+      <c r="BE49" s="203"/>
+      <c r="BF49" s="203"/>
+      <c r="BG49" s="203"/>
+      <c r="BH49" s="203"/>
+      <c r="BI49" s="204"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="187" t="str">
+      <c r="BK49" s="202" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BL49" s="188"/>
-      <c r="BM49" s="188"/>
-      <c r="BN49" s="188"/>
-      <c r="BO49" s="188"/>
-      <c r="BP49" s="188"/>
-      <c r="BQ49" s="189"/>
+      <c r="BL49" s="203"/>
+      <c r="BM49" s="203"/>
+      <c r="BN49" s="203"/>
+      <c r="BO49" s="203"/>
+      <c r="BP49" s="203"/>
+      <c r="BQ49" s="204"/>
     </row>
     <row r="50" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="170">
@@ -6171,27 +6426,27 @@
         <v>54</v>
       </c>
       <c r="AJ51" s="168"/>
-      <c r="AK51" s="194" t="s">
+      <c r="AK51" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="AL51" s="194"/>
-      <c r="AM51" s="194"/>
-      <c r="AN51" s="194"/>
-      <c r="AO51" s="194"/>
-      <c r="AP51" s="194"/>
-      <c r="AQ51" s="194"/>
-      <c r="AR51" s="194"/>
+      <c r="AL51" s="198"/>
+      <c r="AM51" s="198"/>
+      <c r="AN51" s="198"/>
+      <c r="AO51" s="198"/>
+      <c r="AP51" s="198"/>
+      <c r="AQ51" s="198"/>
+      <c r="AR51" s="198"/>
       <c r="AS51" s="168"/>
-      <c r="AT51" s="194" t="s">
+      <c r="AT51" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="AU51" s="194"/>
-      <c r="AV51" s="194"/>
-      <c r="AW51" s="194"/>
-      <c r="AX51" s="194"/>
-      <c r="AY51" s="194"/>
-      <c r="AZ51" s="194"/>
-      <c r="BA51" s="206"/>
+      <c r="AU51" s="198"/>
+      <c r="AV51" s="198"/>
+      <c r="AW51" s="198"/>
+      <c r="AX51" s="198"/>
+      <c r="AY51" s="198"/>
+      <c r="AZ51" s="198"/>
+      <c r="BA51" s="229"/>
       <c r="BB51" s="168"/>
       <c r="BC51" s="23"/>
       <c r="BD51" s="98" t="s">
@@ -6267,27 +6522,27 @@
         <v>54</v>
       </c>
       <c r="AJ52" s="168"/>
-      <c r="AK52" s="193" t="s">
+      <c r="AK52" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="AL52" s="194"/>
-      <c r="AM52" s="194"/>
-      <c r="AN52" s="194"/>
-      <c r="AO52" s="194"/>
-      <c r="AP52" s="194"/>
-      <c r="AQ52" s="194"/>
-      <c r="AR52" s="194"/>
+      <c r="AL52" s="198"/>
+      <c r="AM52" s="198"/>
+      <c r="AN52" s="198"/>
+      <c r="AO52" s="198"/>
+      <c r="AP52" s="198"/>
+      <c r="AQ52" s="198"/>
+      <c r="AR52" s="198"/>
       <c r="AS52" s="168"/>
-      <c r="AT52" s="193" t="s">
+      <c r="AT52" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="AU52" s="193"/>
-      <c r="AV52" s="193"/>
-      <c r="AW52" s="193"/>
-      <c r="AX52" s="193"/>
-      <c r="AY52" s="193"/>
-      <c r="AZ52" s="193"/>
-      <c r="BA52" s="195"/>
+      <c r="AU52" s="208"/>
+      <c r="AV52" s="208"/>
+      <c r="AW52" s="208"/>
+      <c r="AX52" s="208"/>
+      <c r="AY52" s="208"/>
+      <c r="AZ52" s="208"/>
+      <c r="BA52" s="209"/>
       <c r="BB52" s="168"/>
       <c r="BC52" s="23"/>
       <c r="BD52" s="139"/>
@@ -6361,14 +6616,14 @@
         <v>54</v>
       </c>
       <c r="AJ53" s="168"/>
-      <c r="AK53" s="196" t="s">
+      <c r="AK53" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AL53" s="196"/>
-      <c r="AM53" s="196"/>
-      <c r="AN53" s="196"/>
-      <c r="AO53" s="196"/>
-      <c r="AP53" s="196"/>
+      <c r="AL53" s="210"/>
+      <c r="AM53" s="210"/>
+      <c r="AN53" s="210"/>
+      <c r="AO53" s="210"/>
+      <c r="AP53" s="210"/>
       <c r="AQ53" s="141" t="s">
         <v>26</v>
       </c>
@@ -6377,13 +6632,13 @@
       </c>
       <c r="AS53" s="168"/>
       <c r="AT53" s="43"/>
-      <c r="AU53" s="197" t="s">
+      <c r="AU53" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="AV53" s="198"/>
-      <c r="AW53" s="198"/>
-      <c r="AX53" s="198"/>
-      <c r="AY53" s="199"/>
+      <c r="AV53" s="212"/>
+      <c r="AW53" s="212"/>
+      <c r="AX53" s="212"/>
+      <c r="AY53" s="213"/>
       <c r="AZ53" s="156" t="s">
         <v>26</v>
       </c>
@@ -6558,13 +6813,13 @@
       </c>
       <c r="AJ55" s="168"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="180" t="s">
+      <c r="AL55" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AM55" s="181"/>
-      <c r="AN55" s="181"/>
-      <c r="AO55" s="181"/>
-      <c r="AP55" s="181"/>
+      <c r="AM55" s="195"/>
+      <c r="AN55" s="195"/>
+      <c r="AO55" s="195"/>
+      <c r="AP55" s="195"/>
       <c r="AQ55" s="47" t="s">
         <v>54</v>
       </c>
@@ -6573,13 +6828,13 @@
       </c>
       <c r="AS55" s="168"/>
       <c r="AT55" s="48"/>
-      <c r="AU55" s="180" t="s">
+      <c r="AU55" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AV55" s="181"/>
-      <c r="AW55" s="181"/>
-      <c r="AX55" s="181"/>
-      <c r="AY55" s="219"/>
+      <c r="AV55" s="195"/>
+      <c r="AW55" s="195"/>
+      <c r="AX55" s="195"/>
+      <c r="AY55" s="232"/>
       <c r="AZ55" s="49">
         <v>5400</v>
       </c>
@@ -6640,13 +6895,13 @@
       <c r="AI56" s="155"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="182" t="s">
+      <c r="AL56" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM56" s="183"/>
-      <c r="AN56" s="183"/>
-      <c r="AO56" s="183"/>
-      <c r="AP56" s="183"/>
+      <c r="AM56" s="197"/>
+      <c r="AN56" s="197"/>
+      <c r="AO56" s="197"/>
+      <c r="AP56" s="197"/>
       <c r="AQ56" s="47" t="s">
         <v>54</v>
       </c>
@@ -6655,13 +6910,13 @@
       </c>
       <c r="AS56" s="168"/>
       <c r="AT56" s="48"/>
-      <c r="AU56" s="182" t="s">
+      <c r="AU56" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV56" s="183"/>
-      <c r="AW56" s="183"/>
-      <c r="AX56" s="183"/>
-      <c r="AY56" s="205"/>
+      <c r="AV56" s="197"/>
+      <c r="AW56" s="197"/>
+      <c r="AX56" s="197"/>
+      <c r="AY56" s="228"/>
       <c r="AZ56" s="49" t="s">
         <v>54</v>
       </c>
@@ -6728,13 +6983,13 @@
       <c r="AI57" s="155"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="182" t="s">
+      <c r="AL57" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="183"/>
-      <c r="AN57" s="183"/>
-      <c r="AO57" s="183"/>
-      <c r="AP57" s="183"/>
+      <c r="AM57" s="197"/>
+      <c r="AN57" s="197"/>
+      <c r="AO57" s="197"/>
+      <c r="AP57" s="197"/>
       <c r="AQ57" s="47" t="s">
         <v>54</v>
       </c>
@@ -6742,18 +6997,18 @@
         <v>54</v>
       </c>
       <c r="AS57" s="168"/>
-      <c r="AT57" s="48"/>
-      <c r="AU57" s="182" t="s">
+      <c r="AT57" s="189"/>
+      <c r="AU57" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="AV57" s="183"/>
-      <c r="AW57" s="183"/>
-      <c r="AX57" s="183"/>
-      <c r="AY57" s="205"/>
-      <c r="AZ57" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA57" s="49">
+      <c r="AV57" s="235"/>
+      <c r="AW57" s="235"/>
+      <c r="AX57" s="235"/>
+      <c r="AY57" s="236"/>
+      <c r="AZ57" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA57" s="190">
         <v>10000</v>
       </c>
       <c r="BB57" s="168"/>
@@ -6814,13 +7069,13 @@
       <c r="AI58" s="155"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="46"/>
-      <c r="AL58" s="182" t="s">
+      <c r="AL58" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM58" s="183"/>
-      <c r="AN58" s="183"/>
-      <c r="AO58" s="183"/>
-      <c r="AP58" s="183"/>
+      <c r="AM58" s="197"/>
+      <c r="AN58" s="197"/>
+      <c r="AO58" s="197"/>
+      <c r="AP58" s="197"/>
       <c r="AQ58" s="47" t="s">
         <v>54</v>
       </c>
@@ -6828,18 +7083,18 @@
         <v>54</v>
       </c>
       <c r="AS58" s="168"/>
-      <c r="AT58" s="48"/>
-      <c r="AU58" s="182" t="s">
+      <c r="AT58" s="189"/>
+      <c r="AU58" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="AV58" s="183"/>
-      <c r="AW58" s="183"/>
-      <c r="AX58" s="183"/>
-      <c r="AY58" s="205"/>
-      <c r="AZ58" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA58" s="49">
+      <c r="AV58" s="235"/>
+      <c r="AW58" s="235"/>
+      <c r="AX58" s="235"/>
+      <c r="AY58" s="236"/>
+      <c r="AZ58" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA58" s="190">
         <v>1405</v>
       </c>
       <c r="BB58" s="168"/>
@@ -6877,36 +7132,36 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="178" t="s">
+      <c r="S59" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="179"/>
-      <c r="U59" s="179"/>
-      <c r="V59" s="179"/>
-      <c r="W59" s="179"/>
-      <c r="X59" s="179"/>
-      <c r="Y59" s="179"/>
-      <c r="Z59" s="179"/>
+      <c r="T59" s="192"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="192"/>
+      <c r="W59" s="192"/>
+      <c r="X59" s="192"/>
+      <c r="Y59" s="192"/>
+      <c r="Z59" s="192"/>
       <c r="AA59" s="168"/>
-      <c r="AB59" s="178" t="s">
+      <c r="AB59" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="179"/>
-      <c r="AD59" s="179"/>
-      <c r="AE59" s="179"/>
-      <c r="AF59" s="179"/>
-      <c r="AG59" s="179"/>
-      <c r="AH59" s="179"/>
-      <c r="AI59" s="179"/>
+      <c r="AC59" s="192"/>
+      <c r="AD59" s="192"/>
+      <c r="AE59" s="192"/>
+      <c r="AF59" s="192"/>
+      <c r="AG59" s="192"/>
+      <c r="AH59" s="192"/>
+      <c r="AI59" s="192"/>
       <c r="AJ59" s="168"/>
       <c r="AK59" s="46"/>
-      <c r="AL59" s="182" t="s">
+      <c r="AL59" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM59" s="183"/>
-      <c r="AN59" s="183"/>
-      <c r="AO59" s="183"/>
-      <c r="AP59" s="183"/>
+      <c r="AM59" s="197"/>
+      <c r="AN59" s="197"/>
+      <c r="AO59" s="197"/>
+      <c r="AP59" s="197"/>
       <c r="AQ59" s="47" t="s">
         <v>54</v>
       </c>
@@ -6915,13 +7170,13 @@
       </c>
       <c r="AS59" s="168"/>
       <c r="AT59" s="48"/>
-      <c r="AU59" s="182" t="s">
+      <c r="AU59" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV59" s="183"/>
-      <c r="AW59" s="183"/>
-      <c r="AX59" s="183"/>
-      <c r="AY59" s="205"/>
+      <c r="AV59" s="197"/>
+      <c r="AW59" s="197"/>
+      <c r="AX59" s="197"/>
+      <c r="AY59" s="228"/>
       <c r="AZ59" s="49">
         <v>700</v>
       </c>
@@ -7010,13 +7265,13 @@
       </c>
       <c r="AJ60" s="168"/>
       <c r="AK60" s="46"/>
-      <c r="AL60" s="182" t="s">
+      <c r="AL60" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM60" s="183"/>
-      <c r="AN60" s="183"/>
-      <c r="AO60" s="183"/>
-      <c r="AP60" s="183"/>
+      <c r="AM60" s="197"/>
+      <c r="AN60" s="197"/>
+      <c r="AO60" s="197"/>
+      <c r="AP60" s="197"/>
       <c r="AQ60" s="47" t="s">
         <v>54</v>
       </c>
@@ -7025,13 +7280,13 @@
       </c>
       <c r="AS60" s="168"/>
       <c r="AT60" s="48"/>
-      <c r="AU60" s="182" t="s">
+      <c r="AU60" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV60" s="183"/>
-      <c r="AW60" s="183"/>
-      <c r="AX60" s="183"/>
-      <c r="AY60" s="205"/>
+      <c r="AV60" s="197"/>
+      <c r="AW60" s="197"/>
+      <c r="AX60" s="197"/>
+      <c r="AY60" s="228"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49">
         <v>4050</v>
@@ -7108,13 +7363,13 @@
       </c>
       <c r="AJ61" s="168"/>
       <c r="AK61" s="46"/>
-      <c r="AL61" s="182" t="s">
+      <c r="AL61" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM61" s="183"/>
-      <c r="AN61" s="183"/>
-      <c r="AO61" s="183"/>
-      <c r="AP61" s="183"/>
+      <c r="AM61" s="197"/>
+      <c r="AN61" s="197"/>
+      <c r="AO61" s="197"/>
+      <c r="AP61" s="197"/>
       <c r="AQ61" s="47" t="s">
         <v>54</v>
       </c>
@@ -7123,13 +7378,13 @@
       </c>
       <c r="AS61" s="168"/>
       <c r="AT61" s="48"/>
-      <c r="AU61" s="202" t="s">
+      <c r="AU61" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="203"/>
-      <c r="AW61" s="203"/>
-      <c r="AX61" s="203"/>
-      <c r="AY61" s="204"/>
+      <c r="AV61" s="226"/>
+      <c r="AW61" s="226"/>
+      <c r="AX61" s="226"/>
+      <c r="AY61" s="227"/>
       <c r="AZ61" s="49">
         <v>1200</v>
       </c>
@@ -7206,13 +7461,13 @@
       </c>
       <c r="AJ62" s="168"/>
       <c r="AK62" s="46"/>
-      <c r="AL62" s="182" t="s">
+      <c r="AL62" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM62" s="183"/>
-      <c r="AN62" s="183"/>
-      <c r="AO62" s="183"/>
-      <c r="AP62" s="183"/>
+      <c r="AM62" s="197"/>
+      <c r="AN62" s="197"/>
+      <c r="AO62" s="197"/>
+      <c r="AP62" s="197"/>
       <c r="AQ62" s="47" t="s">
         <v>54</v>
       </c>
@@ -7221,13 +7476,13 @@
       </c>
       <c r="AS62" s="168"/>
       <c r="AT62" s="48"/>
-      <c r="AU62" s="202" t="s">
+      <c r="AU62" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="AV62" s="203"/>
-      <c r="AW62" s="203"/>
-      <c r="AX62" s="203"/>
-      <c r="AY62" s="204"/>
+      <c r="AV62" s="226"/>
+      <c r="AW62" s="226"/>
+      <c r="AX62" s="226"/>
+      <c r="AY62" s="227"/>
       <c r="AZ62" s="49">
         <v>450</v>
       </c>
@@ -7304,13 +7559,13 @@
       </c>
       <c r="AJ63" s="168"/>
       <c r="AK63" s="46"/>
-      <c r="AL63" s="182" t="s">
+      <c r="AL63" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM63" s="183"/>
-      <c r="AN63" s="183"/>
-      <c r="AO63" s="183"/>
-      <c r="AP63" s="183"/>
+      <c r="AM63" s="197"/>
+      <c r="AN63" s="197"/>
+      <c r="AO63" s="197"/>
+      <c r="AP63" s="197"/>
       <c r="AQ63" s="47" t="s">
         <v>54</v>
       </c>
@@ -7319,13 +7574,13 @@
       </c>
       <c r="AS63" s="168"/>
       <c r="AT63" s="48"/>
-      <c r="AU63" s="202" t="s">
+      <c r="AU63" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="AV63" s="203"/>
-      <c r="AW63" s="203"/>
-      <c r="AX63" s="203"/>
-      <c r="AY63" s="204"/>
+      <c r="AV63" s="226"/>
+      <c r="AW63" s="226"/>
+      <c r="AX63" s="226"/>
+      <c r="AY63" s="227"/>
       <c r="AZ63" s="49">
         <v>145</v>
       </c>
@@ -7396,13 +7651,13 @@
       </c>
       <c r="AJ64" s="168"/>
       <c r="AK64" s="46"/>
-      <c r="AL64" s="182" t="s">
+      <c r="AL64" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM64" s="183"/>
-      <c r="AN64" s="183"/>
-      <c r="AO64" s="183"/>
-      <c r="AP64" s="183"/>
+      <c r="AM64" s="197"/>
+      <c r="AN64" s="197"/>
+      <c r="AO64" s="197"/>
+      <c r="AP64" s="197"/>
       <c r="AQ64" s="47" t="s">
         <v>54</v>
       </c>
@@ -7411,13 +7666,13 @@
       </c>
       <c r="AS64" s="168"/>
       <c r="AT64" s="48"/>
-      <c r="AU64" s="202" t="s">
+      <c r="AU64" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="AV64" s="203"/>
-      <c r="AW64" s="203"/>
-      <c r="AX64" s="203"/>
-      <c r="AY64" s="204"/>
+      <c r="AV64" s="226"/>
+      <c r="AW64" s="226"/>
+      <c r="AX64" s="226"/>
+      <c r="AY64" s="227"/>
       <c r="AZ64" s="49">
         <v>20</v>
       </c>
@@ -7572,10 +7827,16 @@
       <c r="J67" s="15"/>
       <c r="K67" s="16"/>
       <c r="L67" s="167"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="16"/>
+      <c r="M67" s="177">
+        <v>43648</v>
+      </c>
+      <c r="N67" s="178" t="s">
+        <v>9</v>
+      </c>
+      <c r="O67" s="179">
+        <v>250</v>
+      </c>
+      <c r="P67" s="179"/>
       <c r="Q67" s="167"/>
       <c r="R67" s="1"/>
       <c r="S67" s="110"/>
@@ -7626,25 +7887,25 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="190" t="s">
+      <c r="BC67" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BD67" s="191"/>
-      <c r="BE67" s="191"/>
-      <c r="BF67" s="191"/>
-      <c r="BG67" s="191"/>
-      <c r="BH67" s="191"/>
-      <c r="BI67" s="192"/>
+      <c r="BD67" s="206"/>
+      <c r="BE67" s="206"/>
+      <c r="BF67" s="206"/>
+      <c r="BG67" s="206"/>
+      <c r="BH67" s="206"/>
+      <c r="BI67" s="207"/>
       <c r="BJ67" s="7"/>
-      <c r="BK67" s="190" t="s">
+      <c r="BK67" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BL67" s="191"/>
-      <c r="BM67" s="191"/>
-      <c r="BN67" s="191"/>
-      <c r="BO67" s="191"/>
-      <c r="BP67" s="191"/>
-      <c r="BQ67" s="192"/>
+      <c r="BL67" s="206"/>
+      <c r="BM67" s="206"/>
+      <c r="BN67" s="206"/>
+      <c r="BO67" s="206"/>
+      <c r="BP67" s="206"/>
+      <c r="BQ67" s="207"/>
     </row>
     <row r="68" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="22"/>
@@ -7692,47 +7953,47 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="168"/>
-      <c r="AK68" s="194" t="s">
+      <c r="AK68" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="AL68" s="194"/>
-      <c r="AM68" s="194"/>
-      <c r="AN68" s="194"/>
-      <c r="AO68" s="194"/>
-      <c r="AP68" s="194"/>
-      <c r="AQ68" s="194"/>
-      <c r="AR68" s="194"/>
+      <c r="AL68" s="198"/>
+      <c r="AM68" s="198"/>
+      <c r="AN68" s="198"/>
+      <c r="AO68" s="198"/>
+      <c r="AP68" s="198"/>
+      <c r="AQ68" s="198"/>
+      <c r="AR68" s="198"/>
       <c r="AS68" s="168"/>
-      <c r="AT68" s="194" t="s">
+      <c r="AT68" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="AU68" s="194"/>
-      <c r="AV68" s="194"/>
-      <c r="AW68" s="194"/>
-      <c r="AX68" s="194"/>
-      <c r="AY68" s="194"/>
-      <c r="AZ68" s="194"/>
-      <c r="BA68" s="206"/>
+      <c r="AU68" s="198"/>
+      <c r="AV68" s="198"/>
+      <c r="AW68" s="198"/>
+      <c r="AX68" s="198"/>
+      <c r="AY68" s="198"/>
+      <c r="AZ68" s="198"/>
+      <c r="BA68" s="229"/>
       <c r="BB68" s="168"/>
-      <c r="BC68" s="184" t="s">
+      <c r="BC68" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="BD68" s="185"/>
-      <c r="BE68" s="185"/>
-      <c r="BF68" s="185"/>
-      <c r="BG68" s="185"/>
-      <c r="BH68" s="185"/>
-      <c r="BI68" s="186"/>
+      <c r="BD68" s="200"/>
+      <c r="BE68" s="200"/>
+      <c r="BF68" s="200"/>
+      <c r="BG68" s="200"/>
+      <c r="BH68" s="200"/>
+      <c r="BI68" s="201"/>
       <c r="BJ68" s="7"/>
-      <c r="BK68" s="184" t="s">
+      <c r="BK68" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="BL68" s="185"/>
-      <c r="BM68" s="185"/>
-      <c r="BN68" s="185"/>
-      <c r="BO68" s="185"/>
-      <c r="BP68" s="185"/>
-      <c r="BQ68" s="186"/>
+      <c r="BL68" s="200"/>
+      <c r="BM68" s="200"/>
+      <c r="BN68" s="200"/>
+      <c r="BO68" s="200"/>
+      <c r="BP68" s="200"/>
+      <c r="BQ68" s="201"/>
     </row>
     <row r="69" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
@@ -7782,48 +8043,48 @@
         <v>230</v>
       </c>
       <c r="AJ69" s="168"/>
-      <c r="AK69" s="193" t="s">
+      <c r="AK69" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="AL69" s="194"/>
-      <c r="AM69" s="194"/>
-      <c r="AN69" s="194"/>
-      <c r="AO69" s="194"/>
-      <c r="AP69" s="194"/>
-      <c r="AQ69" s="194"/>
-      <c r="AR69" s="194"/>
+      <c r="AL69" s="198"/>
+      <c r="AM69" s="198"/>
+      <c r="AN69" s="198"/>
+      <c r="AO69" s="198"/>
+      <c r="AP69" s="198"/>
+      <c r="AQ69" s="198"/>
+      <c r="AR69" s="198"/>
       <c r="AS69" s="168"/>
-      <c r="AT69" s="193" t="s">
+      <c r="AT69" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="AU69" s="193"/>
-      <c r="AV69" s="193"/>
-      <c r="AW69" s="193"/>
-      <c r="AX69" s="193"/>
-      <c r="AY69" s="193"/>
-      <c r="AZ69" s="193"/>
-      <c r="BA69" s="195"/>
+      <c r="AU69" s="208"/>
+      <c r="AV69" s="208"/>
+      <c r="AW69" s="208"/>
+      <c r="AX69" s="208"/>
+      <c r="AY69" s="208"/>
+      <c r="AZ69" s="208"/>
+      <c r="BA69" s="209"/>
       <c r="BB69" s="168"/>
-      <c r="BC69" s="200" t="str">
+      <c r="BC69" s="223" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD69" s="201"/>
-      <c r="BE69" s="201"/>
-      <c r="BF69" s="201"/>
-      <c r="BG69" s="201"/>
-      <c r="BH69" s="201"/>
+      <c r="BD69" s="224"/>
+      <c r="BE69" s="224"/>
+      <c r="BF69" s="224"/>
+      <c r="BG69" s="224"/>
+      <c r="BH69" s="224"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="7"/>
-      <c r="BK69" s="200" t="str">
+      <c r="BK69" s="223" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL69" s="201"/>
-      <c r="BM69" s="201"/>
-      <c r="BN69" s="201"/>
-      <c r="BO69" s="201"/>
-      <c r="BP69" s="201"/>
+      <c r="BL69" s="224"/>
+      <c r="BM69" s="224"/>
+      <c r="BN69" s="224"/>
+      <c r="BO69" s="224"/>
+      <c r="BP69" s="224"/>
       <c r="BQ69" s="13"/>
     </row>
     <row r="70" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7874,14 +8135,14 @@
         <v>54</v>
       </c>
       <c r="AJ70" s="168"/>
-      <c r="AK70" s="196" t="s">
+      <c r="AK70" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AL70" s="196"/>
-      <c r="AM70" s="196"/>
-      <c r="AN70" s="196"/>
-      <c r="AO70" s="196"/>
-      <c r="AP70" s="196"/>
+      <c r="AL70" s="210"/>
+      <c r="AM70" s="210"/>
+      <c r="AN70" s="210"/>
+      <c r="AO70" s="210"/>
+      <c r="AP70" s="210"/>
       <c r="AQ70" s="141" t="s">
         <v>26</v>
       </c>
@@ -7890,13 +8151,13 @@
       </c>
       <c r="AS70" s="168"/>
       <c r="AT70" s="43"/>
-      <c r="AU70" s="197" t="s">
+      <c r="AU70" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="AV70" s="198"/>
-      <c r="AW70" s="198"/>
-      <c r="AX70" s="198"/>
-      <c r="AY70" s="199"/>
+      <c r="AV70" s="212"/>
+      <c r="AW70" s="212"/>
+      <c r="AX70" s="212"/>
+      <c r="AY70" s="213"/>
       <c r="AZ70" s="156" t="s">
         <v>26</v>
       </c>
@@ -8059,13 +8320,13 @@
       <c r="AI72" s="155"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="46"/>
-      <c r="AL72" s="180" t="s">
+      <c r="AL72" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AM72" s="181"/>
-      <c r="AN72" s="181"/>
-      <c r="AO72" s="181"/>
-      <c r="AP72" s="181"/>
+      <c r="AM72" s="195"/>
+      <c r="AN72" s="195"/>
+      <c r="AO72" s="195"/>
+      <c r="AP72" s="195"/>
       <c r="AQ72" s="47" t="s">
         <v>54</v>
       </c>
@@ -8074,13 +8335,13 @@
       </c>
       <c r="AS72" s="168"/>
       <c r="AT72" s="48"/>
-      <c r="AU72" s="180" t="s">
+      <c r="AU72" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AV72" s="181"/>
-      <c r="AW72" s="181"/>
-      <c r="AX72" s="181"/>
-      <c r="AY72" s="219"/>
+      <c r="AV72" s="195"/>
+      <c r="AW72" s="195"/>
+      <c r="AX72" s="195"/>
+      <c r="AY72" s="232"/>
       <c r="AZ72" s="49">
         <v>5400</v>
       </c>
@@ -8143,13 +8404,13 @@
       <c r="AI73" s="155"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="46"/>
-      <c r="AL73" s="182" t="s">
+      <c r="AL73" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM73" s="183"/>
-      <c r="AN73" s="183"/>
-      <c r="AO73" s="183"/>
-      <c r="AP73" s="183"/>
+      <c r="AM73" s="197"/>
+      <c r="AN73" s="197"/>
+      <c r="AO73" s="197"/>
+      <c r="AP73" s="197"/>
       <c r="AQ73" s="47" t="s">
         <v>54</v>
       </c>
@@ -8158,13 +8419,13 @@
       </c>
       <c r="AS73" s="168"/>
       <c r="AT73" s="48"/>
-      <c r="AU73" s="182" t="s">
+      <c r="AU73" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV73" s="183"/>
-      <c r="AW73" s="183"/>
-      <c r="AX73" s="183"/>
-      <c r="AY73" s="205"/>
+      <c r="AV73" s="197"/>
+      <c r="AW73" s="197"/>
+      <c r="AX73" s="197"/>
+      <c r="AY73" s="228"/>
       <c r="AZ73" s="49" t="s">
         <v>54</v>
       </c>
@@ -8225,13 +8486,13 @@
       <c r="AI74" s="155"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="46"/>
-      <c r="AL74" s="182" t="s">
+      <c r="AL74" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM74" s="183"/>
-      <c r="AN74" s="183"/>
-      <c r="AO74" s="183"/>
-      <c r="AP74" s="183"/>
+      <c r="AM74" s="197"/>
+      <c r="AN74" s="197"/>
+      <c r="AO74" s="197"/>
+      <c r="AP74" s="197"/>
       <c r="AQ74" s="47" t="s">
         <v>54</v>
       </c>
@@ -8240,13 +8501,13 @@
       </c>
       <c r="AS74" s="168"/>
       <c r="AT74" s="48"/>
-      <c r="AU74" s="182" t="s">
+      <c r="AU74" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV74" s="183"/>
-      <c r="AW74" s="183"/>
-      <c r="AX74" s="183"/>
-      <c r="AY74" s="205"/>
+      <c r="AV74" s="197"/>
+      <c r="AW74" s="197"/>
+      <c r="AX74" s="197"/>
+      <c r="AY74" s="228"/>
       <c r="AZ74" s="49" t="s">
         <v>54</v>
       </c>
@@ -8292,36 +8553,36 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="178" t="s">
+      <c r="S75" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="T75" s="179"/>
-      <c r="U75" s="179"/>
-      <c r="V75" s="179"/>
-      <c r="W75" s="179"/>
-      <c r="X75" s="179"/>
-      <c r="Y75" s="179"/>
-      <c r="Z75" s="179"/>
+      <c r="T75" s="192"/>
+      <c r="U75" s="192"/>
+      <c r="V75" s="192"/>
+      <c r="W75" s="192"/>
+      <c r="X75" s="192"/>
+      <c r="Y75" s="192"/>
+      <c r="Z75" s="192"/>
       <c r="AA75" s="168"/>
-      <c r="AB75" s="178" t="s">
+      <c r="AB75" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AC75" s="179"/>
-      <c r="AD75" s="179"/>
-      <c r="AE75" s="179"/>
-      <c r="AF75" s="179"/>
-      <c r="AG75" s="179"/>
-      <c r="AH75" s="179"/>
-      <c r="AI75" s="179"/>
+      <c r="AC75" s="192"/>
+      <c r="AD75" s="192"/>
+      <c r="AE75" s="192"/>
+      <c r="AF75" s="192"/>
+      <c r="AG75" s="192"/>
+      <c r="AH75" s="192"/>
+      <c r="AI75" s="192"/>
       <c r="AJ75" s="168"/>
       <c r="AK75" s="46"/>
-      <c r="AL75" s="182" t="s">
+      <c r="AL75" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM75" s="183"/>
-      <c r="AN75" s="183"/>
-      <c r="AO75" s="183"/>
-      <c r="AP75" s="183"/>
+      <c r="AM75" s="197"/>
+      <c r="AN75" s="197"/>
+      <c r="AO75" s="197"/>
+      <c r="AP75" s="197"/>
       <c r="AQ75" s="47" t="s">
         <v>54</v>
       </c>
@@ -8330,13 +8591,13 @@
       </c>
       <c r="AS75" s="168"/>
       <c r="AT75" s="48"/>
-      <c r="AU75" s="182" t="s">
+      <c r="AU75" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV75" s="183"/>
-      <c r="AW75" s="183"/>
-      <c r="AX75" s="183"/>
-      <c r="AY75" s="205"/>
+      <c r="AV75" s="197"/>
+      <c r="AW75" s="197"/>
+      <c r="AX75" s="197"/>
+      <c r="AY75" s="228"/>
       <c r="AZ75" s="49" t="s">
         <v>54</v>
       </c>
@@ -8423,13 +8684,13 @@
       </c>
       <c r="AJ76" s="168"/>
       <c r="AK76" s="46"/>
-      <c r="AL76" s="182" t="s">
+      <c r="AL76" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM76" s="183"/>
-      <c r="AN76" s="183"/>
-      <c r="AO76" s="183"/>
-      <c r="AP76" s="183"/>
+      <c r="AM76" s="197"/>
+      <c r="AN76" s="197"/>
+      <c r="AO76" s="197"/>
+      <c r="AP76" s="197"/>
       <c r="AQ76" s="47" t="s">
         <v>54</v>
       </c>
@@ -8438,13 +8699,13 @@
       </c>
       <c r="AS76" s="168"/>
       <c r="AT76" s="48"/>
-      <c r="AU76" s="182" t="s">
+      <c r="AU76" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV76" s="183"/>
-      <c r="AW76" s="183"/>
-      <c r="AX76" s="183"/>
-      <c r="AY76" s="205"/>
+      <c r="AV76" s="197"/>
+      <c r="AW76" s="197"/>
+      <c r="AX76" s="197"/>
+      <c r="AY76" s="228"/>
       <c r="AZ76" s="49">
         <v>0</v>
       </c>
@@ -8503,33 +8764,33 @@
         <v>54</v>
       </c>
       <c r="AA77" s="168"/>
-      <c r="AB77" s="73">
+      <c r="AB77" s="245">
         <v>42887</v>
       </c>
-      <c r="AC77" s="111"/>
-      <c r="AD77" s="112"/>
-      <c r="AE77" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF77" s="115"/>
-      <c r="AG77" s="78">
+      <c r="AC77" s="246"/>
+      <c r="AD77" s="247"/>
+      <c r="AE77" s="248" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="249"/>
+      <c r="AG77" s="250">
         <v>10000</v>
       </c>
-      <c r="AH77" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI77" s="80">
+      <c r="AH77" s="251" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI77" s="251">
         <v>10000</v>
       </c>
       <c r="AJ77" s="168"/>
       <c r="AK77" s="46"/>
-      <c r="AL77" s="182" t="s">
+      <c r="AL77" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM77" s="183"/>
-      <c r="AN77" s="183"/>
-      <c r="AO77" s="183"/>
-      <c r="AP77" s="183"/>
+      <c r="AM77" s="197"/>
+      <c r="AN77" s="197"/>
+      <c r="AO77" s="197"/>
+      <c r="AP77" s="197"/>
       <c r="AQ77" s="47" t="s">
         <v>54</v>
       </c>
@@ -8538,13 +8799,13 @@
       </c>
       <c r="AS77" s="168"/>
       <c r="AT77" s="48"/>
-      <c r="AU77" s="182" t="s">
+      <c r="AU77" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV77" s="183"/>
-      <c r="AW77" s="183"/>
-      <c r="AX77" s="183"/>
-      <c r="AY77" s="205"/>
+      <c r="AV77" s="197"/>
+      <c r="AW77" s="197"/>
+      <c r="AX77" s="197"/>
+      <c r="AY77" s="228"/>
       <c r="AZ77" s="49" t="s">
         <v>54</v>
       </c>
@@ -8621,13 +8882,13 @@
       </c>
       <c r="AJ78" s="168"/>
       <c r="AK78" s="46"/>
-      <c r="AL78" s="182" t="s">
+      <c r="AL78" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM78" s="183"/>
-      <c r="AN78" s="183"/>
-      <c r="AO78" s="183"/>
-      <c r="AP78" s="183"/>
+      <c r="AM78" s="197"/>
+      <c r="AN78" s="197"/>
+      <c r="AO78" s="197"/>
+      <c r="AP78" s="197"/>
       <c r="AQ78" s="47" t="s">
         <v>54</v>
       </c>
@@ -8636,13 +8897,13 @@
       </c>
       <c r="AS78" s="168"/>
       <c r="AT78" s="48"/>
-      <c r="AU78" s="202" t="s">
+      <c r="AU78" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="AV78" s="203"/>
-      <c r="AW78" s="203"/>
-      <c r="AX78" s="203"/>
-      <c r="AY78" s="204"/>
+      <c r="AV78" s="226"/>
+      <c r="AW78" s="226"/>
+      <c r="AX78" s="226"/>
+      <c r="AY78" s="227"/>
       <c r="AZ78" s="49">
         <v>0</v>
       </c>
@@ -8721,13 +8982,13 @@
       </c>
       <c r="AJ79" s="168"/>
       <c r="AK79" s="46"/>
-      <c r="AL79" s="182" t="s">
+      <c r="AL79" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="183"/>
-      <c r="AN79" s="183"/>
-      <c r="AO79" s="183"/>
-      <c r="AP79" s="183"/>
+      <c r="AM79" s="197"/>
+      <c r="AN79" s="197"/>
+      <c r="AO79" s="197"/>
+      <c r="AP79" s="197"/>
       <c r="AQ79" s="47" t="s">
         <v>54</v>
       </c>
@@ -8736,13 +8997,13 @@
       </c>
       <c r="AS79" s="168"/>
       <c r="AT79" s="48"/>
-      <c r="AU79" s="202" t="s">
+      <c r="AU79" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="AV79" s="203"/>
-      <c r="AW79" s="203"/>
-      <c r="AX79" s="203"/>
-      <c r="AY79" s="204"/>
+      <c r="AV79" s="226"/>
+      <c r="AW79" s="226"/>
+      <c r="AX79" s="226"/>
+      <c r="AY79" s="227"/>
       <c r="AZ79" s="49">
         <v>0</v>
       </c>
@@ -8819,13 +9080,13 @@
       </c>
       <c r="AJ80" s="168"/>
       <c r="AK80" s="46"/>
-      <c r="AL80" s="182" t="s">
+      <c r="AL80" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM80" s="183"/>
-      <c r="AN80" s="183"/>
-      <c r="AO80" s="183"/>
-      <c r="AP80" s="183"/>
+      <c r="AM80" s="197"/>
+      <c r="AN80" s="197"/>
+      <c r="AO80" s="197"/>
+      <c r="AP80" s="197"/>
       <c r="AQ80" s="47" t="s">
         <v>54</v>
       </c>
@@ -8834,13 +9095,13 @@
       </c>
       <c r="AS80" s="168"/>
       <c r="AT80" s="48"/>
-      <c r="AU80" s="202" t="s">
+      <c r="AU80" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="AV80" s="203"/>
-      <c r="AW80" s="203"/>
-      <c r="AX80" s="203"/>
-      <c r="AY80" s="204"/>
+      <c r="AV80" s="226"/>
+      <c r="AW80" s="226"/>
+      <c r="AX80" s="226"/>
+      <c r="AY80" s="227"/>
       <c r="AZ80" s="49">
         <v>0</v>
       </c>
@@ -8905,13 +9166,13 @@
       <c r="AI81" s="155"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="46"/>
-      <c r="AL81" s="182" t="s">
+      <c r="AL81" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM81" s="183"/>
-      <c r="AN81" s="183"/>
-      <c r="AO81" s="183"/>
-      <c r="AP81" s="183"/>
+      <c r="AM81" s="197"/>
+      <c r="AN81" s="197"/>
+      <c r="AO81" s="197"/>
+      <c r="AP81" s="197"/>
       <c r="AQ81" s="47" t="s">
         <v>54</v>
       </c>
@@ -8920,13 +9181,13 @@
       </c>
       <c r="AS81" s="168"/>
       <c r="AT81" s="48"/>
-      <c r="AU81" s="202" t="s">
+      <c r="AU81" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="AV81" s="203"/>
-      <c r="AW81" s="203"/>
-      <c r="AX81" s="203"/>
-      <c r="AY81" s="204"/>
+      <c r="AV81" s="226"/>
+      <c r="AW81" s="226"/>
+      <c r="AX81" s="226"/>
+      <c r="AY81" s="227"/>
       <c r="AZ81" s="49">
         <v>0</v>
       </c>
@@ -9067,27 +9328,27 @@
       </c>
       <c r="Q84" s="169"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="178" t="s">
+      <c r="S84" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="T84" s="179"/>
-      <c r="U84" s="179"/>
-      <c r="V84" s="179"/>
-      <c r="W84" s="179"/>
-      <c r="X84" s="179"/>
-      <c r="Y84" s="179"/>
-      <c r="Z84" s="179"/>
+      <c r="T84" s="192"/>
+      <c r="U84" s="192"/>
+      <c r="V84" s="192"/>
+      <c r="W84" s="192"/>
+      <c r="X84" s="192"/>
+      <c r="Y84" s="192"/>
+      <c r="Z84" s="192"/>
       <c r="AA84" s="168"/>
-      <c r="AB84" s="178" t="s">
+      <c r="AB84" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="AC84" s="179"/>
-      <c r="AD84" s="179"/>
-      <c r="AE84" s="179"/>
-      <c r="AF84" s="179"/>
-      <c r="AG84" s="179"/>
-      <c r="AH84" s="179"/>
-      <c r="AI84" s="179"/>
+      <c r="AC84" s="192"/>
+      <c r="AD84" s="192"/>
+      <c r="AE84" s="192"/>
+      <c r="AF84" s="192"/>
+      <c r="AG84" s="192"/>
+      <c r="AH84" s="192"/>
+      <c r="AI84" s="192"/>
       <c r="AJ84" s="168"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -9107,25 +9368,25 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="190" t="s">
+      <c r="BC84" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BD84" s="191"/>
-      <c r="BE84" s="191"/>
-      <c r="BF84" s="191"/>
-      <c r="BG84" s="191"/>
-      <c r="BH84" s="191"/>
-      <c r="BI84" s="192"/>
+      <c r="BD84" s="206"/>
+      <c r="BE84" s="206"/>
+      <c r="BF84" s="206"/>
+      <c r="BG84" s="206"/>
+      <c r="BH84" s="206"/>
+      <c r="BI84" s="207"/>
       <c r="BJ84" s="7"/>
-      <c r="BK84" s="190" t="s">
+      <c r="BK84" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BL84" s="191"/>
-      <c r="BM84" s="191"/>
-      <c r="BN84" s="191"/>
-      <c r="BO84" s="191"/>
-      <c r="BP84" s="191"/>
-      <c r="BQ84" s="192"/>
+      <c r="BL84" s="206"/>
+      <c r="BM84" s="206"/>
+      <c r="BN84" s="206"/>
+      <c r="BO84" s="206"/>
+      <c r="BP84" s="206"/>
+      <c r="BQ84" s="207"/>
     </row>
     <row r="85" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="14"/>
@@ -9205,25 +9466,25 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="207" t="s">
+      <c r="BC85" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="BD85" s="208"/>
-      <c r="BE85" s="208"/>
-      <c r="BF85" s="208"/>
-      <c r="BG85" s="208"/>
-      <c r="BH85" s="208"/>
-      <c r="BI85" s="209"/>
+      <c r="BD85" s="218"/>
+      <c r="BE85" s="218"/>
+      <c r="BF85" s="218"/>
+      <c r="BG85" s="218"/>
+      <c r="BH85" s="218"/>
+      <c r="BI85" s="219"/>
       <c r="BJ85" s="7"/>
-      <c r="BK85" s="207" t="s">
+      <c r="BK85" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="BL85" s="208"/>
-      <c r="BM85" s="208"/>
-      <c r="BN85" s="208"/>
-      <c r="BO85" s="208"/>
-      <c r="BP85" s="208"/>
-      <c r="BQ85" s="209"/>
+      <c r="BL85" s="218"/>
+      <c r="BM85" s="218"/>
+      <c r="BN85" s="218"/>
+      <c r="BO85" s="218"/>
+      <c r="BP85" s="218"/>
+      <c r="BQ85" s="219"/>
     </row>
     <row r="86" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="22"/>
@@ -9254,20 +9515,20 @@
         <v>54</v>
       </c>
       <c r="AA86" s="168"/>
-      <c r="AB86" s="73">
+      <c r="AB86" s="180">
         <v>42916</v>
       </c>
-      <c r="AC86" s="111"/>
-      <c r="AD86" s="112"/>
-      <c r="AE86" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF86" s="115"/>
-      <c r="AG86" s="78"/>
-      <c r="AH86" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI86" s="80">
+      <c r="AC86" s="237"/>
+      <c r="AD86" s="238"/>
+      <c r="AE86" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF86" s="239"/>
+      <c r="AG86" s="185"/>
+      <c r="AH86" s="240" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI86" s="240">
         <v>3750</v>
       </c>
       <c r="AJ86" s="168"/>
@@ -9289,26 +9550,26 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="200" t="str">
+      <c r="BC86" s="223" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD86" s="201"/>
-      <c r="BE86" s="201"/>
-      <c r="BF86" s="201"/>
-      <c r="BG86" s="201"/>
-      <c r="BH86" s="201"/>
+      <c r="BD86" s="224"/>
+      <c r="BE86" s="224"/>
+      <c r="BF86" s="224"/>
+      <c r="BG86" s="224"/>
+      <c r="BH86" s="224"/>
       <c r="BI86" s="13"/>
       <c r="BJ86" s="7"/>
-      <c r="BK86" s="200" t="str">
+      <c r="BK86" s="223" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL86" s="201"/>
-      <c r="BM86" s="201"/>
-      <c r="BN86" s="201"/>
-      <c r="BO86" s="201"/>
-      <c r="BP86" s="201"/>
+      <c r="BL86" s="224"/>
+      <c r="BM86" s="224"/>
+      <c r="BN86" s="224"/>
+      <c r="BO86" s="224"/>
+      <c r="BP86" s="224"/>
       <c r="BQ86" s="13"/>
     </row>
     <row r="87" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9342,20 +9603,20 @@
         <v>54</v>
       </c>
       <c r="AA87" s="168"/>
-      <c r="AB87" s="83">
+      <c r="AB87" s="180">
         <v>42916</v>
       </c>
-      <c r="AC87" s="120"/>
-      <c r="AD87" s="121"/>
-      <c r="AE87" s="84">
+      <c r="AC87" s="241"/>
+      <c r="AD87" s="242"/>
+      <c r="AE87" s="183">
         <v>1200</v>
       </c>
-      <c r="AF87" s="122"/>
-      <c r="AG87" s="86"/>
-      <c r="AH87" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI87" s="88">
+      <c r="AF87" s="239"/>
+      <c r="AG87" s="185"/>
+      <c r="AH87" s="243" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI87" s="243">
         <v>2550</v>
       </c>
       <c r="AJ87" s="168"/>
@@ -9426,20 +9687,20 @@
         <v>54</v>
       </c>
       <c r="AA88" s="168"/>
-      <c r="AB88" s="73">
+      <c r="AB88" s="180">
         <v>42916</v>
       </c>
-      <c r="AC88" s="111"/>
-      <c r="AD88" s="112"/>
-      <c r="AE88" s="76">
+      <c r="AC88" s="237"/>
+      <c r="AD88" s="238"/>
+      <c r="AE88" s="183">
         <v>220</v>
       </c>
-      <c r="AF88" s="115"/>
-      <c r="AG88" s="78"/>
-      <c r="AH88" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI88" s="82">
+      <c r="AF88" s="239"/>
+      <c r="AG88" s="185"/>
+      <c r="AH88" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI88" s="244">
         <v>2330</v>
       </c>
       <c r="AJ88" s="168"/>
@@ -9512,20 +9773,20 @@
         <v>54</v>
       </c>
       <c r="AA89" s="168"/>
-      <c r="AB89" s="83">
+      <c r="AB89" s="180">
         <v>42916</v>
       </c>
-      <c r="AC89" s="117"/>
-      <c r="AD89" s="118"/>
-      <c r="AE89" s="84">
+      <c r="AC89" s="237"/>
+      <c r="AD89" s="238"/>
+      <c r="AE89" s="183">
         <v>175</v>
       </c>
-      <c r="AF89" s="122"/>
-      <c r="AG89" s="86"/>
-      <c r="AH89" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI89" s="123">
+      <c r="AF89" s="239"/>
+      <c r="AG89" s="185"/>
+      <c r="AH89" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI89" s="244">
         <v>2155</v>
       </c>
       <c r="AJ89" s="168"/>
@@ -9596,20 +9857,20 @@
         <v>54</v>
       </c>
       <c r="AA90" s="168"/>
-      <c r="AB90" s="73">
+      <c r="AB90" s="180">
         <v>42916</v>
       </c>
-      <c r="AC90" s="111"/>
-      <c r="AD90" s="112"/>
-      <c r="AE90" s="76">
+      <c r="AC90" s="237"/>
+      <c r="AD90" s="238"/>
+      <c r="AE90" s="183">
         <v>50</v>
       </c>
-      <c r="AF90" s="115"/>
-      <c r="AG90" s="78"/>
-      <c r="AH90" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI90" s="82">
+      <c r="AF90" s="239"/>
+      <c r="AG90" s="185"/>
+      <c r="AH90" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI90" s="244">
         <v>2105</v>
       </c>
       <c r="AJ90" s="168"/>
@@ -9682,20 +9943,20 @@
         <v>54</v>
       </c>
       <c r="AA91" s="168"/>
-      <c r="AB91" s="83">
+      <c r="AB91" s="180">
         <v>42916</v>
       </c>
-      <c r="AC91" s="117"/>
-      <c r="AD91" s="118"/>
-      <c r="AE91" s="84">
+      <c r="AC91" s="237"/>
+      <c r="AD91" s="238"/>
+      <c r="AE91" s="183">
         <v>700</v>
       </c>
-      <c r="AF91" s="122"/>
-      <c r="AG91" s="86"/>
-      <c r="AH91" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI91" s="123">
+      <c r="AF91" s="239"/>
+      <c r="AG91" s="185"/>
+      <c r="AH91" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI91" s="244">
         <v>1405</v>
       </c>
       <c r="AJ91" s="168"/>
@@ -10213,25 +10474,25 @@
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
-      <c r="BC97" s="190" t="s">
+      <c r="BC97" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BD97" s="191"/>
-      <c r="BE97" s="191"/>
-      <c r="BF97" s="191"/>
-      <c r="BG97" s="191"/>
-      <c r="BH97" s="191"/>
-      <c r="BI97" s="192"/>
+      <c r="BD97" s="206"/>
+      <c r="BE97" s="206"/>
+      <c r="BF97" s="206"/>
+      <c r="BG97" s="206"/>
+      <c r="BH97" s="206"/>
+      <c r="BI97" s="207"/>
       <c r="BJ97" s="7"/>
-      <c r="BK97" s="190" t="s">
+      <c r="BK97" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BL97" s="191"/>
-      <c r="BM97" s="191"/>
-      <c r="BN97" s="191"/>
-      <c r="BO97" s="191"/>
-      <c r="BP97" s="191"/>
-      <c r="BQ97" s="192"/>
+      <c r="BL97" s="206"/>
+      <c r="BM97" s="206"/>
+      <c r="BN97" s="206"/>
+      <c r="BO97" s="206"/>
+      <c r="BP97" s="206"/>
+      <c r="BQ97" s="207"/>
     </row>
     <row r="98" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="22"/>
@@ -10301,25 +10562,25 @@
       <c r="AZ98" s="3"/>
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
-      <c r="BC98" s="184" t="s">
+      <c r="BC98" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="BD98" s="185"/>
-      <c r="BE98" s="185"/>
-      <c r="BF98" s="185"/>
-      <c r="BG98" s="185"/>
-      <c r="BH98" s="185"/>
-      <c r="BI98" s="186"/>
+      <c r="BD98" s="200"/>
+      <c r="BE98" s="200"/>
+      <c r="BF98" s="200"/>
+      <c r="BG98" s="200"/>
+      <c r="BH98" s="200"/>
+      <c r="BI98" s="201"/>
       <c r="BJ98" s="7"/>
-      <c r="BK98" s="184" t="s">
+      <c r="BK98" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="BL98" s="185"/>
-      <c r="BM98" s="185"/>
-      <c r="BN98" s="185"/>
-      <c r="BO98" s="185"/>
-      <c r="BP98" s="185"/>
-      <c r="BQ98" s="186"/>
+      <c r="BL98" s="200"/>
+      <c r="BM98" s="200"/>
+      <c r="BN98" s="200"/>
+      <c r="BO98" s="200"/>
+      <c r="BP98" s="200"/>
+      <c r="BQ98" s="201"/>
     </row>
     <row r="99" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="40"/>
@@ -10389,27 +10650,27 @@
       <c r="AZ99" s="3"/>
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
-      <c r="BC99" s="187" t="str">
+      <c r="BC99" s="202" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BD99" s="188"/>
-      <c r="BE99" s="188"/>
-      <c r="BF99" s="188"/>
-      <c r="BG99" s="188"/>
-      <c r="BH99" s="188"/>
-      <c r="BI99" s="189"/>
+      <c r="BD99" s="203"/>
+      <c r="BE99" s="203"/>
+      <c r="BF99" s="203"/>
+      <c r="BG99" s="203"/>
+      <c r="BH99" s="203"/>
+      <c r="BI99" s="204"/>
       <c r="BJ99" s="7"/>
-      <c r="BK99" s="187" t="str">
+      <c r="BK99" s="202" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BL99" s="188"/>
-      <c r="BM99" s="188"/>
-      <c r="BN99" s="188"/>
-      <c r="BO99" s="188"/>
-      <c r="BP99" s="188"/>
-      <c r="BQ99" s="189"/>
+      <c r="BL99" s="203"/>
+      <c r="BM99" s="203"/>
+      <c r="BN99" s="203"/>
+      <c r="BO99" s="203"/>
+      <c r="BP99" s="203"/>
+      <c r="BQ99" s="204"/>
     </row>
     <row r="100" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="22"/>
@@ -10649,27 +10910,27 @@
       </c>
       <c r="Q103" s="165"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="178" t="s">
+      <c r="S103" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="T103" s="179"/>
-      <c r="U103" s="179"/>
-      <c r="V103" s="179"/>
-      <c r="W103" s="179"/>
-      <c r="X103" s="179"/>
-      <c r="Y103" s="179"/>
-      <c r="Z103" s="179"/>
+      <c r="T103" s="192"/>
+      <c r="U103" s="192"/>
+      <c r="V103" s="192"/>
+      <c r="W103" s="192"/>
+      <c r="X103" s="192"/>
+      <c r="Y103" s="192"/>
+      <c r="Z103" s="192"/>
       <c r="AA103" s="168"/>
-      <c r="AB103" s="178" t="s">
+      <c r="AB103" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="179"/>
-      <c r="AD103" s="179"/>
-      <c r="AE103" s="179"/>
-      <c r="AF103" s="179"/>
-      <c r="AG103" s="179"/>
-      <c r="AH103" s="179"/>
-      <c r="AI103" s="179"/>
+      <c r="AC103" s="192"/>
+      <c r="AD103" s="192"/>
+      <c r="AE103" s="192"/>
+      <c r="AF103" s="192"/>
+      <c r="AG103" s="192"/>
+      <c r="AH103" s="192"/>
+      <c r="AI103" s="192"/>
       <c r="AJ103" s="168"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
@@ -10984,20 +11245,20 @@
         <v>54</v>
       </c>
       <c r="AA107" s="168"/>
-      <c r="AB107" s="73">
+      <c r="AB107" s="180">
         <v>42947</v>
       </c>
-      <c r="AC107" s="74"/>
-      <c r="AD107" s="75"/>
-      <c r="AE107" s="76">
+      <c r="AC107" s="181"/>
+      <c r="AD107" s="182"/>
+      <c r="AE107" s="183">
         <v>700</v>
       </c>
-      <c r="AF107" s="77"/>
-      <c r="AG107" s="78"/>
-      <c r="AH107" s="91">
+      <c r="AF107" s="184"/>
+      <c r="AG107" s="185"/>
+      <c r="AH107" s="186">
         <v>700</v>
       </c>
-      <c r="AI107" s="91" t="s">
+      <c r="AI107" s="186" t="s">
         <v>54</v>
       </c>
       <c r="AJ107" s="168"/>
@@ -11421,27 +11682,27 @@
     </row>
     <row r="114" spans="18:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="58"/>
-      <c r="S114" s="178" t="s">
+      <c r="S114" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="T114" s="179"/>
-      <c r="U114" s="179"/>
-      <c r="V114" s="179"/>
-      <c r="W114" s="179"/>
-      <c r="X114" s="179"/>
-      <c r="Y114" s="179"/>
-      <c r="Z114" s="179"/>
+      <c r="T114" s="192"/>
+      <c r="U114" s="192"/>
+      <c r="V114" s="192"/>
+      <c r="W114" s="192"/>
+      <c r="X114" s="192"/>
+      <c r="Y114" s="192"/>
+      <c r="Z114" s="192"/>
       <c r="AA114" s="168"/>
-      <c r="AB114" s="178" t="s">
+      <c r="AB114" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="AC114" s="179"/>
-      <c r="AD114" s="179"/>
-      <c r="AE114" s="179"/>
-      <c r="AF114" s="179"/>
-      <c r="AG114" s="179"/>
-      <c r="AH114" s="179"/>
-      <c r="AI114" s="179"/>
+      <c r="AC114" s="192"/>
+      <c r="AD114" s="192"/>
+      <c r="AE114" s="192"/>
+      <c r="AF114" s="192"/>
+      <c r="AG114" s="192"/>
+      <c r="AH114" s="192"/>
+      <c r="AI114" s="192"/>
       <c r="AJ114" s="168"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
@@ -12262,27 +12523,27 @@
     </row>
     <row r="131" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R131" s="58"/>
-      <c r="S131" s="178" t="s">
+      <c r="S131" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="179"/>
-      <c r="U131" s="179"/>
-      <c r="V131" s="179"/>
-      <c r="W131" s="179"/>
-      <c r="X131" s="179"/>
-      <c r="Y131" s="179"/>
-      <c r="Z131" s="179"/>
+      <c r="T131" s="192"/>
+      <c r="U131" s="192"/>
+      <c r="V131" s="192"/>
+      <c r="W131" s="192"/>
+      <c r="X131" s="192"/>
+      <c r="Y131" s="192"/>
+      <c r="Z131" s="192"/>
       <c r="AA131" s="168"/>
-      <c r="AB131" s="178" t="s">
+      <c r="AB131" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="AC131" s="179"/>
-      <c r="AD131" s="179"/>
-      <c r="AE131" s="179"/>
-      <c r="AF131" s="179"/>
-      <c r="AG131" s="179"/>
-      <c r="AH131" s="179"/>
-      <c r="AI131" s="179"/>
+      <c r="AC131" s="192"/>
+      <c r="AD131" s="192"/>
+      <c r="AE131" s="192"/>
+      <c r="AF131" s="192"/>
+      <c r="AG131" s="192"/>
+      <c r="AH131" s="192"/>
+      <c r="AI131" s="192"/>
       <c r="AJ131" s="168"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
@@ -12895,27 +13156,27 @@
     </row>
     <row r="144" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R144" s="17"/>
-      <c r="S144" s="178" t="s">
+      <c r="S144" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="T144" s="179"/>
-      <c r="U144" s="179"/>
-      <c r="V144" s="179"/>
-      <c r="W144" s="179"/>
-      <c r="X144" s="179"/>
-      <c r="Y144" s="179"/>
-      <c r="Z144" s="179"/>
+      <c r="T144" s="192"/>
+      <c r="U144" s="192"/>
+      <c r="V144" s="192"/>
+      <c r="W144" s="192"/>
+      <c r="X144" s="192"/>
+      <c r="Y144" s="192"/>
+      <c r="Z144" s="192"/>
       <c r="AA144" s="168"/>
-      <c r="AB144" s="178" t="s">
+      <c r="AB144" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="AC144" s="179"/>
-      <c r="AD144" s="179"/>
-      <c r="AE144" s="179"/>
-      <c r="AF144" s="179"/>
-      <c r="AG144" s="179"/>
-      <c r="AH144" s="179"/>
-      <c r="AI144" s="179"/>
+      <c r="AC144" s="192"/>
+      <c r="AD144" s="192"/>
+      <c r="AE144" s="192"/>
+      <c r="AF144" s="192"/>
+      <c r="AG144" s="192"/>
+      <c r="AH144" s="192"/>
+      <c r="AI144" s="192"/>
       <c r="AJ144" s="168"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
@@ -13634,27 +13895,27 @@
     </row>
     <row r="159" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R159" s="4"/>
-      <c r="S159" s="178" t="s">
+      <c r="S159" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="T159" s="179"/>
-      <c r="U159" s="179"/>
-      <c r="V159" s="179"/>
-      <c r="W159" s="179"/>
-      <c r="X159" s="179"/>
-      <c r="Y159" s="179"/>
-      <c r="Z159" s="179"/>
+      <c r="T159" s="192"/>
+      <c r="U159" s="192"/>
+      <c r="V159" s="192"/>
+      <c r="W159" s="192"/>
+      <c r="X159" s="192"/>
+      <c r="Y159" s="192"/>
+      <c r="Z159" s="192"/>
       <c r="AA159" s="168"/>
-      <c r="AB159" s="178" t="s">
+      <c r="AB159" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="AC159" s="179"/>
-      <c r="AD159" s="179"/>
-      <c r="AE159" s="179"/>
-      <c r="AF159" s="179"/>
-      <c r="AG159" s="179"/>
-      <c r="AH159" s="179"/>
-      <c r="AI159" s="179"/>
+      <c r="AC159" s="192"/>
+      <c r="AD159" s="192"/>
+      <c r="AE159" s="192"/>
+      <c r="AF159" s="192"/>
+      <c r="AG159" s="192"/>
+      <c r="AH159" s="192"/>
+      <c r="AI159" s="192"/>
       <c r="AJ159" s="168"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
@@ -14159,27 +14420,27 @@
     </row>
     <row r="170" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R170" s="17"/>
-      <c r="S170" s="178" t="s">
+      <c r="S170" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="T170" s="179"/>
-      <c r="U170" s="179"/>
-      <c r="V170" s="179"/>
-      <c r="W170" s="179"/>
-      <c r="X170" s="179"/>
-      <c r="Y170" s="179"/>
-      <c r="Z170" s="179"/>
+      <c r="T170" s="192"/>
+      <c r="U170" s="192"/>
+      <c r="V170" s="192"/>
+      <c r="W170" s="192"/>
+      <c r="X170" s="192"/>
+      <c r="Y170" s="192"/>
+      <c r="Z170" s="192"/>
       <c r="AA170" s="1"/>
-      <c r="AB170" s="178" t="s">
+      <c r="AB170" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="AC170" s="179"/>
-      <c r="AD170" s="179"/>
-      <c r="AE170" s="179"/>
-      <c r="AF170" s="179"/>
-      <c r="AG170" s="179"/>
-      <c r="AH170" s="179"/>
-      <c r="AI170" s="179"/>
+      <c r="AC170" s="192"/>
+      <c r="AD170" s="192"/>
+      <c r="AE170" s="192"/>
+      <c r="AF170" s="192"/>
+      <c r="AG170" s="192"/>
+      <c r="AH170" s="192"/>
+      <c r="AI170" s="192"/>
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
@@ -14692,14 +14953,14 @@
     </row>
     <row r="183" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R183" s="17"/>
-      <c r="S183" s="216"/>
-      <c r="T183" s="216"/>
-      <c r="U183" s="216"/>
-      <c r="V183" s="216"/>
-      <c r="W183" s="216"/>
-      <c r="X183" s="216"/>
-      <c r="Y183" s="216"/>
-      <c r="Z183" s="216"/>
+      <c r="S183" s="230"/>
+      <c r="T183" s="230"/>
+      <c r="U183" s="230"/>
+      <c r="V183" s="230"/>
+      <c r="W183" s="230"/>
+      <c r="X183" s="230"/>
+      <c r="Y183" s="230"/>
+      <c r="Z183" s="230"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
@@ -14731,14 +14992,14 @@
     </row>
     <row r="184" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R184" s="17"/>
-      <c r="S184" s="216"/>
-      <c r="T184" s="216"/>
-      <c r="U184" s="216"/>
-      <c r="V184" s="216"/>
-      <c r="W184" s="216"/>
-      <c r="X184" s="216"/>
-      <c r="Y184" s="216"/>
-      <c r="Z184" s="216"/>
+      <c r="S184" s="230"/>
+      <c r="T184" s="230"/>
+      <c r="U184" s="230"/>
+      <c r="V184" s="230"/>
+      <c r="W184" s="230"/>
+      <c r="X184" s="230"/>
+      <c r="Y184" s="230"/>
+      <c r="Z184" s="230"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -14770,23 +15031,23 @@
     </row>
     <row r="185" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R185" s="17"/>
-      <c r="S185" s="216"/>
-      <c r="T185" s="216"/>
-      <c r="U185" s="216"/>
-      <c r="V185" s="216"/>
-      <c r="W185" s="216"/>
-      <c r="X185" s="216"/>
-      <c r="Y185" s="216"/>
-      <c r="Z185" s="216"/>
+      <c r="S185" s="230"/>
+      <c r="T185" s="230"/>
+      <c r="U185" s="230"/>
+      <c r="V185" s="230"/>
+      <c r="W185" s="230"/>
+      <c r="X185" s="230"/>
+      <c r="Y185" s="230"/>
+      <c r="Z185" s="230"/>
       <c r="AA185" s="1"/>
-      <c r="AB185" s="217"/>
-      <c r="AC185" s="217"/>
-      <c r="AD185" s="217"/>
-      <c r="AE185" s="217"/>
-      <c r="AF185" s="217"/>
-      <c r="AG185" s="217"/>
-      <c r="AH185" s="217"/>
-      <c r="AI185" s="217"/>
+      <c r="AB185" s="231"/>
+      <c r="AC185" s="231"/>
+      <c r="AD185" s="231"/>
+      <c r="AE185" s="231"/>
+      <c r="AF185" s="231"/>
+      <c r="AG185" s="231"/>
+      <c r="AH185" s="231"/>
+      <c r="AI185" s="231"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
@@ -14809,14 +15070,14 @@
     </row>
     <row r="186" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R186" s="17"/>
-      <c r="S186" s="216"/>
-      <c r="T186" s="216"/>
-      <c r="U186" s="216"/>
-      <c r="V186" s="216"/>
-      <c r="W186" s="216"/>
-      <c r="X186" s="216"/>
-      <c r="Y186" s="216"/>
-      <c r="Z186" s="216"/>
+      <c r="S186" s="230"/>
+      <c r="T186" s="230"/>
+      <c r="U186" s="230"/>
+      <c r="V186" s="230"/>
+      <c r="W186" s="230"/>
+      <c r="X186" s="230"/>
+      <c r="Y186" s="230"/>
+      <c r="Z186" s="230"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="128"/>
       <c r="AC186" s="128"/>
@@ -14848,14 +15109,14 @@
     </row>
     <row r="187" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R187" s="1"/>
-      <c r="S187" s="216"/>
-      <c r="T187" s="216"/>
-      <c r="U187" s="216"/>
-      <c r="V187" s="216"/>
-      <c r="W187" s="216"/>
-      <c r="X187" s="216"/>
-      <c r="Y187" s="216"/>
-      <c r="Z187" s="216"/>
+      <c r="S187" s="230"/>
+      <c r="T187" s="230"/>
+      <c r="U187" s="230"/>
+      <c r="V187" s="230"/>
+      <c r="W187" s="230"/>
+      <c r="X187" s="230"/>
+      <c r="Y187" s="230"/>
+      <c r="Z187" s="230"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
@@ -14887,14 +15148,14 @@
     </row>
     <row r="188" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R188" s="1"/>
-      <c r="S188" s="216"/>
-      <c r="T188" s="216"/>
-      <c r="U188" s="216"/>
-      <c r="V188" s="216"/>
-      <c r="W188" s="216"/>
-      <c r="X188" s="216"/>
-      <c r="Y188" s="216"/>
-      <c r="Z188" s="216"/>
+      <c r="S188" s="230"/>
+      <c r="T188" s="230"/>
+      <c r="U188" s="230"/>
+      <c r="V188" s="230"/>
+      <c r="W188" s="230"/>
+      <c r="X188" s="230"/>
+      <c r="Y188" s="230"/>
+      <c r="Z188" s="230"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -20464,15 +20725,6 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AU45:AY45"/>
-    <mergeCell ref="AU44:AY44"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AU41:AY41"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AU22:AY22"/>
     <mergeCell ref="AU81:AY81"/>
     <mergeCell ref="AU80:AY80"/>
     <mergeCell ref="AU79:AY79"/>
@@ -20491,7 +20743,25 @@
     <mergeCell ref="AK70:AP70"/>
     <mergeCell ref="AL72:AP72"/>
     <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="BC19:BH19"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AK51:AR51"/>
+    <mergeCell ref="AT51:BA51"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AT34:BA34"/>
+    <mergeCell ref="AU46:AY46"/>
     <mergeCell ref="AL77:AP77"/>
     <mergeCell ref="AU77:AY77"/>
     <mergeCell ref="AL78:AP78"/>
@@ -20502,26 +20772,6 @@
     <mergeCell ref="AL56:AP56"/>
     <mergeCell ref="AU56:AY56"/>
     <mergeCell ref="AL57:AP57"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AT51:BA51"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AK68:AR68"/>
-    <mergeCell ref="AK69:AR69"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AL29:AP29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="AK35:AR35"/>
-    <mergeCell ref="AT35:BA35"/>
-    <mergeCell ref="AK36:AP36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="AU43:AY43"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="AK17:AR17"/>
     <mergeCell ref="AT17:BA17"/>
@@ -20532,13 +20782,16 @@
     <mergeCell ref="AU25:AY25"/>
     <mergeCell ref="AL26:AP26"/>
     <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AL28:AP28"/>
     <mergeCell ref="AL24:AP24"/>
     <mergeCell ref="AU24:AY24"/>
     <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="AU46:AY46"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AL25:AP25"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AU22:AY22"/>
     <mergeCell ref="AL47:AP47"/>
     <mergeCell ref="AU47:AY47"/>
     <mergeCell ref="AL38:AP38"/>
@@ -20548,6 +20801,16 @@
     <mergeCell ref="AL40:AP40"/>
     <mergeCell ref="AU40:AY40"/>
     <mergeCell ref="BK19:BQ19"/>
+    <mergeCell ref="AK35:AR35"/>
+    <mergeCell ref="AT35:BA35"/>
+    <mergeCell ref="AK36:AP36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="AU43:AY43"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AL28:AP28"/>
+    <mergeCell ref="BC19:BH19"/>
     <mergeCell ref="BC16:BI16"/>
     <mergeCell ref="BK16:BQ16"/>
     <mergeCell ref="BC17:BI17"/>
@@ -20630,8 +20893,6 @@
     <mergeCell ref="BC35:BI35"/>
     <mergeCell ref="BC36:BI36"/>
     <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S17:Z17"/>
     <mergeCell ref="AB17:AI17"/>
     <mergeCell ref="AB16:AH16"/>
     <mergeCell ref="AL21:AP21"/>
@@ -20649,5 +20910,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
+++ b/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Documents\Comprehensive\Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9205FC-64B9-43FC-876B-DAC3A29FD615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637748B1-6152-4208-B162-C4D6A9F3BBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="123">
   <si>
     <t>Chart of Accounts</t>
   </si>
@@ -979,7 +979,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1710,13 +1710,129 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1726,29 +1842,57 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1762,6 +1906,26 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1774,192 +1938,24 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2281,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BQ330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB86" sqref="AB86:AI91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,82 +3020,82 @@
       <c r="D16" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="193" t="s">
+      <c r="H16" s="225" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193" t="s">
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="225"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="193" t="s">
+      <c r="S16" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
+      <c r="T16" s="225"/>
+      <c r="U16" s="225"/>
+      <c r="V16" s="225"/>
+      <c r="W16" s="225"/>
+      <c r="X16" s="225"/>
+      <c r="Y16" s="225"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="193" t="s">
+      <c r="AB16" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="193"/>
-      <c r="AF16" s="193"/>
-      <c r="AG16" s="193"/>
-      <c r="AH16" s="193"/>
+      <c r="AC16" s="225"/>
+      <c r="AD16" s="225"/>
+      <c r="AE16" s="225"/>
+      <c r="AF16" s="225"/>
+      <c r="AG16" s="225"/>
+      <c r="AH16" s="225"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="193" t="s">
+      <c r="AK16" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="AL16" s="193"/>
-      <c r="AM16" s="193"/>
-      <c r="AN16" s="193"/>
-      <c r="AO16" s="193"/>
-      <c r="AP16" s="193"/>
-      <c r="AQ16" s="193"/>
+      <c r="AL16" s="225"/>
+      <c r="AM16" s="225"/>
+      <c r="AN16" s="225"/>
+      <c r="AO16" s="225"/>
+      <c r="AP16" s="225"/>
+      <c r="AQ16" s="225"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="193" t="s">
+      <c r="AT16" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="AU16" s="193"/>
-      <c r="AV16" s="193"/>
-      <c r="AW16" s="193"/>
-      <c r="AX16" s="193"/>
-      <c r="AY16" s="193"/>
-      <c r="AZ16" s="193"/>
+      <c r="AU16" s="225"/>
+      <c r="AV16" s="225"/>
+      <c r="AW16" s="225"/>
+      <c r="AX16" s="225"/>
+      <c r="AY16" s="225"/>
+      <c r="AZ16" s="225"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="193" t="s">
+      <c r="BC16" s="225" t="s">
         <v>100</v>
       </c>
-      <c r="BD16" s="193"/>
-      <c r="BE16" s="193"/>
-      <c r="BF16" s="193"/>
-      <c r="BG16" s="193"/>
-      <c r="BH16" s="193"/>
-      <c r="BI16" s="193"/>
+      <c r="BD16" s="225"/>
+      <c r="BE16" s="225"/>
+      <c r="BF16" s="225"/>
+      <c r="BG16" s="225"/>
+      <c r="BH16" s="225"/>
+      <c r="BI16" s="225"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="193" t="s">
+      <c r="BK16" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="BL16" s="193"/>
-      <c r="BM16" s="193"/>
-      <c r="BN16" s="193"/>
-      <c r="BO16" s="193"/>
-      <c r="BP16" s="193"/>
-      <c r="BQ16" s="193"/>
+      <c r="BL16" s="225"/>
+      <c r="BM16" s="225"/>
+      <c r="BN16" s="225"/>
+      <c r="BO16" s="225"/>
+      <c r="BP16" s="225"/>
+      <c r="BQ16" s="225"/>
     </row>
     <row r="17" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="170">
@@ -3136,69 +3132,69 @@
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="191" t="s">
+      <c r="S17" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
       <c r="AA17" s="168"/>
-      <c r="AB17" s="191" t="s">
+      <c r="AB17" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="192"/>
-      <c r="AE17" s="192"/>
-      <c r="AF17" s="192"/>
-      <c r="AG17" s="192"/>
-      <c r="AH17" s="192"/>
-      <c r="AI17" s="192"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="221"/>
+      <c r="AG17" s="221"/>
+      <c r="AH17" s="221"/>
+      <c r="AI17" s="221"/>
       <c r="AJ17" s="168"/>
-      <c r="AK17" s="198" t="s">
+      <c r="AK17" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="AL17" s="198"/>
-      <c r="AM17" s="198"/>
-      <c r="AN17" s="198"/>
-      <c r="AO17" s="198"/>
-      <c r="AP17" s="198"/>
-      <c r="AQ17" s="198"/>
-      <c r="AR17" s="198"/>
+      <c r="AL17" s="217"/>
+      <c r="AM17" s="217"/>
+      <c r="AN17" s="217"/>
+      <c r="AO17" s="217"/>
+      <c r="AP17" s="217"/>
+      <c r="AQ17" s="217"/>
+      <c r="AR17" s="217"/>
       <c r="AS17" s="168"/>
-      <c r="AT17" s="198" t="s">
+      <c r="AT17" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="AU17" s="198"/>
-      <c r="AV17" s="198"/>
-      <c r="AW17" s="198"/>
-      <c r="AX17" s="198"/>
-      <c r="AY17" s="198"/>
-      <c r="AZ17" s="198"/>
-      <c r="BA17" s="229"/>
+      <c r="AU17" s="217"/>
+      <c r="AV17" s="217"/>
+      <c r="AW17" s="217"/>
+      <c r="AX17" s="217"/>
+      <c r="AY17" s="217"/>
+      <c r="AZ17" s="217"/>
+      <c r="BA17" s="218"/>
       <c r="BB17" s="168"/>
-      <c r="BC17" s="205" t="s">
+      <c r="BC17" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" s="206"/>
-      <c r="BE17" s="206"/>
-      <c r="BF17" s="206"/>
-      <c r="BG17" s="206"/>
-      <c r="BH17" s="206"/>
-      <c r="BI17" s="207"/>
+      <c r="BD17" s="223"/>
+      <c r="BE17" s="223"/>
+      <c r="BF17" s="223"/>
+      <c r="BG17" s="223"/>
+      <c r="BH17" s="223"/>
+      <c r="BI17" s="224"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="214" t="s">
+      <c r="BK17" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="BL17" s="215"/>
-      <c r="BM17" s="215"/>
-      <c r="BN17" s="215"/>
-      <c r="BO17" s="215"/>
-      <c r="BP17" s="215"/>
-      <c r="BQ17" s="216"/>
+      <c r="BL17" s="233"/>
+      <c r="BM17" s="233"/>
+      <c r="BN17" s="233"/>
+      <c r="BO17" s="233"/>
+      <c r="BP17" s="233"/>
+      <c r="BQ17" s="234"/>
     </row>
     <row r="18" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="170">
@@ -3267,47 +3263,47 @@
         <v>27</v>
       </c>
       <c r="AJ18" s="168"/>
-      <c r="AK18" s="208" t="s">
+      <c r="AK18" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198"/>
-      <c r="AR18" s="198"/>
+      <c r="AL18" s="217"/>
+      <c r="AM18" s="217"/>
+      <c r="AN18" s="217"/>
+      <c r="AO18" s="217"/>
+      <c r="AP18" s="217"/>
+      <c r="AQ18" s="217"/>
+      <c r="AR18" s="217"/>
       <c r="AS18" s="168"/>
-      <c r="AT18" s="208" t="s">
+      <c r="AT18" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="AU18" s="208"/>
-      <c r="AV18" s="208"/>
-      <c r="AW18" s="208"/>
-      <c r="AX18" s="208"/>
-      <c r="AY18" s="208"/>
-      <c r="AZ18" s="208"/>
-      <c r="BA18" s="209"/>
+      <c r="AU18" s="219"/>
+      <c r="AV18" s="219"/>
+      <c r="AW18" s="219"/>
+      <c r="AX18" s="219"/>
+      <c r="AY18" s="219"/>
+      <c r="AZ18" s="219"/>
+      <c r="BA18" s="226"/>
       <c r="BB18" s="168"/>
-      <c r="BC18" s="199" t="s">
+      <c r="BC18" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="BD18" s="200"/>
-      <c r="BE18" s="200"/>
-      <c r="BF18" s="200"/>
-      <c r="BG18" s="200"/>
-      <c r="BH18" s="200"/>
-      <c r="BI18" s="201"/>
+      <c r="BD18" s="236"/>
+      <c r="BE18" s="236"/>
+      <c r="BF18" s="236"/>
+      <c r="BG18" s="236"/>
+      <c r="BH18" s="236"/>
+      <c r="BI18" s="237"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="217" t="s">
+      <c r="BK18" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="BL18" s="218"/>
-      <c r="BM18" s="218"/>
-      <c r="BN18" s="218"/>
-      <c r="BO18" s="218"/>
-      <c r="BP18" s="218"/>
-      <c r="BQ18" s="219"/>
+      <c r="BL18" s="239"/>
+      <c r="BM18" s="239"/>
+      <c r="BN18" s="239"/>
+      <c r="BO18" s="239"/>
+      <c r="BP18" s="239"/>
+      <c r="BQ18" s="240"/>
     </row>
     <row r="19" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="170">
@@ -3364,14 +3360,14 @@
         <v>54</v>
       </c>
       <c r="AJ19" s="168"/>
-      <c r="AK19" s="210" t="s">
+      <c r="AK19" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="AL19" s="210"/>
-      <c r="AM19" s="210"/>
-      <c r="AN19" s="210"/>
-      <c r="AO19" s="210"/>
-      <c r="AP19" s="210"/>
+      <c r="AL19" s="216"/>
+      <c r="AM19" s="216"/>
+      <c r="AN19" s="216"/>
+      <c r="AO19" s="216"/>
+      <c r="AP19" s="216"/>
       <c r="AQ19" s="141" t="s">
         <v>26</v>
       </c>
@@ -3380,13 +3376,13 @@
       </c>
       <c r="AS19" s="168"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="211" t="s">
+      <c r="AU19" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="AV19" s="212"/>
-      <c r="AW19" s="212"/>
-      <c r="AX19" s="212"/>
-      <c r="AY19" s="213"/>
+      <c r="AV19" s="214"/>
+      <c r="AW19" s="214"/>
+      <c r="AX19" s="214"/>
+      <c r="AY19" s="215"/>
       <c r="AZ19" s="156" t="s">
         <v>26</v>
       </c>
@@ -3394,26 +3390,26 @@
         <v>27</v>
       </c>
       <c r="BB19" s="168"/>
-      <c r="BC19" s="223" t="str">
+      <c r="BC19" s="230" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="BD19" s="224"/>
-      <c r="BE19" s="224"/>
-      <c r="BF19" s="224"/>
-      <c r="BG19" s="224"/>
-      <c r="BH19" s="224"/>
+      <c r="BD19" s="231"/>
+      <c r="BE19" s="231"/>
+      <c r="BF19" s="231"/>
+      <c r="BG19" s="231"/>
+      <c r="BH19" s="231"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="233" t="s">
+      <c r="BK19" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="BL19" s="221"/>
-      <c r="BM19" s="221"/>
-      <c r="BN19" s="221"/>
-      <c r="BO19" s="221"/>
-      <c r="BP19" s="221"/>
-      <c r="BQ19" s="222"/>
+      <c r="BL19" s="228"/>
+      <c r="BM19" s="228"/>
+      <c r="BN19" s="228"/>
+      <c r="BO19" s="228"/>
+      <c r="BP19" s="228"/>
+      <c r="BQ19" s="229"/>
     </row>
     <row r="20" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170"/>
@@ -3570,13 +3566,13 @@
       </c>
       <c r="AJ21" s="168"/>
       <c r="AK21" s="46"/>
-      <c r="AL21" s="194" t="s">
+      <c r="AL21" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AM21" s="195"/>
-      <c r="AN21" s="195"/>
-      <c r="AO21" s="195"/>
-      <c r="AP21" s="195"/>
+      <c r="AM21" s="211"/>
+      <c r="AN21" s="211"/>
+      <c r="AO21" s="211"/>
+      <c r="AP21" s="211"/>
       <c r="AQ21" s="47" t="s">
         <v>54</v>
       </c>
@@ -3585,13 +3581,13 @@
       </c>
       <c r="AS21" s="168"/>
       <c r="AT21" s="48"/>
-      <c r="AU21" s="194" t="s">
+      <c r="AU21" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="195"/>
-      <c r="AW21" s="195"/>
-      <c r="AX21" s="195"/>
-      <c r="AY21" s="232"/>
+      <c r="AV21" s="211"/>
+      <c r="AW21" s="211"/>
+      <c r="AX21" s="211"/>
+      <c r="AY21" s="212"/>
       <c r="AZ21" s="49">
         <v>2800</v>
       </c>
@@ -3671,13 +3667,13 @@
       </c>
       <c r="AJ22" s="168"/>
       <c r="AK22" s="46"/>
-      <c r="AL22" s="196" t="s">
+      <c r="AL22" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AM22" s="197"/>
-      <c r="AN22" s="197"/>
-      <c r="AO22" s="197"/>
-      <c r="AP22" s="197"/>
+      <c r="AM22" s="208"/>
+      <c r="AN22" s="208"/>
+      <c r="AO22" s="208"/>
+      <c r="AP22" s="208"/>
       <c r="AQ22" s="47" t="s">
         <v>54</v>
       </c>
@@ -3686,13 +3682,13 @@
       </c>
       <c r="AS22" s="168"/>
       <c r="AT22" s="48"/>
-      <c r="AU22" s="196" t="s">
+      <c r="AU22" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="197"/>
-      <c r="AW22" s="197"/>
-      <c r="AX22" s="197"/>
-      <c r="AY22" s="228"/>
+      <c r="AV22" s="208"/>
+      <c r="AW22" s="208"/>
+      <c r="AX22" s="208"/>
+      <c r="AY22" s="209"/>
       <c r="AZ22" s="49"/>
       <c r="BA22" s="49">
         <v>30</v>
@@ -3770,13 +3766,13 @@
       </c>
       <c r="AJ23" s="168"/>
       <c r="AK23" s="46"/>
-      <c r="AL23" s="196" t="s">
+      <c r="AL23" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="197"/>
-      <c r="AN23" s="197"/>
-      <c r="AO23" s="197"/>
-      <c r="AP23" s="197"/>
+      <c r="AM23" s="208"/>
+      <c r="AN23" s="208"/>
+      <c r="AO23" s="208"/>
+      <c r="AP23" s="208"/>
       <c r="AQ23" s="47" t="s">
         <v>54</v>
       </c>
@@ -3785,13 +3781,13 @@
       </c>
       <c r="AS23" s="168"/>
       <c r="AT23" s="48"/>
-      <c r="AU23" s="196" t="s">
+      <c r="AU23" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="197"/>
-      <c r="AW23" s="197"/>
-      <c r="AX23" s="197"/>
-      <c r="AY23" s="228"/>
+      <c r="AV23" s="208"/>
+      <c r="AW23" s="208"/>
+      <c r="AX23" s="208"/>
+      <c r="AY23" s="209"/>
       <c r="AZ23" s="49"/>
       <c r="BA23" s="49">
         <v>10000</v>
@@ -3871,13 +3867,13 @@
       </c>
       <c r="AJ24" s="168"/>
       <c r="AK24" s="46"/>
-      <c r="AL24" s="196" t="s">
+      <c r="AL24" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AM24" s="197"/>
-      <c r="AN24" s="197"/>
-      <c r="AO24" s="197"/>
-      <c r="AP24" s="197"/>
+      <c r="AM24" s="208"/>
+      <c r="AN24" s="208"/>
+      <c r="AO24" s="208"/>
+      <c r="AP24" s="208"/>
       <c r="AQ24" s="47" t="s">
         <v>54</v>
       </c>
@@ -3886,13 +3882,13 @@
       </c>
       <c r="AS24" s="168"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="196" t="s">
+      <c r="AU24" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AV24" s="197"/>
-      <c r="AW24" s="197"/>
-      <c r="AX24" s="197"/>
-      <c r="AY24" s="228"/>
+      <c r="AV24" s="208"/>
+      <c r="AW24" s="208"/>
+      <c r="AX24" s="208"/>
+      <c r="AY24" s="209"/>
       <c r="AZ24" s="49"/>
       <c r="BA24" s="49"/>
       <c r="BB24" s="168"/>
@@ -3970,13 +3966,13 @@
       </c>
       <c r="AJ25" s="168"/>
       <c r="AK25" s="46"/>
-      <c r="AL25" s="196" t="s">
+      <c r="AL25" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AM25" s="197"/>
-      <c r="AN25" s="197"/>
-      <c r="AO25" s="197"/>
-      <c r="AP25" s="197"/>
+      <c r="AM25" s="208"/>
+      <c r="AN25" s="208"/>
+      <c r="AO25" s="208"/>
+      <c r="AP25" s="208"/>
       <c r="AQ25" s="47" t="s">
         <v>54</v>
       </c>
@@ -3985,13 +3981,13 @@
       </c>
       <c r="AS25" s="168"/>
       <c r="AT25" s="48"/>
-      <c r="AU25" s="196" t="s">
+      <c r="AU25" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AV25" s="197"/>
-      <c r="AW25" s="197"/>
-      <c r="AX25" s="197"/>
-      <c r="AY25" s="228"/>
+      <c r="AV25" s="208"/>
+      <c r="AW25" s="208"/>
+      <c r="AX25" s="208"/>
+      <c r="AY25" s="209"/>
       <c r="AZ25" s="49">
         <v>700</v>
       </c>
@@ -4073,13 +4069,13 @@
       </c>
       <c r="AJ26" s="168"/>
       <c r="AK26" s="46"/>
-      <c r="AL26" s="196" t="s">
+      <c r="AL26" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AM26" s="197"/>
-      <c r="AN26" s="197"/>
-      <c r="AO26" s="197"/>
-      <c r="AP26" s="197"/>
+      <c r="AM26" s="208"/>
+      <c r="AN26" s="208"/>
+      <c r="AO26" s="208"/>
+      <c r="AP26" s="208"/>
       <c r="AQ26" s="47" t="s">
         <v>54</v>
       </c>
@@ -4088,13 +4084,13 @@
       </c>
       <c r="AS26" s="168"/>
       <c r="AT26" s="48"/>
-      <c r="AU26" s="196" t="s">
+      <c r="AU26" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="197"/>
-      <c r="AW26" s="197"/>
-      <c r="AX26" s="197"/>
-      <c r="AY26" s="228"/>
+      <c r="AV26" s="208"/>
+      <c r="AW26" s="208"/>
+      <c r="AX26" s="208"/>
+      <c r="AY26" s="209"/>
       <c r="AZ26" s="49"/>
       <c r="BA26" s="49">
         <v>3750</v>
@@ -4174,13 +4170,13 @@
       </c>
       <c r="AJ27" s="168"/>
       <c r="AK27" s="46"/>
-      <c r="AL27" s="196" t="s">
+      <c r="AL27" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="AM27" s="197"/>
-      <c r="AN27" s="197"/>
-      <c r="AO27" s="197"/>
-      <c r="AP27" s="197"/>
+      <c r="AM27" s="208"/>
+      <c r="AN27" s="208"/>
+      <c r="AO27" s="208"/>
+      <c r="AP27" s="208"/>
       <c r="AQ27" s="47" t="s">
         <v>54</v>
       </c>
@@ -4189,13 +4185,13 @@
       </c>
       <c r="AS27" s="168"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="225" t="s">
+      <c r="AU27" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="AV27" s="226"/>
-      <c r="AW27" s="226"/>
-      <c r="AX27" s="226"/>
-      <c r="AY27" s="227"/>
+      <c r="AV27" s="205"/>
+      <c r="AW27" s="205"/>
+      <c r="AX27" s="205"/>
+      <c r="AY27" s="206"/>
       <c r="AZ27" s="49">
         <v>1200</v>
       </c>
@@ -4277,13 +4273,13 @@
       </c>
       <c r="AJ28" s="168"/>
       <c r="AK28" s="46"/>
-      <c r="AL28" s="196" t="s">
+      <c r="AL28" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="197"/>
-      <c r="AN28" s="197"/>
-      <c r="AO28" s="197"/>
-      <c r="AP28" s="197"/>
+      <c r="AM28" s="208"/>
+      <c r="AN28" s="208"/>
+      <c r="AO28" s="208"/>
+      <c r="AP28" s="208"/>
       <c r="AQ28" s="47" t="s">
         <v>54</v>
       </c>
@@ -4292,13 +4288,13 @@
       </c>
       <c r="AS28" s="168"/>
       <c r="AT28" s="48"/>
-      <c r="AU28" s="225" t="s">
+      <c r="AU28" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="AV28" s="226"/>
-      <c r="AW28" s="226"/>
-      <c r="AX28" s="226"/>
-      <c r="AY28" s="227"/>
+      <c r="AV28" s="205"/>
+      <c r="AW28" s="205"/>
+      <c r="AX28" s="205"/>
+      <c r="AY28" s="206"/>
       <c r="AZ28" s="49">
         <v>220</v>
       </c>
@@ -4378,13 +4374,13 @@
       </c>
       <c r="AJ29" s="168"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="196" t="s">
+      <c r="AL29" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="197"/>
-      <c r="AN29" s="197"/>
-      <c r="AO29" s="197"/>
-      <c r="AP29" s="197"/>
+      <c r="AM29" s="208"/>
+      <c r="AN29" s="208"/>
+      <c r="AO29" s="208"/>
+      <c r="AP29" s="208"/>
       <c r="AQ29" s="47" t="s">
         <v>54</v>
       </c>
@@ -4393,13 +4389,13 @@
       </c>
       <c r="AS29" s="168"/>
       <c r="AT29" s="48"/>
-      <c r="AU29" s="225" t="s">
+      <c r="AU29" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AV29" s="226"/>
-      <c r="AW29" s="226"/>
-      <c r="AX29" s="226"/>
-      <c r="AY29" s="227"/>
+      <c r="AV29" s="205"/>
+      <c r="AW29" s="205"/>
+      <c r="AX29" s="205"/>
+      <c r="AY29" s="206"/>
       <c r="AZ29" s="49">
         <v>175</v>
       </c>
@@ -4479,13 +4475,13 @@
       </c>
       <c r="AJ30" s="168"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="196" t="s">
+      <c r="AL30" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="AM30" s="197"/>
-      <c r="AN30" s="197"/>
-      <c r="AO30" s="197"/>
-      <c r="AP30" s="197"/>
+      <c r="AM30" s="208"/>
+      <c r="AN30" s="208"/>
+      <c r="AO30" s="208"/>
+      <c r="AP30" s="208"/>
       <c r="AQ30" s="47" t="s">
         <v>54</v>
       </c>
@@ -4494,13 +4490,13 @@
       </c>
       <c r="AS30" s="168"/>
       <c r="AT30" s="48"/>
-      <c r="AU30" s="225" t="s">
+      <c r="AU30" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="AV30" s="226"/>
-      <c r="AW30" s="226"/>
-      <c r="AX30" s="226"/>
-      <c r="AY30" s="227"/>
+      <c r="AV30" s="205"/>
+      <c r="AW30" s="205"/>
+      <c r="AX30" s="205"/>
+      <c r="AY30" s="206"/>
       <c r="AZ30" s="49">
         <v>50</v>
       </c>
@@ -4807,47 +4803,47 @@
         <v>54</v>
       </c>
       <c r="AJ34" s="168"/>
-      <c r="AK34" s="198" t="s">
+      <c r="AK34" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="AL34" s="198"/>
-      <c r="AM34" s="198"/>
-      <c r="AN34" s="198"/>
-      <c r="AO34" s="198"/>
-      <c r="AP34" s="198"/>
-      <c r="AQ34" s="198"/>
-      <c r="AR34" s="198"/>
+      <c r="AL34" s="217"/>
+      <c r="AM34" s="217"/>
+      <c r="AN34" s="217"/>
+      <c r="AO34" s="217"/>
+      <c r="AP34" s="217"/>
+      <c r="AQ34" s="217"/>
+      <c r="AR34" s="217"/>
       <c r="AS34" s="168"/>
-      <c r="AT34" s="198" t="s">
+      <c r="AT34" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="AU34" s="198"/>
-      <c r="AV34" s="198"/>
-      <c r="AW34" s="198"/>
-      <c r="AX34" s="198"/>
-      <c r="AY34" s="198"/>
-      <c r="AZ34" s="198"/>
-      <c r="BA34" s="229"/>
+      <c r="AU34" s="217"/>
+      <c r="AV34" s="217"/>
+      <c r="AW34" s="217"/>
+      <c r="AX34" s="217"/>
+      <c r="AY34" s="217"/>
+      <c r="AZ34" s="217"/>
+      <c r="BA34" s="218"/>
       <c r="BB34" s="168"/>
-      <c r="BC34" s="214" t="s">
+      <c r="BC34" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="BD34" s="215"/>
-      <c r="BE34" s="215"/>
-      <c r="BF34" s="215"/>
-      <c r="BG34" s="215"/>
-      <c r="BH34" s="215"/>
-      <c r="BI34" s="216"/>
+      <c r="BD34" s="233"/>
+      <c r="BE34" s="233"/>
+      <c r="BF34" s="233"/>
+      <c r="BG34" s="233"/>
+      <c r="BH34" s="233"/>
+      <c r="BI34" s="234"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="214" t="s">
+      <c r="BK34" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="BL34" s="215"/>
-      <c r="BM34" s="215"/>
-      <c r="BN34" s="215"/>
-      <c r="BO34" s="215"/>
-      <c r="BP34" s="215"/>
-      <c r="BQ34" s="216"/>
+      <c r="BL34" s="233"/>
+      <c r="BM34" s="233"/>
+      <c r="BN34" s="233"/>
+      <c r="BO34" s="233"/>
+      <c r="BP34" s="233"/>
+      <c r="BQ34" s="234"/>
     </row>
     <row r="35" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="170">
@@ -4902,47 +4898,47 @@
         <v>54</v>
       </c>
       <c r="AJ35" s="168"/>
-      <c r="AK35" s="208" t="s">
+      <c r="AK35" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="AL35" s="198"/>
-      <c r="AM35" s="198"/>
-      <c r="AN35" s="198"/>
-      <c r="AO35" s="198"/>
-      <c r="AP35" s="198"/>
-      <c r="AQ35" s="198"/>
-      <c r="AR35" s="198"/>
+      <c r="AL35" s="217"/>
+      <c r="AM35" s="217"/>
+      <c r="AN35" s="217"/>
+      <c r="AO35" s="217"/>
+      <c r="AP35" s="217"/>
+      <c r="AQ35" s="217"/>
+      <c r="AR35" s="217"/>
       <c r="AS35" s="168"/>
-      <c r="AT35" s="208" t="s">
+      <c r="AT35" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="AU35" s="208"/>
-      <c r="AV35" s="208"/>
-      <c r="AW35" s="208"/>
-      <c r="AX35" s="208"/>
-      <c r="AY35" s="208"/>
-      <c r="AZ35" s="208"/>
-      <c r="BA35" s="209"/>
+      <c r="AU35" s="219"/>
+      <c r="AV35" s="219"/>
+      <c r="AW35" s="219"/>
+      <c r="AX35" s="219"/>
+      <c r="AY35" s="219"/>
+      <c r="AZ35" s="219"/>
+      <c r="BA35" s="226"/>
       <c r="BB35" s="168"/>
-      <c r="BC35" s="217" t="s">
+      <c r="BC35" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="BD35" s="218"/>
-      <c r="BE35" s="218"/>
-      <c r="BF35" s="218"/>
-      <c r="BG35" s="218"/>
-      <c r="BH35" s="218"/>
-      <c r="BI35" s="219"/>
+      <c r="BD35" s="239"/>
+      <c r="BE35" s="239"/>
+      <c r="BF35" s="239"/>
+      <c r="BG35" s="239"/>
+      <c r="BH35" s="239"/>
+      <c r="BI35" s="240"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="217" t="s">
+      <c r="BK35" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="BL35" s="218"/>
-      <c r="BM35" s="218"/>
-      <c r="BN35" s="218"/>
-      <c r="BO35" s="218"/>
-      <c r="BP35" s="218"/>
-      <c r="BQ35" s="219"/>
+      <c r="BL35" s="239"/>
+      <c r="BM35" s="239"/>
+      <c r="BN35" s="239"/>
+      <c r="BO35" s="239"/>
+      <c r="BP35" s="239"/>
+      <c r="BQ35" s="240"/>
     </row>
     <row r="36" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="170">
@@ -4999,14 +4995,14 @@
         <v>54</v>
       </c>
       <c r="AJ36" s="168"/>
-      <c r="AK36" s="210" t="s">
+      <c r="AK36" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="AL36" s="210"/>
-      <c r="AM36" s="210"/>
-      <c r="AN36" s="210"/>
-      <c r="AO36" s="210"/>
-      <c r="AP36" s="210"/>
+      <c r="AL36" s="216"/>
+      <c r="AM36" s="216"/>
+      <c r="AN36" s="216"/>
+      <c r="AO36" s="216"/>
+      <c r="AP36" s="216"/>
       <c r="AQ36" s="141" t="s">
         <v>26</v>
       </c>
@@ -5015,13 +5011,13 @@
       </c>
       <c r="AS36" s="168"/>
       <c r="AT36" s="43"/>
-      <c r="AU36" s="211" t="s">
+      <c r="AU36" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="AV36" s="212"/>
-      <c r="AW36" s="212"/>
-      <c r="AX36" s="212"/>
-      <c r="AY36" s="213"/>
+      <c r="AV36" s="214"/>
+      <c r="AW36" s="214"/>
+      <c r="AX36" s="214"/>
+      <c r="AY36" s="215"/>
       <c r="AZ36" s="156" t="s">
         <v>26</v>
       </c>
@@ -5029,25 +5025,25 @@
         <v>27</v>
       </c>
       <c r="BB36" s="168"/>
-      <c r="BC36" s="220" t="s">
+      <c r="BC36" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="BD36" s="221"/>
-      <c r="BE36" s="221"/>
-      <c r="BF36" s="221"/>
-      <c r="BG36" s="221"/>
-      <c r="BH36" s="221"/>
-      <c r="BI36" s="222"/>
+      <c r="BD36" s="228"/>
+      <c r="BE36" s="228"/>
+      <c r="BF36" s="228"/>
+      <c r="BG36" s="228"/>
+      <c r="BH36" s="228"/>
+      <c r="BI36" s="229"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="220" t="s">
+      <c r="BK36" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" s="221"/>
-      <c r="BM36" s="221"/>
-      <c r="BN36" s="221"/>
-      <c r="BO36" s="221"/>
-      <c r="BP36" s="221"/>
-      <c r="BQ36" s="222"/>
+      <c r="BL36" s="228"/>
+      <c r="BM36" s="228"/>
+      <c r="BN36" s="228"/>
+      <c r="BO36" s="228"/>
+      <c r="BP36" s="228"/>
+      <c r="BQ36" s="229"/>
     </row>
     <row r="37" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="170">
@@ -5199,13 +5195,13 @@
       </c>
       <c r="AJ38" s="168"/>
       <c r="AK38" s="46"/>
-      <c r="AL38" s="194" t="s">
+      <c r="AL38" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AM38" s="195"/>
-      <c r="AN38" s="195"/>
-      <c r="AO38" s="195"/>
-      <c r="AP38" s="195"/>
+      <c r="AM38" s="211"/>
+      <c r="AN38" s="211"/>
+      <c r="AO38" s="211"/>
+      <c r="AP38" s="211"/>
       <c r="AQ38" s="47" t="s">
         <v>54</v>
       </c>
@@ -5214,13 +5210,13 @@
       </c>
       <c r="AS38" s="168"/>
       <c r="AT38" s="48"/>
-      <c r="AU38" s="194" t="s">
+      <c r="AU38" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AV38" s="195"/>
-      <c r="AW38" s="195"/>
-      <c r="AX38" s="195"/>
-      <c r="AY38" s="232"/>
+      <c r="AV38" s="211"/>
+      <c r="AW38" s="211"/>
+      <c r="AX38" s="211"/>
+      <c r="AY38" s="212"/>
       <c r="AZ38" s="49">
         <v>2800</v>
       </c>
@@ -5300,13 +5296,13 @@
       </c>
       <c r="AJ39" s="168"/>
       <c r="AK39" s="46"/>
-      <c r="AL39" s="196" t="s">
+      <c r="AL39" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="197"/>
-      <c r="AN39" s="197"/>
-      <c r="AO39" s="197"/>
-      <c r="AP39" s="197"/>
+      <c r="AM39" s="208"/>
+      <c r="AN39" s="208"/>
+      <c r="AO39" s="208"/>
+      <c r="AP39" s="208"/>
       <c r="AQ39" s="47" t="s">
         <v>54</v>
       </c>
@@ -5315,13 +5311,13 @@
       </c>
       <c r="AS39" s="168"/>
       <c r="AT39" s="48"/>
-      <c r="AU39" s="196" t="s">
+      <c r="AU39" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="197"/>
-      <c r="AW39" s="197"/>
-      <c r="AX39" s="197"/>
-      <c r="AY39" s="228"/>
+      <c r="AV39" s="208"/>
+      <c r="AW39" s="208"/>
+      <c r="AX39" s="208"/>
+      <c r="AY39" s="209"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49">
         <v>30</v>
@@ -5405,13 +5401,13 @@
       </c>
       <c r="AJ40" s="168"/>
       <c r="AK40" s="46"/>
-      <c r="AL40" s="196" t="s">
+      <c r="AL40" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AM40" s="197"/>
-      <c r="AN40" s="197"/>
-      <c r="AO40" s="197"/>
-      <c r="AP40" s="197"/>
+      <c r="AM40" s="208"/>
+      <c r="AN40" s="208"/>
+      <c r="AO40" s="208"/>
+      <c r="AP40" s="208"/>
       <c r="AQ40" s="47" t="s">
         <v>54</v>
       </c>
@@ -5420,13 +5416,13 @@
       </c>
       <c r="AS40" s="168"/>
       <c r="AT40" s="48"/>
-      <c r="AU40" s="196" t="s">
+      <c r="AU40" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AV40" s="197"/>
-      <c r="AW40" s="197"/>
-      <c r="AX40" s="197"/>
-      <c r="AY40" s="228"/>
+      <c r="AV40" s="208"/>
+      <c r="AW40" s="208"/>
+      <c r="AX40" s="208"/>
+      <c r="AY40" s="209"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49">
         <v>10000</v>
@@ -5492,13 +5488,13 @@
       <c r="AI41" s="155"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="46"/>
-      <c r="AL41" s="196" t="s">
+      <c r="AL41" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="197"/>
-      <c r="AN41" s="197"/>
-      <c r="AO41" s="197"/>
-      <c r="AP41" s="197"/>
+      <c r="AM41" s="208"/>
+      <c r="AN41" s="208"/>
+      <c r="AO41" s="208"/>
+      <c r="AP41" s="208"/>
       <c r="AQ41" s="47" t="s">
         <v>54</v>
       </c>
@@ -5507,13 +5503,13 @@
       </c>
       <c r="AS41" s="168"/>
       <c r="AT41" s="48"/>
-      <c r="AU41" s="196" t="s">
+      <c r="AU41" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AV41" s="197"/>
-      <c r="AW41" s="197"/>
-      <c r="AX41" s="197"/>
-      <c r="AY41" s="228"/>
+      <c r="AV41" s="208"/>
+      <c r="AW41" s="208"/>
+      <c r="AX41" s="208"/>
+      <c r="AY41" s="209"/>
       <c r="AZ41" s="172" t="s">
         <v>54</v>
       </c>
@@ -5585,13 +5581,13 @@
       <c r="AI42" s="155"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="46"/>
-      <c r="AL42" s="196" t="s">
+      <c r="AL42" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="197"/>
-      <c r="AN42" s="197"/>
-      <c r="AO42" s="197"/>
-      <c r="AP42" s="197"/>
+      <c r="AM42" s="208"/>
+      <c r="AN42" s="208"/>
+      <c r="AO42" s="208"/>
+      <c r="AP42" s="208"/>
       <c r="AQ42" s="47" t="s">
         <v>54</v>
       </c>
@@ -5600,13 +5596,13 @@
       </c>
       <c r="AS42" s="168"/>
       <c r="AT42" s="48"/>
-      <c r="AU42" s="196" t="s">
+      <c r="AU42" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AV42" s="197"/>
-      <c r="AW42" s="197"/>
-      <c r="AX42" s="197"/>
-      <c r="AY42" s="228"/>
+      <c r="AV42" s="208"/>
+      <c r="AW42" s="208"/>
+      <c r="AX42" s="208"/>
+      <c r="AY42" s="209"/>
       <c r="AZ42" s="49">
         <v>0</v>
       </c>
@@ -5676,13 +5672,13 @@
       <c r="AI43" s="155"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="46"/>
-      <c r="AL43" s="196" t="s">
+      <c r="AL43" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AM43" s="197"/>
-      <c r="AN43" s="197"/>
-      <c r="AO43" s="197"/>
-      <c r="AP43" s="197"/>
+      <c r="AM43" s="208"/>
+      <c r="AN43" s="208"/>
+      <c r="AO43" s="208"/>
+      <c r="AP43" s="208"/>
       <c r="AQ43" s="47" t="s">
         <v>54</v>
       </c>
@@ -5691,13 +5687,13 @@
       </c>
       <c r="AS43" s="168"/>
       <c r="AT43" s="48"/>
-      <c r="AU43" s="196" t="s">
+      <c r="AU43" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AV43" s="197"/>
-      <c r="AW43" s="197"/>
-      <c r="AX43" s="197"/>
-      <c r="AY43" s="228"/>
+      <c r="AV43" s="208"/>
+      <c r="AW43" s="208"/>
+      <c r="AX43" s="208"/>
+      <c r="AY43" s="209"/>
       <c r="AZ43" s="49" t="s">
         <v>54</v>
       </c>
@@ -5750,36 +5746,36 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="163"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="191" t="s">
+      <c r="S44" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="192"/>
-      <c r="U44" s="192"/>
-      <c r="V44" s="192"/>
-      <c r="W44" s="192"/>
-      <c r="X44" s="192"/>
-      <c r="Y44" s="192"/>
-      <c r="Z44" s="192"/>
+      <c r="T44" s="221"/>
+      <c r="U44" s="221"/>
+      <c r="V44" s="221"/>
+      <c r="W44" s="221"/>
+      <c r="X44" s="221"/>
+      <c r="Y44" s="221"/>
+      <c r="Z44" s="221"/>
       <c r="AA44" s="168"/>
-      <c r="AB44" s="191" t="s">
+      <c r="AB44" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="192"/>
-      <c r="AD44" s="192"/>
-      <c r="AE44" s="192"/>
-      <c r="AF44" s="192"/>
-      <c r="AG44" s="192"/>
-      <c r="AH44" s="192"/>
-      <c r="AI44" s="192"/>
+      <c r="AC44" s="221"/>
+      <c r="AD44" s="221"/>
+      <c r="AE44" s="221"/>
+      <c r="AF44" s="221"/>
+      <c r="AG44" s="221"/>
+      <c r="AH44" s="221"/>
+      <c r="AI44" s="221"/>
       <c r="AJ44" s="168"/>
       <c r="AK44" s="46"/>
-      <c r="AL44" s="196" t="s">
+      <c r="AL44" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="AM44" s="197"/>
-      <c r="AN44" s="197"/>
-      <c r="AO44" s="197"/>
-      <c r="AP44" s="197"/>
+      <c r="AM44" s="208"/>
+      <c r="AN44" s="208"/>
+      <c r="AO44" s="208"/>
+      <c r="AP44" s="208"/>
       <c r="AQ44" s="47" t="s">
         <v>54</v>
       </c>
@@ -5788,13 +5784,13 @@
       </c>
       <c r="AS44" s="168"/>
       <c r="AT44" s="48"/>
-      <c r="AU44" s="225" t="s">
+      <c r="AU44" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="AV44" s="226"/>
-      <c r="AW44" s="226"/>
-      <c r="AX44" s="226"/>
-      <c r="AY44" s="227"/>
+      <c r="AV44" s="205"/>
+      <c r="AW44" s="205"/>
+      <c r="AX44" s="205"/>
+      <c r="AY44" s="206"/>
       <c r="AZ44" s="49">
         <v>0</v>
       </c>
@@ -5869,13 +5865,13 @@
       </c>
       <c r="AJ45" s="168"/>
       <c r="AK45" s="46"/>
-      <c r="AL45" s="196" t="s">
+      <c r="AL45" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="AM45" s="197"/>
-      <c r="AN45" s="197"/>
-      <c r="AO45" s="197"/>
-      <c r="AP45" s="197"/>
+      <c r="AM45" s="208"/>
+      <c r="AN45" s="208"/>
+      <c r="AO45" s="208"/>
+      <c r="AP45" s="208"/>
       <c r="AQ45" s="47" t="s">
         <v>54</v>
       </c>
@@ -5884,13 +5880,13 @@
       </c>
       <c r="AS45" s="168"/>
       <c r="AT45" s="48"/>
-      <c r="AU45" s="225" t="s">
+      <c r="AU45" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="AV45" s="226"/>
-      <c r="AW45" s="226"/>
-      <c r="AX45" s="226"/>
-      <c r="AY45" s="227"/>
+      <c r="AV45" s="205"/>
+      <c r="AW45" s="205"/>
+      <c r="AX45" s="205"/>
+      <c r="AY45" s="206"/>
       <c r="AZ45" s="49">
         <v>0</v>
       </c>
@@ -5957,13 +5953,13 @@
       </c>
       <c r="AJ46" s="168"/>
       <c r="AK46" s="46"/>
-      <c r="AL46" s="196" t="s">
+      <c r="AL46" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="AM46" s="197"/>
-      <c r="AN46" s="197"/>
-      <c r="AO46" s="197"/>
-      <c r="AP46" s="197"/>
+      <c r="AM46" s="208"/>
+      <c r="AN46" s="208"/>
+      <c r="AO46" s="208"/>
+      <c r="AP46" s="208"/>
       <c r="AQ46" s="47" t="s">
         <v>54</v>
       </c>
@@ -5972,13 +5968,13 @@
       </c>
       <c r="AS46" s="168"/>
       <c r="AT46" s="48"/>
-      <c r="AU46" s="225" t="s">
+      <c r="AU46" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AV46" s="226"/>
-      <c r="AW46" s="226"/>
-      <c r="AX46" s="226"/>
-      <c r="AY46" s="227"/>
+      <c r="AV46" s="205"/>
+      <c r="AW46" s="205"/>
+      <c r="AX46" s="205"/>
+      <c r="AY46" s="206"/>
       <c r="AZ46" s="49">
         <v>0</v>
       </c>
@@ -6041,13 +6037,13 @@
       </c>
       <c r="AJ47" s="168"/>
       <c r="AK47" s="46"/>
-      <c r="AL47" s="196" t="s">
+      <c r="AL47" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="AM47" s="197"/>
-      <c r="AN47" s="197"/>
-      <c r="AO47" s="197"/>
-      <c r="AP47" s="197"/>
+      <c r="AM47" s="208"/>
+      <c r="AN47" s="208"/>
+      <c r="AO47" s="208"/>
+      <c r="AP47" s="208"/>
       <c r="AQ47" s="47" t="s">
         <v>54</v>
       </c>
@@ -6056,13 +6052,13 @@
       </c>
       <c r="AS47" s="168"/>
       <c r="AT47" s="48"/>
-      <c r="AU47" s="225" t="s">
+      <c r="AU47" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="AV47" s="226"/>
-      <c r="AW47" s="226"/>
-      <c r="AX47" s="226"/>
-      <c r="AY47" s="227"/>
+      <c r="AV47" s="205"/>
+      <c r="AW47" s="205"/>
+      <c r="AX47" s="205"/>
+      <c r="AY47" s="206"/>
       <c r="AZ47" s="49">
         <v>0</v>
       </c>
@@ -6070,25 +6066,25 @@
         <v>54</v>
       </c>
       <c r="BB47" s="168"/>
-      <c r="BC47" s="205" t="s">
+      <c r="BC47" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BD47" s="206"/>
-      <c r="BE47" s="206"/>
-      <c r="BF47" s="206"/>
-      <c r="BG47" s="206"/>
-      <c r="BH47" s="206"/>
-      <c r="BI47" s="207"/>
+      <c r="BD47" s="223"/>
+      <c r="BE47" s="223"/>
+      <c r="BF47" s="223"/>
+      <c r="BG47" s="223"/>
+      <c r="BH47" s="223"/>
+      <c r="BI47" s="224"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="205" t="s">
+      <c r="BK47" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BL47" s="206"/>
-      <c r="BM47" s="206"/>
-      <c r="BN47" s="206"/>
-      <c r="BO47" s="206"/>
-      <c r="BP47" s="206"/>
-      <c r="BQ47" s="207"/>
+      <c r="BL47" s="223"/>
+      <c r="BM47" s="223"/>
+      <c r="BN47" s="223"/>
+      <c r="BO47" s="223"/>
+      <c r="BP47" s="223"/>
+      <c r="BQ47" s="224"/>
     </row>
     <row r="48" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171"/>
@@ -6169,25 +6165,25 @@
         <v>11435</v>
       </c>
       <c r="BB48" s="168"/>
-      <c r="BC48" s="199" t="s">
+      <c r="BC48" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="BD48" s="200"/>
-      <c r="BE48" s="200"/>
-      <c r="BF48" s="200"/>
-      <c r="BG48" s="200"/>
-      <c r="BH48" s="200"/>
-      <c r="BI48" s="201"/>
+      <c r="BD48" s="236"/>
+      <c r="BE48" s="236"/>
+      <c r="BF48" s="236"/>
+      <c r="BG48" s="236"/>
+      <c r="BH48" s="236"/>
+      <c r="BI48" s="237"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="199" t="s">
+      <c r="BK48" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="BL48" s="200"/>
-      <c r="BM48" s="200"/>
-      <c r="BN48" s="200"/>
-      <c r="BO48" s="200"/>
-      <c r="BP48" s="200"/>
-      <c r="BQ48" s="201"/>
+      <c r="BL48" s="236"/>
+      <c r="BM48" s="236"/>
+      <c r="BN48" s="236"/>
+      <c r="BO48" s="236"/>
+      <c r="BP48" s="236"/>
+      <c r="BQ48" s="237"/>
     </row>
     <row r="49" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="170">
@@ -6260,27 +6256,27 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="202" t="str">
+      <c r="BC49" s="243" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BD49" s="203"/>
-      <c r="BE49" s="203"/>
-      <c r="BF49" s="203"/>
-      <c r="BG49" s="203"/>
-      <c r="BH49" s="203"/>
-      <c r="BI49" s="204"/>
+      <c r="BD49" s="244"/>
+      <c r="BE49" s="244"/>
+      <c r="BF49" s="244"/>
+      <c r="BG49" s="244"/>
+      <c r="BH49" s="244"/>
+      <c r="BI49" s="245"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="202" t="str">
+      <c r="BK49" s="243" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BL49" s="203"/>
-      <c r="BM49" s="203"/>
-      <c r="BN49" s="203"/>
-      <c r="BO49" s="203"/>
-      <c r="BP49" s="203"/>
-      <c r="BQ49" s="204"/>
+      <c r="BL49" s="244"/>
+      <c r="BM49" s="244"/>
+      <c r="BN49" s="244"/>
+      <c r="BO49" s="244"/>
+      <c r="BP49" s="244"/>
+      <c r="BQ49" s="245"/>
     </row>
     <row r="50" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="170">
@@ -6426,27 +6422,27 @@
         <v>54</v>
       </c>
       <c r="AJ51" s="168"/>
-      <c r="AK51" s="198" t="s">
+      <c r="AK51" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="AL51" s="198"/>
-      <c r="AM51" s="198"/>
-      <c r="AN51" s="198"/>
-      <c r="AO51" s="198"/>
-      <c r="AP51" s="198"/>
-      <c r="AQ51" s="198"/>
-      <c r="AR51" s="198"/>
+      <c r="AL51" s="217"/>
+      <c r="AM51" s="217"/>
+      <c r="AN51" s="217"/>
+      <c r="AO51" s="217"/>
+      <c r="AP51" s="217"/>
+      <c r="AQ51" s="217"/>
+      <c r="AR51" s="217"/>
       <c r="AS51" s="168"/>
-      <c r="AT51" s="198" t="s">
+      <c r="AT51" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="AU51" s="198"/>
-      <c r="AV51" s="198"/>
-      <c r="AW51" s="198"/>
-      <c r="AX51" s="198"/>
-      <c r="AY51" s="198"/>
-      <c r="AZ51" s="198"/>
-      <c r="BA51" s="229"/>
+      <c r="AU51" s="217"/>
+      <c r="AV51" s="217"/>
+      <c r="AW51" s="217"/>
+      <c r="AX51" s="217"/>
+      <c r="AY51" s="217"/>
+      <c r="AZ51" s="217"/>
+      <c r="BA51" s="218"/>
       <c r="BB51" s="168"/>
       <c r="BC51" s="23"/>
       <c r="BD51" s="98" t="s">
@@ -6522,27 +6518,27 @@
         <v>54</v>
       </c>
       <c r="AJ52" s="168"/>
-      <c r="AK52" s="208" t="s">
+      <c r="AK52" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="AL52" s="198"/>
-      <c r="AM52" s="198"/>
-      <c r="AN52" s="198"/>
-      <c r="AO52" s="198"/>
-      <c r="AP52" s="198"/>
-      <c r="AQ52" s="198"/>
-      <c r="AR52" s="198"/>
+      <c r="AL52" s="217"/>
+      <c r="AM52" s="217"/>
+      <c r="AN52" s="217"/>
+      <c r="AO52" s="217"/>
+      <c r="AP52" s="217"/>
+      <c r="AQ52" s="217"/>
+      <c r="AR52" s="217"/>
       <c r="AS52" s="168"/>
-      <c r="AT52" s="208" t="s">
+      <c r="AT52" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="AU52" s="208"/>
-      <c r="AV52" s="208"/>
-      <c r="AW52" s="208"/>
-      <c r="AX52" s="208"/>
-      <c r="AY52" s="208"/>
-      <c r="AZ52" s="208"/>
-      <c r="BA52" s="209"/>
+      <c r="AU52" s="219"/>
+      <c r="AV52" s="219"/>
+      <c r="AW52" s="219"/>
+      <c r="AX52" s="219"/>
+      <c r="AY52" s="219"/>
+      <c r="AZ52" s="219"/>
+      <c r="BA52" s="226"/>
       <c r="BB52" s="168"/>
       <c r="BC52" s="23"/>
       <c r="BD52" s="139"/>
@@ -6616,14 +6612,14 @@
         <v>54</v>
       </c>
       <c r="AJ53" s="168"/>
-      <c r="AK53" s="210" t="s">
+      <c r="AK53" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="AL53" s="210"/>
-      <c r="AM53" s="210"/>
-      <c r="AN53" s="210"/>
-      <c r="AO53" s="210"/>
-      <c r="AP53" s="210"/>
+      <c r="AL53" s="216"/>
+      <c r="AM53" s="216"/>
+      <c r="AN53" s="216"/>
+      <c r="AO53" s="216"/>
+      <c r="AP53" s="216"/>
       <c r="AQ53" s="141" t="s">
         <v>26</v>
       </c>
@@ -6632,13 +6628,13 @@
       </c>
       <c r="AS53" s="168"/>
       <c r="AT53" s="43"/>
-      <c r="AU53" s="211" t="s">
+      <c r="AU53" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="AV53" s="212"/>
-      <c r="AW53" s="212"/>
-      <c r="AX53" s="212"/>
-      <c r="AY53" s="213"/>
+      <c r="AV53" s="214"/>
+      <c r="AW53" s="214"/>
+      <c r="AX53" s="214"/>
+      <c r="AY53" s="215"/>
       <c r="AZ53" s="156" t="s">
         <v>26</v>
       </c>
@@ -6813,13 +6809,13 @@
       </c>
       <c r="AJ55" s="168"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="194" t="s">
+      <c r="AL55" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AM55" s="195"/>
-      <c r="AN55" s="195"/>
-      <c r="AO55" s="195"/>
-      <c r="AP55" s="195"/>
+      <c r="AM55" s="211"/>
+      <c r="AN55" s="211"/>
+      <c r="AO55" s="211"/>
+      <c r="AP55" s="211"/>
       <c r="AQ55" s="47" t="s">
         <v>54</v>
       </c>
@@ -6828,13 +6824,13 @@
       </c>
       <c r="AS55" s="168"/>
       <c r="AT55" s="48"/>
-      <c r="AU55" s="194" t="s">
+      <c r="AU55" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AV55" s="195"/>
-      <c r="AW55" s="195"/>
-      <c r="AX55" s="195"/>
-      <c r="AY55" s="232"/>
+      <c r="AV55" s="211"/>
+      <c r="AW55" s="211"/>
+      <c r="AX55" s="211"/>
+      <c r="AY55" s="212"/>
       <c r="AZ55" s="49">
         <v>5400</v>
       </c>
@@ -6895,13 +6891,13 @@
       <c r="AI56" s="155"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="196" t="s">
+      <c r="AL56" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AM56" s="197"/>
-      <c r="AN56" s="197"/>
-      <c r="AO56" s="197"/>
-      <c r="AP56" s="197"/>
+      <c r="AM56" s="208"/>
+      <c r="AN56" s="208"/>
+      <c r="AO56" s="208"/>
+      <c r="AP56" s="208"/>
       <c r="AQ56" s="47" t="s">
         <v>54</v>
       </c>
@@ -6910,13 +6906,13 @@
       </c>
       <c r="AS56" s="168"/>
       <c r="AT56" s="48"/>
-      <c r="AU56" s="196" t="s">
+      <c r="AU56" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AV56" s="197"/>
-      <c r="AW56" s="197"/>
-      <c r="AX56" s="197"/>
-      <c r="AY56" s="228"/>
+      <c r="AV56" s="208"/>
+      <c r="AW56" s="208"/>
+      <c r="AX56" s="208"/>
+      <c r="AY56" s="209"/>
       <c r="AZ56" s="49" t="s">
         <v>54</v>
       </c>
@@ -6983,13 +6979,13 @@
       <c r="AI57" s="155"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="196" t="s">
+      <c r="AL57" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="197"/>
-      <c r="AN57" s="197"/>
-      <c r="AO57" s="197"/>
-      <c r="AP57" s="197"/>
+      <c r="AM57" s="208"/>
+      <c r="AN57" s="208"/>
+      <c r="AO57" s="208"/>
+      <c r="AP57" s="208"/>
       <c r="AQ57" s="47" t="s">
         <v>54</v>
       </c>
@@ -6997,18 +6993,18 @@
         <v>54</v>
       </c>
       <c r="AS57" s="168"/>
-      <c r="AT57" s="189"/>
-      <c r="AU57" s="234" t="s">
+      <c r="AT57" s="247"/>
+      <c r="AU57" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="AV57" s="235"/>
-      <c r="AW57" s="235"/>
-      <c r="AX57" s="235"/>
-      <c r="AY57" s="236"/>
-      <c r="AZ57" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA57" s="190">
+      <c r="AV57" s="249"/>
+      <c r="AW57" s="249"/>
+      <c r="AX57" s="249"/>
+      <c r="AY57" s="250"/>
+      <c r="AZ57" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA57" s="49">
         <v>10000</v>
       </c>
       <c r="BB57" s="168"/>
@@ -7069,13 +7065,13 @@
       <c r="AI58" s="155"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="46"/>
-      <c r="AL58" s="196" t="s">
+      <c r="AL58" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AM58" s="197"/>
-      <c r="AN58" s="197"/>
-      <c r="AO58" s="197"/>
-      <c r="AP58" s="197"/>
+      <c r="AM58" s="208"/>
+      <c r="AN58" s="208"/>
+      <c r="AO58" s="208"/>
+      <c r="AP58" s="208"/>
       <c r="AQ58" s="47" t="s">
         <v>54</v>
       </c>
@@ -7083,18 +7079,18 @@
         <v>54</v>
       </c>
       <c r="AS58" s="168"/>
-      <c r="AT58" s="189"/>
-      <c r="AU58" s="234" t="s">
+      <c r="AT58" s="247"/>
+      <c r="AU58" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="AV58" s="235"/>
-      <c r="AW58" s="235"/>
-      <c r="AX58" s="235"/>
-      <c r="AY58" s="236"/>
-      <c r="AZ58" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA58" s="190">
+      <c r="AV58" s="249"/>
+      <c r="AW58" s="249"/>
+      <c r="AX58" s="249"/>
+      <c r="AY58" s="250"/>
+      <c r="AZ58" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA58" s="49">
         <v>1405</v>
       </c>
       <c r="BB58" s="168"/>
@@ -7132,36 +7128,36 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="191" t="s">
+      <c r="S59" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="192"/>
-      <c r="U59" s="192"/>
-      <c r="V59" s="192"/>
-      <c r="W59" s="192"/>
-      <c r="X59" s="192"/>
-      <c r="Y59" s="192"/>
-      <c r="Z59" s="192"/>
+      <c r="T59" s="221"/>
+      <c r="U59" s="221"/>
+      <c r="V59" s="221"/>
+      <c r="W59" s="221"/>
+      <c r="X59" s="221"/>
+      <c r="Y59" s="221"/>
+      <c r="Z59" s="221"/>
       <c r="AA59" s="168"/>
-      <c r="AB59" s="191" t="s">
+      <c r="AB59" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="192"/>
-      <c r="AD59" s="192"/>
-      <c r="AE59" s="192"/>
-      <c r="AF59" s="192"/>
-      <c r="AG59" s="192"/>
-      <c r="AH59" s="192"/>
-      <c r="AI59" s="192"/>
+      <c r="AC59" s="221"/>
+      <c r="AD59" s="221"/>
+      <c r="AE59" s="221"/>
+      <c r="AF59" s="221"/>
+      <c r="AG59" s="221"/>
+      <c r="AH59" s="221"/>
+      <c r="AI59" s="221"/>
       <c r="AJ59" s="168"/>
       <c r="AK59" s="46"/>
-      <c r="AL59" s="196" t="s">
+      <c r="AL59" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AM59" s="197"/>
-      <c r="AN59" s="197"/>
-      <c r="AO59" s="197"/>
-      <c r="AP59" s="197"/>
+      <c r="AM59" s="208"/>
+      <c r="AN59" s="208"/>
+      <c r="AO59" s="208"/>
+      <c r="AP59" s="208"/>
       <c r="AQ59" s="47" t="s">
         <v>54</v>
       </c>
@@ -7170,13 +7166,13 @@
       </c>
       <c r="AS59" s="168"/>
       <c r="AT59" s="48"/>
-      <c r="AU59" s="196" t="s">
+      <c r="AU59" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AV59" s="197"/>
-      <c r="AW59" s="197"/>
-      <c r="AX59" s="197"/>
-      <c r="AY59" s="228"/>
+      <c r="AV59" s="208"/>
+      <c r="AW59" s="208"/>
+      <c r="AX59" s="208"/>
+      <c r="AY59" s="209"/>
       <c r="AZ59" s="49">
         <v>700</v>
       </c>
@@ -7265,13 +7261,13 @@
       </c>
       <c r="AJ60" s="168"/>
       <c r="AK60" s="46"/>
-      <c r="AL60" s="196" t="s">
+      <c r="AL60" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AM60" s="197"/>
-      <c r="AN60" s="197"/>
-      <c r="AO60" s="197"/>
-      <c r="AP60" s="197"/>
+      <c r="AM60" s="208"/>
+      <c r="AN60" s="208"/>
+      <c r="AO60" s="208"/>
+      <c r="AP60" s="208"/>
       <c r="AQ60" s="47" t="s">
         <v>54</v>
       </c>
@@ -7280,13 +7276,13 @@
       </c>
       <c r="AS60" s="168"/>
       <c r="AT60" s="48"/>
-      <c r="AU60" s="196" t="s">
+      <c r="AU60" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AV60" s="197"/>
-      <c r="AW60" s="197"/>
-      <c r="AX60" s="197"/>
-      <c r="AY60" s="228"/>
+      <c r="AV60" s="208"/>
+      <c r="AW60" s="208"/>
+      <c r="AX60" s="208"/>
+      <c r="AY60" s="209"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49">
         <v>4050</v>
@@ -7363,13 +7359,13 @@
       </c>
       <c r="AJ61" s="168"/>
       <c r="AK61" s="46"/>
-      <c r="AL61" s="196" t="s">
+      <c r="AL61" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="AM61" s="197"/>
-      <c r="AN61" s="197"/>
-      <c r="AO61" s="197"/>
-      <c r="AP61" s="197"/>
+      <c r="AM61" s="208"/>
+      <c r="AN61" s="208"/>
+      <c r="AO61" s="208"/>
+      <c r="AP61" s="208"/>
       <c r="AQ61" s="47" t="s">
         <v>54</v>
       </c>
@@ -7378,13 +7374,13 @@
       </c>
       <c r="AS61" s="168"/>
       <c r="AT61" s="48"/>
-      <c r="AU61" s="225" t="s">
+      <c r="AU61" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="226"/>
-      <c r="AW61" s="226"/>
-      <c r="AX61" s="226"/>
-      <c r="AY61" s="227"/>
+      <c r="AV61" s="205"/>
+      <c r="AW61" s="205"/>
+      <c r="AX61" s="205"/>
+      <c r="AY61" s="206"/>
       <c r="AZ61" s="49">
         <v>1200</v>
       </c>
@@ -7461,13 +7457,13 @@
       </c>
       <c r="AJ62" s="168"/>
       <c r="AK62" s="46"/>
-      <c r="AL62" s="196" t="s">
+      <c r="AL62" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="AM62" s="197"/>
-      <c r="AN62" s="197"/>
-      <c r="AO62" s="197"/>
-      <c r="AP62" s="197"/>
+      <c r="AM62" s="208"/>
+      <c r="AN62" s="208"/>
+      <c r="AO62" s="208"/>
+      <c r="AP62" s="208"/>
       <c r="AQ62" s="47" t="s">
         <v>54</v>
       </c>
@@ -7476,13 +7472,13 @@
       </c>
       <c r="AS62" s="168"/>
       <c r="AT62" s="48"/>
-      <c r="AU62" s="225" t="s">
+      <c r="AU62" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="AV62" s="226"/>
-      <c r="AW62" s="226"/>
-      <c r="AX62" s="226"/>
-      <c r="AY62" s="227"/>
+      <c r="AV62" s="205"/>
+      <c r="AW62" s="205"/>
+      <c r="AX62" s="205"/>
+      <c r="AY62" s="206"/>
       <c r="AZ62" s="49">
         <v>450</v>
       </c>
@@ -7559,13 +7555,13 @@
       </c>
       <c r="AJ63" s="168"/>
       <c r="AK63" s="46"/>
-      <c r="AL63" s="196" t="s">
+      <c r="AL63" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="AM63" s="197"/>
-      <c r="AN63" s="197"/>
-      <c r="AO63" s="197"/>
-      <c r="AP63" s="197"/>
+      <c r="AM63" s="208"/>
+      <c r="AN63" s="208"/>
+      <c r="AO63" s="208"/>
+      <c r="AP63" s="208"/>
       <c r="AQ63" s="47" t="s">
         <v>54</v>
       </c>
@@ -7574,13 +7570,13 @@
       </c>
       <c r="AS63" s="168"/>
       <c r="AT63" s="48"/>
-      <c r="AU63" s="225" t="s">
+      <c r="AU63" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AV63" s="226"/>
-      <c r="AW63" s="226"/>
-      <c r="AX63" s="226"/>
-      <c r="AY63" s="227"/>
+      <c r="AV63" s="205"/>
+      <c r="AW63" s="205"/>
+      <c r="AX63" s="205"/>
+      <c r="AY63" s="206"/>
       <c r="AZ63" s="49">
         <v>145</v>
       </c>
@@ -7651,13 +7647,13 @@
       </c>
       <c r="AJ64" s="168"/>
       <c r="AK64" s="46"/>
-      <c r="AL64" s="196" t="s">
+      <c r="AL64" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="AM64" s="197"/>
-      <c r="AN64" s="197"/>
-      <c r="AO64" s="197"/>
-      <c r="AP64" s="197"/>
+      <c r="AM64" s="208"/>
+      <c r="AN64" s="208"/>
+      <c r="AO64" s="208"/>
+      <c r="AP64" s="208"/>
       <c r="AQ64" s="47" t="s">
         <v>54</v>
       </c>
@@ -7666,13 +7662,13 @@
       </c>
       <c r="AS64" s="168"/>
       <c r="AT64" s="48"/>
-      <c r="AU64" s="225" t="s">
+      <c r="AU64" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="AV64" s="226"/>
-      <c r="AW64" s="226"/>
-      <c r="AX64" s="226"/>
-      <c r="AY64" s="227"/>
+      <c r="AV64" s="205"/>
+      <c r="AW64" s="205"/>
+      <c r="AX64" s="205"/>
+      <c r="AY64" s="206"/>
       <c r="AZ64" s="49">
         <v>20</v>
       </c>
@@ -7887,25 +7883,25 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="205" t="s">
+      <c r="BC67" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BD67" s="206"/>
-      <c r="BE67" s="206"/>
-      <c r="BF67" s="206"/>
-      <c r="BG67" s="206"/>
-      <c r="BH67" s="206"/>
-      <c r="BI67" s="207"/>
+      <c r="BD67" s="223"/>
+      <c r="BE67" s="223"/>
+      <c r="BF67" s="223"/>
+      <c r="BG67" s="223"/>
+      <c r="BH67" s="223"/>
+      <c r="BI67" s="224"/>
       <c r="BJ67" s="7"/>
-      <c r="BK67" s="205" t="s">
+      <c r="BK67" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BL67" s="206"/>
-      <c r="BM67" s="206"/>
-      <c r="BN67" s="206"/>
-      <c r="BO67" s="206"/>
-      <c r="BP67" s="206"/>
-      <c r="BQ67" s="207"/>
+      <c r="BL67" s="223"/>
+      <c r="BM67" s="223"/>
+      <c r="BN67" s="223"/>
+      <c r="BO67" s="223"/>
+      <c r="BP67" s="223"/>
+      <c r="BQ67" s="224"/>
     </row>
     <row r="68" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="22"/>
@@ -7953,47 +7949,47 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="168"/>
-      <c r="AK68" s="198" t="s">
+      <c r="AK68" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="AL68" s="198"/>
-      <c r="AM68" s="198"/>
-      <c r="AN68" s="198"/>
-      <c r="AO68" s="198"/>
-      <c r="AP68" s="198"/>
-      <c r="AQ68" s="198"/>
-      <c r="AR68" s="198"/>
+      <c r="AL68" s="217"/>
+      <c r="AM68" s="217"/>
+      <c r="AN68" s="217"/>
+      <c r="AO68" s="217"/>
+      <c r="AP68" s="217"/>
+      <c r="AQ68" s="217"/>
+      <c r="AR68" s="217"/>
       <c r="AS68" s="168"/>
-      <c r="AT68" s="198" t="s">
+      <c r="AT68" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="AU68" s="198"/>
-      <c r="AV68" s="198"/>
-      <c r="AW68" s="198"/>
-      <c r="AX68" s="198"/>
-      <c r="AY68" s="198"/>
-      <c r="AZ68" s="198"/>
-      <c r="BA68" s="229"/>
+      <c r="AU68" s="217"/>
+      <c r="AV68" s="217"/>
+      <c r="AW68" s="217"/>
+      <c r="AX68" s="217"/>
+      <c r="AY68" s="217"/>
+      <c r="AZ68" s="217"/>
+      <c r="BA68" s="218"/>
       <c r="BB68" s="168"/>
-      <c r="BC68" s="199" t="s">
+      <c r="BC68" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="BD68" s="200"/>
-      <c r="BE68" s="200"/>
-      <c r="BF68" s="200"/>
-      <c r="BG68" s="200"/>
-      <c r="BH68" s="200"/>
-      <c r="BI68" s="201"/>
+      <c r="BD68" s="236"/>
+      <c r="BE68" s="236"/>
+      <c r="BF68" s="236"/>
+      <c r="BG68" s="236"/>
+      <c r="BH68" s="236"/>
+      <c r="BI68" s="237"/>
       <c r="BJ68" s="7"/>
-      <c r="BK68" s="199" t="s">
+      <c r="BK68" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="BL68" s="200"/>
-      <c r="BM68" s="200"/>
-      <c r="BN68" s="200"/>
-      <c r="BO68" s="200"/>
-      <c r="BP68" s="200"/>
-      <c r="BQ68" s="201"/>
+      <c r="BL68" s="236"/>
+      <c r="BM68" s="236"/>
+      <c r="BN68" s="236"/>
+      <c r="BO68" s="236"/>
+      <c r="BP68" s="236"/>
+      <c r="BQ68" s="237"/>
     </row>
     <row r="69" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
@@ -8043,48 +8039,48 @@
         <v>230</v>
       </c>
       <c r="AJ69" s="168"/>
-      <c r="AK69" s="208" t="s">
+      <c r="AK69" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="AL69" s="198"/>
-      <c r="AM69" s="198"/>
-      <c r="AN69" s="198"/>
-      <c r="AO69" s="198"/>
-      <c r="AP69" s="198"/>
-      <c r="AQ69" s="198"/>
-      <c r="AR69" s="198"/>
+      <c r="AL69" s="217"/>
+      <c r="AM69" s="217"/>
+      <c r="AN69" s="217"/>
+      <c r="AO69" s="217"/>
+      <c r="AP69" s="217"/>
+      <c r="AQ69" s="217"/>
+      <c r="AR69" s="217"/>
       <c r="AS69" s="168"/>
-      <c r="AT69" s="208" t="s">
+      <c r="AT69" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="AU69" s="208"/>
-      <c r="AV69" s="208"/>
-      <c r="AW69" s="208"/>
-      <c r="AX69" s="208"/>
-      <c r="AY69" s="208"/>
-      <c r="AZ69" s="208"/>
-      <c r="BA69" s="209"/>
+      <c r="AU69" s="219"/>
+      <c r="AV69" s="219"/>
+      <c r="AW69" s="219"/>
+      <c r="AX69" s="219"/>
+      <c r="AY69" s="219"/>
+      <c r="AZ69" s="219"/>
+      <c r="BA69" s="226"/>
       <c r="BB69" s="168"/>
-      <c r="BC69" s="223" t="str">
+      <c r="BC69" s="230" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD69" s="224"/>
-      <c r="BE69" s="224"/>
-      <c r="BF69" s="224"/>
-      <c r="BG69" s="224"/>
-      <c r="BH69" s="224"/>
+      <c r="BD69" s="231"/>
+      <c r="BE69" s="231"/>
+      <c r="BF69" s="231"/>
+      <c r="BG69" s="231"/>
+      <c r="BH69" s="231"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="7"/>
-      <c r="BK69" s="223" t="str">
+      <c r="BK69" s="230" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL69" s="224"/>
-      <c r="BM69" s="224"/>
-      <c r="BN69" s="224"/>
-      <c r="BO69" s="224"/>
-      <c r="BP69" s="224"/>
+      <c r="BL69" s="231"/>
+      <c r="BM69" s="231"/>
+      <c r="BN69" s="231"/>
+      <c r="BO69" s="231"/>
+      <c r="BP69" s="231"/>
       <c r="BQ69" s="13"/>
     </row>
     <row r="70" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8135,14 +8131,14 @@
         <v>54</v>
       </c>
       <c r="AJ70" s="168"/>
-      <c r="AK70" s="210" t="s">
+      <c r="AK70" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="AL70" s="210"/>
-      <c r="AM70" s="210"/>
-      <c r="AN70" s="210"/>
-      <c r="AO70" s="210"/>
-      <c r="AP70" s="210"/>
+      <c r="AL70" s="216"/>
+      <c r="AM70" s="216"/>
+      <c r="AN70" s="216"/>
+      <c r="AO70" s="216"/>
+      <c r="AP70" s="216"/>
       <c r="AQ70" s="141" t="s">
         <v>26</v>
       </c>
@@ -8151,13 +8147,13 @@
       </c>
       <c r="AS70" s="168"/>
       <c r="AT70" s="43"/>
-      <c r="AU70" s="211" t="s">
+      <c r="AU70" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="AV70" s="212"/>
-      <c r="AW70" s="212"/>
-      <c r="AX70" s="212"/>
-      <c r="AY70" s="213"/>
+      <c r="AV70" s="214"/>
+      <c r="AW70" s="214"/>
+      <c r="AX70" s="214"/>
+      <c r="AY70" s="215"/>
       <c r="AZ70" s="156" t="s">
         <v>26</v>
       </c>
@@ -8320,13 +8316,13 @@
       <c r="AI72" s="155"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="46"/>
-      <c r="AL72" s="194" t="s">
+      <c r="AL72" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AM72" s="195"/>
-      <c r="AN72" s="195"/>
-      <c r="AO72" s="195"/>
-      <c r="AP72" s="195"/>
+      <c r="AM72" s="211"/>
+      <c r="AN72" s="211"/>
+      <c r="AO72" s="211"/>
+      <c r="AP72" s="211"/>
       <c r="AQ72" s="47" t="s">
         <v>54</v>
       </c>
@@ -8335,13 +8331,13 @@
       </c>
       <c r="AS72" s="168"/>
       <c r="AT72" s="48"/>
-      <c r="AU72" s="194" t="s">
+      <c r="AU72" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="AV72" s="195"/>
-      <c r="AW72" s="195"/>
-      <c r="AX72" s="195"/>
-      <c r="AY72" s="232"/>
+      <c r="AV72" s="211"/>
+      <c r="AW72" s="211"/>
+      <c r="AX72" s="211"/>
+      <c r="AY72" s="212"/>
       <c r="AZ72" s="49">
         <v>5400</v>
       </c>
@@ -8404,13 +8400,13 @@
       <c r="AI73" s="155"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="46"/>
-      <c r="AL73" s="196" t="s">
+      <c r="AL73" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AM73" s="197"/>
-      <c r="AN73" s="197"/>
-      <c r="AO73" s="197"/>
-      <c r="AP73" s="197"/>
+      <c r="AM73" s="208"/>
+      <c r="AN73" s="208"/>
+      <c r="AO73" s="208"/>
+      <c r="AP73" s="208"/>
       <c r="AQ73" s="47" t="s">
         <v>54</v>
       </c>
@@ -8419,13 +8415,13 @@
       </c>
       <c r="AS73" s="168"/>
       <c r="AT73" s="48"/>
-      <c r="AU73" s="196" t="s">
+      <c r="AU73" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AV73" s="197"/>
-      <c r="AW73" s="197"/>
-      <c r="AX73" s="197"/>
-      <c r="AY73" s="228"/>
+      <c r="AV73" s="208"/>
+      <c r="AW73" s="208"/>
+      <c r="AX73" s="208"/>
+      <c r="AY73" s="209"/>
       <c r="AZ73" s="49" t="s">
         <v>54</v>
       </c>
@@ -8486,13 +8482,13 @@
       <c r="AI74" s="155"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="46"/>
-      <c r="AL74" s="196" t="s">
+      <c r="AL74" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AM74" s="197"/>
-      <c r="AN74" s="197"/>
-      <c r="AO74" s="197"/>
-      <c r="AP74" s="197"/>
+      <c r="AM74" s="208"/>
+      <c r="AN74" s="208"/>
+      <c r="AO74" s="208"/>
+      <c r="AP74" s="208"/>
       <c r="AQ74" s="47" t="s">
         <v>54</v>
       </c>
@@ -8501,13 +8497,13 @@
       </c>
       <c r="AS74" s="168"/>
       <c r="AT74" s="48"/>
-      <c r="AU74" s="196" t="s">
+      <c r="AU74" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AV74" s="197"/>
-      <c r="AW74" s="197"/>
-      <c r="AX74" s="197"/>
-      <c r="AY74" s="228"/>
+      <c r="AV74" s="208"/>
+      <c r="AW74" s="208"/>
+      <c r="AX74" s="208"/>
+      <c r="AY74" s="209"/>
       <c r="AZ74" s="49" t="s">
         <v>54</v>
       </c>
@@ -8553,36 +8549,36 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="191" t="s">
+      <c r="S75" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="T75" s="192"/>
-      <c r="U75" s="192"/>
-      <c r="V75" s="192"/>
-      <c r="W75" s="192"/>
-      <c r="X75" s="192"/>
-      <c r="Y75" s="192"/>
-      <c r="Z75" s="192"/>
+      <c r="T75" s="221"/>
+      <c r="U75" s="221"/>
+      <c r="V75" s="221"/>
+      <c r="W75" s="221"/>
+      <c r="X75" s="221"/>
+      <c r="Y75" s="221"/>
+      <c r="Z75" s="221"/>
       <c r="AA75" s="168"/>
-      <c r="AB75" s="191" t="s">
+      <c r="AB75" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AC75" s="192"/>
-      <c r="AD75" s="192"/>
-      <c r="AE75" s="192"/>
-      <c r="AF75" s="192"/>
-      <c r="AG75" s="192"/>
-      <c r="AH75" s="192"/>
-      <c r="AI75" s="192"/>
+      <c r="AC75" s="221"/>
+      <c r="AD75" s="221"/>
+      <c r="AE75" s="221"/>
+      <c r="AF75" s="221"/>
+      <c r="AG75" s="221"/>
+      <c r="AH75" s="221"/>
+      <c r="AI75" s="221"/>
       <c r="AJ75" s="168"/>
       <c r="AK75" s="46"/>
-      <c r="AL75" s="196" t="s">
+      <c r="AL75" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AM75" s="197"/>
-      <c r="AN75" s="197"/>
-      <c r="AO75" s="197"/>
-      <c r="AP75" s="197"/>
+      <c r="AM75" s="208"/>
+      <c r="AN75" s="208"/>
+      <c r="AO75" s="208"/>
+      <c r="AP75" s="208"/>
       <c r="AQ75" s="47" t="s">
         <v>54</v>
       </c>
@@ -8591,13 +8587,13 @@
       </c>
       <c r="AS75" s="168"/>
       <c r="AT75" s="48"/>
-      <c r="AU75" s="196" t="s">
+      <c r="AU75" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AV75" s="197"/>
-      <c r="AW75" s="197"/>
-      <c r="AX75" s="197"/>
-      <c r="AY75" s="228"/>
+      <c r="AV75" s="208"/>
+      <c r="AW75" s="208"/>
+      <c r="AX75" s="208"/>
+      <c r="AY75" s="209"/>
       <c r="AZ75" s="49" t="s">
         <v>54</v>
       </c>
@@ -8684,13 +8680,13 @@
       </c>
       <c r="AJ76" s="168"/>
       <c r="AK76" s="46"/>
-      <c r="AL76" s="196" t="s">
+      <c r="AL76" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AM76" s="197"/>
-      <c r="AN76" s="197"/>
-      <c r="AO76" s="197"/>
-      <c r="AP76" s="197"/>
+      <c r="AM76" s="208"/>
+      <c r="AN76" s="208"/>
+      <c r="AO76" s="208"/>
+      <c r="AP76" s="208"/>
       <c r="AQ76" s="47" t="s">
         <v>54</v>
       </c>
@@ -8699,13 +8695,13 @@
       </c>
       <c r="AS76" s="168"/>
       <c r="AT76" s="48"/>
-      <c r="AU76" s="196" t="s">
+      <c r="AU76" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AV76" s="197"/>
-      <c r="AW76" s="197"/>
-      <c r="AX76" s="197"/>
-      <c r="AY76" s="228"/>
+      <c r="AV76" s="208"/>
+      <c r="AW76" s="208"/>
+      <c r="AX76" s="208"/>
+      <c r="AY76" s="209"/>
       <c r="AZ76" s="49">
         <v>0</v>
       </c>
@@ -8764,33 +8760,33 @@
         <v>54</v>
       </c>
       <c r="AA77" s="168"/>
-      <c r="AB77" s="245">
+      <c r="AB77" s="197">
         <v>42887</v>
       </c>
-      <c r="AC77" s="246"/>
-      <c r="AD77" s="247"/>
-      <c r="AE77" s="248" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF77" s="249"/>
-      <c r="AG77" s="250">
+      <c r="AC77" s="198"/>
+      <c r="AD77" s="199"/>
+      <c r="AE77" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="201"/>
+      <c r="AG77" s="202">
         <v>10000</v>
       </c>
-      <c r="AH77" s="251" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI77" s="251">
+      <c r="AH77" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI77" s="203">
         <v>10000</v>
       </c>
       <c r="AJ77" s="168"/>
       <c r="AK77" s="46"/>
-      <c r="AL77" s="196" t="s">
+      <c r="AL77" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AM77" s="197"/>
-      <c r="AN77" s="197"/>
-      <c r="AO77" s="197"/>
-      <c r="AP77" s="197"/>
+      <c r="AM77" s="208"/>
+      <c r="AN77" s="208"/>
+      <c r="AO77" s="208"/>
+      <c r="AP77" s="208"/>
       <c r="AQ77" s="47" t="s">
         <v>54</v>
       </c>
@@ -8799,13 +8795,13 @@
       </c>
       <c r="AS77" s="168"/>
       <c r="AT77" s="48"/>
-      <c r="AU77" s="196" t="s">
+      <c r="AU77" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="AV77" s="197"/>
-      <c r="AW77" s="197"/>
-      <c r="AX77" s="197"/>
-      <c r="AY77" s="228"/>
+      <c r="AV77" s="208"/>
+      <c r="AW77" s="208"/>
+      <c r="AX77" s="208"/>
+      <c r="AY77" s="209"/>
       <c r="AZ77" s="49" t="s">
         <v>54</v>
       </c>
@@ -8882,13 +8878,13 @@
       </c>
       <c r="AJ78" s="168"/>
       <c r="AK78" s="46"/>
-      <c r="AL78" s="196" t="s">
+      <c r="AL78" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="AM78" s="197"/>
-      <c r="AN78" s="197"/>
-      <c r="AO78" s="197"/>
-      <c r="AP78" s="197"/>
+      <c r="AM78" s="208"/>
+      <c r="AN78" s="208"/>
+      <c r="AO78" s="208"/>
+      <c r="AP78" s="208"/>
       <c r="AQ78" s="47" t="s">
         <v>54</v>
       </c>
@@ -8897,13 +8893,13 @@
       </c>
       <c r="AS78" s="168"/>
       <c r="AT78" s="48"/>
-      <c r="AU78" s="225" t="s">
+      <c r="AU78" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="AV78" s="226"/>
-      <c r="AW78" s="226"/>
-      <c r="AX78" s="226"/>
-      <c r="AY78" s="227"/>
+      <c r="AV78" s="205"/>
+      <c r="AW78" s="205"/>
+      <c r="AX78" s="205"/>
+      <c r="AY78" s="206"/>
       <c r="AZ78" s="49">
         <v>0</v>
       </c>
@@ -8982,13 +8978,13 @@
       </c>
       <c r="AJ79" s="168"/>
       <c r="AK79" s="46"/>
-      <c r="AL79" s="196" t="s">
+      <c r="AL79" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="197"/>
-      <c r="AN79" s="197"/>
-      <c r="AO79" s="197"/>
-      <c r="AP79" s="197"/>
+      <c r="AM79" s="208"/>
+      <c r="AN79" s="208"/>
+      <c r="AO79" s="208"/>
+      <c r="AP79" s="208"/>
       <c r="AQ79" s="47" t="s">
         <v>54</v>
       </c>
@@ -8997,13 +8993,13 @@
       </c>
       <c r="AS79" s="168"/>
       <c r="AT79" s="48"/>
-      <c r="AU79" s="225" t="s">
+      <c r="AU79" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="AV79" s="226"/>
-      <c r="AW79" s="226"/>
-      <c r="AX79" s="226"/>
-      <c r="AY79" s="227"/>
+      <c r="AV79" s="205"/>
+      <c r="AW79" s="205"/>
+      <c r="AX79" s="205"/>
+      <c r="AY79" s="206"/>
       <c r="AZ79" s="49">
         <v>0</v>
       </c>
@@ -9080,13 +9076,13 @@
       </c>
       <c r="AJ80" s="168"/>
       <c r="AK80" s="46"/>
-      <c r="AL80" s="196" t="s">
+      <c r="AL80" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="AM80" s="197"/>
-      <c r="AN80" s="197"/>
-      <c r="AO80" s="197"/>
-      <c r="AP80" s="197"/>
+      <c r="AM80" s="208"/>
+      <c r="AN80" s="208"/>
+      <c r="AO80" s="208"/>
+      <c r="AP80" s="208"/>
       <c r="AQ80" s="47" t="s">
         <v>54</v>
       </c>
@@ -9095,13 +9091,13 @@
       </c>
       <c r="AS80" s="168"/>
       <c r="AT80" s="48"/>
-      <c r="AU80" s="225" t="s">
+      <c r="AU80" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AV80" s="226"/>
-      <c r="AW80" s="226"/>
-      <c r="AX80" s="226"/>
-      <c r="AY80" s="227"/>
+      <c r="AV80" s="205"/>
+      <c r="AW80" s="205"/>
+      <c r="AX80" s="205"/>
+      <c r="AY80" s="206"/>
       <c r="AZ80" s="49">
         <v>0</v>
       </c>
@@ -9166,13 +9162,13 @@
       <c r="AI81" s="155"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="46"/>
-      <c r="AL81" s="196" t="s">
+      <c r="AL81" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="AM81" s="197"/>
-      <c r="AN81" s="197"/>
-      <c r="AO81" s="197"/>
-      <c r="AP81" s="197"/>
+      <c r="AM81" s="208"/>
+      <c r="AN81" s="208"/>
+      <c r="AO81" s="208"/>
+      <c r="AP81" s="208"/>
       <c r="AQ81" s="47" t="s">
         <v>54</v>
       </c>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="AS81" s="168"/>
       <c r="AT81" s="48"/>
-      <c r="AU81" s="225" t="s">
+      <c r="AU81" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="AV81" s="226"/>
-      <c r="AW81" s="226"/>
-      <c r="AX81" s="226"/>
-      <c r="AY81" s="227"/>
+      <c r="AV81" s="205"/>
+      <c r="AW81" s="205"/>
+      <c r="AX81" s="205"/>
+      <c r="AY81" s="206"/>
       <c r="AZ81" s="49">
         <v>0</v>
       </c>
@@ -9328,27 +9324,27 @@
       </c>
       <c r="Q84" s="169"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="191" t="s">
+      <c r="S84" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="T84" s="192"/>
-      <c r="U84" s="192"/>
-      <c r="V84" s="192"/>
-      <c r="W84" s="192"/>
-      <c r="X84" s="192"/>
-      <c r="Y84" s="192"/>
-      <c r="Z84" s="192"/>
+      <c r="T84" s="221"/>
+      <c r="U84" s="221"/>
+      <c r="V84" s="221"/>
+      <c r="W84" s="221"/>
+      <c r="X84" s="221"/>
+      <c r="Y84" s="221"/>
+      <c r="Z84" s="221"/>
       <c r="AA84" s="168"/>
-      <c r="AB84" s="191" t="s">
+      <c r="AB84" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="AC84" s="192"/>
-      <c r="AD84" s="192"/>
-      <c r="AE84" s="192"/>
-      <c r="AF84" s="192"/>
-      <c r="AG84" s="192"/>
-      <c r="AH84" s="192"/>
-      <c r="AI84" s="192"/>
+      <c r="AC84" s="221"/>
+      <c r="AD84" s="221"/>
+      <c r="AE84" s="221"/>
+      <c r="AF84" s="221"/>
+      <c r="AG84" s="221"/>
+      <c r="AH84" s="221"/>
+      <c r="AI84" s="221"/>
       <c r="AJ84" s="168"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -9368,25 +9364,25 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="205" t="s">
+      <c r="BC84" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BD84" s="206"/>
-      <c r="BE84" s="206"/>
-      <c r="BF84" s="206"/>
-      <c r="BG84" s="206"/>
-      <c r="BH84" s="206"/>
-      <c r="BI84" s="207"/>
+      <c r="BD84" s="223"/>
+      <c r="BE84" s="223"/>
+      <c r="BF84" s="223"/>
+      <c r="BG84" s="223"/>
+      <c r="BH84" s="223"/>
+      <c r="BI84" s="224"/>
       <c r="BJ84" s="7"/>
-      <c r="BK84" s="205" t="s">
+      <c r="BK84" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BL84" s="206"/>
-      <c r="BM84" s="206"/>
-      <c r="BN84" s="206"/>
-      <c r="BO84" s="206"/>
-      <c r="BP84" s="206"/>
-      <c r="BQ84" s="207"/>
+      <c r="BL84" s="223"/>
+      <c r="BM84" s="223"/>
+      <c r="BN84" s="223"/>
+      <c r="BO84" s="223"/>
+      <c r="BP84" s="223"/>
+      <c r="BQ84" s="224"/>
     </row>
     <row r="85" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="14"/>
@@ -9466,25 +9462,25 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="217" t="s">
+      <c r="BC85" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="BD85" s="218"/>
-      <c r="BE85" s="218"/>
-      <c r="BF85" s="218"/>
-      <c r="BG85" s="218"/>
-      <c r="BH85" s="218"/>
-      <c r="BI85" s="219"/>
+      <c r="BD85" s="239"/>
+      <c r="BE85" s="239"/>
+      <c r="BF85" s="239"/>
+      <c r="BG85" s="239"/>
+      <c r="BH85" s="239"/>
+      <c r="BI85" s="240"/>
       <c r="BJ85" s="7"/>
-      <c r="BK85" s="217" t="s">
+      <c r="BK85" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="BL85" s="218"/>
-      <c r="BM85" s="218"/>
-      <c r="BN85" s="218"/>
-      <c r="BO85" s="218"/>
-      <c r="BP85" s="218"/>
-      <c r="BQ85" s="219"/>
+      <c r="BL85" s="239"/>
+      <c r="BM85" s="239"/>
+      <c r="BN85" s="239"/>
+      <c r="BO85" s="239"/>
+      <c r="BP85" s="239"/>
+      <c r="BQ85" s="240"/>
     </row>
     <row r="86" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="22"/>
@@ -9518,17 +9514,17 @@
       <c r="AB86" s="180">
         <v>42916</v>
       </c>
-      <c r="AC86" s="237"/>
-      <c r="AD86" s="238"/>
+      <c r="AC86" s="189"/>
+      <c r="AD86" s="190"/>
       <c r="AE86" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="AF86" s="239"/>
+      <c r="AF86" s="191"/>
       <c r="AG86" s="185"/>
-      <c r="AH86" s="240" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI86" s="240">
+      <c r="AH86" s="192" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI86" s="192">
         <v>3750</v>
       </c>
       <c r="AJ86" s="168"/>
@@ -9550,26 +9546,26 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="223" t="str">
+      <c r="BC86" s="230" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD86" s="224"/>
-      <c r="BE86" s="224"/>
-      <c r="BF86" s="224"/>
-      <c r="BG86" s="224"/>
-      <c r="BH86" s="224"/>
+      <c r="BD86" s="231"/>
+      <c r="BE86" s="231"/>
+      <c r="BF86" s="231"/>
+      <c r="BG86" s="231"/>
+      <c r="BH86" s="231"/>
       <c r="BI86" s="13"/>
       <c r="BJ86" s="7"/>
-      <c r="BK86" s="223" t="str">
+      <c r="BK86" s="230" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL86" s="224"/>
-      <c r="BM86" s="224"/>
-      <c r="BN86" s="224"/>
-      <c r="BO86" s="224"/>
-      <c r="BP86" s="224"/>
+      <c r="BL86" s="231"/>
+      <c r="BM86" s="231"/>
+      <c r="BN86" s="231"/>
+      <c r="BO86" s="231"/>
+      <c r="BP86" s="231"/>
       <c r="BQ86" s="13"/>
     </row>
     <row r="87" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9606,17 +9602,17 @@
       <c r="AB87" s="180">
         <v>42916</v>
       </c>
-      <c r="AC87" s="241"/>
-      <c r="AD87" s="242"/>
+      <c r="AC87" s="193"/>
+      <c r="AD87" s="194"/>
       <c r="AE87" s="183">
         <v>1200</v>
       </c>
-      <c r="AF87" s="239"/>
+      <c r="AF87" s="191"/>
       <c r="AG87" s="185"/>
-      <c r="AH87" s="243" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI87" s="243">
+      <c r="AH87" s="195" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI87" s="195">
         <v>2550</v>
       </c>
       <c r="AJ87" s="168"/>
@@ -9690,17 +9686,17 @@
       <c r="AB88" s="180">
         <v>42916</v>
       </c>
-      <c r="AC88" s="237"/>
-      <c r="AD88" s="238"/>
+      <c r="AC88" s="189"/>
+      <c r="AD88" s="190"/>
       <c r="AE88" s="183">
         <v>220</v>
       </c>
-      <c r="AF88" s="239"/>
+      <c r="AF88" s="191"/>
       <c r="AG88" s="185"/>
-      <c r="AH88" s="244" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI88" s="244">
+      <c r="AH88" s="196" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI88" s="196">
         <v>2330</v>
       </c>
       <c r="AJ88" s="168"/>
@@ -9776,17 +9772,17 @@
       <c r="AB89" s="180">
         <v>42916</v>
       </c>
-      <c r="AC89" s="237"/>
-      <c r="AD89" s="238"/>
+      <c r="AC89" s="189"/>
+      <c r="AD89" s="190"/>
       <c r="AE89" s="183">
         <v>175</v>
       </c>
-      <c r="AF89" s="239"/>
+      <c r="AF89" s="191"/>
       <c r="AG89" s="185"/>
-      <c r="AH89" s="244" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI89" s="244">
+      <c r="AH89" s="196" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI89" s="196">
         <v>2155</v>
       </c>
       <c r="AJ89" s="168"/>
@@ -9860,17 +9856,17 @@
       <c r="AB90" s="180">
         <v>42916</v>
       </c>
-      <c r="AC90" s="237"/>
-      <c r="AD90" s="238"/>
+      <c r="AC90" s="189"/>
+      <c r="AD90" s="190"/>
       <c r="AE90" s="183">
         <v>50</v>
       </c>
-      <c r="AF90" s="239"/>
+      <c r="AF90" s="191"/>
       <c r="AG90" s="185"/>
-      <c r="AH90" s="244" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI90" s="244">
+      <c r="AH90" s="196" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI90" s="196">
         <v>2105</v>
       </c>
       <c r="AJ90" s="168"/>
@@ -9946,17 +9942,17 @@
       <c r="AB91" s="180">
         <v>42916</v>
       </c>
-      <c r="AC91" s="237"/>
-      <c r="AD91" s="238"/>
+      <c r="AC91" s="189"/>
+      <c r="AD91" s="190"/>
       <c r="AE91" s="183">
         <v>700</v>
       </c>
-      <c r="AF91" s="239"/>
+      <c r="AF91" s="191"/>
       <c r="AG91" s="185"/>
-      <c r="AH91" s="244" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI91" s="244">
+      <c r="AH91" s="196" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI91" s="196">
         <v>1405</v>
       </c>
       <c r="AJ91" s="168"/>
@@ -10474,25 +10470,25 @@
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
-      <c r="BC97" s="205" t="s">
+      <c r="BC97" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BD97" s="206"/>
-      <c r="BE97" s="206"/>
-      <c r="BF97" s="206"/>
-      <c r="BG97" s="206"/>
-      <c r="BH97" s="206"/>
-      <c r="BI97" s="207"/>
+      <c r="BD97" s="223"/>
+      <c r="BE97" s="223"/>
+      <c r="BF97" s="223"/>
+      <c r="BG97" s="223"/>
+      <c r="BH97" s="223"/>
+      <c r="BI97" s="224"/>
       <c r="BJ97" s="7"/>
-      <c r="BK97" s="205" t="s">
+      <c r="BK97" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="BL97" s="206"/>
-      <c r="BM97" s="206"/>
-      <c r="BN97" s="206"/>
-      <c r="BO97" s="206"/>
-      <c r="BP97" s="206"/>
-      <c r="BQ97" s="207"/>
+      <c r="BL97" s="223"/>
+      <c r="BM97" s="223"/>
+      <c r="BN97" s="223"/>
+      <c r="BO97" s="223"/>
+      <c r="BP97" s="223"/>
+      <c r="BQ97" s="224"/>
     </row>
     <row r="98" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="22"/>
@@ -10562,25 +10558,25 @@
       <c r="AZ98" s="3"/>
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
-      <c r="BC98" s="199" t="s">
+      <c r="BC98" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="BD98" s="200"/>
-      <c r="BE98" s="200"/>
-      <c r="BF98" s="200"/>
-      <c r="BG98" s="200"/>
-      <c r="BH98" s="200"/>
-      <c r="BI98" s="201"/>
+      <c r="BD98" s="236"/>
+      <c r="BE98" s="236"/>
+      <c r="BF98" s="236"/>
+      <c r="BG98" s="236"/>
+      <c r="BH98" s="236"/>
+      <c r="BI98" s="237"/>
       <c r="BJ98" s="7"/>
-      <c r="BK98" s="199" t="s">
+      <c r="BK98" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="BL98" s="200"/>
-      <c r="BM98" s="200"/>
-      <c r="BN98" s="200"/>
-      <c r="BO98" s="200"/>
-      <c r="BP98" s="200"/>
-      <c r="BQ98" s="201"/>
+      <c r="BL98" s="236"/>
+      <c r="BM98" s="236"/>
+      <c r="BN98" s="236"/>
+      <c r="BO98" s="236"/>
+      <c r="BP98" s="236"/>
+      <c r="BQ98" s="237"/>
     </row>
     <row r="99" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="40"/>
@@ -10650,27 +10646,27 @@
       <c r="AZ99" s="3"/>
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
-      <c r="BC99" s="202" t="str">
+      <c r="BC99" s="243" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BD99" s="203"/>
-      <c r="BE99" s="203"/>
-      <c r="BF99" s="203"/>
-      <c r="BG99" s="203"/>
-      <c r="BH99" s="203"/>
-      <c r="BI99" s="204"/>
+      <c r="BD99" s="244"/>
+      <c r="BE99" s="244"/>
+      <c r="BF99" s="244"/>
+      <c r="BG99" s="244"/>
+      <c r="BH99" s="244"/>
+      <c r="BI99" s="245"/>
       <c r="BJ99" s="7"/>
-      <c r="BK99" s="202" t="str">
+      <c r="BK99" s="243" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BL99" s="203"/>
-      <c r="BM99" s="203"/>
-      <c r="BN99" s="203"/>
-      <c r="BO99" s="203"/>
-      <c r="BP99" s="203"/>
-      <c r="BQ99" s="204"/>
+      <c r="BL99" s="244"/>
+      <c r="BM99" s="244"/>
+      <c r="BN99" s="244"/>
+      <c r="BO99" s="244"/>
+      <c r="BP99" s="244"/>
+      <c r="BQ99" s="245"/>
     </row>
     <row r="100" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="22"/>
@@ -10910,27 +10906,27 @@
       </c>
       <c r="Q103" s="165"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="191" t="s">
+      <c r="S103" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="T103" s="192"/>
-      <c r="U103" s="192"/>
-      <c r="V103" s="192"/>
-      <c r="W103" s="192"/>
-      <c r="X103" s="192"/>
-      <c r="Y103" s="192"/>
-      <c r="Z103" s="192"/>
+      <c r="T103" s="221"/>
+      <c r="U103" s="221"/>
+      <c r="V103" s="221"/>
+      <c r="W103" s="221"/>
+      <c r="X103" s="221"/>
+      <c r="Y103" s="221"/>
+      <c r="Z103" s="221"/>
       <c r="AA103" s="168"/>
-      <c r="AB103" s="191" t="s">
+      <c r="AB103" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="192"/>
-      <c r="AD103" s="192"/>
-      <c r="AE103" s="192"/>
-      <c r="AF103" s="192"/>
-      <c r="AG103" s="192"/>
-      <c r="AH103" s="192"/>
-      <c r="AI103" s="192"/>
+      <c r="AC103" s="221"/>
+      <c r="AD103" s="221"/>
+      <c r="AE103" s="221"/>
+      <c r="AF103" s="221"/>
+      <c r="AG103" s="221"/>
+      <c r="AH103" s="221"/>
+      <c r="AI103" s="221"/>
       <c r="AJ103" s="168"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
@@ -11682,27 +11678,27 @@
     </row>
     <row r="114" spans="18:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="58"/>
-      <c r="S114" s="191" t="s">
+      <c r="S114" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="T114" s="192"/>
-      <c r="U114" s="192"/>
-      <c r="V114" s="192"/>
-      <c r="W114" s="192"/>
-      <c r="X114" s="192"/>
-      <c r="Y114" s="192"/>
-      <c r="Z114" s="192"/>
+      <c r="T114" s="221"/>
+      <c r="U114" s="221"/>
+      <c r="V114" s="221"/>
+      <c r="W114" s="221"/>
+      <c r="X114" s="221"/>
+      <c r="Y114" s="221"/>
+      <c r="Z114" s="221"/>
       <c r="AA114" s="168"/>
-      <c r="AB114" s="191" t="s">
+      <c r="AB114" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="AC114" s="192"/>
-      <c r="AD114" s="192"/>
-      <c r="AE114" s="192"/>
-      <c r="AF114" s="192"/>
-      <c r="AG114" s="192"/>
-      <c r="AH114" s="192"/>
-      <c r="AI114" s="192"/>
+      <c r="AC114" s="221"/>
+      <c r="AD114" s="221"/>
+      <c r="AE114" s="221"/>
+      <c r="AF114" s="221"/>
+      <c r="AG114" s="221"/>
+      <c r="AH114" s="221"/>
+      <c r="AI114" s="221"/>
       <c r="AJ114" s="168"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
@@ -12523,27 +12519,27 @@
     </row>
     <row r="131" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R131" s="58"/>
-      <c r="S131" s="191" t="s">
+      <c r="S131" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="192"/>
-      <c r="U131" s="192"/>
-      <c r="V131" s="192"/>
-      <c r="W131" s="192"/>
-      <c r="X131" s="192"/>
-      <c r="Y131" s="192"/>
-      <c r="Z131" s="192"/>
+      <c r="T131" s="221"/>
+      <c r="U131" s="221"/>
+      <c r="V131" s="221"/>
+      <c r="W131" s="221"/>
+      <c r="X131" s="221"/>
+      <c r="Y131" s="221"/>
+      <c r="Z131" s="221"/>
       <c r="AA131" s="168"/>
-      <c r="AB131" s="191" t="s">
+      <c r="AB131" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AC131" s="192"/>
-      <c r="AD131" s="192"/>
-      <c r="AE131" s="192"/>
-      <c r="AF131" s="192"/>
-      <c r="AG131" s="192"/>
-      <c r="AH131" s="192"/>
-      <c r="AI131" s="192"/>
+      <c r="AC131" s="221"/>
+      <c r="AD131" s="221"/>
+      <c r="AE131" s="221"/>
+      <c r="AF131" s="221"/>
+      <c r="AG131" s="221"/>
+      <c r="AH131" s="221"/>
+      <c r="AI131" s="221"/>
       <c r="AJ131" s="168"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
@@ -13156,27 +13152,27 @@
     </row>
     <row r="144" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R144" s="17"/>
-      <c r="S144" s="191" t="s">
+      <c r="S144" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="T144" s="192"/>
-      <c r="U144" s="192"/>
-      <c r="V144" s="192"/>
-      <c r="W144" s="192"/>
-      <c r="X144" s="192"/>
-      <c r="Y144" s="192"/>
-      <c r="Z144" s="192"/>
+      <c r="T144" s="221"/>
+      <c r="U144" s="221"/>
+      <c r="V144" s="221"/>
+      <c r="W144" s="221"/>
+      <c r="X144" s="221"/>
+      <c r="Y144" s="221"/>
+      <c r="Z144" s="221"/>
       <c r="AA144" s="168"/>
-      <c r="AB144" s="191" t="s">
+      <c r="AB144" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="AC144" s="192"/>
-      <c r="AD144" s="192"/>
-      <c r="AE144" s="192"/>
-      <c r="AF144" s="192"/>
-      <c r="AG144" s="192"/>
-      <c r="AH144" s="192"/>
-      <c r="AI144" s="192"/>
+      <c r="AC144" s="221"/>
+      <c r="AD144" s="221"/>
+      <c r="AE144" s="221"/>
+      <c r="AF144" s="221"/>
+      <c r="AG144" s="221"/>
+      <c r="AH144" s="221"/>
+      <c r="AI144" s="221"/>
       <c r="AJ144" s="168"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
@@ -13895,27 +13891,27 @@
     </row>
     <row r="159" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R159" s="4"/>
-      <c r="S159" s="191" t="s">
+      <c r="S159" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="T159" s="192"/>
-      <c r="U159" s="192"/>
-      <c r="V159" s="192"/>
-      <c r="W159" s="192"/>
-      <c r="X159" s="192"/>
-      <c r="Y159" s="192"/>
-      <c r="Z159" s="192"/>
+      <c r="T159" s="221"/>
+      <c r="U159" s="221"/>
+      <c r="V159" s="221"/>
+      <c r="W159" s="221"/>
+      <c r="X159" s="221"/>
+      <c r="Y159" s="221"/>
+      <c r="Z159" s="221"/>
       <c r="AA159" s="168"/>
-      <c r="AB159" s="191" t="s">
+      <c r="AB159" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="AC159" s="192"/>
-      <c r="AD159" s="192"/>
-      <c r="AE159" s="192"/>
-      <c r="AF159" s="192"/>
-      <c r="AG159" s="192"/>
-      <c r="AH159" s="192"/>
-      <c r="AI159" s="192"/>
+      <c r="AC159" s="221"/>
+      <c r="AD159" s="221"/>
+      <c r="AE159" s="221"/>
+      <c r="AF159" s="221"/>
+      <c r="AG159" s="221"/>
+      <c r="AH159" s="221"/>
+      <c r="AI159" s="221"/>
       <c r="AJ159" s="168"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
@@ -14420,27 +14416,27 @@
     </row>
     <row r="170" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R170" s="17"/>
-      <c r="S170" s="191" t="s">
+      <c r="S170" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="T170" s="192"/>
-      <c r="U170" s="192"/>
-      <c r="V170" s="192"/>
-      <c r="W170" s="192"/>
-      <c r="X170" s="192"/>
-      <c r="Y170" s="192"/>
-      <c r="Z170" s="192"/>
+      <c r="T170" s="221"/>
+      <c r="U170" s="221"/>
+      <c r="V170" s="221"/>
+      <c r="W170" s="221"/>
+      <c r="X170" s="221"/>
+      <c r="Y170" s="221"/>
+      <c r="Z170" s="221"/>
       <c r="AA170" s="1"/>
-      <c r="AB170" s="191" t="s">
+      <c r="AB170" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="AC170" s="192"/>
-      <c r="AD170" s="192"/>
-      <c r="AE170" s="192"/>
-      <c r="AF170" s="192"/>
-      <c r="AG170" s="192"/>
-      <c r="AH170" s="192"/>
-      <c r="AI170" s="192"/>
+      <c r="AC170" s="221"/>
+      <c r="AD170" s="221"/>
+      <c r="AE170" s="221"/>
+      <c r="AF170" s="221"/>
+      <c r="AG170" s="221"/>
+      <c r="AH170" s="221"/>
+      <c r="AI170" s="221"/>
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
@@ -14953,14 +14949,14 @@
     </row>
     <row r="183" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R183" s="17"/>
-      <c r="S183" s="230"/>
-      <c r="T183" s="230"/>
-      <c r="U183" s="230"/>
-      <c r="V183" s="230"/>
-      <c r="W183" s="230"/>
-      <c r="X183" s="230"/>
-      <c r="Y183" s="230"/>
-      <c r="Z183" s="230"/>
+      <c r="S183" s="241"/>
+      <c r="T183" s="241"/>
+      <c r="U183" s="241"/>
+      <c r="V183" s="241"/>
+      <c r="W183" s="241"/>
+      <c r="X183" s="241"/>
+      <c r="Y183" s="241"/>
+      <c r="Z183" s="241"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
@@ -14992,14 +14988,14 @@
     </row>
     <row r="184" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R184" s="17"/>
-      <c r="S184" s="230"/>
-      <c r="T184" s="230"/>
-      <c r="U184" s="230"/>
-      <c r="V184" s="230"/>
-      <c r="W184" s="230"/>
-      <c r="X184" s="230"/>
-      <c r="Y184" s="230"/>
-      <c r="Z184" s="230"/>
+      <c r="S184" s="241"/>
+      <c r="T184" s="241"/>
+      <c r="U184" s="241"/>
+      <c r="V184" s="241"/>
+      <c r="W184" s="241"/>
+      <c r="X184" s="241"/>
+      <c r="Y184" s="241"/>
+      <c r="Z184" s="241"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -15031,23 +15027,23 @@
     </row>
     <row r="185" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R185" s="17"/>
-      <c r="S185" s="230"/>
-      <c r="T185" s="230"/>
-      <c r="U185" s="230"/>
-      <c r="V185" s="230"/>
-      <c r="W185" s="230"/>
-      <c r="X185" s="230"/>
-      <c r="Y185" s="230"/>
-      <c r="Z185" s="230"/>
+      <c r="S185" s="241"/>
+      <c r="T185" s="241"/>
+      <c r="U185" s="241"/>
+      <c r="V185" s="241"/>
+      <c r="W185" s="241"/>
+      <c r="X185" s="241"/>
+      <c r="Y185" s="241"/>
+      <c r="Z185" s="241"/>
       <c r="AA185" s="1"/>
-      <c r="AB185" s="231"/>
-      <c r="AC185" s="231"/>
-      <c r="AD185" s="231"/>
-      <c r="AE185" s="231"/>
-      <c r="AF185" s="231"/>
-      <c r="AG185" s="231"/>
-      <c r="AH185" s="231"/>
-      <c r="AI185" s="231"/>
+      <c r="AB185" s="242"/>
+      <c r="AC185" s="242"/>
+      <c r="AD185" s="242"/>
+      <c r="AE185" s="242"/>
+      <c r="AF185" s="242"/>
+      <c r="AG185" s="242"/>
+      <c r="AH185" s="242"/>
+      <c r="AI185" s="242"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
@@ -15070,14 +15066,14 @@
     </row>
     <row r="186" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R186" s="17"/>
-      <c r="S186" s="230"/>
-      <c r="T186" s="230"/>
-      <c r="U186" s="230"/>
-      <c r="V186" s="230"/>
-      <c r="W186" s="230"/>
-      <c r="X186" s="230"/>
-      <c r="Y186" s="230"/>
-      <c r="Z186" s="230"/>
+      <c r="S186" s="241"/>
+      <c r="T186" s="241"/>
+      <c r="U186" s="241"/>
+      <c r="V186" s="241"/>
+      <c r="W186" s="241"/>
+      <c r="X186" s="241"/>
+      <c r="Y186" s="241"/>
+      <c r="Z186" s="241"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="128"/>
       <c r="AC186" s="128"/>
@@ -15109,14 +15105,14 @@
     </row>
     <row r="187" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R187" s="1"/>
-      <c r="S187" s="230"/>
-      <c r="T187" s="230"/>
-      <c r="U187" s="230"/>
-      <c r="V187" s="230"/>
-      <c r="W187" s="230"/>
-      <c r="X187" s="230"/>
-      <c r="Y187" s="230"/>
-      <c r="Z187" s="230"/>
+      <c r="S187" s="241"/>
+      <c r="T187" s="241"/>
+      <c r="U187" s="241"/>
+      <c r="V187" s="241"/>
+      <c r="W187" s="241"/>
+      <c r="X187" s="241"/>
+      <c r="Y187" s="241"/>
+      <c r="Z187" s="241"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
@@ -15148,14 +15144,14 @@
     </row>
     <row r="188" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R188" s="1"/>
-      <c r="S188" s="230"/>
-      <c r="T188" s="230"/>
-      <c r="U188" s="230"/>
-      <c r="V188" s="230"/>
-      <c r="W188" s="230"/>
-      <c r="X188" s="230"/>
-      <c r="Y188" s="230"/>
-      <c r="Z188" s="230"/>
+      <c r="S188" s="241"/>
+      <c r="T188" s="241"/>
+      <c r="U188" s="241"/>
+      <c r="V188" s="241"/>
+      <c r="W188" s="241"/>
+      <c r="X188" s="241"/>
+      <c r="Y188" s="241"/>
+      <c r="Z188" s="241"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -20725,47 +20721,117 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="AU81:AY81"/>
-    <mergeCell ref="AU80:AY80"/>
-    <mergeCell ref="AU79:AY79"/>
-    <mergeCell ref="AU76:AY76"/>
-    <mergeCell ref="AU75:AY75"/>
-    <mergeCell ref="AU74:AY74"/>
-    <mergeCell ref="AU73:AY73"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="AU70:AY70"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="AL81:AP81"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AT51:BA51"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AK68:AR68"/>
-    <mergeCell ref="AK69:AR69"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AL29:AP29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AU45:AY45"/>
-    <mergeCell ref="AU44:AY44"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AU41:AY41"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="AU77:AY77"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AU78:AY78"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AL21:AP21"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="AL23:AP23"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AB44:AI44"/>
+    <mergeCell ref="AK34:AR34"/>
+    <mergeCell ref="BC48:BI48"/>
+    <mergeCell ref="BK48:BQ48"/>
+    <mergeCell ref="BC49:BI49"/>
+    <mergeCell ref="BK49:BQ49"/>
+    <mergeCell ref="BC47:BI47"/>
+    <mergeCell ref="BK47:BQ47"/>
+    <mergeCell ref="AK52:AR52"/>
+    <mergeCell ref="AT52:BA52"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AU53:AY53"/>
+    <mergeCell ref="BK67:BQ67"/>
+    <mergeCell ref="BC68:BI68"/>
+    <mergeCell ref="BK68:BQ68"/>
+    <mergeCell ref="BC69:BH69"/>
+    <mergeCell ref="BK69:BP69"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="AU63:AY63"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="AB59:AI59"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AU61:AY61"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AU62:AY62"/>
+    <mergeCell ref="AT69:BA69"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="AU64:AY64"/>
+    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="AL59:AP59"/>
+    <mergeCell ref="AB103:AI103"/>
+    <mergeCell ref="BC98:BI98"/>
+    <mergeCell ref="BC99:BI99"/>
+    <mergeCell ref="BK97:BQ97"/>
+    <mergeCell ref="BK98:BQ98"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="AB84:AI84"/>
+    <mergeCell ref="BK99:BQ99"/>
+    <mergeCell ref="BK84:BQ84"/>
+    <mergeCell ref="BK85:BQ85"/>
+    <mergeCell ref="BK86:BP86"/>
+    <mergeCell ref="BC84:BI84"/>
+    <mergeCell ref="BC85:BI85"/>
+    <mergeCell ref="BC86:BH86"/>
+    <mergeCell ref="BC97:BI97"/>
+    <mergeCell ref="BC16:BI16"/>
+    <mergeCell ref="BK16:BQ16"/>
+    <mergeCell ref="BC17:BI17"/>
+    <mergeCell ref="BK17:BQ17"/>
+    <mergeCell ref="BC18:BI18"/>
+    <mergeCell ref="BK18:BQ18"/>
+    <mergeCell ref="S188:Z188"/>
+    <mergeCell ref="S185:Z185"/>
+    <mergeCell ref="AB185:AI185"/>
+    <mergeCell ref="S186:Z186"/>
+    <mergeCell ref="S187:Z187"/>
+    <mergeCell ref="S183:Z183"/>
+    <mergeCell ref="S184:Z184"/>
+    <mergeCell ref="S170:Z170"/>
+    <mergeCell ref="AB170:AI170"/>
+    <mergeCell ref="S159:Z159"/>
+    <mergeCell ref="AB159:AI159"/>
+    <mergeCell ref="S144:Z144"/>
+    <mergeCell ref="AB144:AI144"/>
+    <mergeCell ref="S131:Z131"/>
+    <mergeCell ref="AB131:AI131"/>
+    <mergeCell ref="S114:Z114"/>
+    <mergeCell ref="AB114:AI114"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="BK19:BQ19"/>
+    <mergeCell ref="AK35:AR35"/>
+    <mergeCell ref="AT35:BA35"/>
+    <mergeCell ref="AK36:AP36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="AU43:AY43"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AL28:AP28"/>
+    <mergeCell ref="BC19:BH19"/>
+    <mergeCell ref="AL30:AP30"/>
+    <mergeCell ref="AL41:AP41"/>
+    <mergeCell ref="AL42:AP42"/>
+    <mergeCell ref="BK34:BQ34"/>
+    <mergeCell ref="BK35:BQ35"/>
+    <mergeCell ref="BK36:BQ36"/>
+    <mergeCell ref="BC34:BI34"/>
+    <mergeCell ref="BC35:BI35"/>
+    <mergeCell ref="BC36:BI36"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AU47:AY47"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AU38:AY38"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="AL44:AP44"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="AL46:AP46"/>
     <mergeCell ref="S75:Z75"/>
     <mergeCell ref="AB75:AI75"/>
     <mergeCell ref="BC67:BI67"/>
@@ -20790,118 +20856,48 @@
     <mergeCell ref="AK19:AP19"/>
     <mergeCell ref="AU19:AY19"/>
     <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AU22:AY22"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="AU47:AY47"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AU38:AY38"/>
-    <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AU39:AY39"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AU40:AY40"/>
-    <mergeCell ref="BK19:BQ19"/>
-    <mergeCell ref="AK35:AR35"/>
-    <mergeCell ref="AT35:BA35"/>
-    <mergeCell ref="AK36:AP36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="AU43:AY43"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AL28:AP28"/>
-    <mergeCell ref="BC19:BH19"/>
-    <mergeCell ref="BC16:BI16"/>
-    <mergeCell ref="BK16:BQ16"/>
-    <mergeCell ref="BC17:BI17"/>
-    <mergeCell ref="BK17:BQ17"/>
-    <mergeCell ref="BC18:BI18"/>
-    <mergeCell ref="BK18:BQ18"/>
-    <mergeCell ref="S188:Z188"/>
-    <mergeCell ref="S185:Z185"/>
-    <mergeCell ref="AB185:AI185"/>
-    <mergeCell ref="S186:Z186"/>
-    <mergeCell ref="S187:Z187"/>
-    <mergeCell ref="S183:Z183"/>
-    <mergeCell ref="S184:Z184"/>
-    <mergeCell ref="S170:Z170"/>
-    <mergeCell ref="AB170:AI170"/>
-    <mergeCell ref="S159:Z159"/>
-    <mergeCell ref="AB159:AI159"/>
-    <mergeCell ref="S144:Z144"/>
-    <mergeCell ref="AB144:AI144"/>
-    <mergeCell ref="S131:Z131"/>
-    <mergeCell ref="AB131:AI131"/>
-    <mergeCell ref="S114:Z114"/>
-    <mergeCell ref="AB114:AI114"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="AB103:AI103"/>
-    <mergeCell ref="BC98:BI98"/>
-    <mergeCell ref="BC99:BI99"/>
-    <mergeCell ref="BK97:BQ97"/>
-    <mergeCell ref="BK98:BQ98"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="AB84:AI84"/>
-    <mergeCell ref="BK99:BQ99"/>
-    <mergeCell ref="BK84:BQ84"/>
-    <mergeCell ref="BK85:BQ85"/>
-    <mergeCell ref="BK86:BP86"/>
-    <mergeCell ref="BC84:BI84"/>
-    <mergeCell ref="BC85:BI85"/>
-    <mergeCell ref="BC86:BH86"/>
-    <mergeCell ref="BC97:BI97"/>
-    <mergeCell ref="BK67:BQ67"/>
-    <mergeCell ref="BC68:BI68"/>
-    <mergeCell ref="BK68:BQ68"/>
-    <mergeCell ref="BC69:BH69"/>
-    <mergeCell ref="BK69:BP69"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="AU63:AY63"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="AB59:AI59"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AU61:AY61"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AU62:AY62"/>
-    <mergeCell ref="AT69:BA69"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="AU64:AY64"/>
-    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AK51:AR51"/>
+    <mergeCell ref="AT51:BA51"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AT34:BA34"/>
+    <mergeCell ref="AU46:AY46"/>
     <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL59:AP59"/>
-    <mergeCell ref="AL30:AP30"/>
-    <mergeCell ref="AL41:AP41"/>
-    <mergeCell ref="AL42:AP42"/>
-    <mergeCell ref="AL44:AP44"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="BC48:BI48"/>
-    <mergeCell ref="BK48:BQ48"/>
-    <mergeCell ref="BC49:BI49"/>
-    <mergeCell ref="BK49:BQ49"/>
-    <mergeCell ref="BC47:BI47"/>
-    <mergeCell ref="BK47:BQ47"/>
-    <mergeCell ref="AK52:AR52"/>
-    <mergeCell ref="AT52:BA52"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="BK34:BQ34"/>
-    <mergeCell ref="BK35:BQ35"/>
-    <mergeCell ref="BK36:BQ36"/>
-    <mergeCell ref="BC34:BI34"/>
-    <mergeCell ref="BC35:BI35"/>
-    <mergeCell ref="BC36:BI36"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AL21:AP21"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="AL23:AP23"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AB44:AI44"/>
-    <mergeCell ref="AK34:AR34"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="AL81:AP81"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AU81:AY81"/>
+    <mergeCell ref="AU80:AY80"/>
+    <mergeCell ref="AU79:AY79"/>
+    <mergeCell ref="AU76:AY76"/>
+    <mergeCell ref="AU75:AY75"/>
+    <mergeCell ref="AU74:AY74"/>
+    <mergeCell ref="AU73:AY73"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="AU70:AY70"/>
+    <mergeCell ref="AU77:AY77"/>
+    <mergeCell ref="AU78:AY78"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72" xr:uid="{00000000-0002-0000-0000-000000000000}"/>

--- a/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
+++ b/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Documents\Comprehensive\Approach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Documents\Comprehensive\Approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637748B1-6152-4208-B162-C4D6A9F3BBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Compro Comp Problem 1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ranu Aggarwal</author>
   </authors>
   <commentList>
-    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{B2BBC582-3BD4-4334-9018-A86C35778496}">
+    <comment ref="E43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M67" authorId="0" shapeId="0" xr:uid="{83361689-6527-4D4C-AB79-F40A8083D8A6}">
+    <comment ref="M67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB77" authorId="0" shapeId="0" xr:uid="{67FD9FC1-F952-4887-9072-8514DB8CBEDB}">
+    <comment ref="AB77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB91" authorId="0" shapeId="0" xr:uid="{FC539D55-4ECA-4782-92C0-A15FD2DAE975}">
+    <comment ref="AB91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="123">
   <si>
     <t>Chart of Accounts</t>
   </si>
@@ -505,39 +504,19 @@
     <t>INSTRUCTIONS - JULY</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">STS receives a check from Carolina Corp. for $450 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>for the 6/9 invoice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>STS receives a check from Carolina Corp. for $450 for the 6/9 invoice.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,8 +662,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,12 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +958,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1662,112 +1641,108 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1782,170 +1757,66 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1958,12 +1829,69 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2274,11 +2202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BQ330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB107" sqref="AB107:AI107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,82 +2948,82 @@
       <c r="D16" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="225" t="s">
+      <c r="H16" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="225"/>
-      <c r="J16" s="225"/>
-      <c r="K16" s="225"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="225" t="s">
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="225"/>
-      <c r="O16" s="225"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="225"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="225" t="s">
+      <c r="S16" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="225"/>
-      <c r="U16" s="225"/>
-      <c r="V16" s="225"/>
-      <c r="W16" s="225"/>
-      <c r="X16" s="225"/>
-      <c r="Y16" s="225"/>
+      <c r="T16" s="180"/>
+      <c r="U16" s="180"/>
+      <c r="V16" s="180"/>
+      <c r="W16" s="180"/>
+      <c r="X16" s="180"/>
+      <c r="Y16" s="180"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="225" t="s">
+      <c r="AB16" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="225"/>
-      <c r="AD16" s="225"/>
-      <c r="AE16" s="225"/>
-      <c r="AF16" s="225"/>
-      <c r="AG16" s="225"/>
-      <c r="AH16" s="225"/>
+      <c r="AC16" s="180"/>
+      <c r="AD16" s="180"/>
+      <c r="AE16" s="180"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="180"/>
+      <c r="AH16" s="180"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="225" t="s">
+      <c r="AK16" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="AL16" s="225"/>
-      <c r="AM16" s="225"/>
-      <c r="AN16" s="225"/>
-      <c r="AO16" s="225"/>
-      <c r="AP16" s="225"/>
-      <c r="AQ16" s="225"/>
+      <c r="AL16" s="180"/>
+      <c r="AM16" s="180"/>
+      <c r="AN16" s="180"/>
+      <c r="AO16" s="180"/>
+      <c r="AP16" s="180"/>
+      <c r="AQ16" s="180"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="225" t="s">
+      <c r="AT16" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="AU16" s="225"/>
-      <c r="AV16" s="225"/>
-      <c r="AW16" s="225"/>
-      <c r="AX16" s="225"/>
-      <c r="AY16" s="225"/>
-      <c r="AZ16" s="225"/>
+      <c r="AU16" s="180"/>
+      <c r="AV16" s="180"/>
+      <c r="AW16" s="180"/>
+      <c r="AX16" s="180"/>
+      <c r="AY16" s="180"/>
+      <c r="AZ16" s="180"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="225" t="s">
+      <c r="BC16" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="BD16" s="225"/>
-      <c r="BE16" s="225"/>
-      <c r="BF16" s="225"/>
-      <c r="BG16" s="225"/>
-      <c r="BH16" s="225"/>
-      <c r="BI16" s="225"/>
+      <c r="BD16" s="180"/>
+      <c r="BE16" s="180"/>
+      <c r="BF16" s="180"/>
+      <c r="BG16" s="180"/>
+      <c r="BH16" s="180"/>
+      <c r="BI16" s="180"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="225" t="s">
+      <c r="BK16" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="BL16" s="225"/>
-      <c r="BM16" s="225"/>
-      <c r="BN16" s="225"/>
-      <c r="BO16" s="225"/>
-      <c r="BP16" s="225"/>
-      <c r="BQ16" s="225"/>
+      <c r="BL16" s="180"/>
+      <c r="BM16" s="180"/>
+      <c r="BN16" s="180"/>
+      <c r="BO16" s="180"/>
+      <c r="BP16" s="180"/>
+      <c r="BQ16" s="180"/>
     </row>
     <row r="17" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="170">
@@ -3132,69 +3060,69 @@
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="220" t="s">
+      <c r="S17" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="221"/>
-      <c r="U17" s="221"/>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="221"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
       <c r="AA17" s="168"/>
-      <c r="AB17" s="220" t="s">
+      <c r="AB17" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="221"/>
-      <c r="AF17" s="221"/>
-      <c r="AG17" s="221"/>
-      <c r="AH17" s="221"/>
-      <c r="AI17" s="221"/>
+      <c r="AC17" s="179"/>
+      <c r="AD17" s="179"/>
+      <c r="AE17" s="179"/>
+      <c r="AF17" s="179"/>
+      <c r="AG17" s="179"/>
+      <c r="AH17" s="179"/>
+      <c r="AI17" s="179"/>
       <c r="AJ17" s="168"/>
-      <c r="AK17" s="217" t="s">
+      <c r="AK17" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AL17" s="217"/>
-      <c r="AM17" s="217"/>
-      <c r="AN17" s="217"/>
-      <c r="AO17" s="217"/>
-      <c r="AP17" s="217"/>
-      <c r="AQ17" s="217"/>
-      <c r="AR17" s="217"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="185"/>
+      <c r="AN17" s="185"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="185"/>
       <c r="AS17" s="168"/>
-      <c r="AT17" s="217" t="s">
+      <c r="AT17" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AU17" s="217"/>
-      <c r="AV17" s="217"/>
-      <c r="AW17" s="217"/>
-      <c r="AX17" s="217"/>
-      <c r="AY17" s="217"/>
-      <c r="AZ17" s="217"/>
-      <c r="BA17" s="218"/>
+      <c r="AU17" s="185"/>
+      <c r="AV17" s="185"/>
+      <c r="AW17" s="185"/>
+      <c r="AX17" s="185"/>
+      <c r="AY17" s="185"/>
+      <c r="AZ17" s="185"/>
+      <c r="BA17" s="207"/>
       <c r="BB17" s="168"/>
-      <c r="BC17" s="222" t="s">
+      <c r="BC17" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" s="223"/>
-      <c r="BE17" s="223"/>
-      <c r="BF17" s="223"/>
-      <c r="BG17" s="223"/>
-      <c r="BH17" s="223"/>
-      <c r="BI17" s="224"/>
+      <c r="BD17" s="193"/>
+      <c r="BE17" s="193"/>
+      <c r="BF17" s="193"/>
+      <c r="BG17" s="193"/>
+      <c r="BH17" s="193"/>
+      <c r="BI17" s="194"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="232" t="s">
+      <c r="BK17" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="BL17" s="233"/>
-      <c r="BM17" s="233"/>
-      <c r="BN17" s="233"/>
-      <c r="BO17" s="233"/>
-      <c r="BP17" s="233"/>
-      <c r="BQ17" s="234"/>
+      <c r="BL17" s="212"/>
+      <c r="BM17" s="212"/>
+      <c r="BN17" s="212"/>
+      <c r="BO17" s="212"/>
+      <c r="BP17" s="212"/>
+      <c r="BQ17" s="213"/>
     </row>
     <row r="18" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="170">
@@ -3263,47 +3191,47 @@
         <v>27</v>
       </c>
       <c r="AJ18" s="168"/>
-      <c r="AK18" s="219" t="s">
+      <c r="AK18" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="217"/>
-      <c r="AM18" s="217"/>
-      <c r="AN18" s="217"/>
-      <c r="AO18" s="217"/>
-      <c r="AP18" s="217"/>
-      <c r="AQ18" s="217"/>
-      <c r="AR18" s="217"/>
+      <c r="AL18" s="185"/>
+      <c r="AM18" s="185"/>
+      <c r="AN18" s="185"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="185"/>
+      <c r="AQ18" s="185"/>
+      <c r="AR18" s="185"/>
       <c r="AS18" s="168"/>
-      <c r="AT18" s="219" t="s">
+      <c r="AT18" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AU18" s="219"/>
-      <c r="AV18" s="219"/>
-      <c r="AW18" s="219"/>
-      <c r="AX18" s="219"/>
-      <c r="AY18" s="219"/>
-      <c r="AZ18" s="219"/>
-      <c r="BA18" s="226"/>
+      <c r="AU18" s="195"/>
+      <c r="AV18" s="195"/>
+      <c r="AW18" s="195"/>
+      <c r="AX18" s="195"/>
+      <c r="AY18" s="195"/>
+      <c r="AZ18" s="195"/>
+      <c r="BA18" s="196"/>
       <c r="BB18" s="168"/>
-      <c r="BC18" s="235" t="s">
+      <c r="BC18" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="BD18" s="236"/>
-      <c r="BE18" s="236"/>
-      <c r="BF18" s="236"/>
-      <c r="BG18" s="236"/>
-      <c r="BH18" s="236"/>
-      <c r="BI18" s="237"/>
+      <c r="BD18" s="187"/>
+      <c r="BE18" s="187"/>
+      <c r="BF18" s="187"/>
+      <c r="BG18" s="187"/>
+      <c r="BH18" s="187"/>
+      <c r="BI18" s="188"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="238" t="s">
+      <c r="BK18" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="BL18" s="239"/>
-      <c r="BM18" s="239"/>
-      <c r="BN18" s="239"/>
-      <c r="BO18" s="239"/>
-      <c r="BP18" s="239"/>
-      <c r="BQ18" s="240"/>
+      <c r="BL18" s="209"/>
+      <c r="BM18" s="209"/>
+      <c r="BN18" s="209"/>
+      <c r="BO18" s="209"/>
+      <c r="BP18" s="209"/>
+      <c r="BQ18" s="210"/>
     </row>
     <row r="19" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="170">
@@ -3360,14 +3288,14 @@
         <v>54</v>
       </c>
       <c r="AJ19" s="168"/>
-      <c r="AK19" s="216" t="s">
+      <c r="AK19" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AL19" s="216"/>
-      <c r="AM19" s="216"/>
-      <c r="AN19" s="216"/>
-      <c r="AO19" s="216"/>
-      <c r="AP19" s="216"/>
+      <c r="AL19" s="197"/>
+      <c r="AM19" s="197"/>
+      <c r="AN19" s="197"/>
+      <c r="AO19" s="197"/>
+      <c r="AP19" s="197"/>
       <c r="AQ19" s="141" t="s">
         <v>26</v>
       </c>
@@ -3376,13 +3304,13 @@
       </c>
       <c r="AS19" s="168"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="213" t="s">
+      <c r="AU19" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="AV19" s="214"/>
-      <c r="AW19" s="214"/>
-      <c r="AX19" s="214"/>
-      <c r="AY19" s="215"/>
+      <c r="AV19" s="199"/>
+      <c r="AW19" s="199"/>
+      <c r="AX19" s="199"/>
+      <c r="AY19" s="200"/>
       <c r="AZ19" s="156" t="s">
         <v>26</v>
       </c>
@@ -3390,26 +3318,26 @@
         <v>27</v>
       </c>
       <c r="BB19" s="168"/>
-      <c r="BC19" s="230" t="str">
+      <c r="BC19" s="201" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="BD19" s="231"/>
-      <c r="BE19" s="231"/>
-      <c r="BF19" s="231"/>
-      <c r="BG19" s="231"/>
-      <c r="BH19" s="231"/>
+      <c r="BD19" s="202"/>
+      <c r="BE19" s="202"/>
+      <c r="BF19" s="202"/>
+      <c r="BG19" s="202"/>
+      <c r="BH19" s="202"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="227" t="s">
+      <c r="BK19" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="BL19" s="228"/>
-      <c r="BM19" s="228"/>
-      <c r="BN19" s="228"/>
-      <c r="BO19" s="228"/>
-      <c r="BP19" s="228"/>
-      <c r="BQ19" s="229"/>
+      <c r="BL19" s="217"/>
+      <c r="BM19" s="217"/>
+      <c r="BN19" s="217"/>
+      <c r="BO19" s="217"/>
+      <c r="BP19" s="217"/>
+      <c r="BQ19" s="218"/>
     </row>
     <row r="20" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170"/>
@@ -3566,13 +3494,13 @@
       </c>
       <c r="AJ21" s="168"/>
       <c r="AK21" s="46"/>
-      <c r="AL21" s="210" t="s">
+      <c r="AL21" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AM21" s="211"/>
-      <c r="AN21" s="211"/>
-      <c r="AO21" s="211"/>
-      <c r="AP21" s="211"/>
+      <c r="AM21" s="182"/>
+      <c r="AN21" s="182"/>
+      <c r="AO21" s="182"/>
+      <c r="AP21" s="182"/>
       <c r="AQ21" s="47" t="s">
         <v>54</v>
       </c>
@@ -3581,13 +3509,13 @@
       </c>
       <c r="AS21" s="168"/>
       <c r="AT21" s="48"/>
-      <c r="AU21" s="210" t="s">
+      <c r="AU21" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="211"/>
-      <c r="AW21" s="211"/>
-      <c r="AX21" s="211"/>
-      <c r="AY21" s="212"/>
+      <c r="AV21" s="182"/>
+      <c r="AW21" s="182"/>
+      <c r="AX21" s="182"/>
+      <c r="AY21" s="220"/>
       <c r="AZ21" s="49">
         <v>2800</v>
       </c>
@@ -3667,13 +3595,13 @@
       </c>
       <c r="AJ22" s="168"/>
       <c r="AK22" s="46"/>
-      <c r="AL22" s="207" t="s">
+      <c r="AL22" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AM22" s="208"/>
-      <c r="AN22" s="208"/>
-      <c r="AO22" s="208"/>
-      <c r="AP22" s="208"/>
+      <c r="AM22" s="184"/>
+      <c r="AN22" s="184"/>
+      <c r="AO22" s="184"/>
+      <c r="AP22" s="184"/>
       <c r="AQ22" s="47" t="s">
         <v>54</v>
       </c>
@@ -3682,13 +3610,13 @@
       </c>
       <c r="AS22" s="168"/>
       <c r="AT22" s="48"/>
-      <c r="AU22" s="207" t="s">
+      <c r="AU22" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="208"/>
-      <c r="AW22" s="208"/>
-      <c r="AX22" s="208"/>
-      <c r="AY22" s="209"/>
+      <c r="AV22" s="184"/>
+      <c r="AW22" s="184"/>
+      <c r="AX22" s="184"/>
+      <c r="AY22" s="206"/>
       <c r="AZ22" s="49"/>
       <c r="BA22" s="49">
         <v>30</v>
@@ -3766,13 +3694,13 @@
       </c>
       <c r="AJ23" s="168"/>
       <c r="AK23" s="46"/>
-      <c r="AL23" s="207" t="s">
+      <c r="AL23" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="208"/>
-      <c r="AN23" s="208"/>
-      <c r="AO23" s="208"/>
-      <c r="AP23" s="208"/>
+      <c r="AM23" s="184"/>
+      <c r="AN23" s="184"/>
+      <c r="AO23" s="184"/>
+      <c r="AP23" s="184"/>
       <c r="AQ23" s="47" t="s">
         <v>54</v>
       </c>
@@ -3781,13 +3709,13 @@
       </c>
       <c r="AS23" s="168"/>
       <c r="AT23" s="48"/>
-      <c r="AU23" s="207" t="s">
+      <c r="AU23" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="208"/>
-      <c r="AW23" s="208"/>
-      <c r="AX23" s="208"/>
-      <c r="AY23" s="209"/>
+      <c r="AV23" s="184"/>
+      <c r="AW23" s="184"/>
+      <c r="AX23" s="184"/>
+      <c r="AY23" s="206"/>
       <c r="AZ23" s="49"/>
       <c r="BA23" s="49">
         <v>10000</v>
@@ -3867,13 +3795,13 @@
       </c>
       <c r="AJ24" s="168"/>
       <c r="AK24" s="46"/>
-      <c r="AL24" s="207" t="s">
+      <c r="AL24" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AM24" s="208"/>
-      <c r="AN24" s="208"/>
-      <c r="AO24" s="208"/>
-      <c r="AP24" s="208"/>
+      <c r="AM24" s="184"/>
+      <c r="AN24" s="184"/>
+      <c r="AO24" s="184"/>
+      <c r="AP24" s="184"/>
       <c r="AQ24" s="47" t="s">
         <v>54</v>
       </c>
@@ -3882,13 +3810,13 @@
       </c>
       <c r="AS24" s="168"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="207" t="s">
+      <c r="AU24" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AV24" s="208"/>
-      <c r="AW24" s="208"/>
-      <c r="AX24" s="208"/>
-      <c r="AY24" s="209"/>
+      <c r="AV24" s="184"/>
+      <c r="AW24" s="184"/>
+      <c r="AX24" s="184"/>
+      <c r="AY24" s="206"/>
       <c r="AZ24" s="49"/>
       <c r="BA24" s="49"/>
       <c r="BB24" s="168"/>
@@ -3966,13 +3894,13 @@
       </c>
       <c r="AJ25" s="168"/>
       <c r="AK25" s="46"/>
-      <c r="AL25" s="207" t="s">
+      <c r="AL25" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AM25" s="208"/>
-      <c r="AN25" s="208"/>
-      <c r="AO25" s="208"/>
-      <c r="AP25" s="208"/>
+      <c r="AM25" s="184"/>
+      <c r="AN25" s="184"/>
+      <c r="AO25" s="184"/>
+      <c r="AP25" s="184"/>
       <c r="AQ25" s="47" t="s">
         <v>54</v>
       </c>
@@ -3981,13 +3909,13 @@
       </c>
       <c r="AS25" s="168"/>
       <c r="AT25" s="48"/>
-      <c r="AU25" s="207" t="s">
+      <c r="AU25" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AV25" s="208"/>
-      <c r="AW25" s="208"/>
-      <c r="AX25" s="208"/>
-      <c r="AY25" s="209"/>
+      <c r="AV25" s="184"/>
+      <c r="AW25" s="184"/>
+      <c r="AX25" s="184"/>
+      <c r="AY25" s="206"/>
       <c r="AZ25" s="49">
         <v>700</v>
       </c>
@@ -4069,13 +3997,13 @@
       </c>
       <c r="AJ26" s="168"/>
       <c r="AK26" s="46"/>
-      <c r="AL26" s="207" t="s">
+      <c r="AL26" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AM26" s="208"/>
-      <c r="AN26" s="208"/>
-      <c r="AO26" s="208"/>
-      <c r="AP26" s="208"/>
+      <c r="AM26" s="184"/>
+      <c r="AN26" s="184"/>
+      <c r="AO26" s="184"/>
+      <c r="AP26" s="184"/>
       <c r="AQ26" s="47" t="s">
         <v>54</v>
       </c>
@@ -4084,13 +4012,13 @@
       </c>
       <c r="AS26" s="168"/>
       <c r="AT26" s="48"/>
-      <c r="AU26" s="207" t="s">
+      <c r="AU26" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="208"/>
-      <c r="AW26" s="208"/>
-      <c r="AX26" s="208"/>
-      <c r="AY26" s="209"/>
+      <c r="AV26" s="184"/>
+      <c r="AW26" s="184"/>
+      <c r="AX26" s="184"/>
+      <c r="AY26" s="206"/>
       <c r="AZ26" s="49"/>
       <c r="BA26" s="49">
         <v>3750</v>
@@ -4170,13 +4098,13 @@
       </c>
       <c r="AJ27" s="168"/>
       <c r="AK27" s="46"/>
-      <c r="AL27" s="207" t="s">
+      <c r="AL27" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="AM27" s="208"/>
-      <c r="AN27" s="208"/>
-      <c r="AO27" s="208"/>
-      <c r="AP27" s="208"/>
+      <c r="AM27" s="184"/>
+      <c r="AN27" s="184"/>
+      <c r="AO27" s="184"/>
+      <c r="AP27" s="184"/>
       <c r="AQ27" s="47" t="s">
         <v>54</v>
       </c>
@@ -4185,13 +4113,13 @@
       </c>
       <c r="AS27" s="168"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="204" t="s">
+      <c r="AU27" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="AV27" s="205"/>
-      <c r="AW27" s="205"/>
-      <c r="AX27" s="205"/>
-      <c r="AY27" s="206"/>
+      <c r="AV27" s="204"/>
+      <c r="AW27" s="204"/>
+      <c r="AX27" s="204"/>
+      <c r="AY27" s="205"/>
       <c r="AZ27" s="49">
         <v>1200</v>
       </c>
@@ -4273,13 +4201,13 @@
       </c>
       <c r="AJ28" s="168"/>
       <c r="AK28" s="46"/>
-      <c r="AL28" s="207" t="s">
+      <c r="AL28" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="208"/>
-      <c r="AN28" s="208"/>
-      <c r="AO28" s="208"/>
-      <c r="AP28" s="208"/>
+      <c r="AM28" s="184"/>
+      <c r="AN28" s="184"/>
+      <c r="AO28" s="184"/>
+      <c r="AP28" s="184"/>
       <c r="AQ28" s="47" t="s">
         <v>54</v>
       </c>
@@ -4288,13 +4216,13 @@
       </c>
       <c r="AS28" s="168"/>
       <c r="AT28" s="48"/>
-      <c r="AU28" s="204" t="s">
+      <c r="AU28" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="AV28" s="205"/>
-      <c r="AW28" s="205"/>
-      <c r="AX28" s="205"/>
-      <c r="AY28" s="206"/>
+      <c r="AV28" s="204"/>
+      <c r="AW28" s="204"/>
+      <c r="AX28" s="204"/>
+      <c r="AY28" s="205"/>
       <c r="AZ28" s="49">
         <v>220</v>
       </c>
@@ -4374,13 +4302,13 @@
       </c>
       <c r="AJ29" s="168"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="207" t="s">
+      <c r="AL29" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="208"/>
-      <c r="AN29" s="208"/>
-      <c r="AO29" s="208"/>
-      <c r="AP29" s="208"/>
+      <c r="AM29" s="184"/>
+      <c r="AN29" s="184"/>
+      <c r="AO29" s="184"/>
+      <c r="AP29" s="184"/>
       <c r="AQ29" s="47" t="s">
         <v>54</v>
       </c>
@@ -4389,13 +4317,13 @@
       </c>
       <c r="AS29" s="168"/>
       <c r="AT29" s="48"/>
-      <c r="AU29" s="204" t="s">
+      <c r="AU29" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="AV29" s="205"/>
-      <c r="AW29" s="205"/>
-      <c r="AX29" s="205"/>
-      <c r="AY29" s="206"/>
+      <c r="AV29" s="204"/>
+      <c r="AW29" s="204"/>
+      <c r="AX29" s="204"/>
+      <c r="AY29" s="205"/>
       <c r="AZ29" s="49">
         <v>175</v>
       </c>
@@ -4475,13 +4403,13 @@
       </c>
       <c r="AJ30" s="168"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="207" t="s">
+      <c r="AL30" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AM30" s="208"/>
-      <c r="AN30" s="208"/>
-      <c r="AO30" s="208"/>
-      <c r="AP30" s="208"/>
+      <c r="AM30" s="184"/>
+      <c r="AN30" s="184"/>
+      <c r="AO30" s="184"/>
+      <c r="AP30" s="184"/>
       <c r="AQ30" s="47" t="s">
         <v>54</v>
       </c>
@@ -4490,13 +4418,13 @@
       </c>
       <c r="AS30" s="168"/>
       <c r="AT30" s="48"/>
-      <c r="AU30" s="204" t="s">
+      <c r="AU30" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="AV30" s="205"/>
-      <c r="AW30" s="205"/>
-      <c r="AX30" s="205"/>
-      <c r="AY30" s="206"/>
+      <c r="AV30" s="204"/>
+      <c r="AW30" s="204"/>
+      <c r="AX30" s="204"/>
+      <c r="AY30" s="205"/>
       <c r="AZ30" s="49">
         <v>50</v>
       </c>
@@ -4803,47 +4731,47 @@
         <v>54</v>
       </c>
       <c r="AJ34" s="168"/>
-      <c r="AK34" s="217" t="s">
+      <c r="AK34" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="AL34" s="217"/>
-      <c r="AM34" s="217"/>
-      <c r="AN34" s="217"/>
-      <c r="AO34" s="217"/>
-      <c r="AP34" s="217"/>
-      <c r="AQ34" s="217"/>
-      <c r="AR34" s="217"/>
+      <c r="AL34" s="185"/>
+      <c r="AM34" s="185"/>
+      <c r="AN34" s="185"/>
+      <c r="AO34" s="185"/>
+      <c r="AP34" s="185"/>
+      <c r="AQ34" s="185"/>
+      <c r="AR34" s="185"/>
       <c r="AS34" s="168"/>
-      <c r="AT34" s="217" t="s">
+      <c r="AT34" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="AU34" s="217"/>
-      <c r="AV34" s="217"/>
-      <c r="AW34" s="217"/>
-      <c r="AX34" s="217"/>
-      <c r="AY34" s="217"/>
-      <c r="AZ34" s="217"/>
-      <c r="BA34" s="218"/>
+      <c r="AU34" s="185"/>
+      <c r="AV34" s="185"/>
+      <c r="AW34" s="185"/>
+      <c r="AX34" s="185"/>
+      <c r="AY34" s="185"/>
+      <c r="AZ34" s="185"/>
+      <c r="BA34" s="207"/>
       <c r="BB34" s="168"/>
-      <c r="BC34" s="232" t="s">
+      <c r="BC34" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="BD34" s="233"/>
-      <c r="BE34" s="233"/>
-      <c r="BF34" s="233"/>
-      <c r="BG34" s="233"/>
-      <c r="BH34" s="233"/>
-      <c r="BI34" s="234"/>
+      <c r="BD34" s="212"/>
+      <c r="BE34" s="212"/>
+      <c r="BF34" s="212"/>
+      <c r="BG34" s="212"/>
+      <c r="BH34" s="212"/>
+      <c r="BI34" s="213"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="232" t="s">
+      <c r="BK34" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="BL34" s="233"/>
-      <c r="BM34" s="233"/>
-      <c r="BN34" s="233"/>
-      <c r="BO34" s="233"/>
-      <c r="BP34" s="233"/>
-      <c r="BQ34" s="234"/>
+      <c r="BL34" s="212"/>
+      <c r="BM34" s="212"/>
+      <c r="BN34" s="212"/>
+      <c r="BO34" s="212"/>
+      <c r="BP34" s="212"/>
+      <c r="BQ34" s="213"/>
     </row>
     <row r="35" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="170">
@@ -4898,47 +4826,47 @@
         <v>54</v>
       </c>
       <c r="AJ35" s="168"/>
-      <c r="AK35" s="219" t="s">
+      <c r="AK35" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AL35" s="217"/>
-      <c r="AM35" s="217"/>
-      <c r="AN35" s="217"/>
-      <c r="AO35" s="217"/>
-      <c r="AP35" s="217"/>
-      <c r="AQ35" s="217"/>
-      <c r="AR35" s="217"/>
+      <c r="AL35" s="185"/>
+      <c r="AM35" s="185"/>
+      <c r="AN35" s="185"/>
+      <c r="AO35" s="185"/>
+      <c r="AP35" s="185"/>
+      <c r="AQ35" s="185"/>
+      <c r="AR35" s="185"/>
       <c r="AS35" s="168"/>
-      <c r="AT35" s="219" t="s">
+      <c r="AT35" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AU35" s="219"/>
-      <c r="AV35" s="219"/>
-      <c r="AW35" s="219"/>
-      <c r="AX35" s="219"/>
-      <c r="AY35" s="219"/>
-      <c r="AZ35" s="219"/>
-      <c r="BA35" s="226"/>
+      <c r="AU35" s="195"/>
+      <c r="AV35" s="195"/>
+      <c r="AW35" s="195"/>
+      <c r="AX35" s="195"/>
+      <c r="AY35" s="195"/>
+      <c r="AZ35" s="195"/>
+      <c r="BA35" s="196"/>
       <c r="BB35" s="168"/>
-      <c r="BC35" s="238" t="s">
+      <c r="BC35" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="BD35" s="239"/>
-      <c r="BE35" s="239"/>
-      <c r="BF35" s="239"/>
-      <c r="BG35" s="239"/>
-      <c r="BH35" s="239"/>
-      <c r="BI35" s="240"/>
+      <c r="BD35" s="209"/>
+      <c r="BE35" s="209"/>
+      <c r="BF35" s="209"/>
+      <c r="BG35" s="209"/>
+      <c r="BH35" s="209"/>
+      <c r="BI35" s="210"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="238" t="s">
+      <c r="BK35" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="BL35" s="239"/>
-      <c r="BM35" s="239"/>
-      <c r="BN35" s="239"/>
-      <c r="BO35" s="239"/>
-      <c r="BP35" s="239"/>
-      <c r="BQ35" s="240"/>
+      <c r="BL35" s="209"/>
+      <c r="BM35" s="209"/>
+      <c r="BN35" s="209"/>
+      <c r="BO35" s="209"/>
+      <c r="BP35" s="209"/>
+      <c r="BQ35" s="210"/>
     </row>
     <row r="36" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="170">
@@ -4995,14 +4923,14 @@
         <v>54</v>
       </c>
       <c r="AJ36" s="168"/>
-      <c r="AK36" s="216" t="s">
+      <c r="AK36" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AL36" s="216"/>
-      <c r="AM36" s="216"/>
-      <c r="AN36" s="216"/>
-      <c r="AO36" s="216"/>
-      <c r="AP36" s="216"/>
+      <c r="AL36" s="197"/>
+      <c r="AM36" s="197"/>
+      <c r="AN36" s="197"/>
+      <c r="AO36" s="197"/>
+      <c r="AP36" s="197"/>
       <c r="AQ36" s="141" t="s">
         <v>26</v>
       </c>
@@ -5011,13 +4939,13 @@
       </c>
       <c r="AS36" s="168"/>
       <c r="AT36" s="43"/>
-      <c r="AU36" s="213" t="s">
+      <c r="AU36" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="AV36" s="214"/>
-      <c r="AW36" s="214"/>
-      <c r="AX36" s="214"/>
-      <c r="AY36" s="215"/>
+      <c r="AV36" s="199"/>
+      <c r="AW36" s="199"/>
+      <c r="AX36" s="199"/>
+      <c r="AY36" s="200"/>
       <c r="AZ36" s="156" t="s">
         <v>26</v>
       </c>
@@ -5025,25 +4953,25 @@
         <v>27</v>
       </c>
       <c r="BB36" s="168"/>
-      <c r="BC36" s="246" t="s">
+      <c r="BC36" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="BD36" s="228"/>
-      <c r="BE36" s="228"/>
-      <c r="BF36" s="228"/>
-      <c r="BG36" s="228"/>
-      <c r="BH36" s="228"/>
-      <c r="BI36" s="229"/>
+      <c r="BD36" s="217"/>
+      <c r="BE36" s="217"/>
+      <c r="BF36" s="217"/>
+      <c r="BG36" s="217"/>
+      <c r="BH36" s="217"/>
+      <c r="BI36" s="218"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="246" t="s">
+      <c r="BK36" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" s="228"/>
-      <c r="BM36" s="228"/>
-      <c r="BN36" s="228"/>
-      <c r="BO36" s="228"/>
-      <c r="BP36" s="228"/>
-      <c r="BQ36" s="229"/>
+      <c r="BL36" s="217"/>
+      <c r="BM36" s="217"/>
+      <c r="BN36" s="217"/>
+      <c r="BO36" s="217"/>
+      <c r="BP36" s="217"/>
+      <c r="BQ36" s="218"/>
     </row>
     <row r="37" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="170">
@@ -5177,17 +5105,17 @@
         <v>54</v>
       </c>
       <c r="AA38" s="168"/>
-      <c r="AB38" s="180">
+      <c r="AB38" s="73">
         <v>42947</v>
       </c>
-      <c r="AC38" s="187"/>
-      <c r="AD38" s="188"/>
-      <c r="AE38" s="183"/>
-      <c r="AF38" s="184"/>
-      <c r="AG38" s="185">
+      <c r="AC38" s="228"/>
+      <c r="AD38" s="229"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="77"/>
+      <c r="AG38" s="78">
         <v>700</v>
       </c>
-      <c r="AH38" s="186">
+      <c r="AH38" s="91">
         <v>7770</v>
       </c>
       <c r="AI38" s="89" t="s">
@@ -5195,13 +5123,13 @@
       </c>
       <c r="AJ38" s="168"/>
       <c r="AK38" s="46"/>
-      <c r="AL38" s="210" t="s">
+      <c r="AL38" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AM38" s="211"/>
-      <c r="AN38" s="211"/>
-      <c r="AO38" s="211"/>
-      <c r="AP38" s="211"/>
+      <c r="AM38" s="182"/>
+      <c r="AN38" s="182"/>
+      <c r="AO38" s="182"/>
+      <c r="AP38" s="182"/>
       <c r="AQ38" s="47" t="s">
         <v>54</v>
       </c>
@@ -5210,13 +5138,13 @@
       </c>
       <c r="AS38" s="168"/>
       <c r="AT38" s="48"/>
-      <c r="AU38" s="210" t="s">
+      <c r="AU38" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AV38" s="211"/>
-      <c r="AW38" s="211"/>
-      <c r="AX38" s="211"/>
-      <c r="AY38" s="212"/>
+      <c r="AV38" s="182"/>
+      <c r="AW38" s="182"/>
+      <c r="AX38" s="182"/>
+      <c r="AY38" s="220"/>
       <c r="AZ38" s="49">
         <v>2800</v>
       </c>
@@ -5296,13 +5224,13 @@
       </c>
       <c r="AJ39" s="168"/>
       <c r="AK39" s="46"/>
-      <c r="AL39" s="207" t="s">
+      <c r="AL39" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="208"/>
-      <c r="AN39" s="208"/>
-      <c r="AO39" s="208"/>
-      <c r="AP39" s="208"/>
+      <c r="AM39" s="184"/>
+      <c r="AN39" s="184"/>
+      <c r="AO39" s="184"/>
+      <c r="AP39" s="184"/>
       <c r="AQ39" s="47" t="s">
         <v>54</v>
       </c>
@@ -5311,13 +5239,13 @@
       </c>
       <c r="AS39" s="168"/>
       <c r="AT39" s="48"/>
-      <c r="AU39" s="207" t="s">
+      <c r="AU39" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="208"/>
-      <c r="AW39" s="208"/>
-      <c r="AX39" s="208"/>
-      <c r="AY39" s="209"/>
+      <c r="AV39" s="184"/>
+      <c r="AW39" s="184"/>
+      <c r="AX39" s="184"/>
+      <c r="AY39" s="206"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49">
         <v>30</v>
@@ -5401,13 +5329,13 @@
       </c>
       <c r="AJ40" s="168"/>
       <c r="AK40" s="46"/>
-      <c r="AL40" s="207" t="s">
+      <c r="AL40" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AM40" s="208"/>
-      <c r="AN40" s="208"/>
-      <c r="AO40" s="208"/>
-      <c r="AP40" s="208"/>
+      <c r="AM40" s="184"/>
+      <c r="AN40" s="184"/>
+      <c r="AO40" s="184"/>
+      <c r="AP40" s="184"/>
       <c r="AQ40" s="47" t="s">
         <v>54</v>
       </c>
@@ -5416,13 +5344,13 @@
       </c>
       <c r="AS40" s="168"/>
       <c r="AT40" s="48"/>
-      <c r="AU40" s="207" t="s">
+      <c r="AU40" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AV40" s="208"/>
-      <c r="AW40" s="208"/>
-      <c r="AX40" s="208"/>
-      <c r="AY40" s="209"/>
+      <c r="AV40" s="184"/>
+      <c r="AW40" s="184"/>
+      <c r="AX40" s="184"/>
+      <c r="AY40" s="206"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49">
         <v>10000</v>
@@ -5488,13 +5416,13 @@
       <c r="AI41" s="155"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="46"/>
-      <c r="AL41" s="207" t="s">
+      <c r="AL41" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="208"/>
-      <c r="AN41" s="208"/>
-      <c r="AO41" s="208"/>
-      <c r="AP41" s="208"/>
+      <c r="AM41" s="184"/>
+      <c r="AN41" s="184"/>
+      <c r="AO41" s="184"/>
+      <c r="AP41" s="184"/>
       <c r="AQ41" s="47" t="s">
         <v>54</v>
       </c>
@@ -5503,13 +5431,13 @@
       </c>
       <c r="AS41" s="168"/>
       <c r="AT41" s="48"/>
-      <c r="AU41" s="207" t="s">
+      <c r="AU41" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AV41" s="208"/>
-      <c r="AW41" s="208"/>
-      <c r="AX41" s="208"/>
-      <c r="AY41" s="209"/>
+      <c r="AV41" s="184"/>
+      <c r="AW41" s="184"/>
+      <c r="AX41" s="184"/>
+      <c r="AY41" s="206"/>
       <c r="AZ41" s="172" t="s">
         <v>54</v>
       </c>
@@ -5581,13 +5509,13 @@
       <c r="AI42" s="155"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="46"/>
-      <c r="AL42" s="207" t="s">
+      <c r="AL42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="208"/>
-      <c r="AN42" s="208"/>
-      <c r="AO42" s="208"/>
-      <c r="AP42" s="208"/>
+      <c r="AM42" s="184"/>
+      <c r="AN42" s="184"/>
+      <c r="AO42" s="184"/>
+      <c r="AP42" s="184"/>
       <c r="AQ42" s="47" t="s">
         <v>54</v>
       </c>
@@ -5596,13 +5524,13 @@
       </c>
       <c r="AS42" s="168"/>
       <c r="AT42" s="48"/>
-      <c r="AU42" s="207" t="s">
+      <c r="AU42" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AV42" s="208"/>
-      <c r="AW42" s="208"/>
-      <c r="AX42" s="208"/>
-      <c r="AY42" s="209"/>
+      <c r="AV42" s="184"/>
+      <c r="AW42" s="184"/>
+      <c r="AX42" s="184"/>
+      <c r="AY42" s="206"/>
       <c r="AZ42" s="49">
         <v>0</v>
       </c>
@@ -5635,9 +5563,11 @@
         <v>42922</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="147" t="s">
+      <c r="D43" s="224" t="s">
         <v>122</v>
       </c>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
       <c r="H43" s="22"/>
       <c r="I43" s="132"/>
       <c r="J43" s="16"/>
@@ -5672,13 +5602,13 @@
       <c r="AI43" s="155"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="46"/>
-      <c r="AL43" s="207" t="s">
+      <c r="AL43" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AM43" s="208"/>
-      <c r="AN43" s="208"/>
-      <c r="AO43" s="208"/>
-      <c r="AP43" s="208"/>
+      <c r="AM43" s="184"/>
+      <c r="AN43" s="184"/>
+      <c r="AO43" s="184"/>
+      <c r="AP43" s="184"/>
       <c r="AQ43" s="47" t="s">
         <v>54</v>
       </c>
@@ -5687,13 +5617,13 @@
       </c>
       <c r="AS43" s="168"/>
       <c r="AT43" s="48"/>
-      <c r="AU43" s="207" t="s">
+      <c r="AU43" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AV43" s="208"/>
-      <c r="AW43" s="208"/>
-      <c r="AX43" s="208"/>
-      <c r="AY43" s="209"/>
+      <c r="AV43" s="184"/>
+      <c r="AW43" s="184"/>
+      <c r="AX43" s="184"/>
+      <c r="AY43" s="206"/>
       <c r="AZ43" s="49" t="s">
         <v>54</v>
       </c>
@@ -5746,36 +5676,36 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="163"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="220" t="s">
+      <c r="S44" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="221"/>
-      <c r="U44" s="221"/>
-      <c r="V44" s="221"/>
-      <c r="W44" s="221"/>
-      <c r="X44" s="221"/>
-      <c r="Y44" s="221"/>
-      <c r="Z44" s="221"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="179"/>
       <c r="AA44" s="168"/>
-      <c r="AB44" s="220" t="s">
+      <c r="AB44" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="221"/>
-      <c r="AD44" s="221"/>
-      <c r="AE44" s="221"/>
-      <c r="AF44" s="221"/>
-      <c r="AG44" s="221"/>
-      <c r="AH44" s="221"/>
-      <c r="AI44" s="221"/>
+      <c r="AC44" s="179"/>
+      <c r="AD44" s="179"/>
+      <c r="AE44" s="179"/>
+      <c r="AF44" s="179"/>
+      <c r="AG44" s="179"/>
+      <c r="AH44" s="179"/>
+      <c r="AI44" s="179"/>
       <c r="AJ44" s="168"/>
       <c r="AK44" s="46"/>
-      <c r="AL44" s="207" t="s">
+      <c r="AL44" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="AM44" s="208"/>
-      <c r="AN44" s="208"/>
-      <c r="AO44" s="208"/>
-      <c r="AP44" s="208"/>
+      <c r="AM44" s="184"/>
+      <c r="AN44" s="184"/>
+      <c r="AO44" s="184"/>
+      <c r="AP44" s="184"/>
       <c r="AQ44" s="47" t="s">
         <v>54</v>
       </c>
@@ -5784,13 +5714,13 @@
       </c>
       <c r="AS44" s="168"/>
       <c r="AT44" s="48"/>
-      <c r="AU44" s="204" t="s">
+      <c r="AU44" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="AV44" s="205"/>
-      <c r="AW44" s="205"/>
-      <c r="AX44" s="205"/>
-      <c r="AY44" s="206"/>
+      <c r="AV44" s="204"/>
+      <c r="AW44" s="204"/>
+      <c r="AX44" s="204"/>
+      <c r="AY44" s="205"/>
       <c r="AZ44" s="49">
         <v>0</v>
       </c>
@@ -5865,13 +5795,13 @@
       </c>
       <c r="AJ45" s="168"/>
       <c r="AK45" s="46"/>
-      <c r="AL45" s="207" t="s">
+      <c r="AL45" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="AM45" s="208"/>
-      <c r="AN45" s="208"/>
-      <c r="AO45" s="208"/>
-      <c r="AP45" s="208"/>
+      <c r="AM45" s="184"/>
+      <c r="AN45" s="184"/>
+      <c r="AO45" s="184"/>
+      <c r="AP45" s="184"/>
       <c r="AQ45" s="47" t="s">
         <v>54</v>
       </c>
@@ -5880,13 +5810,13 @@
       </c>
       <c r="AS45" s="168"/>
       <c r="AT45" s="48"/>
-      <c r="AU45" s="204" t="s">
+      <c r="AU45" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="AV45" s="205"/>
-      <c r="AW45" s="205"/>
-      <c r="AX45" s="205"/>
-      <c r="AY45" s="206"/>
+      <c r="AV45" s="204"/>
+      <c r="AW45" s="204"/>
+      <c r="AX45" s="204"/>
+      <c r="AY45" s="205"/>
       <c r="AZ45" s="49">
         <v>0</v>
       </c>
@@ -5953,13 +5883,13 @@
       </c>
       <c r="AJ46" s="168"/>
       <c r="AK46" s="46"/>
-      <c r="AL46" s="207" t="s">
+      <c r="AL46" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="AM46" s="208"/>
-      <c r="AN46" s="208"/>
-      <c r="AO46" s="208"/>
-      <c r="AP46" s="208"/>
+      <c r="AM46" s="184"/>
+      <c r="AN46" s="184"/>
+      <c r="AO46" s="184"/>
+      <c r="AP46" s="184"/>
       <c r="AQ46" s="47" t="s">
         <v>54</v>
       </c>
@@ -5968,13 +5898,13 @@
       </c>
       <c r="AS46" s="168"/>
       <c r="AT46" s="48"/>
-      <c r="AU46" s="204" t="s">
+      <c r="AU46" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="AV46" s="205"/>
-      <c r="AW46" s="205"/>
-      <c r="AX46" s="205"/>
-      <c r="AY46" s="206"/>
+      <c r="AV46" s="204"/>
+      <c r="AW46" s="204"/>
+      <c r="AX46" s="204"/>
+      <c r="AY46" s="205"/>
       <c r="AZ46" s="49">
         <v>0</v>
       </c>
@@ -6037,13 +5967,13 @@
       </c>
       <c r="AJ47" s="168"/>
       <c r="AK47" s="46"/>
-      <c r="AL47" s="207" t="s">
+      <c r="AL47" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AM47" s="208"/>
-      <c r="AN47" s="208"/>
-      <c r="AO47" s="208"/>
-      <c r="AP47" s="208"/>
+      <c r="AM47" s="184"/>
+      <c r="AN47" s="184"/>
+      <c r="AO47" s="184"/>
+      <c r="AP47" s="184"/>
       <c r="AQ47" s="47" t="s">
         <v>54</v>
       </c>
@@ -6052,13 +5982,13 @@
       </c>
       <c r="AS47" s="168"/>
       <c r="AT47" s="48"/>
-      <c r="AU47" s="204" t="s">
+      <c r="AU47" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="AV47" s="205"/>
-      <c r="AW47" s="205"/>
-      <c r="AX47" s="205"/>
-      <c r="AY47" s="206"/>
+      <c r="AV47" s="204"/>
+      <c r="AW47" s="204"/>
+      <c r="AX47" s="204"/>
+      <c r="AY47" s="205"/>
       <c r="AZ47" s="49">
         <v>0</v>
       </c>
@@ -6066,25 +5996,25 @@
         <v>54</v>
       </c>
       <c r="BB47" s="168"/>
-      <c r="BC47" s="222" t="s">
+      <c r="BC47" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BD47" s="223"/>
-      <c r="BE47" s="223"/>
-      <c r="BF47" s="223"/>
-      <c r="BG47" s="223"/>
-      <c r="BH47" s="223"/>
-      <c r="BI47" s="224"/>
+      <c r="BD47" s="193"/>
+      <c r="BE47" s="193"/>
+      <c r="BF47" s="193"/>
+      <c r="BG47" s="193"/>
+      <c r="BH47" s="193"/>
+      <c r="BI47" s="194"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="222" t="s">
+      <c r="BK47" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BL47" s="223"/>
-      <c r="BM47" s="223"/>
-      <c r="BN47" s="223"/>
-      <c r="BO47" s="223"/>
-      <c r="BP47" s="223"/>
-      <c r="BQ47" s="224"/>
+      <c r="BL47" s="193"/>
+      <c r="BM47" s="193"/>
+      <c r="BN47" s="193"/>
+      <c r="BO47" s="193"/>
+      <c r="BP47" s="193"/>
+      <c r="BQ47" s="194"/>
     </row>
     <row r="48" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171"/>
@@ -6165,25 +6095,25 @@
         <v>11435</v>
       </c>
       <c r="BB48" s="168"/>
-      <c r="BC48" s="235" t="s">
+      <c r="BC48" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="BD48" s="236"/>
-      <c r="BE48" s="236"/>
-      <c r="BF48" s="236"/>
-      <c r="BG48" s="236"/>
-      <c r="BH48" s="236"/>
-      <c r="BI48" s="237"/>
+      <c r="BD48" s="187"/>
+      <c r="BE48" s="187"/>
+      <c r="BF48" s="187"/>
+      <c r="BG48" s="187"/>
+      <c r="BH48" s="187"/>
+      <c r="BI48" s="188"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="235" t="s">
+      <c r="BK48" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="BL48" s="236"/>
-      <c r="BM48" s="236"/>
-      <c r="BN48" s="236"/>
-      <c r="BO48" s="236"/>
-      <c r="BP48" s="236"/>
-      <c r="BQ48" s="237"/>
+      <c r="BL48" s="187"/>
+      <c r="BM48" s="187"/>
+      <c r="BN48" s="187"/>
+      <c r="BO48" s="187"/>
+      <c r="BP48" s="187"/>
+      <c r="BQ48" s="188"/>
     </row>
     <row r="49" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="170">
@@ -6256,27 +6186,27 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="243" t="str">
+      <c r="BC49" s="189" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BD49" s="244"/>
-      <c r="BE49" s="244"/>
-      <c r="BF49" s="244"/>
-      <c r="BG49" s="244"/>
-      <c r="BH49" s="244"/>
-      <c r="BI49" s="245"/>
+      <c r="BD49" s="190"/>
+      <c r="BE49" s="190"/>
+      <c r="BF49" s="190"/>
+      <c r="BG49" s="190"/>
+      <c r="BH49" s="190"/>
+      <c r="BI49" s="191"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="243" t="str">
+      <c r="BK49" s="189" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BL49" s="244"/>
-      <c r="BM49" s="244"/>
-      <c r="BN49" s="244"/>
-      <c r="BO49" s="244"/>
-      <c r="BP49" s="244"/>
-      <c r="BQ49" s="245"/>
+      <c r="BL49" s="190"/>
+      <c r="BM49" s="190"/>
+      <c r="BN49" s="190"/>
+      <c r="BO49" s="190"/>
+      <c r="BP49" s="190"/>
+      <c r="BQ49" s="191"/>
     </row>
     <row r="50" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="170">
@@ -6422,27 +6352,27 @@
         <v>54</v>
       </c>
       <c r="AJ51" s="168"/>
-      <c r="AK51" s="217" t="s">
+      <c r="AK51" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AL51" s="217"/>
-      <c r="AM51" s="217"/>
-      <c r="AN51" s="217"/>
-      <c r="AO51" s="217"/>
-      <c r="AP51" s="217"/>
-      <c r="AQ51" s="217"/>
-      <c r="AR51" s="217"/>
+      <c r="AL51" s="185"/>
+      <c r="AM51" s="185"/>
+      <c r="AN51" s="185"/>
+      <c r="AO51" s="185"/>
+      <c r="AP51" s="185"/>
+      <c r="AQ51" s="185"/>
+      <c r="AR51" s="185"/>
       <c r="AS51" s="168"/>
-      <c r="AT51" s="217" t="s">
+      <c r="AT51" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AU51" s="217"/>
-      <c r="AV51" s="217"/>
-      <c r="AW51" s="217"/>
-      <c r="AX51" s="217"/>
-      <c r="AY51" s="217"/>
-      <c r="AZ51" s="217"/>
-      <c r="BA51" s="218"/>
+      <c r="AU51" s="185"/>
+      <c r="AV51" s="185"/>
+      <c r="AW51" s="185"/>
+      <c r="AX51" s="185"/>
+      <c r="AY51" s="185"/>
+      <c r="AZ51" s="185"/>
+      <c r="BA51" s="207"/>
       <c r="BB51" s="168"/>
       <c r="BC51" s="23"/>
       <c r="BD51" s="98" t="s">
@@ -6518,27 +6448,27 @@
         <v>54</v>
       </c>
       <c r="AJ52" s="168"/>
-      <c r="AK52" s="219" t="s">
+      <c r="AK52" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AL52" s="217"/>
-      <c r="AM52" s="217"/>
-      <c r="AN52" s="217"/>
-      <c r="AO52" s="217"/>
-      <c r="AP52" s="217"/>
-      <c r="AQ52" s="217"/>
-      <c r="AR52" s="217"/>
+      <c r="AL52" s="185"/>
+      <c r="AM52" s="185"/>
+      <c r="AN52" s="185"/>
+      <c r="AO52" s="185"/>
+      <c r="AP52" s="185"/>
+      <c r="AQ52" s="185"/>
+      <c r="AR52" s="185"/>
       <c r="AS52" s="168"/>
-      <c r="AT52" s="219" t="s">
+      <c r="AT52" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AU52" s="219"/>
-      <c r="AV52" s="219"/>
-      <c r="AW52" s="219"/>
-      <c r="AX52" s="219"/>
-      <c r="AY52" s="219"/>
-      <c r="AZ52" s="219"/>
-      <c r="BA52" s="226"/>
+      <c r="AU52" s="195"/>
+      <c r="AV52" s="195"/>
+      <c r="AW52" s="195"/>
+      <c r="AX52" s="195"/>
+      <c r="AY52" s="195"/>
+      <c r="AZ52" s="195"/>
+      <c r="BA52" s="196"/>
       <c r="BB52" s="168"/>
       <c r="BC52" s="23"/>
       <c r="BD52" s="139"/>
@@ -6612,14 +6542,14 @@
         <v>54</v>
       </c>
       <c r="AJ53" s="168"/>
-      <c r="AK53" s="216" t="s">
+      <c r="AK53" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AL53" s="216"/>
-      <c r="AM53" s="216"/>
-      <c r="AN53" s="216"/>
-      <c r="AO53" s="216"/>
-      <c r="AP53" s="216"/>
+      <c r="AL53" s="197"/>
+      <c r="AM53" s="197"/>
+      <c r="AN53" s="197"/>
+      <c r="AO53" s="197"/>
+      <c r="AP53" s="197"/>
       <c r="AQ53" s="141" t="s">
         <v>26</v>
       </c>
@@ -6628,13 +6558,13 @@
       </c>
       <c r="AS53" s="168"/>
       <c r="AT53" s="43"/>
-      <c r="AU53" s="213" t="s">
+      <c r="AU53" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="AV53" s="214"/>
-      <c r="AW53" s="214"/>
-      <c r="AX53" s="214"/>
-      <c r="AY53" s="215"/>
+      <c r="AV53" s="199"/>
+      <c r="AW53" s="199"/>
+      <c r="AX53" s="199"/>
+      <c r="AY53" s="200"/>
       <c r="AZ53" s="156" t="s">
         <v>26</v>
       </c>
@@ -6809,13 +6739,13 @@
       </c>
       <c r="AJ55" s="168"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="210" t="s">
+      <c r="AL55" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AM55" s="211"/>
-      <c r="AN55" s="211"/>
-      <c r="AO55" s="211"/>
-      <c r="AP55" s="211"/>
+      <c r="AM55" s="182"/>
+      <c r="AN55" s="182"/>
+      <c r="AO55" s="182"/>
+      <c r="AP55" s="182"/>
       <c r="AQ55" s="47" t="s">
         <v>54</v>
       </c>
@@ -6824,13 +6754,13 @@
       </c>
       <c r="AS55" s="168"/>
       <c r="AT55" s="48"/>
-      <c r="AU55" s="210" t="s">
+      <c r="AU55" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AV55" s="211"/>
-      <c r="AW55" s="211"/>
-      <c r="AX55" s="211"/>
-      <c r="AY55" s="212"/>
+      <c r="AV55" s="182"/>
+      <c r="AW55" s="182"/>
+      <c r="AX55" s="182"/>
+      <c r="AY55" s="220"/>
       <c r="AZ55" s="49">
         <v>5400</v>
       </c>
@@ -6891,13 +6821,13 @@
       <c r="AI56" s="155"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="207" t="s">
+      <c r="AL56" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AM56" s="208"/>
-      <c r="AN56" s="208"/>
-      <c r="AO56" s="208"/>
-      <c r="AP56" s="208"/>
+      <c r="AM56" s="184"/>
+      <c r="AN56" s="184"/>
+      <c r="AO56" s="184"/>
+      <c r="AP56" s="184"/>
       <c r="AQ56" s="47" t="s">
         <v>54</v>
       </c>
@@ -6906,13 +6836,13 @@
       </c>
       <c r="AS56" s="168"/>
       <c r="AT56" s="48"/>
-      <c r="AU56" s="207" t="s">
+      <c r="AU56" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AV56" s="208"/>
-      <c r="AW56" s="208"/>
-      <c r="AX56" s="208"/>
-      <c r="AY56" s="209"/>
+      <c r="AV56" s="184"/>
+      <c r="AW56" s="184"/>
+      <c r="AX56" s="184"/>
+      <c r="AY56" s="206"/>
       <c r="AZ56" s="49" t="s">
         <v>54</v>
       </c>
@@ -6979,13 +6909,13 @@
       <c r="AI57" s="155"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="207" t="s">
+      <c r="AL57" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="208"/>
-      <c r="AN57" s="208"/>
-      <c r="AO57" s="208"/>
-      <c r="AP57" s="208"/>
+      <c r="AM57" s="184"/>
+      <c r="AN57" s="184"/>
+      <c r="AO57" s="184"/>
+      <c r="AP57" s="184"/>
       <c r="AQ57" s="47" t="s">
         <v>54</v>
       </c>
@@ -6993,14 +6923,14 @@
         <v>54</v>
       </c>
       <c r="AS57" s="168"/>
-      <c r="AT57" s="247"/>
-      <c r="AU57" s="248" t="s">
+      <c r="AT57" s="177"/>
+      <c r="AU57" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AV57" s="249"/>
-      <c r="AW57" s="249"/>
-      <c r="AX57" s="249"/>
-      <c r="AY57" s="250"/>
+      <c r="AV57" s="222"/>
+      <c r="AW57" s="222"/>
+      <c r="AX57" s="222"/>
+      <c r="AY57" s="223"/>
       <c r="AZ57" s="49" t="s">
         <v>54</v>
       </c>
@@ -7065,13 +6995,13 @@
       <c r="AI58" s="155"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="46"/>
-      <c r="AL58" s="207" t="s">
+      <c r="AL58" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AM58" s="208"/>
-      <c r="AN58" s="208"/>
-      <c r="AO58" s="208"/>
-      <c r="AP58" s="208"/>
+      <c r="AM58" s="184"/>
+      <c r="AN58" s="184"/>
+      <c r="AO58" s="184"/>
+      <c r="AP58" s="184"/>
       <c r="AQ58" s="47" t="s">
         <v>54</v>
       </c>
@@ -7079,14 +7009,14 @@
         <v>54</v>
       </c>
       <c r="AS58" s="168"/>
-      <c r="AT58" s="247"/>
-      <c r="AU58" s="248" t="s">
+      <c r="AT58" s="177"/>
+      <c r="AU58" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="AV58" s="249"/>
-      <c r="AW58" s="249"/>
-      <c r="AX58" s="249"/>
-      <c r="AY58" s="250"/>
+      <c r="AV58" s="222"/>
+      <c r="AW58" s="222"/>
+      <c r="AX58" s="222"/>
+      <c r="AY58" s="223"/>
       <c r="AZ58" s="49" t="s">
         <v>54</v>
       </c>
@@ -7128,36 +7058,36 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="220" t="s">
+      <c r="S59" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="221"/>
-      <c r="U59" s="221"/>
-      <c r="V59" s="221"/>
-      <c r="W59" s="221"/>
-      <c r="X59" s="221"/>
-      <c r="Y59" s="221"/>
-      <c r="Z59" s="221"/>
+      <c r="T59" s="179"/>
+      <c r="U59" s="179"/>
+      <c r="V59" s="179"/>
+      <c r="W59" s="179"/>
+      <c r="X59" s="179"/>
+      <c r="Y59" s="179"/>
+      <c r="Z59" s="179"/>
       <c r="AA59" s="168"/>
-      <c r="AB59" s="220" t="s">
+      <c r="AB59" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="221"/>
-      <c r="AD59" s="221"/>
-      <c r="AE59" s="221"/>
-      <c r="AF59" s="221"/>
-      <c r="AG59" s="221"/>
-      <c r="AH59" s="221"/>
-      <c r="AI59" s="221"/>
+      <c r="AC59" s="179"/>
+      <c r="AD59" s="179"/>
+      <c r="AE59" s="179"/>
+      <c r="AF59" s="179"/>
+      <c r="AG59" s="179"/>
+      <c r="AH59" s="179"/>
+      <c r="AI59" s="179"/>
       <c r="AJ59" s="168"/>
       <c r="AK59" s="46"/>
-      <c r="AL59" s="207" t="s">
+      <c r="AL59" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AM59" s="208"/>
-      <c r="AN59" s="208"/>
-      <c r="AO59" s="208"/>
-      <c r="AP59" s="208"/>
+      <c r="AM59" s="184"/>
+      <c r="AN59" s="184"/>
+      <c r="AO59" s="184"/>
+      <c r="AP59" s="184"/>
       <c r="AQ59" s="47" t="s">
         <v>54</v>
       </c>
@@ -7166,13 +7096,13 @@
       </c>
       <c r="AS59" s="168"/>
       <c r="AT59" s="48"/>
-      <c r="AU59" s="207" t="s">
+      <c r="AU59" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AV59" s="208"/>
-      <c r="AW59" s="208"/>
-      <c r="AX59" s="208"/>
-      <c r="AY59" s="209"/>
+      <c r="AV59" s="184"/>
+      <c r="AW59" s="184"/>
+      <c r="AX59" s="184"/>
+      <c r="AY59" s="206"/>
       <c r="AZ59" s="49">
         <v>700</v>
       </c>
@@ -7261,13 +7191,13 @@
       </c>
       <c r="AJ60" s="168"/>
       <c r="AK60" s="46"/>
-      <c r="AL60" s="207" t="s">
+      <c r="AL60" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AM60" s="208"/>
-      <c r="AN60" s="208"/>
-      <c r="AO60" s="208"/>
-      <c r="AP60" s="208"/>
+      <c r="AM60" s="184"/>
+      <c r="AN60" s="184"/>
+      <c r="AO60" s="184"/>
+      <c r="AP60" s="184"/>
       <c r="AQ60" s="47" t="s">
         <v>54</v>
       </c>
@@ -7276,13 +7206,13 @@
       </c>
       <c r="AS60" s="168"/>
       <c r="AT60" s="48"/>
-      <c r="AU60" s="207" t="s">
+      <c r="AU60" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AV60" s="208"/>
-      <c r="AW60" s="208"/>
-      <c r="AX60" s="208"/>
-      <c r="AY60" s="209"/>
+      <c r="AV60" s="184"/>
+      <c r="AW60" s="184"/>
+      <c r="AX60" s="184"/>
+      <c r="AY60" s="206"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49">
         <v>4050</v>
@@ -7359,13 +7289,13 @@
       </c>
       <c r="AJ61" s="168"/>
       <c r="AK61" s="46"/>
-      <c r="AL61" s="207" t="s">
+      <c r="AL61" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="AM61" s="208"/>
-      <c r="AN61" s="208"/>
-      <c r="AO61" s="208"/>
-      <c r="AP61" s="208"/>
+      <c r="AM61" s="184"/>
+      <c r="AN61" s="184"/>
+      <c r="AO61" s="184"/>
+      <c r="AP61" s="184"/>
       <c r="AQ61" s="47" t="s">
         <v>54</v>
       </c>
@@ -7374,13 +7304,13 @@
       </c>
       <c r="AS61" s="168"/>
       <c r="AT61" s="48"/>
-      <c r="AU61" s="204" t="s">
+      <c r="AU61" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="205"/>
-      <c r="AW61" s="205"/>
-      <c r="AX61" s="205"/>
-      <c r="AY61" s="206"/>
+      <c r="AV61" s="204"/>
+      <c r="AW61" s="204"/>
+      <c r="AX61" s="204"/>
+      <c r="AY61" s="205"/>
       <c r="AZ61" s="49">
         <v>1200</v>
       </c>
@@ -7457,13 +7387,13 @@
       </c>
       <c r="AJ62" s="168"/>
       <c r="AK62" s="46"/>
-      <c r="AL62" s="207" t="s">
+      <c r="AL62" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="AM62" s="208"/>
-      <c r="AN62" s="208"/>
-      <c r="AO62" s="208"/>
-      <c r="AP62" s="208"/>
+      <c r="AM62" s="184"/>
+      <c r="AN62" s="184"/>
+      <c r="AO62" s="184"/>
+      <c r="AP62" s="184"/>
       <c r="AQ62" s="47" t="s">
         <v>54</v>
       </c>
@@ -7472,13 +7402,13 @@
       </c>
       <c r="AS62" s="168"/>
       <c r="AT62" s="48"/>
-      <c r="AU62" s="204" t="s">
+      <c r="AU62" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="AV62" s="205"/>
-      <c r="AW62" s="205"/>
-      <c r="AX62" s="205"/>
-      <c r="AY62" s="206"/>
+      <c r="AV62" s="204"/>
+      <c r="AW62" s="204"/>
+      <c r="AX62" s="204"/>
+      <c r="AY62" s="205"/>
       <c r="AZ62" s="49">
         <v>450</v>
       </c>
@@ -7555,13 +7485,13 @@
       </c>
       <c r="AJ63" s="168"/>
       <c r="AK63" s="46"/>
-      <c r="AL63" s="207" t="s">
+      <c r="AL63" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="AM63" s="208"/>
-      <c r="AN63" s="208"/>
-      <c r="AO63" s="208"/>
-      <c r="AP63" s="208"/>
+      <c r="AM63" s="184"/>
+      <c r="AN63" s="184"/>
+      <c r="AO63" s="184"/>
+      <c r="AP63" s="184"/>
       <c r="AQ63" s="47" t="s">
         <v>54</v>
       </c>
@@ -7570,13 +7500,13 @@
       </c>
       <c r="AS63" s="168"/>
       <c r="AT63" s="48"/>
-      <c r="AU63" s="204" t="s">
+      <c r="AU63" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="AV63" s="205"/>
-      <c r="AW63" s="205"/>
-      <c r="AX63" s="205"/>
-      <c r="AY63" s="206"/>
+      <c r="AV63" s="204"/>
+      <c r="AW63" s="204"/>
+      <c r="AX63" s="204"/>
+      <c r="AY63" s="205"/>
       <c r="AZ63" s="49">
         <v>145</v>
       </c>
@@ -7647,13 +7577,13 @@
       </c>
       <c r="AJ64" s="168"/>
       <c r="AK64" s="46"/>
-      <c r="AL64" s="207" t="s">
+      <c r="AL64" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AM64" s="208"/>
-      <c r="AN64" s="208"/>
-      <c r="AO64" s="208"/>
-      <c r="AP64" s="208"/>
+      <c r="AM64" s="184"/>
+      <c r="AN64" s="184"/>
+      <c r="AO64" s="184"/>
+      <c r="AP64" s="184"/>
       <c r="AQ64" s="47" t="s">
         <v>54</v>
       </c>
@@ -7662,13 +7592,13 @@
       </c>
       <c r="AS64" s="168"/>
       <c r="AT64" s="48"/>
-      <c r="AU64" s="204" t="s">
+      <c r="AU64" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="AV64" s="205"/>
-      <c r="AW64" s="205"/>
-      <c r="AX64" s="205"/>
-      <c r="AY64" s="206"/>
+      <c r="AV64" s="204"/>
+      <c r="AW64" s="204"/>
+      <c r="AX64" s="204"/>
+      <c r="AY64" s="205"/>
       <c r="AZ64" s="49">
         <v>20</v>
       </c>
@@ -7823,16 +7753,16 @@
       <c r="J67" s="15"/>
       <c r="K67" s="16"/>
       <c r="L67" s="167"/>
-      <c r="M67" s="177">
+      <c r="M67" s="18">
         <v>43648</v>
       </c>
-      <c r="N67" s="178" t="s">
+      <c r="N67" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="O67" s="179">
+      <c r="O67" s="227">
         <v>250</v>
       </c>
-      <c r="P67" s="179"/>
+      <c r="P67" s="227"/>
       <c r="Q67" s="167"/>
       <c r="R67" s="1"/>
       <c r="S67" s="110"/>
@@ -7883,25 +7813,25 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="222" t="s">
+      <c r="BC67" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BD67" s="223"/>
-      <c r="BE67" s="223"/>
-      <c r="BF67" s="223"/>
-      <c r="BG67" s="223"/>
-      <c r="BH67" s="223"/>
-      <c r="BI67" s="224"/>
+      <c r="BD67" s="193"/>
+      <c r="BE67" s="193"/>
+      <c r="BF67" s="193"/>
+      <c r="BG67" s="193"/>
+      <c r="BH67" s="193"/>
+      <c r="BI67" s="194"/>
       <c r="BJ67" s="7"/>
-      <c r="BK67" s="222" t="s">
+      <c r="BK67" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BL67" s="223"/>
-      <c r="BM67" s="223"/>
-      <c r="BN67" s="223"/>
-      <c r="BO67" s="223"/>
-      <c r="BP67" s="223"/>
-      <c r="BQ67" s="224"/>
+      <c r="BL67" s="193"/>
+      <c r="BM67" s="193"/>
+      <c r="BN67" s="193"/>
+      <c r="BO67" s="193"/>
+      <c r="BP67" s="193"/>
+      <c r="BQ67" s="194"/>
     </row>
     <row r="68" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="22"/>
@@ -7949,47 +7879,47 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="168"/>
-      <c r="AK68" s="217" t="s">
+      <c r="AK68" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="AL68" s="217"/>
-      <c r="AM68" s="217"/>
-      <c r="AN68" s="217"/>
-      <c r="AO68" s="217"/>
-      <c r="AP68" s="217"/>
-      <c r="AQ68" s="217"/>
-      <c r="AR68" s="217"/>
+      <c r="AL68" s="185"/>
+      <c r="AM68" s="185"/>
+      <c r="AN68" s="185"/>
+      <c r="AO68" s="185"/>
+      <c r="AP68" s="185"/>
+      <c r="AQ68" s="185"/>
+      <c r="AR68" s="185"/>
       <c r="AS68" s="168"/>
-      <c r="AT68" s="217" t="s">
+      <c r="AT68" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="AU68" s="217"/>
-      <c r="AV68" s="217"/>
-      <c r="AW68" s="217"/>
-      <c r="AX68" s="217"/>
-      <c r="AY68" s="217"/>
-      <c r="AZ68" s="217"/>
-      <c r="BA68" s="218"/>
+      <c r="AU68" s="185"/>
+      <c r="AV68" s="185"/>
+      <c r="AW68" s="185"/>
+      <c r="AX68" s="185"/>
+      <c r="AY68" s="185"/>
+      <c r="AZ68" s="185"/>
+      <c r="BA68" s="207"/>
       <c r="BB68" s="168"/>
-      <c r="BC68" s="235" t="s">
+      <c r="BC68" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="BD68" s="236"/>
-      <c r="BE68" s="236"/>
-      <c r="BF68" s="236"/>
-      <c r="BG68" s="236"/>
-      <c r="BH68" s="236"/>
-      <c r="BI68" s="237"/>
+      <c r="BD68" s="187"/>
+      <c r="BE68" s="187"/>
+      <c r="BF68" s="187"/>
+      <c r="BG68" s="187"/>
+      <c r="BH68" s="187"/>
+      <c r="BI68" s="188"/>
       <c r="BJ68" s="7"/>
-      <c r="BK68" s="235" t="s">
+      <c r="BK68" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="BL68" s="236"/>
-      <c r="BM68" s="236"/>
-      <c r="BN68" s="236"/>
-      <c r="BO68" s="236"/>
-      <c r="BP68" s="236"/>
-      <c r="BQ68" s="237"/>
+      <c r="BL68" s="187"/>
+      <c r="BM68" s="187"/>
+      <c r="BN68" s="187"/>
+      <c r="BO68" s="187"/>
+      <c r="BP68" s="187"/>
+      <c r="BQ68" s="188"/>
     </row>
     <row r="69" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
@@ -8039,48 +7969,48 @@
         <v>230</v>
       </c>
       <c r="AJ69" s="168"/>
-      <c r="AK69" s="219" t="s">
+      <c r="AK69" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AL69" s="217"/>
-      <c r="AM69" s="217"/>
-      <c r="AN69" s="217"/>
-      <c r="AO69" s="217"/>
-      <c r="AP69" s="217"/>
-      <c r="AQ69" s="217"/>
-      <c r="AR69" s="217"/>
+      <c r="AL69" s="185"/>
+      <c r="AM69" s="185"/>
+      <c r="AN69" s="185"/>
+      <c r="AO69" s="185"/>
+      <c r="AP69" s="185"/>
+      <c r="AQ69" s="185"/>
+      <c r="AR69" s="185"/>
       <c r="AS69" s="168"/>
-      <c r="AT69" s="219" t="s">
+      <c r="AT69" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="AU69" s="219"/>
-      <c r="AV69" s="219"/>
-      <c r="AW69" s="219"/>
-      <c r="AX69" s="219"/>
-      <c r="AY69" s="219"/>
-      <c r="AZ69" s="219"/>
-      <c r="BA69" s="226"/>
+      <c r="AU69" s="195"/>
+      <c r="AV69" s="195"/>
+      <c r="AW69" s="195"/>
+      <c r="AX69" s="195"/>
+      <c r="AY69" s="195"/>
+      <c r="AZ69" s="195"/>
+      <c r="BA69" s="196"/>
       <c r="BB69" s="168"/>
-      <c r="BC69" s="230" t="str">
+      <c r="BC69" s="201" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD69" s="231"/>
-      <c r="BE69" s="231"/>
-      <c r="BF69" s="231"/>
-      <c r="BG69" s="231"/>
-      <c r="BH69" s="231"/>
+      <c r="BD69" s="202"/>
+      <c r="BE69" s="202"/>
+      <c r="BF69" s="202"/>
+      <c r="BG69" s="202"/>
+      <c r="BH69" s="202"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="7"/>
-      <c r="BK69" s="230" t="str">
+      <c r="BK69" s="201" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL69" s="231"/>
-      <c r="BM69" s="231"/>
-      <c r="BN69" s="231"/>
-      <c r="BO69" s="231"/>
-      <c r="BP69" s="231"/>
+      <c r="BL69" s="202"/>
+      <c r="BM69" s="202"/>
+      <c r="BN69" s="202"/>
+      <c r="BO69" s="202"/>
+      <c r="BP69" s="202"/>
       <c r="BQ69" s="13"/>
     </row>
     <row r="70" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8131,14 +8061,14 @@
         <v>54</v>
       </c>
       <c r="AJ70" s="168"/>
-      <c r="AK70" s="216" t="s">
+      <c r="AK70" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AL70" s="216"/>
-      <c r="AM70" s="216"/>
-      <c r="AN70" s="216"/>
-      <c r="AO70" s="216"/>
-      <c r="AP70" s="216"/>
+      <c r="AL70" s="197"/>
+      <c r="AM70" s="197"/>
+      <c r="AN70" s="197"/>
+      <c r="AO70" s="197"/>
+      <c r="AP70" s="197"/>
       <c r="AQ70" s="141" t="s">
         <v>26</v>
       </c>
@@ -8147,13 +8077,13 @@
       </c>
       <c r="AS70" s="168"/>
       <c r="AT70" s="43"/>
-      <c r="AU70" s="213" t="s">
+      <c r="AU70" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="AV70" s="214"/>
-      <c r="AW70" s="214"/>
-      <c r="AX70" s="214"/>
-      <c r="AY70" s="215"/>
+      <c r="AV70" s="199"/>
+      <c r="AW70" s="199"/>
+      <c r="AX70" s="199"/>
+      <c r="AY70" s="200"/>
       <c r="AZ70" s="156" t="s">
         <v>26</v>
       </c>
@@ -8316,13 +8246,13 @@
       <c r="AI72" s="155"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="46"/>
-      <c r="AL72" s="210" t="s">
+      <c r="AL72" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AM72" s="211"/>
-      <c r="AN72" s="211"/>
-      <c r="AO72" s="211"/>
-      <c r="AP72" s="211"/>
+      <c r="AM72" s="182"/>
+      <c r="AN72" s="182"/>
+      <c r="AO72" s="182"/>
+      <c r="AP72" s="182"/>
       <c r="AQ72" s="47" t="s">
         <v>54</v>
       </c>
@@ -8331,13 +8261,13 @@
       </c>
       <c r="AS72" s="168"/>
       <c r="AT72" s="48"/>
-      <c r="AU72" s="210" t="s">
+      <c r="AU72" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AV72" s="211"/>
-      <c r="AW72" s="211"/>
-      <c r="AX72" s="211"/>
-      <c r="AY72" s="212"/>
+      <c r="AV72" s="182"/>
+      <c r="AW72" s="182"/>
+      <c r="AX72" s="182"/>
+      <c r="AY72" s="220"/>
       <c r="AZ72" s="49">
         <v>5400</v>
       </c>
@@ -8400,13 +8330,13 @@
       <c r="AI73" s="155"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="46"/>
-      <c r="AL73" s="207" t="s">
+      <c r="AL73" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AM73" s="208"/>
-      <c r="AN73" s="208"/>
-      <c r="AO73" s="208"/>
-      <c r="AP73" s="208"/>
+      <c r="AM73" s="184"/>
+      <c r="AN73" s="184"/>
+      <c r="AO73" s="184"/>
+      <c r="AP73" s="184"/>
       <c r="AQ73" s="47" t="s">
         <v>54</v>
       </c>
@@ -8415,13 +8345,13 @@
       </c>
       <c r="AS73" s="168"/>
       <c r="AT73" s="48"/>
-      <c r="AU73" s="207" t="s">
+      <c r="AU73" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AV73" s="208"/>
-      <c r="AW73" s="208"/>
-      <c r="AX73" s="208"/>
-      <c r="AY73" s="209"/>
+      <c r="AV73" s="184"/>
+      <c r="AW73" s="184"/>
+      <c r="AX73" s="184"/>
+      <c r="AY73" s="206"/>
       <c r="AZ73" s="49" t="s">
         <v>54</v>
       </c>
@@ -8482,13 +8412,13 @@
       <c r="AI74" s="155"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="46"/>
-      <c r="AL74" s="207" t="s">
+      <c r="AL74" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AM74" s="208"/>
-      <c r="AN74" s="208"/>
-      <c r="AO74" s="208"/>
-      <c r="AP74" s="208"/>
+      <c r="AM74" s="184"/>
+      <c r="AN74" s="184"/>
+      <c r="AO74" s="184"/>
+      <c r="AP74" s="184"/>
       <c r="AQ74" s="47" t="s">
         <v>54</v>
       </c>
@@ -8497,13 +8427,13 @@
       </c>
       <c r="AS74" s="168"/>
       <c r="AT74" s="48"/>
-      <c r="AU74" s="207" t="s">
+      <c r="AU74" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AV74" s="208"/>
-      <c r="AW74" s="208"/>
-      <c r="AX74" s="208"/>
-      <c r="AY74" s="209"/>
+      <c r="AV74" s="184"/>
+      <c r="AW74" s="184"/>
+      <c r="AX74" s="184"/>
+      <c r="AY74" s="206"/>
       <c r="AZ74" s="49" t="s">
         <v>54</v>
       </c>
@@ -8549,36 +8479,36 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="220" t="s">
+      <c r="S75" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="T75" s="221"/>
-      <c r="U75" s="221"/>
-      <c r="V75" s="221"/>
-      <c r="W75" s="221"/>
-      <c r="X75" s="221"/>
-      <c r="Y75" s="221"/>
-      <c r="Z75" s="221"/>
+      <c r="T75" s="179"/>
+      <c r="U75" s="179"/>
+      <c r="V75" s="179"/>
+      <c r="W75" s="179"/>
+      <c r="X75" s="179"/>
+      <c r="Y75" s="179"/>
+      <c r="Z75" s="179"/>
       <c r="AA75" s="168"/>
-      <c r="AB75" s="220" t="s">
+      <c r="AB75" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="AC75" s="221"/>
-      <c r="AD75" s="221"/>
-      <c r="AE75" s="221"/>
-      <c r="AF75" s="221"/>
-      <c r="AG75" s="221"/>
-      <c r="AH75" s="221"/>
-      <c r="AI75" s="221"/>
+      <c r="AC75" s="179"/>
+      <c r="AD75" s="179"/>
+      <c r="AE75" s="179"/>
+      <c r="AF75" s="179"/>
+      <c r="AG75" s="179"/>
+      <c r="AH75" s="179"/>
+      <c r="AI75" s="179"/>
       <c r="AJ75" s="168"/>
       <c r="AK75" s="46"/>
-      <c r="AL75" s="207" t="s">
+      <c r="AL75" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AM75" s="208"/>
-      <c r="AN75" s="208"/>
-      <c r="AO75" s="208"/>
-      <c r="AP75" s="208"/>
+      <c r="AM75" s="184"/>
+      <c r="AN75" s="184"/>
+      <c r="AO75" s="184"/>
+      <c r="AP75" s="184"/>
       <c r="AQ75" s="47" t="s">
         <v>54</v>
       </c>
@@ -8587,13 +8517,13 @@
       </c>
       <c r="AS75" s="168"/>
       <c r="AT75" s="48"/>
-      <c r="AU75" s="207" t="s">
+      <c r="AU75" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="AV75" s="208"/>
-      <c r="AW75" s="208"/>
-      <c r="AX75" s="208"/>
-      <c r="AY75" s="209"/>
+      <c r="AV75" s="184"/>
+      <c r="AW75" s="184"/>
+      <c r="AX75" s="184"/>
+      <c r="AY75" s="206"/>
       <c r="AZ75" s="49" t="s">
         <v>54</v>
       </c>
@@ -8680,13 +8610,13 @@
       </c>
       <c r="AJ76" s="168"/>
       <c r="AK76" s="46"/>
-      <c r="AL76" s="207" t="s">
+      <c r="AL76" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AM76" s="208"/>
-      <c r="AN76" s="208"/>
-      <c r="AO76" s="208"/>
-      <c r="AP76" s="208"/>
+      <c r="AM76" s="184"/>
+      <c r="AN76" s="184"/>
+      <c r="AO76" s="184"/>
+      <c r="AP76" s="184"/>
       <c r="AQ76" s="47" t="s">
         <v>54</v>
       </c>
@@ -8695,13 +8625,13 @@
       </c>
       <c r="AS76" s="168"/>
       <c r="AT76" s="48"/>
-      <c r="AU76" s="207" t="s">
+      <c r="AU76" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="AV76" s="208"/>
-      <c r="AW76" s="208"/>
-      <c r="AX76" s="208"/>
-      <c r="AY76" s="209"/>
+      <c r="AV76" s="184"/>
+      <c r="AW76" s="184"/>
+      <c r="AX76" s="184"/>
+      <c r="AY76" s="206"/>
       <c r="AZ76" s="49">
         <v>0</v>
       </c>
@@ -8760,33 +8690,33 @@
         <v>54</v>
       </c>
       <c r="AA77" s="168"/>
-      <c r="AB77" s="197">
+      <c r="AB77" s="230">
         <v>42887</v>
       </c>
-      <c r="AC77" s="198"/>
-      <c r="AD77" s="199"/>
-      <c r="AE77" s="200" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF77" s="201"/>
-      <c r="AG77" s="202">
+      <c r="AC77" s="231"/>
+      <c r="AD77" s="232"/>
+      <c r="AE77" s="233" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="234"/>
+      <c r="AG77" s="235">
         <v>10000</v>
       </c>
-      <c r="AH77" s="203" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI77" s="203">
+      <c r="AH77" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI77" s="236">
         <v>10000</v>
       </c>
       <c r="AJ77" s="168"/>
       <c r="AK77" s="46"/>
-      <c r="AL77" s="207" t="s">
+      <c r="AL77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AM77" s="208"/>
-      <c r="AN77" s="208"/>
-      <c r="AO77" s="208"/>
-      <c r="AP77" s="208"/>
+      <c r="AM77" s="184"/>
+      <c r="AN77" s="184"/>
+      <c r="AO77" s="184"/>
+      <c r="AP77" s="184"/>
       <c r="AQ77" s="47" t="s">
         <v>54</v>
       </c>
@@ -8795,13 +8725,13 @@
       </c>
       <c r="AS77" s="168"/>
       <c r="AT77" s="48"/>
-      <c r="AU77" s="207" t="s">
+      <c r="AU77" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AV77" s="208"/>
-      <c r="AW77" s="208"/>
-      <c r="AX77" s="208"/>
-      <c r="AY77" s="209"/>
+      <c r="AV77" s="184"/>
+      <c r="AW77" s="184"/>
+      <c r="AX77" s="184"/>
+      <c r="AY77" s="206"/>
       <c r="AZ77" s="49" t="s">
         <v>54</v>
       </c>
@@ -8858,33 +8788,33 @@
         <v>54</v>
       </c>
       <c r="AA78" s="168"/>
-      <c r="AB78" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC78" s="120"/>
-      <c r="AD78" s="121"/>
-      <c r="AE78" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF78" s="122"/>
-      <c r="AG78" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH78" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI78" s="88" t="s">
+      <c r="AB78" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC78" s="237"/>
+      <c r="AD78" s="238"/>
+      <c r="AE78" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF78" s="115"/>
+      <c r="AG78" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH78" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI78" s="90" t="s">
         <v>54</v>
       </c>
       <c r="AJ78" s="168"/>
       <c r="AK78" s="46"/>
-      <c r="AL78" s="207" t="s">
+      <c r="AL78" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="AM78" s="208"/>
-      <c r="AN78" s="208"/>
-      <c r="AO78" s="208"/>
-      <c r="AP78" s="208"/>
+      <c r="AM78" s="184"/>
+      <c r="AN78" s="184"/>
+      <c r="AO78" s="184"/>
+      <c r="AP78" s="184"/>
       <c r="AQ78" s="47" t="s">
         <v>54</v>
       </c>
@@ -8893,13 +8823,13 @@
       </c>
       <c r="AS78" s="168"/>
       <c r="AT78" s="48"/>
-      <c r="AU78" s="204" t="s">
+      <c r="AU78" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="AV78" s="205"/>
-      <c r="AW78" s="205"/>
-      <c r="AX78" s="205"/>
-      <c r="AY78" s="206"/>
+      <c r="AV78" s="204"/>
+      <c r="AW78" s="204"/>
+      <c r="AX78" s="204"/>
+      <c r="AY78" s="205"/>
       <c r="AZ78" s="49">
         <v>0</v>
       </c>
@@ -8978,13 +8908,13 @@
       </c>
       <c r="AJ79" s="168"/>
       <c r="AK79" s="46"/>
-      <c r="AL79" s="207" t="s">
+      <c r="AL79" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="208"/>
-      <c r="AN79" s="208"/>
-      <c r="AO79" s="208"/>
-      <c r="AP79" s="208"/>
+      <c r="AM79" s="184"/>
+      <c r="AN79" s="184"/>
+      <c r="AO79" s="184"/>
+      <c r="AP79" s="184"/>
       <c r="AQ79" s="47" t="s">
         <v>54</v>
       </c>
@@ -8993,13 +8923,13 @@
       </c>
       <c r="AS79" s="168"/>
       <c r="AT79" s="48"/>
-      <c r="AU79" s="204" t="s">
+      <c r="AU79" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="AV79" s="205"/>
-      <c r="AW79" s="205"/>
-      <c r="AX79" s="205"/>
-      <c r="AY79" s="206"/>
+      <c r="AV79" s="204"/>
+      <c r="AW79" s="204"/>
+      <c r="AX79" s="204"/>
+      <c r="AY79" s="205"/>
       <c r="AZ79" s="49">
         <v>0</v>
       </c>
@@ -9076,13 +9006,13 @@
       </c>
       <c r="AJ80" s="168"/>
       <c r="AK80" s="46"/>
-      <c r="AL80" s="207" t="s">
+      <c r="AL80" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="AM80" s="208"/>
-      <c r="AN80" s="208"/>
-      <c r="AO80" s="208"/>
-      <c r="AP80" s="208"/>
+      <c r="AM80" s="184"/>
+      <c r="AN80" s="184"/>
+      <c r="AO80" s="184"/>
+      <c r="AP80" s="184"/>
       <c r="AQ80" s="47" t="s">
         <v>54</v>
       </c>
@@ -9091,13 +9021,13 @@
       </c>
       <c r="AS80" s="168"/>
       <c r="AT80" s="48"/>
-      <c r="AU80" s="204" t="s">
+      <c r="AU80" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="AV80" s="205"/>
-      <c r="AW80" s="205"/>
-      <c r="AX80" s="205"/>
-      <c r="AY80" s="206"/>
+      <c r="AV80" s="204"/>
+      <c r="AW80" s="204"/>
+      <c r="AX80" s="204"/>
+      <c r="AY80" s="205"/>
       <c r="AZ80" s="49">
         <v>0</v>
       </c>
@@ -9162,13 +9092,13 @@
       <c r="AI81" s="155"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="46"/>
-      <c r="AL81" s="207" t="s">
+      <c r="AL81" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="AM81" s="208"/>
-      <c r="AN81" s="208"/>
-      <c r="AO81" s="208"/>
-      <c r="AP81" s="208"/>
+      <c r="AM81" s="184"/>
+      <c r="AN81" s="184"/>
+      <c r="AO81" s="184"/>
+      <c r="AP81" s="184"/>
       <c r="AQ81" s="47" t="s">
         <v>54</v>
       </c>
@@ -9177,13 +9107,13 @@
       </c>
       <c r="AS81" s="168"/>
       <c r="AT81" s="48"/>
-      <c r="AU81" s="204" t="s">
+      <c r="AU81" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="AV81" s="205"/>
-      <c r="AW81" s="205"/>
-      <c r="AX81" s="205"/>
-      <c r="AY81" s="206"/>
+      <c r="AV81" s="204"/>
+      <c r="AW81" s="204"/>
+      <c r="AX81" s="204"/>
+      <c r="AY81" s="205"/>
       <c r="AZ81" s="49">
         <v>0</v>
       </c>
@@ -9324,27 +9254,27 @@
       </c>
       <c r="Q84" s="169"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="220" t="s">
+      <c r="S84" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="T84" s="221"/>
-      <c r="U84" s="221"/>
-      <c r="V84" s="221"/>
-      <c r="W84" s="221"/>
-      <c r="X84" s="221"/>
-      <c r="Y84" s="221"/>
-      <c r="Z84" s="221"/>
+      <c r="T84" s="179"/>
+      <c r="U84" s="179"/>
+      <c r="V84" s="179"/>
+      <c r="W84" s="179"/>
+      <c r="X84" s="179"/>
+      <c r="Y84" s="179"/>
+      <c r="Z84" s="179"/>
       <c r="AA84" s="168"/>
-      <c r="AB84" s="220" t="s">
+      <c r="AB84" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="AC84" s="221"/>
-      <c r="AD84" s="221"/>
-      <c r="AE84" s="221"/>
-      <c r="AF84" s="221"/>
-      <c r="AG84" s="221"/>
-      <c r="AH84" s="221"/>
-      <c r="AI84" s="221"/>
+      <c r="AC84" s="179"/>
+      <c r="AD84" s="179"/>
+      <c r="AE84" s="179"/>
+      <c r="AF84" s="179"/>
+      <c r="AG84" s="179"/>
+      <c r="AH84" s="179"/>
+      <c r="AI84" s="179"/>
       <c r="AJ84" s="168"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -9364,25 +9294,25 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="222" t="s">
+      <c r="BC84" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BD84" s="223"/>
-      <c r="BE84" s="223"/>
-      <c r="BF84" s="223"/>
-      <c r="BG84" s="223"/>
-      <c r="BH84" s="223"/>
-      <c r="BI84" s="224"/>
+      <c r="BD84" s="193"/>
+      <c r="BE84" s="193"/>
+      <c r="BF84" s="193"/>
+      <c r="BG84" s="193"/>
+      <c r="BH84" s="193"/>
+      <c r="BI84" s="194"/>
       <c r="BJ84" s="7"/>
-      <c r="BK84" s="222" t="s">
+      <c r="BK84" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BL84" s="223"/>
-      <c r="BM84" s="223"/>
-      <c r="BN84" s="223"/>
-      <c r="BO84" s="223"/>
-      <c r="BP84" s="223"/>
-      <c r="BQ84" s="224"/>
+      <c r="BL84" s="193"/>
+      <c r="BM84" s="193"/>
+      <c r="BN84" s="193"/>
+      <c r="BO84" s="193"/>
+      <c r="BP84" s="193"/>
+      <c r="BQ84" s="194"/>
     </row>
     <row r="85" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="14"/>
@@ -9462,25 +9392,25 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="238" t="s">
+      <c r="BC85" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="BD85" s="239"/>
-      <c r="BE85" s="239"/>
-      <c r="BF85" s="239"/>
-      <c r="BG85" s="239"/>
-      <c r="BH85" s="239"/>
-      <c r="BI85" s="240"/>
+      <c r="BD85" s="209"/>
+      <c r="BE85" s="209"/>
+      <c r="BF85" s="209"/>
+      <c r="BG85" s="209"/>
+      <c r="BH85" s="209"/>
+      <c r="BI85" s="210"/>
       <c r="BJ85" s="7"/>
-      <c r="BK85" s="238" t="s">
+      <c r="BK85" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="BL85" s="239"/>
-      <c r="BM85" s="239"/>
-      <c r="BN85" s="239"/>
-      <c r="BO85" s="239"/>
-      <c r="BP85" s="239"/>
-      <c r="BQ85" s="240"/>
+      <c r="BL85" s="209"/>
+      <c r="BM85" s="209"/>
+      <c r="BN85" s="209"/>
+      <c r="BO85" s="209"/>
+      <c r="BP85" s="209"/>
+      <c r="BQ85" s="210"/>
     </row>
     <row r="86" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="22"/>
@@ -9511,20 +9441,20 @@
         <v>54</v>
       </c>
       <c r="AA86" s="168"/>
-      <c r="AB86" s="180">
+      <c r="AB86" s="73">
         <v>42916</v>
       </c>
-      <c r="AC86" s="189"/>
-      <c r="AD86" s="190"/>
-      <c r="AE86" s="183" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF86" s="191"/>
-      <c r="AG86" s="185"/>
-      <c r="AH86" s="192" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI86" s="192">
+      <c r="AC86" s="111"/>
+      <c r="AD86" s="112"/>
+      <c r="AE86" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF86" s="115"/>
+      <c r="AG86" s="78"/>
+      <c r="AH86" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI86" s="80">
         <v>3750</v>
       </c>
       <c r="AJ86" s="168"/>
@@ -9546,26 +9476,26 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="230" t="str">
+      <c r="BC86" s="201" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD86" s="231"/>
-      <c r="BE86" s="231"/>
-      <c r="BF86" s="231"/>
-      <c r="BG86" s="231"/>
-      <c r="BH86" s="231"/>
+      <c r="BD86" s="202"/>
+      <c r="BE86" s="202"/>
+      <c r="BF86" s="202"/>
+      <c r="BG86" s="202"/>
+      <c r="BH86" s="202"/>
       <c r="BI86" s="13"/>
       <c r="BJ86" s="7"/>
-      <c r="BK86" s="230" t="str">
+      <c r="BK86" s="201" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL86" s="231"/>
-      <c r="BM86" s="231"/>
-      <c r="BN86" s="231"/>
-      <c r="BO86" s="231"/>
-      <c r="BP86" s="231"/>
+      <c r="BL86" s="202"/>
+      <c r="BM86" s="202"/>
+      <c r="BN86" s="202"/>
+      <c r="BO86" s="202"/>
+      <c r="BP86" s="202"/>
       <c r="BQ86" s="13"/>
     </row>
     <row r="87" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9599,20 +9529,20 @@
         <v>54</v>
       </c>
       <c r="AA87" s="168"/>
-      <c r="AB87" s="180">
+      <c r="AB87" s="73">
         <v>42916</v>
       </c>
-      <c r="AC87" s="193"/>
-      <c r="AD87" s="194"/>
-      <c r="AE87" s="183">
+      <c r="AC87" s="237"/>
+      <c r="AD87" s="238"/>
+      <c r="AE87" s="76">
         <v>1200</v>
       </c>
-      <c r="AF87" s="191"/>
-      <c r="AG87" s="185"/>
-      <c r="AH87" s="195" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI87" s="195">
+      <c r="AF87" s="115"/>
+      <c r="AG87" s="78"/>
+      <c r="AH87" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI87" s="90">
         <v>2550</v>
       </c>
       <c r="AJ87" s="168"/>
@@ -9683,20 +9613,20 @@
         <v>54</v>
       </c>
       <c r="AA88" s="168"/>
-      <c r="AB88" s="180">
+      <c r="AB88" s="73">
         <v>42916</v>
       </c>
-      <c r="AC88" s="189"/>
-      <c r="AD88" s="190"/>
-      <c r="AE88" s="183">
+      <c r="AC88" s="111"/>
+      <c r="AD88" s="112"/>
+      <c r="AE88" s="76">
         <v>220</v>
       </c>
-      <c r="AF88" s="191"/>
-      <c r="AG88" s="185"/>
-      <c r="AH88" s="196" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI88" s="196">
+      <c r="AF88" s="115"/>
+      <c r="AG88" s="78"/>
+      <c r="AH88" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI88" s="82">
         <v>2330</v>
       </c>
       <c r="AJ88" s="168"/>
@@ -9769,20 +9699,20 @@
         <v>54</v>
       </c>
       <c r="AA89" s="168"/>
-      <c r="AB89" s="180">
+      <c r="AB89" s="73">
         <v>42916</v>
       </c>
-      <c r="AC89" s="189"/>
-      <c r="AD89" s="190"/>
-      <c r="AE89" s="183">
+      <c r="AC89" s="111"/>
+      <c r="AD89" s="112"/>
+      <c r="AE89" s="76">
         <v>175</v>
       </c>
-      <c r="AF89" s="191"/>
-      <c r="AG89" s="185"/>
-      <c r="AH89" s="196" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI89" s="196">
+      <c r="AF89" s="115"/>
+      <c r="AG89" s="78"/>
+      <c r="AH89" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI89" s="82">
         <v>2155</v>
       </c>
       <c r="AJ89" s="168"/>
@@ -9853,20 +9783,20 @@
         <v>54</v>
       </c>
       <c r="AA90" s="168"/>
-      <c r="AB90" s="180">
+      <c r="AB90" s="73">
         <v>42916</v>
       </c>
-      <c r="AC90" s="189"/>
-      <c r="AD90" s="190"/>
-      <c r="AE90" s="183">
+      <c r="AC90" s="111"/>
+      <c r="AD90" s="112"/>
+      <c r="AE90" s="76">
         <v>50</v>
       </c>
-      <c r="AF90" s="191"/>
-      <c r="AG90" s="185"/>
-      <c r="AH90" s="196" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI90" s="196">
+      <c r="AF90" s="115"/>
+      <c r="AG90" s="78"/>
+      <c r="AH90" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI90" s="82">
         <v>2105</v>
       </c>
       <c r="AJ90" s="168"/>
@@ -9939,20 +9869,20 @@
         <v>54</v>
       </c>
       <c r="AA91" s="168"/>
-      <c r="AB91" s="180">
+      <c r="AB91" s="73">
         <v>42916</v>
       </c>
-      <c r="AC91" s="189"/>
-      <c r="AD91" s="190"/>
-      <c r="AE91" s="183">
+      <c r="AC91" s="111"/>
+      <c r="AD91" s="112"/>
+      <c r="AE91" s="76">
         <v>700</v>
       </c>
-      <c r="AF91" s="191"/>
-      <c r="AG91" s="185"/>
-      <c r="AH91" s="196" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI91" s="196">
+      <c r="AF91" s="115"/>
+      <c r="AG91" s="78"/>
+      <c r="AH91" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI91" s="82">
         <v>1405</v>
       </c>
       <c r="AJ91" s="168"/>
@@ -10470,25 +10400,25 @@
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
-      <c r="BC97" s="222" t="s">
+      <c r="BC97" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BD97" s="223"/>
-      <c r="BE97" s="223"/>
-      <c r="BF97" s="223"/>
-      <c r="BG97" s="223"/>
-      <c r="BH97" s="223"/>
-      <c r="BI97" s="224"/>
+      <c r="BD97" s="193"/>
+      <c r="BE97" s="193"/>
+      <c r="BF97" s="193"/>
+      <c r="BG97" s="193"/>
+      <c r="BH97" s="193"/>
+      <c r="BI97" s="194"/>
       <c r="BJ97" s="7"/>
-      <c r="BK97" s="222" t="s">
+      <c r="BK97" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="BL97" s="223"/>
-      <c r="BM97" s="223"/>
-      <c r="BN97" s="223"/>
-      <c r="BO97" s="223"/>
-      <c r="BP97" s="223"/>
-      <c r="BQ97" s="224"/>
+      <c r="BL97" s="193"/>
+      <c r="BM97" s="193"/>
+      <c r="BN97" s="193"/>
+      <c r="BO97" s="193"/>
+      <c r="BP97" s="193"/>
+      <c r="BQ97" s="194"/>
     </row>
     <row r="98" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="22"/>
@@ -10558,25 +10488,25 @@
       <c r="AZ98" s="3"/>
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
-      <c r="BC98" s="235" t="s">
+      <c r="BC98" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="BD98" s="236"/>
-      <c r="BE98" s="236"/>
-      <c r="BF98" s="236"/>
-      <c r="BG98" s="236"/>
-      <c r="BH98" s="236"/>
-      <c r="BI98" s="237"/>
+      <c r="BD98" s="187"/>
+      <c r="BE98" s="187"/>
+      <c r="BF98" s="187"/>
+      <c r="BG98" s="187"/>
+      <c r="BH98" s="187"/>
+      <c r="BI98" s="188"/>
       <c r="BJ98" s="7"/>
-      <c r="BK98" s="235" t="s">
+      <c r="BK98" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="BL98" s="236"/>
-      <c r="BM98" s="236"/>
-      <c r="BN98" s="236"/>
-      <c r="BO98" s="236"/>
-      <c r="BP98" s="236"/>
-      <c r="BQ98" s="237"/>
+      <c r="BL98" s="187"/>
+      <c r="BM98" s="187"/>
+      <c r="BN98" s="187"/>
+      <c r="BO98" s="187"/>
+      <c r="BP98" s="187"/>
+      <c r="BQ98" s="188"/>
     </row>
     <row r="99" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="40"/>
@@ -10646,27 +10576,27 @@
       <c r="AZ99" s="3"/>
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
-      <c r="BC99" s="243" t="str">
+      <c r="BC99" s="189" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BD99" s="244"/>
-      <c r="BE99" s="244"/>
-      <c r="BF99" s="244"/>
-      <c r="BG99" s="244"/>
-      <c r="BH99" s="244"/>
-      <c r="BI99" s="245"/>
+      <c r="BD99" s="190"/>
+      <c r="BE99" s="190"/>
+      <c r="BF99" s="190"/>
+      <c r="BG99" s="190"/>
+      <c r="BH99" s="190"/>
+      <c r="BI99" s="191"/>
       <c r="BJ99" s="7"/>
-      <c r="BK99" s="243" t="str">
+      <c r="BK99" s="189" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BL99" s="244"/>
-      <c r="BM99" s="244"/>
-      <c r="BN99" s="244"/>
-      <c r="BO99" s="244"/>
-      <c r="BP99" s="244"/>
-      <c r="BQ99" s="245"/>
+      <c r="BL99" s="190"/>
+      <c r="BM99" s="190"/>
+      <c r="BN99" s="190"/>
+      <c r="BO99" s="190"/>
+      <c r="BP99" s="190"/>
+      <c r="BQ99" s="191"/>
     </row>
     <row r="100" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="22"/>
@@ -10906,27 +10836,27 @@
       </c>
       <c r="Q103" s="165"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="220" t="s">
+      <c r="S103" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="T103" s="221"/>
-      <c r="U103" s="221"/>
-      <c r="V103" s="221"/>
-      <c r="W103" s="221"/>
-      <c r="X103" s="221"/>
-      <c r="Y103" s="221"/>
-      <c r="Z103" s="221"/>
+      <c r="T103" s="179"/>
+      <c r="U103" s="179"/>
+      <c r="V103" s="179"/>
+      <c r="W103" s="179"/>
+      <c r="X103" s="179"/>
+      <c r="Y103" s="179"/>
+      <c r="Z103" s="179"/>
       <c r="AA103" s="168"/>
-      <c r="AB103" s="220" t="s">
+      <c r="AB103" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="221"/>
-      <c r="AD103" s="221"/>
-      <c r="AE103" s="221"/>
-      <c r="AF103" s="221"/>
-      <c r="AG103" s="221"/>
-      <c r="AH103" s="221"/>
-      <c r="AI103" s="221"/>
+      <c r="AC103" s="179"/>
+      <c r="AD103" s="179"/>
+      <c r="AE103" s="179"/>
+      <c r="AF103" s="179"/>
+      <c r="AG103" s="179"/>
+      <c r="AH103" s="179"/>
+      <c r="AI103" s="179"/>
       <c r="AJ103" s="168"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
@@ -11241,20 +11171,20 @@
         <v>54</v>
       </c>
       <c r="AA107" s="168"/>
-      <c r="AB107" s="180">
+      <c r="AB107" s="73">
         <v>42947</v>
       </c>
-      <c r="AC107" s="181"/>
-      <c r="AD107" s="182"/>
-      <c r="AE107" s="183">
+      <c r="AC107" s="74"/>
+      <c r="AD107" s="75"/>
+      <c r="AE107" s="76">
         <v>700</v>
       </c>
-      <c r="AF107" s="184"/>
-      <c r="AG107" s="185"/>
-      <c r="AH107" s="186">
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="78"/>
+      <c r="AH107" s="91">
         <v>700</v>
       </c>
-      <c r="AI107" s="186" t="s">
+      <c r="AI107" s="91" t="s">
         <v>54</v>
       </c>
       <c r="AJ107" s="168"/>
@@ -11678,27 +11608,27 @@
     </row>
     <row r="114" spans="18:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="58"/>
-      <c r="S114" s="220" t="s">
+      <c r="S114" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="T114" s="221"/>
-      <c r="U114" s="221"/>
-      <c r="V114" s="221"/>
-      <c r="W114" s="221"/>
-      <c r="X114" s="221"/>
-      <c r="Y114" s="221"/>
-      <c r="Z114" s="221"/>
+      <c r="T114" s="179"/>
+      <c r="U114" s="179"/>
+      <c r="V114" s="179"/>
+      <c r="W114" s="179"/>
+      <c r="X114" s="179"/>
+      <c r="Y114" s="179"/>
+      <c r="Z114" s="179"/>
       <c r="AA114" s="168"/>
-      <c r="AB114" s="220" t="s">
+      <c r="AB114" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="AC114" s="221"/>
-      <c r="AD114" s="221"/>
-      <c r="AE114" s="221"/>
-      <c r="AF114" s="221"/>
-      <c r="AG114" s="221"/>
-      <c r="AH114" s="221"/>
-      <c r="AI114" s="221"/>
+      <c r="AC114" s="179"/>
+      <c r="AD114" s="179"/>
+      <c r="AE114" s="179"/>
+      <c r="AF114" s="179"/>
+      <c r="AG114" s="179"/>
+      <c r="AH114" s="179"/>
+      <c r="AI114" s="179"/>
       <c r="AJ114" s="168"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
@@ -12519,27 +12449,27 @@
     </row>
     <row r="131" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R131" s="58"/>
-      <c r="S131" s="220" t="s">
+      <c r="S131" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="221"/>
-      <c r="U131" s="221"/>
-      <c r="V131" s="221"/>
-      <c r="W131" s="221"/>
-      <c r="X131" s="221"/>
-      <c r="Y131" s="221"/>
-      <c r="Z131" s="221"/>
+      <c r="T131" s="179"/>
+      <c r="U131" s="179"/>
+      <c r="V131" s="179"/>
+      <c r="W131" s="179"/>
+      <c r="X131" s="179"/>
+      <c r="Y131" s="179"/>
+      <c r="Z131" s="179"/>
       <c r="AA131" s="168"/>
-      <c r="AB131" s="220" t="s">
+      <c r="AB131" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AC131" s="221"/>
-      <c r="AD131" s="221"/>
-      <c r="AE131" s="221"/>
-      <c r="AF131" s="221"/>
-      <c r="AG131" s="221"/>
-      <c r="AH131" s="221"/>
-      <c r="AI131" s="221"/>
+      <c r="AC131" s="179"/>
+      <c r="AD131" s="179"/>
+      <c r="AE131" s="179"/>
+      <c r="AF131" s="179"/>
+      <c r="AG131" s="179"/>
+      <c r="AH131" s="179"/>
+      <c r="AI131" s="179"/>
       <c r="AJ131" s="168"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
@@ -13152,27 +13082,27 @@
     </row>
     <row r="144" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R144" s="17"/>
-      <c r="S144" s="220" t="s">
+      <c r="S144" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="T144" s="221"/>
-      <c r="U144" s="221"/>
-      <c r="V144" s="221"/>
-      <c r="W144" s="221"/>
-      <c r="X144" s="221"/>
-      <c r="Y144" s="221"/>
-      <c r="Z144" s="221"/>
+      <c r="T144" s="179"/>
+      <c r="U144" s="179"/>
+      <c r="V144" s="179"/>
+      <c r="W144" s="179"/>
+      <c r="X144" s="179"/>
+      <c r="Y144" s="179"/>
+      <c r="Z144" s="179"/>
       <c r="AA144" s="168"/>
-      <c r="AB144" s="220" t="s">
+      <c r="AB144" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="AC144" s="221"/>
-      <c r="AD144" s="221"/>
-      <c r="AE144" s="221"/>
-      <c r="AF144" s="221"/>
-      <c r="AG144" s="221"/>
-      <c r="AH144" s="221"/>
-      <c r="AI144" s="221"/>
+      <c r="AC144" s="179"/>
+      <c r="AD144" s="179"/>
+      <c r="AE144" s="179"/>
+      <c r="AF144" s="179"/>
+      <c r="AG144" s="179"/>
+      <c r="AH144" s="179"/>
+      <c r="AI144" s="179"/>
       <c r="AJ144" s="168"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
@@ -13891,27 +13821,27 @@
     </row>
     <row r="159" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R159" s="4"/>
-      <c r="S159" s="220" t="s">
+      <c r="S159" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="T159" s="221"/>
-      <c r="U159" s="221"/>
-      <c r="V159" s="221"/>
-      <c r="W159" s="221"/>
-      <c r="X159" s="221"/>
-      <c r="Y159" s="221"/>
-      <c r="Z159" s="221"/>
+      <c r="T159" s="179"/>
+      <c r="U159" s="179"/>
+      <c r="V159" s="179"/>
+      <c r="W159" s="179"/>
+      <c r="X159" s="179"/>
+      <c r="Y159" s="179"/>
+      <c r="Z159" s="179"/>
       <c r="AA159" s="168"/>
-      <c r="AB159" s="220" t="s">
+      <c r="AB159" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="AC159" s="221"/>
-      <c r="AD159" s="221"/>
-      <c r="AE159" s="221"/>
-      <c r="AF159" s="221"/>
-      <c r="AG159" s="221"/>
-      <c r="AH159" s="221"/>
-      <c r="AI159" s="221"/>
+      <c r="AC159" s="179"/>
+      <c r="AD159" s="179"/>
+      <c r="AE159" s="179"/>
+      <c r="AF159" s="179"/>
+      <c r="AG159" s="179"/>
+      <c r="AH159" s="179"/>
+      <c r="AI159" s="179"/>
       <c r="AJ159" s="168"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
@@ -14416,27 +14346,27 @@
     </row>
     <row r="170" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R170" s="17"/>
-      <c r="S170" s="220" t="s">
+      <c r="S170" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="T170" s="221"/>
-      <c r="U170" s="221"/>
-      <c r="V170" s="221"/>
-      <c r="W170" s="221"/>
-      <c r="X170" s="221"/>
-      <c r="Y170" s="221"/>
-      <c r="Z170" s="221"/>
+      <c r="T170" s="179"/>
+      <c r="U170" s="179"/>
+      <c r="V170" s="179"/>
+      <c r="W170" s="179"/>
+      <c r="X170" s="179"/>
+      <c r="Y170" s="179"/>
+      <c r="Z170" s="179"/>
       <c r="AA170" s="1"/>
-      <c r="AB170" s="220" t="s">
+      <c r="AB170" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="AC170" s="221"/>
-      <c r="AD170" s="221"/>
-      <c r="AE170" s="221"/>
-      <c r="AF170" s="221"/>
-      <c r="AG170" s="221"/>
-      <c r="AH170" s="221"/>
-      <c r="AI170" s="221"/>
+      <c r="AC170" s="179"/>
+      <c r="AD170" s="179"/>
+      <c r="AE170" s="179"/>
+      <c r="AF170" s="179"/>
+      <c r="AG170" s="179"/>
+      <c r="AH170" s="179"/>
+      <c r="AI170" s="179"/>
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
@@ -14949,14 +14879,14 @@
     </row>
     <row r="183" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R183" s="17"/>
-      <c r="S183" s="241"/>
-      <c r="T183" s="241"/>
-      <c r="U183" s="241"/>
-      <c r="V183" s="241"/>
-      <c r="W183" s="241"/>
-      <c r="X183" s="241"/>
-      <c r="Y183" s="241"/>
-      <c r="Z183" s="241"/>
+      <c r="S183" s="214"/>
+      <c r="T183" s="214"/>
+      <c r="U183" s="214"/>
+      <c r="V183" s="214"/>
+      <c r="W183" s="214"/>
+      <c r="X183" s="214"/>
+      <c r="Y183" s="214"/>
+      <c r="Z183" s="214"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
@@ -14988,14 +14918,14 @@
     </row>
     <row r="184" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R184" s="17"/>
-      <c r="S184" s="241"/>
-      <c r="T184" s="241"/>
-      <c r="U184" s="241"/>
-      <c r="V184" s="241"/>
-      <c r="W184" s="241"/>
-      <c r="X184" s="241"/>
-      <c r="Y184" s="241"/>
-      <c r="Z184" s="241"/>
+      <c r="S184" s="214"/>
+      <c r="T184" s="214"/>
+      <c r="U184" s="214"/>
+      <c r="V184" s="214"/>
+      <c r="W184" s="214"/>
+      <c r="X184" s="214"/>
+      <c r="Y184" s="214"/>
+      <c r="Z184" s="214"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -15027,23 +14957,23 @@
     </row>
     <row r="185" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R185" s="17"/>
-      <c r="S185" s="241"/>
-      <c r="T185" s="241"/>
-      <c r="U185" s="241"/>
-      <c r="V185" s="241"/>
-      <c r="W185" s="241"/>
-      <c r="X185" s="241"/>
-      <c r="Y185" s="241"/>
-      <c r="Z185" s="241"/>
+      <c r="S185" s="214"/>
+      <c r="T185" s="214"/>
+      <c r="U185" s="214"/>
+      <c r="V185" s="214"/>
+      <c r="W185" s="214"/>
+      <c r="X185" s="214"/>
+      <c r="Y185" s="214"/>
+      <c r="Z185" s="214"/>
       <c r="AA185" s="1"/>
-      <c r="AB185" s="242"/>
-      <c r="AC185" s="242"/>
-      <c r="AD185" s="242"/>
-      <c r="AE185" s="242"/>
-      <c r="AF185" s="242"/>
-      <c r="AG185" s="242"/>
-      <c r="AH185" s="242"/>
-      <c r="AI185" s="242"/>
+      <c r="AB185" s="215"/>
+      <c r="AC185" s="215"/>
+      <c r="AD185" s="215"/>
+      <c r="AE185" s="215"/>
+      <c r="AF185" s="215"/>
+      <c r="AG185" s="215"/>
+      <c r="AH185" s="215"/>
+      <c r="AI185" s="215"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
@@ -15066,14 +14996,14 @@
     </row>
     <row r="186" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R186" s="17"/>
-      <c r="S186" s="241"/>
-      <c r="T186" s="241"/>
-      <c r="U186" s="241"/>
-      <c r="V186" s="241"/>
-      <c r="W186" s="241"/>
-      <c r="X186" s="241"/>
-      <c r="Y186" s="241"/>
-      <c r="Z186" s="241"/>
+      <c r="S186" s="214"/>
+      <c r="T186" s="214"/>
+      <c r="U186" s="214"/>
+      <c r="V186" s="214"/>
+      <c r="W186" s="214"/>
+      <c r="X186" s="214"/>
+      <c r="Y186" s="214"/>
+      <c r="Z186" s="214"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="128"/>
       <c r="AC186" s="128"/>
@@ -15105,14 +15035,14 @@
     </row>
     <row r="187" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R187" s="1"/>
-      <c r="S187" s="241"/>
-      <c r="T187" s="241"/>
-      <c r="U187" s="241"/>
-      <c r="V187" s="241"/>
-      <c r="W187" s="241"/>
-      <c r="X187" s="241"/>
-      <c r="Y187" s="241"/>
-      <c r="Z187" s="241"/>
+      <c r="S187" s="214"/>
+      <c r="T187" s="214"/>
+      <c r="U187" s="214"/>
+      <c r="V187" s="214"/>
+      <c r="W187" s="214"/>
+      <c r="X187" s="214"/>
+      <c r="Y187" s="214"/>
+      <c r="Z187" s="214"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
@@ -15144,14 +15074,14 @@
     </row>
     <row r="188" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R188" s="1"/>
-      <c r="S188" s="241"/>
-      <c r="T188" s="241"/>
-      <c r="U188" s="241"/>
-      <c r="V188" s="241"/>
-      <c r="W188" s="241"/>
-      <c r="X188" s="241"/>
-      <c r="Y188" s="241"/>
-      <c r="Z188" s="241"/>
+      <c r="S188" s="214"/>
+      <c r="T188" s="214"/>
+      <c r="U188" s="214"/>
+      <c r="V188" s="214"/>
+      <c r="W188" s="214"/>
+      <c r="X188" s="214"/>
+      <c r="Y188" s="214"/>
+      <c r="Z188" s="214"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -20721,60 +20651,102 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AL21:AP21"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="AL23:AP23"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AB44:AI44"/>
-    <mergeCell ref="AK34:AR34"/>
-    <mergeCell ref="BC48:BI48"/>
-    <mergeCell ref="BK48:BQ48"/>
-    <mergeCell ref="BC49:BI49"/>
-    <mergeCell ref="BK49:BQ49"/>
-    <mergeCell ref="BC47:BI47"/>
-    <mergeCell ref="BK47:BQ47"/>
-    <mergeCell ref="AK52:AR52"/>
-    <mergeCell ref="AT52:BA52"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="BK67:BQ67"/>
-    <mergeCell ref="BC68:BI68"/>
-    <mergeCell ref="BK68:BQ68"/>
-    <mergeCell ref="BC69:BH69"/>
-    <mergeCell ref="BK69:BP69"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="AU63:AY63"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="AB59:AI59"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AU61:AY61"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AU62:AY62"/>
-    <mergeCell ref="AT69:BA69"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="AU64:AY64"/>
-    <mergeCell ref="AU59:AY59"/>
-    <mergeCell ref="AL59:AP59"/>
-    <mergeCell ref="AB103:AI103"/>
-    <mergeCell ref="BC98:BI98"/>
-    <mergeCell ref="BC99:BI99"/>
-    <mergeCell ref="BK97:BQ97"/>
-    <mergeCell ref="BK98:BQ98"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="AB84:AI84"/>
-    <mergeCell ref="BK99:BQ99"/>
-    <mergeCell ref="BK84:BQ84"/>
-    <mergeCell ref="BK85:BQ85"/>
-    <mergeCell ref="BK86:BP86"/>
-    <mergeCell ref="BC84:BI84"/>
-    <mergeCell ref="BC85:BI85"/>
-    <mergeCell ref="BC86:BH86"/>
-    <mergeCell ref="BC97:BI97"/>
+    <mergeCell ref="AU81:AY81"/>
+    <mergeCell ref="AU80:AY80"/>
+    <mergeCell ref="AU79:AY79"/>
+    <mergeCell ref="AU76:AY76"/>
+    <mergeCell ref="AU75:AY75"/>
+    <mergeCell ref="AU74:AY74"/>
+    <mergeCell ref="AU73:AY73"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="AU70:AY70"/>
+    <mergeCell ref="AU77:AY77"/>
+    <mergeCell ref="AU78:AY78"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="AL81:AP81"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AT34:BA34"/>
+    <mergeCell ref="AU46:AY46"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="AT17:BA17"/>
+    <mergeCell ref="AT16:AZ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AT18:BA18"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AL26:AP26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AL24:AP24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AL25:AP25"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="AL44:AP44"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="AL46:AP46"/>
+    <mergeCell ref="S75:Z75"/>
+    <mergeCell ref="AB75:AI75"/>
+    <mergeCell ref="BC67:BI67"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AL57:AP57"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AK51:AR51"/>
+    <mergeCell ref="AT51:BA51"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="BK19:BQ19"/>
+    <mergeCell ref="AK35:AR35"/>
+    <mergeCell ref="AT35:BA35"/>
+    <mergeCell ref="AK36:AP36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="AU43:AY43"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AL28:AP28"/>
+    <mergeCell ref="BC19:BH19"/>
+    <mergeCell ref="AL30:AP30"/>
+    <mergeCell ref="AL41:AP41"/>
+    <mergeCell ref="AL42:AP42"/>
+    <mergeCell ref="BK34:BQ34"/>
+    <mergeCell ref="BK35:BQ35"/>
+    <mergeCell ref="BK36:BQ36"/>
+    <mergeCell ref="BC34:BI34"/>
+    <mergeCell ref="BC35:BI35"/>
+    <mergeCell ref="BC36:BI36"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AU38:AY38"/>
     <mergeCell ref="BC16:BI16"/>
     <mergeCell ref="BK16:BQ16"/>
     <mergeCell ref="BC17:BI17"/>
@@ -20799,110 +20771,68 @@
     <mergeCell ref="S114:Z114"/>
     <mergeCell ref="AB114:AI114"/>
     <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="BK19:BQ19"/>
-    <mergeCell ref="AK35:AR35"/>
-    <mergeCell ref="AT35:BA35"/>
-    <mergeCell ref="AK36:AP36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="AU43:AY43"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AL28:AP28"/>
-    <mergeCell ref="BC19:BH19"/>
-    <mergeCell ref="AL30:AP30"/>
-    <mergeCell ref="AL41:AP41"/>
-    <mergeCell ref="AL42:AP42"/>
-    <mergeCell ref="BK34:BQ34"/>
-    <mergeCell ref="BK35:BQ35"/>
-    <mergeCell ref="BK36:BQ36"/>
-    <mergeCell ref="BC34:BI34"/>
-    <mergeCell ref="BC35:BI35"/>
-    <mergeCell ref="BC36:BI36"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AB103:AI103"/>
+    <mergeCell ref="BC98:BI98"/>
+    <mergeCell ref="BC99:BI99"/>
+    <mergeCell ref="BK97:BQ97"/>
+    <mergeCell ref="BK98:BQ98"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="AB84:AI84"/>
+    <mergeCell ref="BK99:BQ99"/>
+    <mergeCell ref="BK84:BQ84"/>
+    <mergeCell ref="BK85:BQ85"/>
+    <mergeCell ref="BK86:BP86"/>
+    <mergeCell ref="BC84:BI84"/>
+    <mergeCell ref="BC85:BI85"/>
+    <mergeCell ref="BC86:BH86"/>
+    <mergeCell ref="BC97:BI97"/>
+    <mergeCell ref="BK67:BQ67"/>
+    <mergeCell ref="BC68:BI68"/>
+    <mergeCell ref="BK68:BQ68"/>
+    <mergeCell ref="BC69:BH69"/>
+    <mergeCell ref="BK69:BP69"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="AU63:AY63"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="AB59:AI59"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AU61:AY61"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AU62:AY62"/>
+    <mergeCell ref="AT69:BA69"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="AU64:AY64"/>
+    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="AL59:AP59"/>
+    <mergeCell ref="BC48:BI48"/>
+    <mergeCell ref="BK48:BQ48"/>
+    <mergeCell ref="BC49:BI49"/>
+    <mergeCell ref="BK49:BQ49"/>
+    <mergeCell ref="BC47:BI47"/>
+    <mergeCell ref="BK47:BQ47"/>
+    <mergeCell ref="AK52:AR52"/>
+    <mergeCell ref="AT52:BA52"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AU53:AY53"/>
     <mergeCell ref="AL47:AP47"/>
     <mergeCell ref="AU47:AY47"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AU38:AY38"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AL21:AP21"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="AL23:AP23"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AB44:AI44"/>
+    <mergeCell ref="AK34:AR34"/>
     <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AU39:AY39"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AU40:AY40"/>
-    <mergeCell ref="AL44:AP44"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="S75:Z75"/>
-    <mergeCell ref="AB75:AI75"/>
-    <mergeCell ref="BC67:BI67"/>
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AL57:AP57"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="AT17:BA17"/>
-    <mergeCell ref="AT16:AZ16"/>
-    <mergeCell ref="AK16:AQ16"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AT18:BA18"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AL26:AP26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AL24:AP24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AT51:BA51"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AK68:AR68"/>
-    <mergeCell ref="AK69:AR69"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AL29:AP29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AU45:AY45"/>
-    <mergeCell ref="AU44:AY44"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AU41:AY41"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="AL81:AP81"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AU81:AY81"/>
-    <mergeCell ref="AU80:AY80"/>
-    <mergeCell ref="AU79:AY79"/>
-    <mergeCell ref="AU76:AY76"/>
-    <mergeCell ref="AU75:AY75"/>
-    <mergeCell ref="AU74:AY74"/>
-    <mergeCell ref="AU73:AY73"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="AU70:AY70"/>
-    <mergeCell ref="AU77:AY77"/>
-    <mergeCell ref="AU78:AY78"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a credit." sqref="V116 V61 V77" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a debit." sqref="X152 X154 AG165 AG150 X133 AI109 X19 AG46 AG137 AG133 X161 X46 AG172 X146 AG176 AG161 AG146 X172 X105" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a credit." sqref="V116 V61 V77"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The first entry in this account should be a debit." sqref="X152 X154 AG165 AG150 X133 AI109 X19 AG46 AG137 AG133 X161 X46 AG172 X146 AG176 AG161 AG146 X172 X105"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
+++ b/assets/public/Documents/Comprehensive/Approach/Compro comprehensive problem (Original).xlsx
@@ -1645,190 +1645,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -1885,6 +1701,190 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2205,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BQ330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB107" sqref="AB107:AI107"/>
     </sheetView>
   </sheetViews>
@@ -2948,82 +2948,82 @@
       <c r="D16" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="180" t="s">
+      <c r="H16" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180" t="s">
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="180"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="211"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="180" t="s">
+      <c r="S16" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="180"/>
-      <c r="U16" s="180"/>
-      <c r="V16" s="180"/>
-      <c r="W16" s="180"/>
-      <c r="X16" s="180"/>
-      <c r="Y16" s="180"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="211"/>
+      <c r="X16" s="211"/>
+      <c r="Y16" s="211"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="180" t="s">
+      <c r="AB16" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="180"/>
-      <c r="AD16" s="180"/>
-      <c r="AE16" s="180"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
+      <c r="AC16" s="211"/>
+      <c r="AD16" s="211"/>
+      <c r="AE16" s="211"/>
+      <c r="AF16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="211"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="180" t="s">
+      <c r="AK16" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="AL16" s="180"/>
-      <c r="AM16" s="180"/>
-      <c r="AN16" s="180"/>
-      <c r="AO16" s="180"/>
-      <c r="AP16" s="180"/>
-      <c r="AQ16" s="180"/>
+      <c r="AL16" s="211"/>
+      <c r="AM16" s="211"/>
+      <c r="AN16" s="211"/>
+      <c r="AO16" s="211"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="211"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="180" t="s">
+      <c r="AT16" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="AU16" s="180"/>
-      <c r="AV16" s="180"/>
-      <c r="AW16" s="180"/>
-      <c r="AX16" s="180"/>
-      <c r="AY16" s="180"/>
-      <c r="AZ16" s="180"/>
+      <c r="AU16" s="211"/>
+      <c r="AV16" s="211"/>
+      <c r="AW16" s="211"/>
+      <c r="AX16" s="211"/>
+      <c r="AY16" s="211"/>
+      <c r="AZ16" s="211"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="180" t="s">
+      <c r="BC16" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="BD16" s="180"/>
-      <c r="BE16" s="180"/>
-      <c r="BF16" s="180"/>
-      <c r="BG16" s="180"/>
-      <c r="BH16" s="180"/>
-      <c r="BI16" s="180"/>
+      <c r="BD16" s="211"/>
+      <c r="BE16" s="211"/>
+      <c r="BF16" s="211"/>
+      <c r="BG16" s="211"/>
+      <c r="BH16" s="211"/>
+      <c r="BI16" s="211"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="180" t="s">
+      <c r="BK16" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="BL16" s="180"/>
-      <c r="BM16" s="180"/>
-      <c r="BN16" s="180"/>
-      <c r="BO16" s="180"/>
-      <c r="BP16" s="180"/>
-      <c r="BQ16" s="180"/>
+      <c r="BL16" s="211"/>
+      <c r="BM16" s="211"/>
+      <c r="BN16" s="211"/>
+      <c r="BO16" s="211"/>
+      <c r="BP16" s="211"/>
+      <c r="BQ16" s="211"/>
     </row>
     <row r="17" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="170">
@@ -3060,69 +3060,69 @@
       </c>
       <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="178" t="s">
+      <c r="S17" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="179"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="179"/>
-      <c r="Z17" s="179"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215"/>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="215"/>
       <c r="AA17" s="168"/>
-      <c r="AB17" s="178" t="s">
+      <c r="AB17" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="179"/>
-      <c r="AD17" s="179"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
+      <c r="AC17" s="215"/>
+      <c r="AD17" s="215"/>
+      <c r="AE17" s="215"/>
+      <c r="AF17" s="215"/>
+      <c r="AG17" s="215"/>
+      <c r="AH17" s="215"/>
+      <c r="AI17" s="215"/>
       <c r="AJ17" s="168"/>
-      <c r="AK17" s="185" t="s">
+      <c r="AK17" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="AL17" s="185"/>
-      <c r="AM17" s="185"/>
-      <c r="AN17" s="185"/>
-      <c r="AO17" s="185"/>
-      <c r="AP17" s="185"/>
-      <c r="AQ17" s="185"/>
-      <c r="AR17" s="185"/>
+      <c r="AL17" s="209"/>
+      <c r="AM17" s="209"/>
+      <c r="AN17" s="209"/>
+      <c r="AO17" s="209"/>
+      <c r="AP17" s="209"/>
+      <c r="AQ17" s="209"/>
+      <c r="AR17" s="209"/>
       <c r="AS17" s="168"/>
-      <c r="AT17" s="185" t="s">
+      <c r="AT17" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="AU17" s="185"/>
-      <c r="AV17" s="185"/>
-      <c r="AW17" s="185"/>
-      <c r="AX17" s="185"/>
-      <c r="AY17" s="185"/>
-      <c r="AZ17" s="185"/>
-      <c r="BA17" s="207"/>
+      <c r="AU17" s="209"/>
+      <c r="AV17" s="209"/>
+      <c r="AW17" s="209"/>
+      <c r="AX17" s="209"/>
+      <c r="AY17" s="209"/>
+      <c r="AZ17" s="209"/>
+      <c r="BA17" s="210"/>
       <c r="BB17" s="168"/>
-      <c r="BC17" s="192" t="s">
+      <c r="BC17" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" s="193"/>
-      <c r="BE17" s="193"/>
-      <c r="BF17" s="193"/>
-      <c r="BG17" s="193"/>
-      <c r="BH17" s="193"/>
-      <c r="BI17" s="194"/>
+      <c r="BD17" s="217"/>
+      <c r="BE17" s="217"/>
+      <c r="BF17" s="217"/>
+      <c r="BG17" s="217"/>
+      <c r="BH17" s="217"/>
+      <c r="BI17" s="218"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="211" t="s">
+      <c r="BK17" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="BL17" s="212"/>
-      <c r="BM17" s="212"/>
-      <c r="BN17" s="212"/>
-      <c r="BO17" s="212"/>
-      <c r="BP17" s="212"/>
-      <c r="BQ17" s="213"/>
+      <c r="BL17" s="225"/>
+      <c r="BM17" s="225"/>
+      <c r="BN17" s="225"/>
+      <c r="BO17" s="225"/>
+      <c r="BP17" s="225"/>
+      <c r="BQ17" s="226"/>
     </row>
     <row r="18" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="170">
@@ -3191,47 +3191,47 @@
         <v>27</v>
       </c>
       <c r="AJ18" s="168"/>
-      <c r="AK18" s="195" t="s">
+      <c r="AK18" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="185"/>
-      <c r="AM18" s="185"/>
-      <c r="AN18" s="185"/>
-      <c r="AO18" s="185"/>
-      <c r="AP18" s="185"/>
-      <c r="AQ18" s="185"/>
-      <c r="AR18" s="185"/>
+      <c r="AL18" s="209"/>
+      <c r="AM18" s="209"/>
+      <c r="AN18" s="209"/>
+      <c r="AO18" s="209"/>
+      <c r="AP18" s="209"/>
+      <c r="AQ18" s="209"/>
+      <c r="AR18" s="209"/>
       <c r="AS18" s="168"/>
-      <c r="AT18" s="195" t="s">
+      <c r="AT18" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="AU18" s="195"/>
-      <c r="AV18" s="195"/>
-      <c r="AW18" s="195"/>
-      <c r="AX18" s="195"/>
-      <c r="AY18" s="195"/>
-      <c r="AZ18" s="195"/>
-      <c r="BA18" s="196"/>
+      <c r="AU18" s="212"/>
+      <c r="AV18" s="212"/>
+      <c r="AW18" s="212"/>
+      <c r="AX18" s="212"/>
+      <c r="AY18" s="212"/>
+      <c r="AZ18" s="212"/>
+      <c r="BA18" s="213"/>
       <c r="BB18" s="168"/>
-      <c r="BC18" s="186" t="s">
+      <c r="BC18" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="BD18" s="187"/>
-      <c r="BE18" s="187"/>
-      <c r="BF18" s="187"/>
-      <c r="BG18" s="187"/>
-      <c r="BH18" s="187"/>
-      <c r="BI18" s="188"/>
+      <c r="BD18" s="232"/>
+      <c r="BE18" s="232"/>
+      <c r="BF18" s="232"/>
+      <c r="BG18" s="232"/>
+      <c r="BH18" s="232"/>
+      <c r="BI18" s="233"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="208" t="s">
+      <c r="BK18" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="BL18" s="209"/>
-      <c r="BM18" s="209"/>
-      <c r="BN18" s="209"/>
-      <c r="BO18" s="209"/>
-      <c r="BP18" s="209"/>
-      <c r="BQ18" s="210"/>
+      <c r="BL18" s="228"/>
+      <c r="BM18" s="228"/>
+      <c r="BN18" s="228"/>
+      <c r="BO18" s="228"/>
+      <c r="BP18" s="228"/>
+      <c r="BQ18" s="229"/>
     </row>
     <row r="19" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="170">
@@ -3288,14 +3288,14 @@
         <v>54</v>
       </c>
       <c r="AJ19" s="168"/>
-      <c r="AK19" s="197" t="s">
+      <c r="AK19" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="AL19" s="197"/>
-      <c r="AM19" s="197"/>
-      <c r="AN19" s="197"/>
-      <c r="AO19" s="197"/>
-      <c r="AP19" s="197"/>
+      <c r="AL19" s="205"/>
+      <c r="AM19" s="205"/>
+      <c r="AN19" s="205"/>
+      <c r="AO19" s="205"/>
+      <c r="AP19" s="205"/>
       <c r="AQ19" s="141" t="s">
         <v>26</v>
       </c>
@@ -3304,13 +3304,13 @@
       </c>
       <c r="AS19" s="168"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="198" t="s">
+      <c r="AU19" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="AV19" s="199"/>
-      <c r="AW19" s="199"/>
-      <c r="AX19" s="199"/>
-      <c r="AY19" s="200"/>
+      <c r="AV19" s="203"/>
+      <c r="AW19" s="203"/>
+      <c r="AX19" s="203"/>
+      <c r="AY19" s="204"/>
       <c r="AZ19" s="156" t="s">
         <v>26</v>
       </c>
@@ -3318,26 +3318,26 @@
         <v>27</v>
       </c>
       <c r="BB19" s="168"/>
-      <c r="BC19" s="201" t="str">
+      <c r="BC19" s="222" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="BD19" s="202"/>
-      <c r="BE19" s="202"/>
-      <c r="BF19" s="202"/>
-      <c r="BG19" s="202"/>
-      <c r="BH19" s="202"/>
+      <c r="BD19" s="223"/>
+      <c r="BE19" s="223"/>
+      <c r="BF19" s="223"/>
+      <c r="BG19" s="223"/>
+      <c r="BH19" s="223"/>
       <c r="BI19" s="13"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="216" t="s">
+      <c r="BK19" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="BL19" s="217"/>
-      <c r="BM19" s="217"/>
-      <c r="BN19" s="217"/>
-      <c r="BO19" s="217"/>
-      <c r="BP19" s="217"/>
-      <c r="BQ19" s="218"/>
+      <c r="BL19" s="220"/>
+      <c r="BM19" s="220"/>
+      <c r="BN19" s="220"/>
+      <c r="BO19" s="220"/>
+      <c r="BP19" s="220"/>
+      <c r="BQ19" s="221"/>
     </row>
     <row r="20" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170"/>
@@ -3494,13 +3494,13 @@
       </c>
       <c r="AJ21" s="168"/>
       <c r="AK21" s="46"/>
-      <c r="AL21" s="181" t="s">
+      <c r="AL21" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AM21" s="182"/>
-      <c r="AN21" s="182"/>
-      <c r="AO21" s="182"/>
-      <c r="AP21" s="182"/>
+      <c r="AM21" s="200"/>
+      <c r="AN21" s="200"/>
+      <c r="AO21" s="200"/>
+      <c r="AP21" s="200"/>
       <c r="AQ21" s="47" t="s">
         <v>54</v>
       </c>
@@ -3509,13 +3509,13 @@
       </c>
       <c r="AS21" s="168"/>
       <c r="AT21" s="48"/>
-      <c r="AU21" s="181" t="s">
+      <c r="AU21" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AV21" s="182"/>
-      <c r="AW21" s="182"/>
-      <c r="AX21" s="182"/>
-      <c r="AY21" s="220"/>
+      <c r="AV21" s="200"/>
+      <c r="AW21" s="200"/>
+      <c r="AX21" s="200"/>
+      <c r="AY21" s="201"/>
       <c r="AZ21" s="49">
         <v>2800</v>
       </c>
@@ -3595,13 +3595,13 @@
       </c>
       <c r="AJ22" s="168"/>
       <c r="AK22" s="46"/>
-      <c r="AL22" s="183" t="s">
+      <c r="AL22" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM22" s="184"/>
-      <c r="AN22" s="184"/>
-      <c r="AO22" s="184"/>
-      <c r="AP22" s="184"/>
+      <c r="AM22" s="197"/>
+      <c r="AN22" s="197"/>
+      <c r="AO22" s="197"/>
+      <c r="AP22" s="197"/>
       <c r="AQ22" s="47" t="s">
         <v>54</v>
       </c>
@@ -3610,13 +3610,13 @@
       </c>
       <c r="AS22" s="168"/>
       <c r="AT22" s="48"/>
-      <c r="AU22" s="183" t="s">
+      <c r="AU22" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV22" s="184"/>
-      <c r="AW22" s="184"/>
-      <c r="AX22" s="184"/>
-      <c r="AY22" s="206"/>
+      <c r="AV22" s="197"/>
+      <c r="AW22" s="197"/>
+      <c r="AX22" s="197"/>
+      <c r="AY22" s="198"/>
       <c r="AZ22" s="49"/>
       <c r="BA22" s="49">
         <v>30</v>
@@ -3694,13 +3694,13 @@
       </c>
       <c r="AJ23" s="168"/>
       <c r="AK23" s="46"/>
-      <c r="AL23" s="183" t="s">
+      <c r="AL23" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="184"/>
-      <c r="AN23" s="184"/>
-      <c r="AO23" s="184"/>
-      <c r="AP23" s="184"/>
+      <c r="AM23" s="197"/>
+      <c r="AN23" s="197"/>
+      <c r="AO23" s="197"/>
+      <c r="AP23" s="197"/>
       <c r="AQ23" s="47" t="s">
         <v>54</v>
       </c>
@@ -3709,13 +3709,13 @@
       </c>
       <c r="AS23" s="168"/>
       <c r="AT23" s="48"/>
-      <c r="AU23" s="183" t="s">
+      <c r="AU23" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" s="184"/>
-      <c r="AW23" s="184"/>
-      <c r="AX23" s="184"/>
-      <c r="AY23" s="206"/>
+      <c r="AV23" s="197"/>
+      <c r="AW23" s="197"/>
+      <c r="AX23" s="197"/>
+      <c r="AY23" s="198"/>
       <c r="AZ23" s="49"/>
       <c r="BA23" s="49">
         <v>10000</v>
@@ -3795,13 +3795,13 @@
       </c>
       <c r="AJ24" s="168"/>
       <c r="AK24" s="46"/>
-      <c r="AL24" s="183" t="s">
+      <c r="AL24" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM24" s="184"/>
-      <c r="AN24" s="184"/>
-      <c r="AO24" s="184"/>
-      <c r="AP24" s="184"/>
+      <c r="AM24" s="197"/>
+      <c r="AN24" s="197"/>
+      <c r="AO24" s="197"/>
+      <c r="AP24" s="197"/>
       <c r="AQ24" s="47" t="s">
         <v>54</v>
       </c>
@@ -3810,13 +3810,13 @@
       </c>
       <c r="AS24" s="168"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="183" t="s">
+      <c r="AU24" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV24" s="184"/>
-      <c r="AW24" s="184"/>
-      <c r="AX24" s="184"/>
-      <c r="AY24" s="206"/>
+      <c r="AV24" s="197"/>
+      <c r="AW24" s="197"/>
+      <c r="AX24" s="197"/>
+      <c r="AY24" s="198"/>
       <c r="AZ24" s="49"/>
       <c r="BA24" s="49"/>
       <c r="BB24" s="168"/>
@@ -3894,13 +3894,13 @@
       </c>
       <c r="AJ25" s="168"/>
       <c r="AK25" s="46"/>
-      <c r="AL25" s="183" t="s">
+      <c r="AL25" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM25" s="184"/>
-      <c r="AN25" s="184"/>
-      <c r="AO25" s="184"/>
-      <c r="AP25" s="184"/>
+      <c r="AM25" s="197"/>
+      <c r="AN25" s="197"/>
+      <c r="AO25" s="197"/>
+      <c r="AP25" s="197"/>
       <c r="AQ25" s="47" t="s">
         <v>54</v>
       </c>
@@ -3909,13 +3909,13 @@
       </c>
       <c r="AS25" s="168"/>
       <c r="AT25" s="48"/>
-      <c r="AU25" s="183" t="s">
+      <c r="AU25" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV25" s="184"/>
-      <c r="AW25" s="184"/>
-      <c r="AX25" s="184"/>
-      <c r="AY25" s="206"/>
+      <c r="AV25" s="197"/>
+      <c r="AW25" s="197"/>
+      <c r="AX25" s="197"/>
+      <c r="AY25" s="198"/>
       <c r="AZ25" s="49">
         <v>700</v>
       </c>
@@ -3997,13 +3997,13 @@
       </c>
       <c r="AJ26" s="168"/>
       <c r="AK26" s="46"/>
-      <c r="AL26" s="183" t="s">
+      <c r="AL26" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM26" s="184"/>
-      <c r="AN26" s="184"/>
-      <c r="AO26" s="184"/>
-      <c r="AP26" s="184"/>
+      <c r="AM26" s="197"/>
+      <c r="AN26" s="197"/>
+      <c r="AO26" s="197"/>
+      <c r="AP26" s="197"/>
       <c r="AQ26" s="47" t="s">
         <v>54</v>
       </c>
@@ -4012,13 +4012,13 @@
       </c>
       <c r="AS26" s="168"/>
       <c r="AT26" s="48"/>
-      <c r="AU26" s="183" t="s">
+      <c r="AU26" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="184"/>
-      <c r="AW26" s="184"/>
-      <c r="AX26" s="184"/>
-      <c r="AY26" s="206"/>
+      <c r="AV26" s="197"/>
+      <c r="AW26" s="197"/>
+      <c r="AX26" s="197"/>
+      <c r="AY26" s="198"/>
       <c r="AZ26" s="49"/>
       <c r="BA26" s="49">
         <v>3750</v>
@@ -4098,13 +4098,13 @@
       </c>
       <c r="AJ27" s="168"/>
       <c r="AK27" s="46"/>
-      <c r="AL27" s="183" t="s">
+      <c r="AL27" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM27" s="184"/>
-      <c r="AN27" s="184"/>
-      <c r="AO27" s="184"/>
-      <c r="AP27" s="184"/>
+      <c r="AM27" s="197"/>
+      <c r="AN27" s="197"/>
+      <c r="AO27" s="197"/>
+      <c r="AP27" s="197"/>
       <c r="AQ27" s="47" t="s">
         <v>54</v>
       </c>
@@ -4113,13 +4113,13 @@
       </c>
       <c r="AS27" s="168"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="203" t="s">
+      <c r="AU27" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="AV27" s="204"/>
-      <c r="AW27" s="204"/>
-      <c r="AX27" s="204"/>
-      <c r="AY27" s="205"/>
+      <c r="AV27" s="194"/>
+      <c r="AW27" s="194"/>
+      <c r="AX27" s="194"/>
+      <c r="AY27" s="195"/>
       <c r="AZ27" s="49">
         <v>1200</v>
       </c>
@@ -4201,13 +4201,13 @@
       </c>
       <c r="AJ28" s="168"/>
       <c r="AK28" s="46"/>
-      <c r="AL28" s="183" t="s">
+      <c r="AL28" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM28" s="184"/>
-      <c r="AN28" s="184"/>
-      <c r="AO28" s="184"/>
-      <c r="AP28" s="184"/>
+      <c r="AM28" s="197"/>
+      <c r="AN28" s="197"/>
+      <c r="AO28" s="197"/>
+      <c r="AP28" s="197"/>
       <c r="AQ28" s="47" t="s">
         <v>54</v>
       </c>
@@ -4216,13 +4216,13 @@
       </c>
       <c r="AS28" s="168"/>
       <c r="AT28" s="48"/>
-      <c r="AU28" s="203" t="s">
+      <c r="AU28" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AV28" s="204"/>
-      <c r="AW28" s="204"/>
-      <c r="AX28" s="204"/>
-      <c r="AY28" s="205"/>
+      <c r="AV28" s="194"/>
+      <c r="AW28" s="194"/>
+      <c r="AX28" s="194"/>
+      <c r="AY28" s="195"/>
       <c r="AZ28" s="49">
         <v>220</v>
       </c>
@@ -4302,13 +4302,13 @@
       </c>
       <c r="AJ29" s="168"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="183" t="s">
+      <c r="AL29" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM29" s="184"/>
-      <c r="AN29" s="184"/>
-      <c r="AO29" s="184"/>
-      <c r="AP29" s="184"/>
+      <c r="AM29" s="197"/>
+      <c r="AN29" s="197"/>
+      <c r="AO29" s="197"/>
+      <c r="AP29" s="197"/>
       <c r="AQ29" s="47" t="s">
         <v>54</v>
       </c>
@@ -4317,13 +4317,13 @@
       </c>
       <c r="AS29" s="168"/>
       <c r="AT29" s="48"/>
-      <c r="AU29" s="203" t="s">
+      <c r="AU29" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AV29" s="204"/>
-      <c r="AW29" s="204"/>
-      <c r="AX29" s="204"/>
-      <c r="AY29" s="205"/>
+      <c r="AV29" s="194"/>
+      <c r="AW29" s="194"/>
+      <c r="AX29" s="194"/>
+      <c r="AY29" s="195"/>
       <c r="AZ29" s="49">
         <v>175</v>
       </c>
@@ -4403,13 +4403,13 @@
       </c>
       <c r="AJ30" s="168"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="183" t="s">
+      <c r="AL30" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM30" s="184"/>
-      <c r="AN30" s="184"/>
-      <c r="AO30" s="184"/>
-      <c r="AP30" s="184"/>
+      <c r="AM30" s="197"/>
+      <c r="AN30" s="197"/>
+      <c r="AO30" s="197"/>
+      <c r="AP30" s="197"/>
       <c r="AQ30" s="47" t="s">
         <v>54</v>
       </c>
@@ -4418,13 +4418,13 @@
       </c>
       <c r="AS30" s="168"/>
       <c r="AT30" s="48"/>
-      <c r="AU30" s="203" t="s">
+      <c r="AU30" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="AV30" s="204"/>
-      <c r="AW30" s="204"/>
-      <c r="AX30" s="204"/>
-      <c r="AY30" s="205"/>
+      <c r="AV30" s="194"/>
+      <c r="AW30" s="194"/>
+      <c r="AX30" s="194"/>
+      <c r="AY30" s="195"/>
       <c r="AZ30" s="49">
         <v>50</v>
       </c>
@@ -4731,47 +4731,47 @@
         <v>54</v>
       </c>
       <c r="AJ34" s="168"/>
-      <c r="AK34" s="185" t="s">
+      <c r="AK34" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="AL34" s="185"/>
-      <c r="AM34" s="185"/>
-      <c r="AN34" s="185"/>
-      <c r="AO34" s="185"/>
-      <c r="AP34" s="185"/>
-      <c r="AQ34" s="185"/>
-      <c r="AR34" s="185"/>
+      <c r="AL34" s="209"/>
+      <c r="AM34" s="209"/>
+      <c r="AN34" s="209"/>
+      <c r="AO34" s="209"/>
+      <c r="AP34" s="209"/>
+      <c r="AQ34" s="209"/>
+      <c r="AR34" s="209"/>
       <c r="AS34" s="168"/>
-      <c r="AT34" s="185" t="s">
+      <c r="AT34" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="AU34" s="185"/>
-      <c r="AV34" s="185"/>
-      <c r="AW34" s="185"/>
-      <c r="AX34" s="185"/>
-      <c r="AY34" s="185"/>
-      <c r="AZ34" s="185"/>
-      <c r="BA34" s="207"/>
+      <c r="AU34" s="209"/>
+      <c r="AV34" s="209"/>
+      <c r="AW34" s="209"/>
+      <c r="AX34" s="209"/>
+      <c r="AY34" s="209"/>
+      <c r="AZ34" s="209"/>
+      <c r="BA34" s="210"/>
       <c r="BB34" s="168"/>
-      <c r="BC34" s="211" t="s">
+      <c r="BC34" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="BD34" s="212"/>
-      <c r="BE34" s="212"/>
-      <c r="BF34" s="212"/>
-      <c r="BG34" s="212"/>
-      <c r="BH34" s="212"/>
-      <c r="BI34" s="213"/>
+      <c r="BD34" s="225"/>
+      <c r="BE34" s="225"/>
+      <c r="BF34" s="225"/>
+      <c r="BG34" s="225"/>
+      <c r="BH34" s="225"/>
+      <c r="BI34" s="226"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="211" t="s">
+      <c r="BK34" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="BL34" s="212"/>
-      <c r="BM34" s="212"/>
-      <c r="BN34" s="212"/>
-      <c r="BO34" s="212"/>
-      <c r="BP34" s="212"/>
-      <c r="BQ34" s="213"/>
+      <c r="BL34" s="225"/>
+      <c r="BM34" s="225"/>
+      <c r="BN34" s="225"/>
+      <c r="BO34" s="225"/>
+      <c r="BP34" s="225"/>
+      <c r="BQ34" s="226"/>
     </row>
     <row r="35" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="170">
@@ -4826,47 +4826,47 @@
         <v>54</v>
       </c>
       <c r="AJ35" s="168"/>
-      <c r="AK35" s="195" t="s">
+      <c r="AK35" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="AL35" s="185"/>
-      <c r="AM35" s="185"/>
-      <c r="AN35" s="185"/>
-      <c r="AO35" s="185"/>
-      <c r="AP35" s="185"/>
-      <c r="AQ35" s="185"/>
-      <c r="AR35" s="185"/>
+      <c r="AL35" s="209"/>
+      <c r="AM35" s="209"/>
+      <c r="AN35" s="209"/>
+      <c r="AO35" s="209"/>
+      <c r="AP35" s="209"/>
+      <c r="AQ35" s="209"/>
+      <c r="AR35" s="209"/>
       <c r="AS35" s="168"/>
-      <c r="AT35" s="195" t="s">
+      <c r="AT35" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="AU35" s="195"/>
-      <c r="AV35" s="195"/>
-      <c r="AW35" s="195"/>
-      <c r="AX35" s="195"/>
-      <c r="AY35" s="195"/>
-      <c r="AZ35" s="195"/>
-      <c r="BA35" s="196"/>
+      <c r="AU35" s="212"/>
+      <c r="AV35" s="212"/>
+      <c r="AW35" s="212"/>
+      <c r="AX35" s="212"/>
+      <c r="AY35" s="212"/>
+      <c r="AZ35" s="212"/>
+      <c r="BA35" s="213"/>
       <c r="BB35" s="168"/>
-      <c r="BC35" s="208" t="s">
+      <c r="BC35" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="BD35" s="209"/>
-      <c r="BE35" s="209"/>
-      <c r="BF35" s="209"/>
-      <c r="BG35" s="209"/>
-      <c r="BH35" s="209"/>
-      <c r="BI35" s="210"/>
+      <c r="BD35" s="228"/>
+      <c r="BE35" s="228"/>
+      <c r="BF35" s="228"/>
+      <c r="BG35" s="228"/>
+      <c r="BH35" s="228"/>
+      <c r="BI35" s="229"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="208" t="s">
+      <c r="BK35" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="BL35" s="209"/>
-      <c r="BM35" s="209"/>
-      <c r="BN35" s="209"/>
-      <c r="BO35" s="209"/>
-      <c r="BP35" s="209"/>
-      <c r="BQ35" s="210"/>
+      <c r="BL35" s="228"/>
+      <c r="BM35" s="228"/>
+      <c r="BN35" s="228"/>
+      <c r="BO35" s="228"/>
+      <c r="BP35" s="228"/>
+      <c r="BQ35" s="229"/>
     </row>
     <row r="36" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="170">
@@ -4923,14 +4923,14 @@
         <v>54</v>
       </c>
       <c r="AJ36" s="168"/>
-      <c r="AK36" s="197" t="s">
+      <c r="AK36" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="AL36" s="197"/>
-      <c r="AM36" s="197"/>
-      <c r="AN36" s="197"/>
-      <c r="AO36" s="197"/>
-      <c r="AP36" s="197"/>
+      <c r="AL36" s="205"/>
+      <c r="AM36" s="205"/>
+      <c r="AN36" s="205"/>
+      <c r="AO36" s="205"/>
+      <c r="AP36" s="205"/>
       <c r="AQ36" s="141" t="s">
         <v>26</v>
       </c>
@@ -4939,13 +4939,13 @@
       </c>
       <c r="AS36" s="168"/>
       <c r="AT36" s="43"/>
-      <c r="AU36" s="198" t="s">
+      <c r="AU36" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="AV36" s="199"/>
-      <c r="AW36" s="199"/>
-      <c r="AX36" s="199"/>
-      <c r="AY36" s="200"/>
+      <c r="AV36" s="203"/>
+      <c r="AW36" s="203"/>
+      <c r="AX36" s="203"/>
+      <c r="AY36" s="204"/>
       <c r="AZ36" s="156" t="s">
         <v>26</v>
       </c>
@@ -4953,25 +4953,25 @@
         <v>27</v>
       </c>
       <c r="BB36" s="168"/>
-      <c r="BC36" s="219" t="s">
+      <c r="BC36" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="BD36" s="217"/>
-      <c r="BE36" s="217"/>
-      <c r="BF36" s="217"/>
-      <c r="BG36" s="217"/>
-      <c r="BH36" s="217"/>
-      <c r="BI36" s="218"/>
+      <c r="BD36" s="220"/>
+      <c r="BE36" s="220"/>
+      <c r="BF36" s="220"/>
+      <c r="BG36" s="220"/>
+      <c r="BH36" s="220"/>
+      <c r="BI36" s="221"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="219" t="s">
+      <c r="BK36" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="BL36" s="217"/>
-      <c r="BM36" s="217"/>
-      <c r="BN36" s="217"/>
-      <c r="BO36" s="217"/>
-      <c r="BP36" s="217"/>
-      <c r="BQ36" s="218"/>
+      <c r="BL36" s="220"/>
+      <c r="BM36" s="220"/>
+      <c r="BN36" s="220"/>
+      <c r="BO36" s="220"/>
+      <c r="BP36" s="220"/>
+      <c r="BQ36" s="221"/>
     </row>
     <row r="37" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="170">
@@ -5108,8 +5108,8 @@
       <c r="AB38" s="73">
         <v>42947</v>
       </c>
-      <c r="AC38" s="228"/>
-      <c r="AD38" s="229"/>
+      <c r="AC38" s="182"/>
+      <c r="AD38" s="183"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="77"/>
       <c r="AG38" s="78">
@@ -5123,13 +5123,13 @@
       </c>
       <c r="AJ38" s="168"/>
       <c r="AK38" s="46"/>
-      <c r="AL38" s="181" t="s">
+      <c r="AL38" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AM38" s="182"/>
-      <c r="AN38" s="182"/>
-      <c r="AO38" s="182"/>
-      <c r="AP38" s="182"/>
+      <c r="AM38" s="200"/>
+      <c r="AN38" s="200"/>
+      <c r="AO38" s="200"/>
+      <c r="AP38" s="200"/>
       <c r="AQ38" s="47" t="s">
         <v>54</v>
       </c>
@@ -5138,13 +5138,13 @@
       </c>
       <c r="AS38" s="168"/>
       <c r="AT38" s="48"/>
-      <c r="AU38" s="181" t="s">
+      <c r="AU38" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AV38" s="182"/>
-      <c r="AW38" s="182"/>
-      <c r="AX38" s="182"/>
-      <c r="AY38" s="220"/>
+      <c r="AV38" s="200"/>
+      <c r="AW38" s="200"/>
+      <c r="AX38" s="200"/>
+      <c r="AY38" s="201"/>
       <c r="AZ38" s="49">
         <v>2800</v>
       </c>
@@ -5224,13 +5224,13 @@
       </c>
       <c r="AJ39" s="168"/>
       <c r="AK39" s="46"/>
-      <c r="AL39" s="183" t="s">
+      <c r="AL39" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="184"/>
-      <c r="AN39" s="184"/>
-      <c r="AO39" s="184"/>
-      <c r="AP39" s="184"/>
+      <c r="AM39" s="197"/>
+      <c r="AN39" s="197"/>
+      <c r="AO39" s="197"/>
+      <c r="AP39" s="197"/>
       <c r="AQ39" s="47" t="s">
         <v>54</v>
       </c>
@@ -5239,13 +5239,13 @@
       </c>
       <c r="AS39" s="168"/>
       <c r="AT39" s="48"/>
-      <c r="AU39" s="183" t="s">
+      <c r="AU39" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="184"/>
-      <c r="AW39" s="184"/>
-      <c r="AX39" s="184"/>
-      <c r="AY39" s="206"/>
+      <c r="AV39" s="197"/>
+      <c r="AW39" s="197"/>
+      <c r="AX39" s="197"/>
+      <c r="AY39" s="198"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49">
         <v>30</v>
@@ -5329,13 +5329,13 @@
       </c>
       <c r="AJ40" s="168"/>
       <c r="AK40" s="46"/>
-      <c r="AL40" s="183" t="s">
+      <c r="AL40" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM40" s="184"/>
-      <c r="AN40" s="184"/>
-      <c r="AO40" s="184"/>
-      <c r="AP40" s="184"/>
+      <c r="AM40" s="197"/>
+      <c r="AN40" s="197"/>
+      <c r="AO40" s="197"/>
+      <c r="AP40" s="197"/>
       <c r="AQ40" s="47" t="s">
         <v>54</v>
       </c>
@@ -5344,13 +5344,13 @@
       </c>
       <c r="AS40" s="168"/>
       <c r="AT40" s="48"/>
-      <c r="AU40" s="183" t="s">
+      <c r="AU40" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV40" s="184"/>
-      <c r="AW40" s="184"/>
-      <c r="AX40" s="184"/>
-      <c r="AY40" s="206"/>
+      <c r="AV40" s="197"/>
+      <c r="AW40" s="197"/>
+      <c r="AX40" s="197"/>
+      <c r="AY40" s="198"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49">
         <v>10000</v>
@@ -5416,13 +5416,13 @@
       <c r="AI41" s="155"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="46"/>
-      <c r="AL41" s="183" t="s">
+      <c r="AL41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="184"/>
-      <c r="AN41" s="184"/>
-      <c r="AO41" s="184"/>
-      <c r="AP41" s="184"/>
+      <c r="AM41" s="197"/>
+      <c r="AN41" s="197"/>
+      <c r="AO41" s="197"/>
+      <c r="AP41" s="197"/>
       <c r="AQ41" s="47" t="s">
         <v>54</v>
       </c>
@@ -5431,13 +5431,13 @@
       </c>
       <c r="AS41" s="168"/>
       <c r="AT41" s="48"/>
-      <c r="AU41" s="183" t="s">
+      <c r="AU41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV41" s="184"/>
-      <c r="AW41" s="184"/>
-      <c r="AX41" s="184"/>
-      <c r="AY41" s="206"/>
+      <c r="AV41" s="197"/>
+      <c r="AW41" s="197"/>
+      <c r="AX41" s="197"/>
+      <c r="AY41" s="198"/>
       <c r="AZ41" s="172" t="s">
         <v>54</v>
       </c>
@@ -5509,13 +5509,13 @@
       <c r="AI42" s="155"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="46"/>
-      <c r="AL42" s="183" t="s">
+      <c r="AL42" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="184"/>
-      <c r="AN42" s="184"/>
-      <c r="AO42" s="184"/>
-      <c r="AP42" s="184"/>
+      <c r="AM42" s="197"/>
+      <c r="AN42" s="197"/>
+      <c r="AO42" s="197"/>
+      <c r="AP42" s="197"/>
       <c r="AQ42" s="47" t="s">
         <v>54</v>
       </c>
@@ -5524,13 +5524,13 @@
       </c>
       <c r="AS42" s="168"/>
       <c r="AT42" s="48"/>
-      <c r="AU42" s="183" t="s">
+      <c r="AU42" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV42" s="184"/>
-      <c r="AW42" s="184"/>
-      <c r="AX42" s="184"/>
-      <c r="AY42" s="206"/>
+      <c r="AV42" s="197"/>
+      <c r="AW42" s="197"/>
+      <c r="AX42" s="197"/>
+      <c r="AY42" s="198"/>
       <c r="AZ42" s="49">
         <v>0</v>
       </c>
@@ -5563,11 +5563,11 @@
         <v>42922</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="224" t="s">
+      <c r="D43" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="225"/>
-      <c r="F43" s="225"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
       <c r="H43" s="22"/>
       <c r="I43" s="132"/>
       <c r="J43" s="16"/>
@@ -5602,13 +5602,13 @@
       <c r="AI43" s="155"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="46"/>
-      <c r="AL43" s="183" t="s">
+      <c r="AL43" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM43" s="184"/>
-      <c r="AN43" s="184"/>
-      <c r="AO43" s="184"/>
-      <c r="AP43" s="184"/>
+      <c r="AM43" s="197"/>
+      <c r="AN43" s="197"/>
+      <c r="AO43" s="197"/>
+      <c r="AP43" s="197"/>
       <c r="AQ43" s="47" t="s">
         <v>54</v>
       </c>
@@ -5617,13 +5617,13 @@
       </c>
       <c r="AS43" s="168"/>
       <c r="AT43" s="48"/>
-      <c r="AU43" s="183" t="s">
+      <c r="AU43" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV43" s="184"/>
-      <c r="AW43" s="184"/>
-      <c r="AX43" s="184"/>
-      <c r="AY43" s="206"/>
+      <c r="AV43" s="197"/>
+      <c r="AW43" s="197"/>
+      <c r="AX43" s="197"/>
+      <c r="AY43" s="198"/>
       <c r="AZ43" s="49" t="s">
         <v>54</v>
       </c>
@@ -5676,36 +5676,36 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="163"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="178" t="s">
+      <c r="S44" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="179"/>
-      <c r="U44" s="179"/>
-      <c r="V44" s="179"/>
-      <c r="W44" s="179"/>
-      <c r="X44" s="179"/>
-      <c r="Y44" s="179"/>
-      <c r="Z44" s="179"/>
+      <c r="T44" s="215"/>
+      <c r="U44" s="215"/>
+      <c r="V44" s="215"/>
+      <c r="W44" s="215"/>
+      <c r="X44" s="215"/>
+      <c r="Y44" s="215"/>
+      <c r="Z44" s="215"/>
       <c r="AA44" s="168"/>
-      <c r="AB44" s="178" t="s">
+      <c r="AB44" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="AC44" s="179"/>
-      <c r="AD44" s="179"/>
-      <c r="AE44" s="179"/>
-      <c r="AF44" s="179"/>
-      <c r="AG44" s="179"/>
-      <c r="AH44" s="179"/>
-      <c r="AI44" s="179"/>
+      <c r="AC44" s="215"/>
+      <c r="AD44" s="215"/>
+      <c r="AE44" s="215"/>
+      <c r="AF44" s="215"/>
+      <c r="AG44" s="215"/>
+      <c r="AH44" s="215"/>
+      <c r="AI44" s="215"/>
       <c r="AJ44" s="168"/>
       <c r="AK44" s="46"/>
-      <c r="AL44" s="183" t="s">
+      <c r="AL44" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM44" s="184"/>
-      <c r="AN44" s="184"/>
-      <c r="AO44" s="184"/>
-      <c r="AP44" s="184"/>
+      <c r="AM44" s="197"/>
+      <c r="AN44" s="197"/>
+      <c r="AO44" s="197"/>
+      <c r="AP44" s="197"/>
       <c r="AQ44" s="47" t="s">
         <v>54</v>
       </c>
@@ -5714,13 +5714,13 @@
       </c>
       <c r="AS44" s="168"/>
       <c r="AT44" s="48"/>
-      <c r="AU44" s="203" t="s">
+      <c r="AU44" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="AV44" s="204"/>
-      <c r="AW44" s="204"/>
-      <c r="AX44" s="204"/>
-      <c r="AY44" s="205"/>
+      <c r="AV44" s="194"/>
+      <c r="AW44" s="194"/>
+      <c r="AX44" s="194"/>
+      <c r="AY44" s="195"/>
       <c r="AZ44" s="49">
         <v>0</v>
       </c>
@@ -5795,13 +5795,13 @@
       </c>
       <c r="AJ45" s="168"/>
       <c r="AK45" s="46"/>
-      <c r="AL45" s="183" t="s">
+      <c r="AL45" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM45" s="184"/>
-      <c r="AN45" s="184"/>
-      <c r="AO45" s="184"/>
-      <c r="AP45" s="184"/>
+      <c r="AM45" s="197"/>
+      <c r="AN45" s="197"/>
+      <c r="AO45" s="197"/>
+      <c r="AP45" s="197"/>
       <c r="AQ45" s="47" t="s">
         <v>54</v>
       </c>
@@ -5810,13 +5810,13 @@
       </c>
       <c r="AS45" s="168"/>
       <c r="AT45" s="48"/>
-      <c r="AU45" s="203" t="s">
+      <c r="AU45" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AV45" s="204"/>
-      <c r="AW45" s="204"/>
-      <c r="AX45" s="204"/>
-      <c r="AY45" s="205"/>
+      <c r="AV45" s="194"/>
+      <c r="AW45" s="194"/>
+      <c r="AX45" s="194"/>
+      <c r="AY45" s="195"/>
       <c r="AZ45" s="49">
         <v>0</v>
       </c>
@@ -5883,13 +5883,13 @@
       </c>
       <c r="AJ46" s="168"/>
       <c r="AK46" s="46"/>
-      <c r="AL46" s="183" t="s">
+      <c r="AL46" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM46" s="184"/>
-      <c r="AN46" s="184"/>
-      <c r="AO46" s="184"/>
-      <c r="AP46" s="184"/>
+      <c r="AM46" s="197"/>
+      <c r="AN46" s="197"/>
+      <c r="AO46" s="197"/>
+      <c r="AP46" s="197"/>
       <c r="AQ46" s="47" t="s">
         <v>54</v>
       </c>
@@ -5898,13 +5898,13 @@
       </c>
       <c r="AS46" s="168"/>
       <c r="AT46" s="48"/>
-      <c r="AU46" s="203" t="s">
+      <c r="AU46" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AV46" s="204"/>
-      <c r="AW46" s="204"/>
-      <c r="AX46" s="204"/>
-      <c r="AY46" s="205"/>
+      <c r="AV46" s="194"/>
+      <c r="AW46" s="194"/>
+      <c r="AX46" s="194"/>
+      <c r="AY46" s="195"/>
       <c r="AZ46" s="49">
         <v>0</v>
       </c>
@@ -5967,13 +5967,13 @@
       </c>
       <c r="AJ47" s="168"/>
       <c r="AK47" s="46"/>
-      <c r="AL47" s="183" t="s">
+      <c r="AL47" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM47" s="184"/>
-      <c r="AN47" s="184"/>
-      <c r="AO47" s="184"/>
-      <c r="AP47" s="184"/>
+      <c r="AM47" s="197"/>
+      <c r="AN47" s="197"/>
+      <c r="AO47" s="197"/>
+      <c r="AP47" s="197"/>
       <c r="AQ47" s="47" t="s">
         <v>54</v>
       </c>
@@ -5982,13 +5982,13 @@
       </c>
       <c r="AS47" s="168"/>
       <c r="AT47" s="48"/>
-      <c r="AU47" s="203" t="s">
+      <c r="AU47" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="AV47" s="204"/>
-      <c r="AW47" s="204"/>
-      <c r="AX47" s="204"/>
-      <c r="AY47" s="205"/>
+      <c r="AV47" s="194"/>
+      <c r="AW47" s="194"/>
+      <c r="AX47" s="194"/>
+      <c r="AY47" s="195"/>
       <c r="AZ47" s="49">
         <v>0</v>
       </c>
@@ -5996,25 +5996,25 @@
         <v>54</v>
       </c>
       <c r="BB47" s="168"/>
-      <c r="BC47" s="192" t="s">
+      <c r="BC47" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BD47" s="193"/>
-      <c r="BE47" s="193"/>
-      <c r="BF47" s="193"/>
-      <c r="BG47" s="193"/>
-      <c r="BH47" s="193"/>
-      <c r="BI47" s="194"/>
+      <c r="BD47" s="217"/>
+      <c r="BE47" s="217"/>
+      <c r="BF47" s="217"/>
+      <c r="BG47" s="217"/>
+      <c r="BH47" s="217"/>
+      <c r="BI47" s="218"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="192" t="s">
+      <c r="BK47" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BL47" s="193"/>
-      <c r="BM47" s="193"/>
-      <c r="BN47" s="193"/>
-      <c r="BO47" s="193"/>
-      <c r="BP47" s="193"/>
-      <c r="BQ47" s="194"/>
+      <c r="BL47" s="217"/>
+      <c r="BM47" s="217"/>
+      <c r="BN47" s="217"/>
+      <c r="BO47" s="217"/>
+      <c r="BP47" s="217"/>
+      <c r="BQ47" s="218"/>
     </row>
     <row r="48" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="171"/>
@@ -6095,25 +6095,25 @@
         <v>11435</v>
       </c>
       <c r="BB48" s="168"/>
-      <c r="BC48" s="186" t="s">
+      <c r="BC48" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="BD48" s="187"/>
-      <c r="BE48" s="187"/>
-      <c r="BF48" s="187"/>
-      <c r="BG48" s="187"/>
-      <c r="BH48" s="187"/>
-      <c r="BI48" s="188"/>
+      <c r="BD48" s="232"/>
+      <c r="BE48" s="232"/>
+      <c r="BF48" s="232"/>
+      <c r="BG48" s="232"/>
+      <c r="BH48" s="232"/>
+      <c r="BI48" s="233"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="186" t="s">
+      <c r="BK48" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="BL48" s="187"/>
-      <c r="BM48" s="187"/>
-      <c r="BN48" s="187"/>
-      <c r="BO48" s="187"/>
-      <c r="BP48" s="187"/>
-      <c r="BQ48" s="188"/>
+      <c r="BL48" s="232"/>
+      <c r="BM48" s="232"/>
+      <c r="BN48" s="232"/>
+      <c r="BO48" s="232"/>
+      <c r="BP48" s="232"/>
+      <c r="BQ48" s="233"/>
     </row>
     <row r="49" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="170">
@@ -6186,27 +6186,27 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="189" t="str">
+      <c r="BC49" s="236" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BD49" s="190"/>
-      <c r="BE49" s="190"/>
-      <c r="BF49" s="190"/>
-      <c r="BG49" s="190"/>
-      <c r="BH49" s="190"/>
-      <c r="BI49" s="191"/>
+      <c r="BD49" s="237"/>
+      <c r="BE49" s="237"/>
+      <c r="BF49" s="237"/>
+      <c r="BG49" s="237"/>
+      <c r="BH49" s="237"/>
+      <c r="BI49" s="238"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="189" t="str">
+      <c r="BK49" s="236" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="BL49" s="190"/>
-      <c r="BM49" s="190"/>
-      <c r="BN49" s="190"/>
-      <c r="BO49" s="190"/>
-      <c r="BP49" s="190"/>
-      <c r="BQ49" s="191"/>
+      <c r="BL49" s="237"/>
+      <c r="BM49" s="237"/>
+      <c r="BN49" s="237"/>
+      <c r="BO49" s="237"/>
+      <c r="BP49" s="237"/>
+      <c r="BQ49" s="238"/>
     </row>
     <row r="50" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="170">
@@ -6352,27 +6352,27 @@
         <v>54</v>
       </c>
       <c r="AJ51" s="168"/>
-      <c r="AK51" s="185" t="s">
+      <c r="AK51" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="AL51" s="185"/>
-      <c r="AM51" s="185"/>
-      <c r="AN51" s="185"/>
-      <c r="AO51" s="185"/>
-      <c r="AP51" s="185"/>
-      <c r="AQ51" s="185"/>
-      <c r="AR51" s="185"/>
+      <c r="AL51" s="209"/>
+      <c r="AM51" s="209"/>
+      <c r="AN51" s="209"/>
+      <c r="AO51" s="209"/>
+      <c r="AP51" s="209"/>
+      <c r="AQ51" s="209"/>
+      <c r="AR51" s="209"/>
       <c r="AS51" s="168"/>
-      <c r="AT51" s="185" t="s">
+      <c r="AT51" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="AU51" s="185"/>
-      <c r="AV51" s="185"/>
-      <c r="AW51" s="185"/>
-      <c r="AX51" s="185"/>
-      <c r="AY51" s="185"/>
-      <c r="AZ51" s="185"/>
-      <c r="BA51" s="207"/>
+      <c r="AU51" s="209"/>
+      <c r="AV51" s="209"/>
+      <c r="AW51" s="209"/>
+      <c r="AX51" s="209"/>
+      <c r="AY51" s="209"/>
+      <c r="AZ51" s="209"/>
+      <c r="BA51" s="210"/>
       <c r="BB51" s="168"/>
       <c r="BC51" s="23"/>
       <c r="BD51" s="98" t="s">
@@ -6448,27 +6448,27 @@
         <v>54</v>
       </c>
       <c r="AJ52" s="168"/>
-      <c r="AK52" s="195" t="s">
+      <c r="AK52" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="AL52" s="185"/>
-      <c r="AM52" s="185"/>
-      <c r="AN52" s="185"/>
-      <c r="AO52" s="185"/>
-      <c r="AP52" s="185"/>
-      <c r="AQ52" s="185"/>
-      <c r="AR52" s="185"/>
+      <c r="AL52" s="209"/>
+      <c r="AM52" s="209"/>
+      <c r="AN52" s="209"/>
+      <c r="AO52" s="209"/>
+      <c r="AP52" s="209"/>
+      <c r="AQ52" s="209"/>
+      <c r="AR52" s="209"/>
       <c r="AS52" s="168"/>
-      <c r="AT52" s="195" t="s">
+      <c r="AT52" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="AU52" s="195"/>
-      <c r="AV52" s="195"/>
-      <c r="AW52" s="195"/>
-      <c r="AX52" s="195"/>
-      <c r="AY52" s="195"/>
-      <c r="AZ52" s="195"/>
-      <c r="BA52" s="196"/>
+      <c r="AU52" s="212"/>
+      <c r="AV52" s="212"/>
+      <c r="AW52" s="212"/>
+      <c r="AX52" s="212"/>
+      <c r="AY52" s="212"/>
+      <c r="AZ52" s="212"/>
+      <c r="BA52" s="213"/>
       <c r="BB52" s="168"/>
       <c r="BC52" s="23"/>
       <c r="BD52" s="139"/>
@@ -6542,14 +6542,14 @@
         <v>54</v>
       </c>
       <c r="AJ53" s="168"/>
-      <c r="AK53" s="197" t="s">
+      <c r="AK53" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="AL53" s="197"/>
-      <c r="AM53" s="197"/>
-      <c r="AN53" s="197"/>
-      <c r="AO53" s="197"/>
-      <c r="AP53" s="197"/>
+      <c r="AL53" s="205"/>
+      <c r="AM53" s="205"/>
+      <c r="AN53" s="205"/>
+      <c r="AO53" s="205"/>
+      <c r="AP53" s="205"/>
       <c r="AQ53" s="141" t="s">
         <v>26</v>
       </c>
@@ -6558,13 +6558,13 @@
       </c>
       <c r="AS53" s="168"/>
       <c r="AT53" s="43"/>
-      <c r="AU53" s="198" t="s">
+      <c r="AU53" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="AV53" s="199"/>
-      <c r="AW53" s="199"/>
-      <c r="AX53" s="199"/>
-      <c r="AY53" s="200"/>
+      <c r="AV53" s="203"/>
+      <c r="AW53" s="203"/>
+      <c r="AX53" s="203"/>
+      <c r="AY53" s="204"/>
       <c r="AZ53" s="156" t="s">
         <v>26</v>
       </c>
@@ -6739,13 +6739,13 @@
       </c>
       <c r="AJ55" s="168"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="181" t="s">
+      <c r="AL55" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AM55" s="182"/>
-      <c r="AN55" s="182"/>
-      <c r="AO55" s="182"/>
-      <c r="AP55" s="182"/>
+      <c r="AM55" s="200"/>
+      <c r="AN55" s="200"/>
+      <c r="AO55" s="200"/>
+      <c r="AP55" s="200"/>
       <c r="AQ55" s="47" t="s">
         <v>54</v>
       </c>
@@ -6754,13 +6754,13 @@
       </c>
       <c r="AS55" s="168"/>
       <c r="AT55" s="48"/>
-      <c r="AU55" s="181" t="s">
+      <c r="AU55" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AV55" s="182"/>
-      <c r="AW55" s="182"/>
-      <c r="AX55" s="182"/>
-      <c r="AY55" s="220"/>
+      <c r="AV55" s="200"/>
+      <c r="AW55" s="200"/>
+      <c r="AX55" s="200"/>
+      <c r="AY55" s="201"/>
       <c r="AZ55" s="49">
         <v>5400</v>
       </c>
@@ -6821,13 +6821,13 @@
       <c r="AI56" s="155"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="183" t="s">
+      <c r="AL56" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM56" s="184"/>
-      <c r="AN56" s="184"/>
-      <c r="AO56" s="184"/>
-      <c r="AP56" s="184"/>
+      <c r="AM56" s="197"/>
+      <c r="AN56" s="197"/>
+      <c r="AO56" s="197"/>
+      <c r="AP56" s="197"/>
       <c r="AQ56" s="47" t="s">
         <v>54</v>
       </c>
@@ -6836,13 +6836,13 @@
       </c>
       <c r="AS56" s="168"/>
       <c r="AT56" s="48"/>
-      <c r="AU56" s="183" t="s">
+      <c r="AU56" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV56" s="184"/>
-      <c r="AW56" s="184"/>
-      <c r="AX56" s="184"/>
-      <c r="AY56" s="206"/>
+      <c r="AV56" s="197"/>
+      <c r="AW56" s="197"/>
+      <c r="AX56" s="197"/>
+      <c r="AY56" s="198"/>
       <c r="AZ56" s="49" t="s">
         <v>54</v>
       </c>
@@ -6909,13 +6909,13 @@
       <c r="AI57" s="155"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="183" t="s">
+      <c r="AL57" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="184"/>
-      <c r="AN57" s="184"/>
-      <c r="AO57" s="184"/>
-      <c r="AP57" s="184"/>
+      <c r="AM57" s="197"/>
+      <c r="AN57" s="197"/>
+      <c r="AO57" s="197"/>
+      <c r="AP57" s="197"/>
       <c r="AQ57" s="47" t="s">
         <v>54</v>
       </c>
@@ -6924,13 +6924,13 @@
       </c>
       <c r="AS57" s="168"/>
       <c r="AT57" s="177"/>
-      <c r="AU57" s="221" t="s">
+      <c r="AU57" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="AV57" s="222"/>
-      <c r="AW57" s="222"/>
-      <c r="AX57" s="222"/>
-      <c r="AY57" s="223"/>
+      <c r="AV57" s="207"/>
+      <c r="AW57" s="207"/>
+      <c r="AX57" s="207"/>
+      <c r="AY57" s="208"/>
       <c r="AZ57" s="49" t="s">
         <v>54</v>
       </c>
@@ -6995,13 +6995,13 @@
       <c r="AI58" s="155"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="46"/>
-      <c r="AL58" s="183" t="s">
+      <c r="AL58" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM58" s="184"/>
-      <c r="AN58" s="184"/>
-      <c r="AO58" s="184"/>
-      <c r="AP58" s="184"/>
+      <c r="AM58" s="197"/>
+      <c r="AN58" s="197"/>
+      <c r="AO58" s="197"/>
+      <c r="AP58" s="197"/>
       <c r="AQ58" s="47" t="s">
         <v>54</v>
       </c>
@@ -7010,13 +7010,13 @@
       </c>
       <c r="AS58" s="168"/>
       <c r="AT58" s="177"/>
-      <c r="AU58" s="221" t="s">
+      <c r="AU58" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="AV58" s="222"/>
-      <c r="AW58" s="222"/>
-      <c r="AX58" s="222"/>
-      <c r="AY58" s="223"/>
+      <c r="AV58" s="207"/>
+      <c r="AW58" s="207"/>
+      <c r="AX58" s="207"/>
+      <c r="AY58" s="208"/>
       <c r="AZ58" s="49" t="s">
         <v>54</v>
       </c>
@@ -7058,36 +7058,36 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="178" t="s">
+      <c r="S59" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="179"/>
-      <c r="U59" s="179"/>
-      <c r="V59" s="179"/>
-      <c r="W59" s="179"/>
-      <c r="X59" s="179"/>
-      <c r="Y59" s="179"/>
-      <c r="Z59" s="179"/>
+      <c r="T59" s="215"/>
+      <c r="U59" s="215"/>
+      <c r="V59" s="215"/>
+      <c r="W59" s="215"/>
+      <c r="X59" s="215"/>
+      <c r="Y59" s="215"/>
+      <c r="Z59" s="215"/>
       <c r="AA59" s="168"/>
-      <c r="AB59" s="178" t="s">
+      <c r="AB59" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="179"/>
-      <c r="AD59" s="179"/>
-      <c r="AE59" s="179"/>
-      <c r="AF59" s="179"/>
-      <c r="AG59" s="179"/>
-      <c r="AH59" s="179"/>
-      <c r="AI59" s="179"/>
+      <c r="AC59" s="215"/>
+      <c r="AD59" s="215"/>
+      <c r="AE59" s="215"/>
+      <c r="AF59" s="215"/>
+      <c r="AG59" s="215"/>
+      <c r="AH59" s="215"/>
+      <c r="AI59" s="215"/>
       <c r="AJ59" s="168"/>
       <c r="AK59" s="46"/>
-      <c r="AL59" s="183" t="s">
+      <c r="AL59" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM59" s="184"/>
-      <c r="AN59" s="184"/>
-      <c r="AO59" s="184"/>
-      <c r="AP59" s="184"/>
+      <c r="AM59" s="197"/>
+      <c r="AN59" s="197"/>
+      <c r="AO59" s="197"/>
+      <c r="AP59" s="197"/>
       <c r="AQ59" s="47" t="s">
         <v>54</v>
       </c>
@@ -7096,13 +7096,13 @@
       </c>
       <c r="AS59" s="168"/>
       <c r="AT59" s="48"/>
-      <c r="AU59" s="183" t="s">
+      <c r="AU59" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV59" s="184"/>
-      <c r="AW59" s="184"/>
-      <c r="AX59" s="184"/>
-      <c r="AY59" s="206"/>
+      <c r="AV59" s="197"/>
+      <c r="AW59" s="197"/>
+      <c r="AX59" s="197"/>
+      <c r="AY59" s="198"/>
       <c r="AZ59" s="49">
         <v>700</v>
       </c>
@@ -7191,13 +7191,13 @@
       </c>
       <c r="AJ60" s="168"/>
       <c r="AK60" s="46"/>
-      <c r="AL60" s="183" t="s">
+      <c r="AL60" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM60" s="184"/>
-      <c r="AN60" s="184"/>
-      <c r="AO60" s="184"/>
-      <c r="AP60" s="184"/>
+      <c r="AM60" s="197"/>
+      <c r="AN60" s="197"/>
+      <c r="AO60" s="197"/>
+      <c r="AP60" s="197"/>
       <c r="AQ60" s="47" t="s">
         <v>54</v>
       </c>
@@ -7206,13 +7206,13 @@
       </c>
       <c r="AS60" s="168"/>
       <c r="AT60" s="48"/>
-      <c r="AU60" s="183" t="s">
+      <c r="AU60" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV60" s="184"/>
-      <c r="AW60" s="184"/>
-      <c r="AX60" s="184"/>
-      <c r="AY60" s="206"/>
+      <c r="AV60" s="197"/>
+      <c r="AW60" s="197"/>
+      <c r="AX60" s="197"/>
+      <c r="AY60" s="198"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49">
         <v>4050</v>
@@ -7289,13 +7289,13 @@
       </c>
       <c r="AJ61" s="168"/>
       <c r="AK61" s="46"/>
-      <c r="AL61" s="183" t="s">
+      <c r="AL61" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM61" s="184"/>
-      <c r="AN61" s="184"/>
-      <c r="AO61" s="184"/>
-      <c r="AP61" s="184"/>
+      <c r="AM61" s="197"/>
+      <c r="AN61" s="197"/>
+      <c r="AO61" s="197"/>
+      <c r="AP61" s="197"/>
       <c r="AQ61" s="47" t="s">
         <v>54</v>
       </c>
@@ -7304,13 +7304,13 @@
       </c>
       <c r="AS61" s="168"/>
       <c r="AT61" s="48"/>
-      <c r="AU61" s="203" t="s">
+      <c r="AU61" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="AV61" s="204"/>
-      <c r="AW61" s="204"/>
-      <c r="AX61" s="204"/>
-      <c r="AY61" s="205"/>
+      <c r="AV61" s="194"/>
+      <c r="AW61" s="194"/>
+      <c r="AX61" s="194"/>
+      <c r="AY61" s="195"/>
       <c r="AZ61" s="49">
         <v>1200</v>
       </c>
@@ -7387,13 +7387,13 @@
       </c>
       <c r="AJ62" s="168"/>
       <c r="AK62" s="46"/>
-      <c r="AL62" s="183" t="s">
+      <c r="AL62" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM62" s="184"/>
-      <c r="AN62" s="184"/>
-      <c r="AO62" s="184"/>
-      <c r="AP62" s="184"/>
+      <c r="AM62" s="197"/>
+      <c r="AN62" s="197"/>
+      <c r="AO62" s="197"/>
+      <c r="AP62" s="197"/>
       <c r="AQ62" s="47" t="s">
         <v>54</v>
       </c>
@@ -7402,13 +7402,13 @@
       </c>
       <c r="AS62" s="168"/>
       <c r="AT62" s="48"/>
-      <c r="AU62" s="203" t="s">
+      <c r="AU62" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AV62" s="204"/>
-      <c r="AW62" s="204"/>
-      <c r="AX62" s="204"/>
-      <c r="AY62" s="205"/>
+      <c r="AV62" s="194"/>
+      <c r="AW62" s="194"/>
+      <c r="AX62" s="194"/>
+      <c r="AY62" s="195"/>
       <c r="AZ62" s="49">
         <v>450</v>
       </c>
@@ -7485,13 +7485,13 @@
       </c>
       <c r="AJ63" s="168"/>
       <c r="AK63" s="46"/>
-      <c r="AL63" s="183" t="s">
+      <c r="AL63" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM63" s="184"/>
-      <c r="AN63" s="184"/>
-      <c r="AO63" s="184"/>
-      <c r="AP63" s="184"/>
+      <c r="AM63" s="197"/>
+      <c r="AN63" s="197"/>
+      <c r="AO63" s="197"/>
+      <c r="AP63" s="197"/>
       <c r="AQ63" s="47" t="s">
         <v>54</v>
       </c>
@@ -7500,13 +7500,13 @@
       </c>
       <c r="AS63" s="168"/>
       <c r="AT63" s="48"/>
-      <c r="AU63" s="203" t="s">
+      <c r="AU63" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AV63" s="204"/>
-      <c r="AW63" s="204"/>
-      <c r="AX63" s="204"/>
-      <c r="AY63" s="205"/>
+      <c r="AV63" s="194"/>
+      <c r="AW63" s="194"/>
+      <c r="AX63" s="194"/>
+      <c r="AY63" s="195"/>
       <c r="AZ63" s="49">
         <v>145</v>
       </c>
@@ -7577,13 +7577,13 @@
       </c>
       <c r="AJ64" s="168"/>
       <c r="AK64" s="46"/>
-      <c r="AL64" s="183" t="s">
+      <c r="AL64" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM64" s="184"/>
-      <c r="AN64" s="184"/>
-      <c r="AO64" s="184"/>
-      <c r="AP64" s="184"/>
+      <c r="AM64" s="197"/>
+      <c r="AN64" s="197"/>
+      <c r="AO64" s="197"/>
+      <c r="AP64" s="197"/>
       <c r="AQ64" s="47" t="s">
         <v>54</v>
       </c>
@@ -7592,13 +7592,13 @@
       </c>
       <c r="AS64" s="168"/>
       <c r="AT64" s="48"/>
-      <c r="AU64" s="203" t="s">
+      <c r="AU64" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="AV64" s="204"/>
-      <c r="AW64" s="204"/>
-      <c r="AX64" s="204"/>
-      <c r="AY64" s="205"/>
+      <c r="AV64" s="194"/>
+      <c r="AW64" s="194"/>
+      <c r="AX64" s="194"/>
+      <c r="AY64" s="195"/>
       <c r="AZ64" s="49">
         <v>20</v>
       </c>
@@ -7756,13 +7756,13 @@
       <c r="M67" s="18">
         <v>43648</v>
       </c>
-      <c r="N67" s="226" t="s">
+      <c r="N67" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="O67" s="227">
+      <c r="O67" s="181">
         <v>250</v>
       </c>
-      <c r="P67" s="227"/>
+      <c r="P67" s="181"/>
       <c r="Q67" s="167"/>
       <c r="R67" s="1"/>
       <c r="S67" s="110"/>
@@ -7813,25 +7813,25 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="192" t="s">
+      <c r="BC67" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BD67" s="193"/>
-      <c r="BE67" s="193"/>
-      <c r="BF67" s="193"/>
-      <c r="BG67" s="193"/>
-      <c r="BH67" s="193"/>
-      <c r="BI67" s="194"/>
+      <c r="BD67" s="217"/>
+      <c r="BE67" s="217"/>
+      <c r="BF67" s="217"/>
+      <c r="BG67" s="217"/>
+      <c r="BH67" s="217"/>
+      <c r="BI67" s="218"/>
       <c r="BJ67" s="7"/>
-      <c r="BK67" s="192" t="s">
+      <c r="BK67" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BL67" s="193"/>
-      <c r="BM67" s="193"/>
-      <c r="BN67" s="193"/>
-      <c r="BO67" s="193"/>
-      <c r="BP67" s="193"/>
-      <c r="BQ67" s="194"/>
+      <c r="BL67" s="217"/>
+      <c r="BM67" s="217"/>
+      <c r="BN67" s="217"/>
+      <c r="BO67" s="217"/>
+      <c r="BP67" s="217"/>
+      <c r="BQ67" s="218"/>
     </row>
     <row r="68" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="22"/>
@@ -7879,47 +7879,47 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="168"/>
-      <c r="AK68" s="185" t="s">
+      <c r="AK68" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="AL68" s="185"/>
-      <c r="AM68" s="185"/>
-      <c r="AN68" s="185"/>
-      <c r="AO68" s="185"/>
-      <c r="AP68" s="185"/>
-      <c r="AQ68" s="185"/>
-      <c r="AR68" s="185"/>
+      <c r="AL68" s="209"/>
+      <c r="AM68" s="209"/>
+      <c r="AN68" s="209"/>
+      <c r="AO68" s="209"/>
+      <c r="AP68" s="209"/>
+      <c r="AQ68" s="209"/>
+      <c r="AR68" s="209"/>
       <c r="AS68" s="168"/>
-      <c r="AT68" s="185" t="s">
+      <c r="AT68" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="AU68" s="185"/>
-      <c r="AV68" s="185"/>
-      <c r="AW68" s="185"/>
-      <c r="AX68" s="185"/>
-      <c r="AY68" s="185"/>
-      <c r="AZ68" s="185"/>
-      <c r="BA68" s="207"/>
+      <c r="AU68" s="209"/>
+      <c r="AV68" s="209"/>
+      <c r="AW68" s="209"/>
+      <c r="AX68" s="209"/>
+      <c r="AY68" s="209"/>
+      <c r="AZ68" s="209"/>
+      <c r="BA68" s="210"/>
       <c r="BB68" s="168"/>
-      <c r="BC68" s="186" t="s">
+      <c r="BC68" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="BD68" s="187"/>
-      <c r="BE68" s="187"/>
-      <c r="BF68" s="187"/>
-      <c r="BG68" s="187"/>
-      <c r="BH68" s="187"/>
-      <c r="BI68" s="188"/>
+      <c r="BD68" s="232"/>
+      <c r="BE68" s="232"/>
+      <c r="BF68" s="232"/>
+      <c r="BG68" s="232"/>
+      <c r="BH68" s="232"/>
+      <c r="BI68" s="233"/>
       <c r="BJ68" s="7"/>
-      <c r="BK68" s="186" t="s">
+      <c r="BK68" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="BL68" s="187"/>
-      <c r="BM68" s="187"/>
-      <c r="BN68" s="187"/>
-      <c r="BO68" s="187"/>
-      <c r="BP68" s="187"/>
-      <c r="BQ68" s="188"/>
+      <c r="BL68" s="232"/>
+      <c r="BM68" s="232"/>
+      <c r="BN68" s="232"/>
+      <c r="BO68" s="232"/>
+      <c r="BP68" s="232"/>
+      <c r="BQ68" s="233"/>
     </row>
     <row r="69" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
@@ -7969,48 +7969,48 @@
         <v>230</v>
       </c>
       <c r="AJ69" s="168"/>
-      <c r="AK69" s="195" t="s">
+      <c r="AK69" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="AL69" s="185"/>
-      <c r="AM69" s="185"/>
-      <c r="AN69" s="185"/>
-      <c r="AO69" s="185"/>
-      <c r="AP69" s="185"/>
-      <c r="AQ69" s="185"/>
-      <c r="AR69" s="185"/>
+      <c r="AL69" s="209"/>
+      <c r="AM69" s="209"/>
+      <c r="AN69" s="209"/>
+      <c r="AO69" s="209"/>
+      <c r="AP69" s="209"/>
+      <c r="AQ69" s="209"/>
+      <c r="AR69" s="209"/>
       <c r="AS69" s="168"/>
-      <c r="AT69" s="195" t="s">
+      <c r="AT69" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="AU69" s="195"/>
-      <c r="AV69" s="195"/>
-      <c r="AW69" s="195"/>
-      <c r="AX69" s="195"/>
-      <c r="AY69" s="195"/>
-      <c r="AZ69" s="195"/>
-      <c r="BA69" s="196"/>
+      <c r="AU69" s="212"/>
+      <c r="AV69" s="212"/>
+      <c r="AW69" s="212"/>
+      <c r="AX69" s="212"/>
+      <c r="AY69" s="212"/>
+      <c r="AZ69" s="212"/>
+      <c r="BA69" s="213"/>
       <c r="BB69" s="168"/>
-      <c r="BC69" s="201" t="str">
+      <c r="BC69" s="222" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD69" s="202"/>
-      <c r="BE69" s="202"/>
-      <c r="BF69" s="202"/>
-      <c r="BG69" s="202"/>
-      <c r="BH69" s="202"/>
+      <c r="BD69" s="223"/>
+      <c r="BE69" s="223"/>
+      <c r="BF69" s="223"/>
+      <c r="BG69" s="223"/>
+      <c r="BH69" s="223"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="7"/>
-      <c r="BK69" s="201" t="str">
+      <c r="BK69" s="222" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL69" s="202"/>
-      <c r="BM69" s="202"/>
-      <c r="BN69" s="202"/>
-      <c r="BO69" s="202"/>
-      <c r="BP69" s="202"/>
+      <c r="BL69" s="223"/>
+      <c r="BM69" s="223"/>
+      <c r="BN69" s="223"/>
+      <c r="BO69" s="223"/>
+      <c r="BP69" s="223"/>
       <c r="BQ69" s="13"/>
     </row>
     <row r="70" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8061,14 +8061,14 @@
         <v>54</v>
       </c>
       <c r="AJ70" s="168"/>
-      <c r="AK70" s="197" t="s">
+      <c r="AK70" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="AL70" s="197"/>
-      <c r="AM70" s="197"/>
-      <c r="AN70" s="197"/>
-      <c r="AO70" s="197"/>
-      <c r="AP70" s="197"/>
+      <c r="AL70" s="205"/>
+      <c r="AM70" s="205"/>
+      <c r="AN70" s="205"/>
+      <c r="AO70" s="205"/>
+      <c r="AP70" s="205"/>
       <c r="AQ70" s="141" t="s">
         <v>26</v>
       </c>
@@ -8077,13 +8077,13 @@
       </c>
       <c r="AS70" s="168"/>
       <c r="AT70" s="43"/>
-      <c r="AU70" s="198" t="s">
+      <c r="AU70" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="AV70" s="199"/>
-      <c r="AW70" s="199"/>
-      <c r="AX70" s="199"/>
-      <c r="AY70" s="200"/>
+      <c r="AV70" s="203"/>
+      <c r="AW70" s="203"/>
+      <c r="AX70" s="203"/>
+      <c r="AY70" s="204"/>
       <c r="AZ70" s="156" t="s">
         <v>26</v>
       </c>
@@ -8246,13 +8246,13 @@
       <c r="AI72" s="155"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="46"/>
-      <c r="AL72" s="181" t="s">
+      <c r="AL72" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AM72" s="182"/>
-      <c r="AN72" s="182"/>
-      <c r="AO72" s="182"/>
-      <c r="AP72" s="182"/>
+      <c r="AM72" s="200"/>
+      <c r="AN72" s="200"/>
+      <c r="AO72" s="200"/>
+      <c r="AP72" s="200"/>
       <c r="AQ72" s="47" t="s">
         <v>54</v>
       </c>
@@ -8261,13 +8261,13 @@
       </c>
       <c r="AS72" s="168"/>
       <c r="AT72" s="48"/>
-      <c r="AU72" s="181" t="s">
+      <c r="AU72" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="AV72" s="182"/>
-      <c r="AW72" s="182"/>
-      <c r="AX72" s="182"/>
-      <c r="AY72" s="220"/>
+      <c r="AV72" s="200"/>
+      <c r="AW72" s="200"/>
+      <c r="AX72" s="200"/>
+      <c r="AY72" s="201"/>
       <c r="AZ72" s="49">
         <v>5400</v>
       </c>
@@ -8330,13 +8330,13 @@
       <c r="AI73" s="155"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="46"/>
-      <c r="AL73" s="183" t="s">
+      <c r="AL73" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AM73" s="184"/>
-      <c r="AN73" s="184"/>
-      <c r="AO73" s="184"/>
-      <c r="AP73" s="184"/>
+      <c r="AM73" s="197"/>
+      <c r="AN73" s="197"/>
+      <c r="AO73" s="197"/>
+      <c r="AP73" s="197"/>
       <c r="AQ73" s="47" t="s">
         <v>54</v>
       </c>
@@ -8345,13 +8345,13 @@
       </c>
       <c r="AS73" s="168"/>
       <c r="AT73" s="48"/>
-      <c r="AU73" s="183" t="s">
+      <c r="AU73" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AV73" s="184"/>
-      <c r="AW73" s="184"/>
-      <c r="AX73" s="184"/>
-      <c r="AY73" s="206"/>
+      <c r="AV73" s="197"/>
+      <c r="AW73" s="197"/>
+      <c r="AX73" s="197"/>
+      <c r="AY73" s="198"/>
       <c r="AZ73" s="49" t="s">
         <v>54</v>
       </c>
@@ -8412,13 +8412,13 @@
       <c r="AI74" s="155"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="46"/>
-      <c r="AL74" s="183" t="s">
+      <c r="AL74" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AM74" s="184"/>
-      <c r="AN74" s="184"/>
-      <c r="AO74" s="184"/>
-      <c r="AP74" s="184"/>
+      <c r="AM74" s="197"/>
+      <c r="AN74" s="197"/>
+      <c r="AO74" s="197"/>
+      <c r="AP74" s="197"/>
       <c r="AQ74" s="47" t="s">
         <v>54</v>
       </c>
@@ -8427,13 +8427,13 @@
       </c>
       <c r="AS74" s="168"/>
       <c r="AT74" s="48"/>
-      <c r="AU74" s="183" t="s">
+      <c r="AU74" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="AV74" s="184"/>
-      <c r="AW74" s="184"/>
-      <c r="AX74" s="184"/>
-      <c r="AY74" s="206"/>
+      <c r="AV74" s="197"/>
+      <c r="AW74" s="197"/>
+      <c r="AX74" s="197"/>
+      <c r="AY74" s="198"/>
       <c r="AZ74" s="49" t="s">
         <v>54</v>
       </c>
@@ -8479,36 +8479,36 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="169"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="178" t="s">
+      <c r="S75" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="T75" s="179"/>
-      <c r="U75" s="179"/>
-      <c r="V75" s="179"/>
-      <c r="W75" s="179"/>
-      <c r="X75" s="179"/>
-      <c r="Y75" s="179"/>
-      <c r="Z75" s="179"/>
+      <c r="T75" s="215"/>
+      <c r="U75" s="215"/>
+      <c r="V75" s="215"/>
+      <c r="W75" s="215"/>
+      <c r="X75" s="215"/>
+      <c r="Y75" s="215"/>
+      <c r="Z75" s="215"/>
       <c r="AA75" s="168"/>
-      <c r="AB75" s="178" t="s">
+      <c r="AB75" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AC75" s="179"/>
-      <c r="AD75" s="179"/>
-      <c r="AE75" s="179"/>
-      <c r="AF75" s="179"/>
-      <c r="AG75" s="179"/>
-      <c r="AH75" s="179"/>
-      <c r="AI75" s="179"/>
+      <c r="AC75" s="215"/>
+      <c r="AD75" s="215"/>
+      <c r="AE75" s="215"/>
+      <c r="AF75" s="215"/>
+      <c r="AG75" s="215"/>
+      <c r="AH75" s="215"/>
+      <c r="AI75" s="215"/>
       <c r="AJ75" s="168"/>
       <c r="AK75" s="46"/>
-      <c r="AL75" s="183" t="s">
+      <c r="AL75" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AM75" s="184"/>
-      <c r="AN75" s="184"/>
-      <c r="AO75" s="184"/>
-      <c r="AP75" s="184"/>
+      <c r="AM75" s="197"/>
+      <c r="AN75" s="197"/>
+      <c r="AO75" s="197"/>
+      <c r="AP75" s="197"/>
       <c r="AQ75" s="47" t="s">
         <v>54</v>
       </c>
@@ -8517,13 +8517,13 @@
       </c>
       <c r="AS75" s="168"/>
       <c r="AT75" s="48"/>
-      <c r="AU75" s="183" t="s">
+      <c r="AU75" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AV75" s="184"/>
-      <c r="AW75" s="184"/>
-      <c r="AX75" s="184"/>
-      <c r="AY75" s="206"/>
+      <c r="AV75" s="197"/>
+      <c r="AW75" s="197"/>
+      <c r="AX75" s="197"/>
+      <c r="AY75" s="198"/>
       <c r="AZ75" s="49" t="s">
         <v>54</v>
       </c>
@@ -8610,13 +8610,13 @@
       </c>
       <c r="AJ76" s="168"/>
       <c r="AK76" s="46"/>
-      <c r="AL76" s="183" t="s">
+      <c r="AL76" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AM76" s="184"/>
-      <c r="AN76" s="184"/>
-      <c r="AO76" s="184"/>
-      <c r="AP76" s="184"/>
+      <c r="AM76" s="197"/>
+      <c r="AN76" s="197"/>
+      <c r="AO76" s="197"/>
+      <c r="AP76" s="197"/>
       <c r="AQ76" s="47" t="s">
         <v>54</v>
       </c>
@@ -8625,13 +8625,13 @@
       </c>
       <c r="AS76" s="168"/>
       <c r="AT76" s="48"/>
-      <c r="AU76" s="183" t="s">
+      <c r="AU76" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AV76" s="184"/>
-      <c r="AW76" s="184"/>
-      <c r="AX76" s="184"/>
-      <c r="AY76" s="206"/>
+      <c r="AV76" s="197"/>
+      <c r="AW76" s="197"/>
+      <c r="AX76" s="197"/>
+      <c r="AY76" s="198"/>
       <c r="AZ76" s="49">
         <v>0</v>
       </c>
@@ -8690,33 +8690,33 @@
         <v>54</v>
       </c>
       <c r="AA77" s="168"/>
-      <c r="AB77" s="230">
+      <c r="AB77" s="184">
         <v>42887</v>
       </c>
-      <c r="AC77" s="231"/>
-      <c r="AD77" s="232"/>
-      <c r="AE77" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF77" s="234"/>
-      <c r="AG77" s="235">
+      <c r="AC77" s="185"/>
+      <c r="AD77" s="186"/>
+      <c r="AE77" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="188"/>
+      <c r="AG77" s="189">
         <v>10000</v>
       </c>
-      <c r="AH77" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI77" s="236">
+      <c r="AH77" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI77" s="190">
         <v>10000</v>
       </c>
       <c r="AJ77" s="168"/>
       <c r="AK77" s="46"/>
-      <c r="AL77" s="183" t="s">
+      <c r="AL77" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AM77" s="184"/>
-      <c r="AN77" s="184"/>
-      <c r="AO77" s="184"/>
-      <c r="AP77" s="184"/>
+      <c r="AM77" s="197"/>
+      <c r="AN77" s="197"/>
+      <c r="AO77" s="197"/>
+      <c r="AP77" s="197"/>
       <c r="AQ77" s="47" t="s">
         <v>54</v>
       </c>
@@ -8725,13 +8725,13 @@
       </c>
       <c r="AS77" s="168"/>
       <c r="AT77" s="48"/>
-      <c r="AU77" s="183" t="s">
+      <c r="AU77" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AV77" s="184"/>
-      <c r="AW77" s="184"/>
-      <c r="AX77" s="184"/>
-      <c r="AY77" s="206"/>
+      <c r="AV77" s="197"/>
+      <c r="AW77" s="197"/>
+      <c r="AX77" s="197"/>
+      <c r="AY77" s="198"/>
       <c r="AZ77" s="49" t="s">
         <v>54</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="AB78" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AC78" s="237"/>
-      <c r="AD78" s="238"/>
+      <c r="AC78" s="191"/>
+      <c r="AD78" s="192"/>
       <c r="AE78" s="76" t="s">
         <v>54</v>
       </c>
@@ -8808,13 +8808,13 @@
       </c>
       <c r="AJ78" s="168"/>
       <c r="AK78" s="46"/>
-      <c r="AL78" s="183" t="s">
+      <c r="AL78" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AM78" s="184"/>
-      <c r="AN78" s="184"/>
-      <c r="AO78" s="184"/>
-      <c r="AP78" s="184"/>
+      <c r="AM78" s="197"/>
+      <c r="AN78" s="197"/>
+      <c r="AO78" s="197"/>
+      <c r="AP78" s="197"/>
       <c r="AQ78" s="47" t="s">
         <v>54</v>
       </c>
@@ -8823,13 +8823,13 @@
       </c>
       <c r="AS78" s="168"/>
       <c r="AT78" s="48"/>
-      <c r="AU78" s="203" t="s">
+      <c r="AU78" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="AV78" s="204"/>
-      <c r="AW78" s="204"/>
-      <c r="AX78" s="204"/>
-      <c r="AY78" s="205"/>
+      <c r="AV78" s="194"/>
+      <c r="AW78" s="194"/>
+      <c r="AX78" s="194"/>
+      <c r="AY78" s="195"/>
       <c r="AZ78" s="49">
         <v>0</v>
       </c>
@@ -8908,13 +8908,13 @@
       </c>
       <c r="AJ79" s="168"/>
       <c r="AK79" s="46"/>
-      <c r="AL79" s="183" t="s">
+      <c r="AL79" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="184"/>
-      <c r="AN79" s="184"/>
-      <c r="AO79" s="184"/>
-      <c r="AP79" s="184"/>
+      <c r="AM79" s="197"/>
+      <c r="AN79" s="197"/>
+      <c r="AO79" s="197"/>
+      <c r="AP79" s="197"/>
       <c r="AQ79" s="47" t="s">
         <v>54</v>
       </c>
@@ -8923,13 +8923,13 @@
       </c>
       <c r="AS79" s="168"/>
       <c r="AT79" s="48"/>
-      <c r="AU79" s="203" t="s">
+      <c r="AU79" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AV79" s="204"/>
-      <c r="AW79" s="204"/>
-      <c r="AX79" s="204"/>
-      <c r="AY79" s="205"/>
+      <c r="AV79" s="194"/>
+      <c r="AW79" s="194"/>
+      <c r="AX79" s="194"/>
+      <c r="AY79" s="195"/>
       <c r="AZ79" s="49">
         <v>0</v>
       </c>
@@ -9006,13 +9006,13 @@
       </c>
       <c r="AJ80" s="168"/>
       <c r="AK80" s="46"/>
-      <c r="AL80" s="183" t="s">
+      <c r="AL80" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="AM80" s="184"/>
-      <c r="AN80" s="184"/>
-      <c r="AO80" s="184"/>
-      <c r="AP80" s="184"/>
+      <c r="AM80" s="197"/>
+      <c r="AN80" s="197"/>
+      <c r="AO80" s="197"/>
+      <c r="AP80" s="197"/>
       <c r="AQ80" s="47" t="s">
         <v>54</v>
       </c>
@@ -9021,13 +9021,13 @@
       </c>
       <c r="AS80" s="168"/>
       <c r="AT80" s="48"/>
-      <c r="AU80" s="203" t="s">
+      <c r="AU80" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AV80" s="204"/>
-      <c r="AW80" s="204"/>
-      <c r="AX80" s="204"/>
-      <c r="AY80" s="205"/>
+      <c r="AV80" s="194"/>
+      <c r="AW80" s="194"/>
+      <c r="AX80" s="194"/>
+      <c r="AY80" s="195"/>
       <c r="AZ80" s="49">
         <v>0</v>
       </c>
@@ -9092,13 +9092,13 @@
       <c r="AI81" s="155"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="46"/>
-      <c r="AL81" s="183" t="s">
+      <c r="AL81" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AM81" s="184"/>
-      <c r="AN81" s="184"/>
-      <c r="AO81" s="184"/>
-      <c r="AP81" s="184"/>
+      <c r="AM81" s="197"/>
+      <c r="AN81" s="197"/>
+      <c r="AO81" s="197"/>
+      <c r="AP81" s="197"/>
       <c r="AQ81" s="47" t="s">
         <v>54</v>
       </c>
@@ -9107,13 +9107,13 @@
       </c>
       <c r="AS81" s="168"/>
       <c r="AT81" s="48"/>
-      <c r="AU81" s="203" t="s">
+      <c r="AU81" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="AV81" s="204"/>
-      <c r="AW81" s="204"/>
-      <c r="AX81" s="204"/>
-      <c r="AY81" s="205"/>
+      <c r="AV81" s="194"/>
+      <c r="AW81" s="194"/>
+      <c r="AX81" s="194"/>
+      <c r="AY81" s="195"/>
       <c r="AZ81" s="49">
         <v>0</v>
       </c>
@@ -9254,27 +9254,27 @@
       </c>
       <c r="Q84" s="169"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="178" t="s">
+      <c r="S84" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="T84" s="179"/>
-      <c r="U84" s="179"/>
-      <c r="V84" s="179"/>
-      <c r="W84" s="179"/>
-      <c r="X84" s="179"/>
-      <c r="Y84" s="179"/>
-      <c r="Z84" s="179"/>
+      <c r="T84" s="215"/>
+      <c r="U84" s="215"/>
+      <c r="V84" s="215"/>
+      <c r="W84" s="215"/>
+      <c r="X84" s="215"/>
+      <c r="Y84" s="215"/>
+      <c r="Z84" s="215"/>
       <c r="AA84" s="168"/>
-      <c r="AB84" s="178" t="s">
+      <c r="AB84" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="AC84" s="179"/>
-      <c r="AD84" s="179"/>
-      <c r="AE84" s="179"/>
-      <c r="AF84" s="179"/>
-      <c r="AG84" s="179"/>
-      <c r="AH84" s="179"/>
-      <c r="AI84" s="179"/>
+      <c r="AC84" s="215"/>
+      <c r="AD84" s="215"/>
+      <c r="AE84" s="215"/>
+      <c r="AF84" s="215"/>
+      <c r="AG84" s="215"/>
+      <c r="AH84" s="215"/>
+      <c r="AI84" s="215"/>
       <c r="AJ84" s="168"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -9294,25 +9294,25 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="192" t="s">
+      <c r="BC84" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BD84" s="193"/>
-      <c r="BE84" s="193"/>
-      <c r="BF84" s="193"/>
-      <c r="BG84" s="193"/>
-      <c r="BH84" s="193"/>
-      <c r="BI84" s="194"/>
+      <c r="BD84" s="217"/>
+      <c r="BE84" s="217"/>
+      <c r="BF84" s="217"/>
+      <c r="BG84" s="217"/>
+      <c r="BH84" s="217"/>
+      <c r="BI84" s="218"/>
       <c r="BJ84" s="7"/>
-      <c r="BK84" s="192" t="s">
+      <c r="BK84" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BL84" s="193"/>
-      <c r="BM84" s="193"/>
-      <c r="BN84" s="193"/>
-      <c r="BO84" s="193"/>
-      <c r="BP84" s="193"/>
-      <c r="BQ84" s="194"/>
+      <c r="BL84" s="217"/>
+      <c r="BM84" s="217"/>
+      <c r="BN84" s="217"/>
+      <c r="BO84" s="217"/>
+      <c r="BP84" s="217"/>
+      <c r="BQ84" s="218"/>
     </row>
     <row r="85" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="14"/>
@@ -9392,25 +9392,25 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="208" t="s">
+      <c r="BC85" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="BD85" s="209"/>
-      <c r="BE85" s="209"/>
-      <c r="BF85" s="209"/>
-      <c r="BG85" s="209"/>
-      <c r="BH85" s="209"/>
-      <c r="BI85" s="210"/>
+      <c r="BD85" s="228"/>
+      <c r="BE85" s="228"/>
+      <c r="BF85" s="228"/>
+      <c r="BG85" s="228"/>
+      <c r="BH85" s="228"/>
+      <c r="BI85" s="229"/>
       <c r="BJ85" s="7"/>
-      <c r="BK85" s="208" t="s">
+      <c r="BK85" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="BL85" s="209"/>
-      <c r="BM85" s="209"/>
-      <c r="BN85" s="209"/>
-      <c r="BO85" s="209"/>
-      <c r="BP85" s="209"/>
-      <c r="BQ85" s="210"/>
+      <c r="BL85" s="228"/>
+      <c r="BM85" s="228"/>
+      <c r="BN85" s="228"/>
+      <c r="BO85" s="228"/>
+      <c r="BP85" s="228"/>
+      <c r="BQ85" s="229"/>
     </row>
     <row r="86" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="22"/>
@@ -9476,26 +9476,26 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="201" t="str">
+      <c r="BC86" s="222" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BD86" s="202"/>
-      <c r="BE86" s="202"/>
-      <c r="BF86" s="202"/>
-      <c r="BG86" s="202"/>
-      <c r="BH86" s="202"/>
+      <c r="BD86" s="223"/>
+      <c r="BE86" s="223"/>
+      <c r="BF86" s="223"/>
+      <c r="BG86" s="223"/>
+      <c r="BH86" s="223"/>
       <c r="BI86" s="13"/>
       <c r="BJ86" s="7"/>
-      <c r="BK86" s="201" t="str">
+      <c r="BK86" s="222" t="str">
         <f ca="1">"For the Month Ended July 31, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended July 31, 2019</v>
       </c>
-      <c r="BL86" s="202"/>
-      <c r="BM86" s="202"/>
-      <c r="BN86" s="202"/>
-      <c r="BO86" s="202"/>
-      <c r="BP86" s="202"/>
+      <c r="BL86" s="223"/>
+      <c r="BM86" s="223"/>
+      <c r="BN86" s="223"/>
+      <c r="BO86" s="223"/>
+      <c r="BP86" s="223"/>
       <c r="BQ86" s="13"/>
     </row>
     <row r="87" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9532,8 +9532,8 @@
       <c r="AB87" s="73">
         <v>42916</v>
       </c>
-      <c r="AC87" s="237"/>
-      <c r="AD87" s="238"/>
+      <c r="AC87" s="191"/>
+      <c r="AD87" s="192"/>
       <c r="AE87" s="76">
         <v>1200</v>
       </c>
@@ -10400,25 +10400,25 @@
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
-      <c r="BC97" s="192" t="s">
+      <c r="BC97" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BD97" s="193"/>
-      <c r="BE97" s="193"/>
-      <c r="BF97" s="193"/>
-      <c r="BG97" s="193"/>
-      <c r="BH97" s="193"/>
-      <c r="BI97" s="194"/>
+      <c r="BD97" s="217"/>
+      <c r="BE97" s="217"/>
+      <c r="BF97" s="217"/>
+      <c r="BG97" s="217"/>
+      <c r="BH97" s="217"/>
+      <c r="BI97" s="218"/>
       <c r="BJ97" s="7"/>
-      <c r="BK97" s="192" t="s">
+      <c r="BK97" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="BL97" s="193"/>
-      <c r="BM97" s="193"/>
-      <c r="BN97" s="193"/>
-      <c r="BO97" s="193"/>
-      <c r="BP97" s="193"/>
-      <c r="BQ97" s="194"/>
+      <c r="BL97" s="217"/>
+      <c r="BM97" s="217"/>
+      <c r="BN97" s="217"/>
+      <c r="BO97" s="217"/>
+      <c r="BP97" s="217"/>
+      <c r="BQ97" s="218"/>
     </row>
     <row r="98" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="22"/>
@@ -10488,25 +10488,25 @@
       <c r="AZ98" s="3"/>
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
-      <c r="BC98" s="186" t="s">
+      <c r="BC98" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="BD98" s="187"/>
-      <c r="BE98" s="187"/>
-      <c r="BF98" s="187"/>
-      <c r="BG98" s="187"/>
-      <c r="BH98" s="187"/>
-      <c r="BI98" s="188"/>
+      <c r="BD98" s="232"/>
+      <c r="BE98" s="232"/>
+      <c r="BF98" s="232"/>
+      <c r="BG98" s="232"/>
+      <c r="BH98" s="232"/>
+      <c r="BI98" s="233"/>
       <c r="BJ98" s="7"/>
-      <c r="BK98" s="186" t="s">
+      <c r="BK98" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="BL98" s="187"/>
-      <c r="BM98" s="187"/>
-      <c r="BN98" s="187"/>
-      <c r="BO98" s="187"/>
-      <c r="BP98" s="187"/>
-      <c r="BQ98" s="188"/>
+      <c r="BL98" s="232"/>
+      <c r="BM98" s="232"/>
+      <c r="BN98" s="232"/>
+      <c r="BO98" s="232"/>
+      <c r="BP98" s="232"/>
+      <c r="BQ98" s="233"/>
     </row>
     <row r="99" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H99" s="40"/>
@@ -10576,27 +10576,27 @@
       <c r="AZ99" s="3"/>
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
-      <c r="BC99" s="189" t="str">
+      <c r="BC99" s="236" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BD99" s="190"/>
-      <c r="BE99" s="190"/>
-      <c r="BF99" s="190"/>
-      <c r="BG99" s="190"/>
-      <c r="BH99" s="190"/>
-      <c r="BI99" s="191"/>
+      <c r="BD99" s="237"/>
+      <c r="BE99" s="237"/>
+      <c r="BF99" s="237"/>
+      <c r="BG99" s="237"/>
+      <c r="BH99" s="237"/>
+      <c r="BI99" s="238"/>
       <c r="BJ99" s="7"/>
-      <c r="BK99" s="189" t="str">
+      <c r="BK99" s="236" t="str">
         <f ca="1">"July 31, "&amp;YEAR(TODAY())</f>
         <v>July 31, 2019</v>
       </c>
-      <c r="BL99" s="190"/>
-      <c r="BM99" s="190"/>
-      <c r="BN99" s="190"/>
-      <c r="BO99" s="190"/>
-      <c r="BP99" s="190"/>
-      <c r="BQ99" s="191"/>
+      <c r="BL99" s="237"/>
+      <c r="BM99" s="237"/>
+      <c r="BN99" s="237"/>
+      <c r="BO99" s="237"/>
+      <c r="BP99" s="237"/>
+      <c r="BQ99" s="238"/>
     </row>
     <row r="100" spans="8:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="22"/>
@@ -10836,27 +10836,27 @@
       </c>
       <c r="Q103" s="165"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="178" t="s">
+      <c r="S103" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="T103" s="179"/>
-      <c r="U103" s="179"/>
-      <c r="V103" s="179"/>
-      <c r="W103" s="179"/>
-      <c r="X103" s="179"/>
-      <c r="Y103" s="179"/>
-      <c r="Z103" s="179"/>
+      <c r="T103" s="215"/>
+      <c r="U103" s="215"/>
+      <c r="V103" s="215"/>
+      <c r="W103" s="215"/>
+      <c r="X103" s="215"/>
+      <c r="Y103" s="215"/>
+      <c r="Z103" s="215"/>
       <c r="AA103" s="168"/>
-      <c r="AB103" s="178" t="s">
+      <c r="AB103" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="AC103" s="179"/>
-      <c r="AD103" s="179"/>
-      <c r="AE103" s="179"/>
-      <c r="AF103" s="179"/>
-      <c r="AG103" s="179"/>
-      <c r="AH103" s="179"/>
-      <c r="AI103" s="179"/>
+      <c r="AC103" s="215"/>
+      <c r="AD103" s="215"/>
+      <c r="AE103" s="215"/>
+      <c r="AF103" s="215"/>
+      <c r="AG103" s="215"/>
+      <c r="AH103" s="215"/>
+      <c r="AI103" s="215"/>
       <c r="AJ103" s="168"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
@@ -11608,27 +11608,27 @@
     </row>
     <row r="114" spans="18:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="58"/>
-      <c r="S114" s="178" t="s">
+      <c r="S114" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="T114" s="179"/>
-      <c r="U114" s="179"/>
-      <c r="V114" s="179"/>
-      <c r="W114" s="179"/>
-      <c r="X114" s="179"/>
-      <c r="Y114" s="179"/>
-      <c r="Z114" s="179"/>
+      <c r="T114" s="215"/>
+      <c r="U114" s="215"/>
+      <c r="V114" s="215"/>
+      <c r="W114" s="215"/>
+      <c r="X114" s="215"/>
+      <c r="Y114" s="215"/>
+      <c r="Z114" s="215"/>
       <c r="AA114" s="168"/>
-      <c r="AB114" s="178" t="s">
+      <c r="AB114" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="AC114" s="179"/>
-      <c r="AD114" s="179"/>
-      <c r="AE114" s="179"/>
-      <c r="AF114" s="179"/>
-      <c r="AG114" s="179"/>
-      <c r="AH114" s="179"/>
-      <c r="AI114" s="179"/>
+      <c r="AC114" s="215"/>
+      <c r="AD114" s="215"/>
+      <c r="AE114" s="215"/>
+      <c r="AF114" s="215"/>
+      <c r="AG114" s="215"/>
+      <c r="AH114" s="215"/>
+      <c r="AI114" s="215"/>
       <c r="AJ114" s="168"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
@@ -12449,27 +12449,27 @@
     </row>
     <row r="131" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R131" s="58"/>
-      <c r="S131" s="178" t="s">
+      <c r="S131" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="179"/>
-      <c r="U131" s="179"/>
-      <c r="V131" s="179"/>
-      <c r="W131" s="179"/>
-      <c r="X131" s="179"/>
-      <c r="Y131" s="179"/>
-      <c r="Z131" s="179"/>
+      <c r="T131" s="215"/>
+      <c r="U131" s="215"/>
+      <c r="V131" s="215"/>
+      <c r="W131" s="215"/>
+      <c r="X131" s="215"/>
+      <c r="Y131" s="215"/>
+      <c r="Z131" s="215"/>
       <c r="AA131" s="168"/>
-      <c r="AB131" s="178" t="s">
+      <c r="AB131" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="AC131" s="179"/>
-      <c r="AD131" s="179"/>
-      <c r="AE131" s="179"/>
-      <c r="AF131" s="179"/>
-      <c r="AG131" s="179"/>
-      <c r="AH131" s="179"/>
-      <c r="AI131" s="179"/>
+      <c r="AC131" s="215"/>
+      <c r="AD131" s="215"/>
+      <c r="AE131" s="215"/>
+      <c r="AF131" s="215"/>
+      <c r="AG131" s="215"/>
+      <c r="AH131" s="215"/>
+      <c r="AI131" s="215"/>
       <c r="AJ131" s="168"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
@@ -13082,27 +13082,27 @@
     </row>
     <row r="144" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R144" s="17"/>
-      <c r="S144" s="178" t="s">
+      <c r="S144" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="T144" s="179"/>
-      <c r="U144" s="179"/>
-      <c r="V144" s="179"/>
-      <c r="W144" s="179"/>
-      <c r="X144" s="179"/>
-      <c r="Y144" s="179"/>
-      <c r="Z144" s="179"/>
+      <c r="T144" s="215"/>
+      <c r="U144" s="215"/>
+      <c r="V144" s="215"/>
+      <c r="W144" s="215"/>
+      <c r="X144" s="215"/>
+      <c r="Y144" s="215"/>
+      <c r="Z144" s="215"/>
       <c r="AA144" s="168"/>
-      <c r="AB144" s="178" t="s">
+      <c r="AB144" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="AC144" s="179"/>
-      <c r="AD144" s="179"/>
-      <c r="AE144" s="179"/>
-      <c r="AF144" s="179"/>
-      <c r="AG144" s="179"/>
-      <c r="AH144" s="179"/>
-      <c r="AI144" s="179"/>
+      <c r="AC144" s="215"/>
+      <c r="AD144" s="215"/>
+      <c r="AE144" s="215"/>
+      <c r="AF144" s="215"/>
+      <c r="AG144" s="215"/>
+      <c r="AH144" s="215"/>
+      <c r="AI144" s="215"/>
       <c r="AJ144" s="168"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
@@ -13821,27 +13821,27 @@
     </row>
     <row r="159" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R159" s="4"/>
-      <c r="S159" s="178" t="s">
+      <c r="S159" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="T159" s="179"/>
-      <c r="U159" s="179"/>
-      <c r="V159" s="179"/>
-      <c r="W159" s="179"/>
-      <c r="X159" s="179"/>
-      <c r="Y159" s="179"/>
-      <c r="Z159" s="179"/>
+      <c r="T159" s="215"/>
+      <c r="U159" s="215"/>
+      <c r="V159" s="215"/>
+      <c r="W159" s="215"/>
+      <c r="X159" s="215"/>
+      <c r="Y159" s="215"/>
+      <c r="Z159" s="215"/>
       <c r="AA159" s="168"/>
-      <c r="AB159" s="178" t="s">
+      <c r="AB159" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AC159" s="179"/>
-      <c r="AD159" s="179"/>
-      <c r="AE159" s="179"/>
-      <c r="AF159" s="179"/>
-      <c r="AG159" s="179"/>
-      <c r="AH159" s="179"/>
-      <c r="AI159" s="179"/>
+      <c r="AC159" s="215"/>
+      <c r="AD159" s="215"/>
+      <c r="AE159" s="215"/>
+      <c r="AF159" s="215"/>
+      <c r="AG159" s="215"/>
+      <c r="AH159" s="215"/>
+      <c r="AI159" s="215"/>
       <c r="AJ159" s="168"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
@@ -14346,27 +14346,27 @@
     </row>
     <row r="170" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R170" s="17"/>
-      <c r="S170" s="178" t="s">
+      <c r="S170" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="T170" s="179"/>
-      <c r="U170" s="179"/>
-      <c r="V170" s="179"/>
-      <c r="W170" s="179"/>
-      <c r="X170" s="179"/>
-      <c r="Y170" s="179"/>
-      <c r="Z170" s="179"/>
+      <c r="T170" s="215"/>
+      <c r="U170" s="215"/>
+      <c r="V170" s="215"/>
+      <c r="W170" s="215"/>
+      <c r="X170" s="215"/>
+      <c r="Y170" s="215"/>
+      <c r="Z170" s="215"/>
       <c r="AA170" s="1"/>
-      <c r="AB170" s="178" t="s">
+      <c r="AB170" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="AC170" s="179"/>
-      <c r="AD170" s="179"/>
-      <c r="AE170" s="179"/>
-      <c r="AF170" s="179"/>
-      <c r="AG170" s="179"/>
-      <c r="AH170" s="179"/>
-      <c r="AI170" s="179"/>
+      <c r="AC170" s="215"/>
+      <c r="AD170" s="215"/>
+      <c r="AE170" s="215"/>
+      <c r="AF170" s="215"/>
+      <c r="AG170" s="215"/>
+      <c r="AH170" s="215"/>
+      <c r="AI170" s="215"/>
       <c r="AJ170" s="1"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
@@ -14879,14 +14879,14 @@
     </row>
     <row r="183" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R183" s="17"/>
-      <c r="S183" s="214"/>
-      <c r="T183" s="214"/>
-      <c r="U183" s="214"/>
-      <c r="V183" s="214"/>
-      <c r="W183" s="214"/>
-      <c r="X183" s="214"/>
-      <c r="Y183" s="214"/>
-      <c r="Z183" s="214"/>
+      <c r="S183" s="234"/>
+      <c r="T183" s="234"/>
+      <c r="U183" s="234"/>
+      <c r="V183" s="234"/>
+      <c r="W183" s="234"/>
+      <c r="X183" s="234"/>
+      <c r="Y183" s="234"/>
+      <c r="Z183" s="234"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
@@ -14918,14 +14918,14 @@
     </row>
     <row r="184" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R184" s="17"/>
-      <c r="S184" s="214"/>
-      <c r="T184" s="214"/>
-      <c r="U184" s="214"/>
-      <c r="V184" s="214"/>
-      <c r="W184" s="214"/>
-      <c r="X184" s="214"/>
-      <c r="Y184" s="214"/>
-      <c r="Z184" s="214"/>
+      <c r="S184" s="234"/>
+      <c r="T184" s="234"/>
+      <c r="U184" s="234"/>
+      <c r="V184" s="234"/>
+      <c r="W184" s="234"/>
+      <c r="X184" s="234"/>
+      <c r="Y184" s="234"/>
+      <c r="Z184" s="234"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
@@ -14957,23 +14957,23 @@
     </row>
     <row r="185" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R185" s="17"/>
-      <c r="S185" s="214"/>
-      <c r="T185" s="214"/>
-      <c r="U185" s="214"/>
-      <c r="V185" s="214"/>
-      <c r="W185" s="214"/>
-      <c r="X185" s="214"/>
-      <c r="Y185" s="214"/>
-      <c r="Z185" s="214"/>
+      <c r="S185" s="234"/>
+      <c r="T185" s="234"/>
+      <c r="U185" s="234"/>
+      <c r="V185" s="234"/>
+      <c r="W185" s="234"/>
+      <c r="X185" s="234"/>
+      <c r="Y185" s="234"/>
+      <c r="Z185" s="234"/>
       <c r="AA185" s="1"/>
-      <c r="AB185" s="215"/>
-      <c r="AC185" s="215"/>
-      <c r="AD185" s="215"/>
-      <c r="AE185" s="215"/>
-      <c r="AF185" s="215"/>
-      <c r="AG185" s="215"/>
-      <c r="AH185" s="215"/>
-      <c r="AI185" s="215"/>
+      <c r="AB185" s="235"/>
+      <c r="AC185" s="235"/>
+      <c r="AD185" s="235"/>
+      <c r="AE185" s="235"/>
+      <c r="AF185" s="235"/>
+      <c r="AG185" s="235"/>
+      <c r="AH185" s="235"/>
+      <c r="AI185" s="235"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
@@ -14996,14 +14996,14 @@
     </row>
     <row r="186" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R186" s="17"/>
-      <c r="S186" s="214"/>
-      <c r="T186" s="214"/>
-      <c r="U186" s="214"/>
-      <c r="V186" s="214"/>
-      <c r="W186" s="214"/>
-      <c r="X186" s="214"/>
-      <c r="Y186" s="214"/>
-      <c r="Z186" s="214"/>
+      <c r="S186" s="234"/>
+      <c r="T186" s="234"/>
+      <c r="U186" s="234"/>
+      <c r="V186" s="234"/>
+      <c r="W186" s="234"/>
+      <c r="X186" s="234"/>
+      <c r="Y186" s="234"/>
+      <c r="Z186" s="234"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="128"/>
       <c r="AC186" s="128"/>
@@ -15035,14 +15035,14 @@
     </row>
     <row r="187" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R187" s="1"/>
-      <c r="S187" s="214"/>
-      <c r="T187" s="214"/>
-      <c r="U187" s="214"/>
-      <c r="V187" s="214"/>
-      <c r="W187" s="214"/>
-      <c r="X187" s="214"/>
-      <c r="Y187" s="214"/>
-      <c r="Z187" s="214"/>
+      <c r="S187" s="234"/>
+      <c r="T187" s="234"/>
+      <c r="U187" s="234"/>
+      <c r="V187" s="234"/>
+      <c r="W187" s="234"/>
+      <c r="X187" s="234"/>
+      <c r="Y187" s="234"/>
+      <c r="Z187" s="234"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
@@ -15074,14 +15074,14 @@
     </row>
     <row r="188" spans="18:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R188" s="1"/>
-      <c r="S188" s="214"/>
-      <c r="T188" s="214"/>
-      <c r="U188" s="214"/>
-      <c r="V188" s="214"/>
-      <c r="W188" s="214"/>
-      <c r="X188" s="214"/>
-      <c r="Y188" s="214"/>
-      <c r="Z188" s="214"/>
+      <c r="S188" s="234"/>
+      <c r="T188" s="234"/>
+      <c r="U188" s="234"/>
+      <c r="V188" s="234"/>
+      <c r="W188" s="234"/>
+      <c r="X188" s="234"/>
+      <c r="Y188" s="234"/>
+      <c r="Z188" s="234"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
@@ -20651,78 +20651,81 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="AU81:AY81"/>
-    <mergeCell ref="AU80:AY80"/>
-    <mergeCell ref="AU79:AY79"/>
-    <mergeCell ref="AU76:AY76"/>
-    <mergeCell ref="AU75:AY75"/>
-    <mergeCell ref="AU74:AY74"/>
-    <mergeCell ref="AU73:AY73"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="AU70:AY70"/>
-    <mergeCell ref="AU77:AY77"/>
-    <mergeCell ref="AU78:AY78"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="AL81:AP81"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AL29:AP29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AU45:AY45"/>
-    <mergeCell ref="AU44:AY44"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AU41:AY41"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="AT17:BA17"/>
-    <mergeCell ref="AT16:AZ16"/>
-    <mergeCell ref="AK16:AQ16"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AT18:BA18"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AL26:AP26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AL24:AP24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AU39:AY39"/>
-    <mergeCell ref="AL40:AP40"/>
-    <mergeCell ref="AU40:AY40"/>
-    <mergeCell ref="AL44:AP44"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="S75:Z75"/>
-    <mergeCell ref="AB75:AI75"/>
-    <mergeCell ref="BC67:BI67"/>
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AL57:AP57"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AT51:BA51"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AK68:AR68"/>
-    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AB44:AI44"/>
+    <mergeCell ref="AK34:AR34"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="BC48:BI48"/>
+    <mergeCell ref="BK48:BQ48"/>
+    <mergeCell ref="BC49:BI49"/>
+    <mergeCell ref="BK49:BQ49"/>
+    <mergeCell ref="BC47:BI47"/>
+    <mergeCell ref="BK47:BQ47"/>
+    <mergeCell ref="AK52:AR52"/>
+    <mergeCell ref="AT52:BA52"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AU53:AY53"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AU47:AY47"/>
+    <mergeCell ref="BK67:BQ67"/>
+    <mergeCell ref="BC68:BI68"/>
+    <mergeCell ref="BK68:BQ68"/>
+    <mergeCell ref="BC69:BH69"/>
+    <mergeCell ref="BK69:BP69"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="AU63:AY63"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="AB59:AI59"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AU61:AY61"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AU62:AY62"/>
+    <mergeCell ref="AT69:BA69"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="AU64:AY64"/>
+    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="AL59:AP59"/>
+    <mergeCell ref="AB103:AI103"/>
+    <mergeCell ref="BC98:BI98"/>
+    <mergeCell ref="BC99:BI99"/>
+    <mergeCell ref="BK97:BQ97"/>
+    <mergeCell ref="BK98:BQ98"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="AB84:AI84"/>
+    <mergeCell ref="BK99:BQ99"/>
+    <mergeCell ref="BK84:BQ84"/>
+    <mergeCell ref="BK85:BQ85"/>
+    <mergeCell ref="BK86:BP86"/>
+    <mergeCell ref="BC84:BI84"/>
+    <mergeCell ref="BC85:BI85"/>
+    <mergeCell ref="BC86:BH86"/>
+    <mergeCell ref="BC97:BI97"/>
+    <mergeCell ref="BC16:BI16"/>
+    <mergeCell ref="BK16:BQ16"/>
+    <mergeCell ref="BC17:BI17"/>
+    <mergeCell ref="BK17:BQ17"/>
+    <mergeCell ref="BC18:BI18"/>
+    <mergeCell ref="BK18:BQ18"/>
+    <mergeCell ref="S188:Z188"/>
+    <mergeCell ref="S185:Z185"/>
+    <mergeCell ref="AB185:AI185"/>
+    <mergeCell ref="S186:Z186"/>
+    <mergeCell ref="S187:Z187"/>
+    <mergeCell ref="S183:Z183"/>
+    <mergeCell ref="S184:Z184"/>
+    <mergeCell ref="S170:Z170"/>
+    <mergeCell ref="AB170:AI170"/>
+    <mergeCell ref="S159:Z159"/>
+    <mergeCell ref="AB159:AI159"/>
+    <mergeCell ref="S144:Z144"/>
+    <mergeCell ref="AB144:AI144"/>
+    <mergeCell ref="S131:Z131"/>
+    <mergeCell ref="AB131:AI131"/>
+    <mergeCell ref="S114:Z114"/>
+    <mergeCell ref="AB114:AI114"/>
+    <mergeCell ref="S103:Z103"/>
     <mergeCell ref="BK19:BQ19"/>
     <mergeCell ref="AK35:AR35"/>
     <mergeCell ref="AT35:BA35"/>
@@ -20747,87 +20750,84 @@
     <mergeCell ref="AU22:AY22"/>
     <mergeCell ref="AL38:AP38"/>
     <mergeCell ref="AU38:AY38"/>
-    <mergeCell ref="BC16:BI16"/>
-    <mergeCell ref="BK16:BQ16"/>
-    <mergeCell ref="BC17:BI17"/>
-    <mergeCell ref="BK17:BQ17"/>
-    <mergeCell ref="BC18:BI18"/>
-    <mergeCell ref="BK18:BQ18"/>
-    <mergeCell ref="S188:Z188"/>
-    <mergeCell ref="S185:Z185"/>
-    <mergeCell ref="AB185:AI185"/>
-    <mergeCell ref="S186:Z186"/>
-    <mergeCell ref="S187:Z187"/>
-    <mergeCell ref="S183:Z183"/>
-    <mergeCell ref="S184:Z184"/>
-    <mergeCell ref="S170:Z170"/>
-    <mergeCell ref="AB170:AI170"/>
-    <mergeCell ref="S159:Z159"/>
-    <mergeCell ref="AB159:AI159"/>
-    <mergeCell ref="S144:Z144"/>
-    <mergeCell ref="AB144:AI144"/>
-    <mergeCell ref="S131:Z131"/>
-    <mergeCell ref="AB131:AI131"/>
-    <mergeCell ref="S114:Z114"/>
-    <mergeCell ref="AB114:AI114"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="AB103:AI103"/>
-    <mergeCell ref="BC98:BI98"/>
-    <mergeCell ref="BC99:BI99"/>
-    <mergeCell ref="BK97:BQ97"/>
-    <mergeCell ref="BK98:BQ98"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="AB84:AI84"/>
-    <mergeCell ref="BK99:BQ99"/>
-    <mergeCell ref="BK84:BQ84"/>
-    <mergeCell ref="BK85:BQ85"/>
-    <mergeCell ref="BK86:BP86"/>
-    <mergeCell ref="BC84:BI84"/>
-    <mergeCell ref="BC85:BI85"/>
-    <mergeCell ref="BC86:BH86"/>
-    <mergeCell ref="BC97:BI97"/>
-    <mergeCell ref="BK67:BQ67"/>
-    <mergeCell ref="BC68:BI68"/>
-    <mergeCell ref="BK68:BQ68"/>
-    <mergeCell ref="BC69:BH69"/>
-    <mergeCell ref="BK69:BP69"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="AU63:AY63"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="AB59:AI59"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AU61:AY61"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AU62:AY62"/>
-    <mergeCell ref="AT69:BA69"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="AU64:AY64"/>
-    <mergeCell ref="AU59:AY59"/>
-    <mergeCell ref="AL59:AP59"/>
-    <mergeCell ref="BC48:BI48"/>
-    <mergeCell ref="BK48:BQ48"/>
-    <mergeCell ref="BC49:BI49"/>
-    <mergeCell ref="BK49:BQ49"/>
-    <mergeCell ref="BC47:BI47"/>
-    <mergeCell ref="BK47:BQ47"/>
-    <mergeCell ref="AK52:AR52"/>
-    <mergeCell ref="AT52:BA52"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="AU47:AY47"/>
+    <mergeCell ref="S75:Z75"/>
+    <mergeCell ref="AB75:AI75"/>
+    <mergeCell ref="BC67:BI67"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AL57:AP57"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AK51:AR51"/>
+    <mergeCell ref="AT51:BA51"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AK68:AR68"/>
+    <mergeCell ref="AK69:AR69"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="AT17:BA17"/>
+    <mergeCell ref="AT16:AZ16"/>
+    <mergeCell ref="AK16:AQ16"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AT18:BA18"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AL26:AP26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AL24:AP24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AL25:AP25"/>
     <mergeCell ref="AB17:AI17"/>
     <mergeCell ref="AB16:AH16"/>
     <mergeCell ref="AL21:AP21"/>
     <mergeCell ref="AL22:AP22"/>
     <mergeCell ref="AL23:AP23"/>
     <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AB44:AI44"/>
-    <mergeCell ref="AK34:AR34"/>
-    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AT34:BA34"/>
+    <mergeCell ref="AU46:AY46"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AL40:AP40"/>
+    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="AL44:AP44"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="AL46:AP46"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="AL81:AP81"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AU81:AY81"/>
+    <mergeCell ref="AU80:AY80"/>
+    <mergeCell ref="AU79:AY79"/>
+    <mergeCell ref="AU76:AY76"/>
+    <mergeCell ref="AU75:AY75"/>
+    <mergeCell ref="AU74:AY74"/>
+    <mergeCell ref="AU73:AY73"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="AU70:AY70"/>
+    <mergeCell ref="AU77:AY77"/>
+    <mergeCell ref="AU78:AY78"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Leave this cell blank." sqref="BD22 BD72"/>
